--- a/EL - Electrical/Cost/EL_A0001.xlsx
+++ b/EL - Electrical/Cost/EL_A0001.xlsx
@@ -93,12 +93,12 @@
     <definedName name="EL_02002_q">'EL Part 1'!#REF!</definedName>
     <definedName name="EL_02002_t">'EL Part 1'!#REF!</definedName>
     <definedName name="EL_A0001">EL_A0001!$B$5</definedName>
-    <definedName name="EL_A0001_f">EL_A0001!$J$84</definedName>
+    <definedName name="EL_A0001_f">EL_A0001!$J$102</definedName>
     <definedName name="El_A0001_m">EL_A0001!$N$65</definedName>
     <definedName name="EL_A0001_p">EL_A0001!$I$74</definedName>
     <definedName name="EL_A0001_pa">EL_A0001!$E$16</definedName>
     <definedName name="EL_A0001_q">EL_A0001!$N$3</definedName>
-    <definedName name="EL_A0001_t">EL_A0001!$I$89</definedName>
+    <definedName name="EL_A0001_t">EL_A0001!$I$107</definedName>
     <definedName name="EL_A0002">EL_A0001!#REF!</definedName>
     <definedName name="EL_A0002_f">EL_A0001!#REF!</definedName>
     <definedName name="EL_A0002_m">EL_A0001!#REF!</definedName>
@@ -314,7 +314,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247">
   <si>
     <t>Petite marche à suivre pour remplir cette merveille qu'est le cost</t>
   </si>
@@ -975,7 +975,7 @@
     <t>Bolt,Grade 8.8 (SAE)</t>
   </si>
   <si>
-    <t>Example : bolt Part 1 on Part 2</t>
+    <t>Regulator redressor</t>
   </si>
   <si>
     <t>mm</t>
@@ -987,7 +987,22 @@
     <t>Nut, Grade 8.8 (SAE 5)</t>
   </si>
   <si>
-    <t>Retaining Ring, External</t>
+    <t>Master switch brackets</t>
+  </si>
+  <si>
+    <t>M3 on ground brackets</t>
+  </si>
+  <si>
+    <t>Hook and Loop, Hook Side (Velcro)</t>
+  </si>
+  <si>
+    <t>cm^2</t>
+  </si>
+  <si>
+    <t>Hook and Loop, Loop Side (Velcro)</t>
+  </si>
+  <si>
+    <t>Tie trap</t>
   </si>
   <si>
     <t>Tooling</t>
@@ -1103,22 +1118,22 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="14">
-    <numFmt numFmtId="176" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00.;_-[$$-409]* \-??_ ;_-@_ "/>
+    <numFmt numFmtId="176" formatCode="h:mm\ AM/PM"/>
     <numFmt numFmtId="177" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* \-??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="178" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="179" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* \-??_);_(@_)"/>
+    <numFmt numFmtId="180" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="181" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* \-??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="182" formatCode="_(* #,##0_);_(* \(#,##0\);_(* \-??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="183" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
+    <numFmt numFmtId="184" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00.;_-[$$-409]* \-??_ ;_-@_ "/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="180" formatCode="h:mm\ AM/PM"/>
-    <numFmt numFmtId="181" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* \-??_);_(@_)"/>
-    <numFmt numFmtId="182" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="183" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
-    <numFmt numFmtId="184" formatCode="_(* #,##0_);_(* \(#,##0\);_(* \-??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="185" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="186" formatCode="&quot;$&quot;#,##0.00_);&quot;($&quot;#,##0.00\)"/>
+    <numFmt numFmtId="185" formatCode="&quot;$&quot;#,##0.00_);&quot;($&quot;#,##0.00\)"/>
+    <numFmt numFmtId="186" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="43">
+  <fonts count="42">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1165,14 +1180,6 @@
       <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1263,29 +1270,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -1293,17 +1277,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1316,7 +1294,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1330,24 +1308,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1368,14 +1352,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -1383,10 +1367,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1399,9 +1384,31 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -1487,13 +1494,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1511,7 +1584,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1523,25 +1620,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1553,109 +1650,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2022,21 +2029,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFD0D7E5"/>
       </left>
@@ -2062,6 +2054,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="22"/>
       </left>
       <right style="thin">
@@ -2078,6 +2085,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -2085,28 +2103,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2126,15 +2127,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2149,164 +2141,179 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="38" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="180" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="28" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="37" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="20" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="28" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="14" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="37" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="24" fillId="13" borderId="33">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="28" fillId="13" borderId="33">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="186" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="186" fontId="0" fillId="0" borderId="31">
+    <xf numFmtId="185" fontId="0" fillId="0" borderId="30">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="36" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="185">
+  <cellXfs count="186">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -2333,7 +2340,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="9" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="181" fontId="3" fillId="0" borderId="9" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -2348,7 +2355,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="9" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="3" fillId="0" borderId="9" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2378,19 +2385,19 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="11" fontId="3" fillId="0" borderId="9" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="9" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="9" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="3" fillId="3" borderId="9" xfId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="3" fillId="3" borderId="9" xfId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="181" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="37" fontId="3" fillId="0" borderId="9" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="181" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="3" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="181" fontId="3" fillId="0" borderId="3" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="37" fontId="3" fillId="0" borderId="3" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="9" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -2421,7 +2428,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="49" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="37" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="49" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2430,38 +2437,38 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="17" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="181" fontId="3" fillId="0" borderId="17" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="2" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="181" fontId="2" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="183" fontId="3" fillId="0" borderId="3" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="183" fontId="3" fillId="0" borderId="17" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="3" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="3" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="11" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="11" fontId="3" fillId="0" borderId="3" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="3" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="3" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="3" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="184" fontId="3" fillId="0" borderId="3" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="182" fontId="3" fillId="0" borderId="3" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="17" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="184" fontId="3" fillId="0" borderId="17" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="184" fontId="3" fillId="0" borderId="9" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="182" fontId="3" fillId="0" borderId="17" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="182" fontId="3" fillId="0" borderId="9" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="177" fontId="3" fillId="0" borderId="3" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="184" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="184" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -2478,162 +2485,163 @@
     <xf numFmtId="37" fontId="3" fillId="0" borderId="3" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="37" fontId="3" fillId="4" borderId="3" xfId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="181" fontId="2" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="46"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="46" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="22" xfId="46" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="23" xfId="46" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="24" xfId="46" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="25" xfId="46" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="46" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="26" xfId="46" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="25" xfId="46" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="46"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="46" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="22" xfId="46" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="23" xfId="46" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="24" xfId="46" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="25" xfId="46" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="46" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="26" xfId="46" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="25" xfId="46" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="27" xfId="46" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="25" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="27" xfId="46" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="25" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="46" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="46" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="46" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="46" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="46" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="46" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="180" fontId="18" fillId="8" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="17" fillId="8" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="180" fontId="18" fillId="9" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="17" fillId="9" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="180" fontId="18" fillId="9" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="17" fillId="9" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="180" fontId="18" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="28" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="46" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="46" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="46" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="46" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="18" fillId="8" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="177" fontId="17" fillId="8" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="18" fillId="9" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="177" fontId="17" fillId="9" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="11" fontId="18" fillId="9" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="11" fontId="17" fillId="9" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="43" fontId="18" fillId="0" borderId="28" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="37" fontId="18" fillId="8" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="37" fontId="17" fillId="8" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="177" fontId="18" fillId="8" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="17" fillId="8" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="37" fontId="18" fillId="9" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="37" fontId="17" fillId="9" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="177" fontId="18" fillId="9" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="17" fillId="9" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="177" fontId="18" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="17" fillId="0" borderId="28" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="8" fillId="11" borderId="29" xfId="46" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="7" fillId="11" borderId="29" xfId="46" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="18" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="18" fillId="8" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="17" fillId="8" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="18" fillId="9" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="17" fillId="9" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="56">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Monétaire 2" xfId="2"/>
-    <cellStyle name="Currency 2" xfId="3"/>
-    <cellStyle name="Comma 2" xfId="4"/>
+    <cellStyle name="Comma 2" xfId="1"/>
+    <cellStyle name="Currency 2" xfId="2"/>
+    <cellStyle name="Monétaire 2" xfId="3"/>
+    <cellStyle name="Normal 2" xfId="4"/>
     <cellStyle name="60% - Accent6" xfId="5" builtinId="52"/>
     <cellStyle name="40% - Accent6" xfId="6" builtinId="51"/>
     <cellStyle name="60% - Accent5" xfId="7" builtinId="48"/>
@@ -3504,15 +3512,15 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="182" t="s">
+      <c r="A1" s="183" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="183" t="s">
+      <c r="A3" s="184" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="184" t="s">
+      <c r="B3" s="185" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3542,7 +3550,7 @@
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="184" t="s">
+      <c r="A10" s="185" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3572,13 +3580,13 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="183" t="s">
+      <c r="A18" s="184" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="184" t="s">
+      <c r="B18" s="185" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="184"/>
+      <c r="C18" s="185"/>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
@@ -3591,10 +3599,10 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="183" t="s">
+      <c r="A23" s="184" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="184" t="s">
+      <c r="B23" s="185" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3629,7 +3637,7 @@
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="184" t="s">
+      <c r="A31" s="185" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3659,10 +3667,10 @@
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="183" t="s">
+      <c r="A39" s="184" t="s">
         <v>31</v>
       </c>
-      <c r="B39" s="184" t="s">
+      <c r="B39" s="185" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3682,10 +3690,10 @@
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="183" t="s">
+      <c r="A45" s="184" t="s">
         <v>36</v>
       </c>
-      <c r="B45" s="184" t="s">
+      <c r="B45" s="185" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3730,10 +3738,10 @@
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="183" t="s">
+      <c r="A57" s="184" t="s">
         <v>46</v>
       </c>
-      <c r="B57" s="184" t="s">
+      <c r="B57" s="185" t="s">
         <v>47</v>
       </c>
     </row>
@@ -3753,10 +3761,10 @@
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="183" t="s">
+      <c r="A63" s="184" t="s">
         <v>51</v>
       </c>
-      <c r="B63" s="184" t="s">
+      <c r="B63" s="185" t="s">
         <v>52</v>
       </c>
     </row>
@@ -3826,12 +3834,12 @@
       </c>
     </row>
     <row r="80" spans="1:1">
-      <c r="A80" s="184" t="s">
+      <c r="A80" s="185" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="82" spans="1:1">
-      <c r="A82" s="182" t="s">
+      <c r="A82" s="183" t="s">
         <v>65</v>
       </c>
     </row>
@@ -3930,7 +3938,7 @@
         <v>98</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
@@ -3978,7 +3986,7 @@
         <v>107</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="7" t="s">
@@ -4008,7 +4016,7 @@
         <v>99</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -4052,7 +4060,7 @@
         <v>105</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -4135,10 +4143,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="D11" s="20">
         <v>1</v>
@@ -4152,7 +4160,7 @@
       <c r="G11" s="19"/>
       <c r="H11" s="39"/>
       <c r="I11" s="47" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="J11" s="48">
         <f>(E11*10^-3)^2*3.14</f>
@@ -4252,10 +4260,10 @@
         <v>10</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="D15" s="29">
         <v>1.3</v>
@@ -4284,10 +4292,10 @@
         <v>20</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="D16" s="20">
         <v>0.01</v>
@@ -4299,7 +4307,7 @@
         <v>135.8913</v>
       </c>
       <c r="G16" s="27" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="H16" s="33">
         <v>2.5</v>
@@ -4579,7 +4587,7 @@
         <v>106</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C29" s="25" t="s">
         <v>111</v>
@@ -4594,10 +4602,10 @@
         <v>82</v>
       </c>
       <c r="G29" s="25" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="H29" s="25" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="I29" s="25" t="s">
         <v>109</v>
@@ -4614,16 +4622,16 @@
         <v>10</v>
       </c>
       <c r="B30" s="31" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="C30" s="31" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="D30" s="20">
         <v>500</v>
       </c>
       <c r="E30" s="31" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="F30" s="31">
         <v>5</v>
@@ -4684,7 +4692,7 @@
       <c r="N32" s="9"/>
       <c r="O32" s="58"/>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" ht="13.5" spans="1:15">
       <c r="A33" s="37"/>
       <c r="B33" s="38"/>
       <c r="C33" s="38"/>
@@ -4739,7 +4747,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="66" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B1" s="66" t="str">
         <f>EL_01003</f>
@@ -4846,7 +4854,7 @@
         <v>98</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
@@ -4894,7 +4902,7 @@
         <v>107</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="7" t="s">
@@ -4924,7 +4932,7 @@
         <v>99</v>
       </c>
       <c r="B6" s="67" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -4968,7 +4976,7 @@
         <v>105</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -5051,10 +5059,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="D11" s="20">
         <v>2.25</v>
@@ -5072,7 +5080,7 @@
         <v>202</v>
       </c>
       <c r="I11" s="47" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="J11" s="48">
         <f>(E11*10^-3)*(G11*10^-3)</f>
@@ -5172,10 +5180,10 @@
         <v>10</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="D15" s="29">
         <v>1.3</v>
@@ -5187,7 +5195,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="71" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="H15" s="71">
         <v>0.5</v>
@@ -5208,10 +5216,10 @@
         <v>20</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="D16" s="20">
         <v>0.01</v>
@@ -5223,7 +5231,7 @@
         <v>5.66</v>
       </c>
       <c r="G16" s="27" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="H16" s="33">
         <v>2.5</v>
@@ -5278,7 +5286,7 @@
       <c r="N18" s="9"/>
       <c r="O18" s="58"/>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" ht="13.5" spans="1:15">
       <c r="A19" s="37"/>
       <c r="B19" s="38"/>
       <c r="C19" s="38"/>
@@ -5334,7 +5342,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="66" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B1" s="66" t="str">
         <f>EL_01005</f>
@@ -5442,7 +5450,7 @@
         <v>98</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
@@ -5490,7 +5498,7 @@
         <v>107</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="7" t="s">
@@ -5520,7 +5528,7 @@
         <v>99</v>
       </c>
       <c r="B6" s="67" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -5564,7 +5572,7 @@
         <v>105</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -5647,10 +5655,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="D11" s="20">
         <v>2.25</v>
@@ -5668,7 +5676,7 @@
         <v>202</v>
       </c>
       <c r="I11" s="47" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="J11" s="48">
         <f>(E11*10^-3)*(G11*10^-3)</f>
@@ -5768,10 +5776,10 @@
         <v>10</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="D15" s="29">
         <v>1.3</v>
@@ -5800,10 +5808,10 @@
         <v>20</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="D16" s="20">
         <v>0.01</v>
@@ -5813,7 +5821,7 @@
       </c>
       <c r="F16" s="70"/>
       <c r="G16" s="27" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="H16" s="33">
         <v>2.5</v>
@@ -5868,7 +5876,7 @@
       <c r="N18" s="9"/>
       <c r="O18" s="58"/>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" ht="13.5" spans="1:15">
       <c r="A19" s="37"/>
       <c r="B19" s="38"/>
       <c r="C19" s="38"/>
@@ -5923,7 +5931,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="66" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B1" s="66" t="str">
         <f>EL_01006</f>
@@ -6031,7 +6039,7 @@
         <v>98</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
@@ -6079,7 +6087,7 @@
         <v>107</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="7" t="s">
@@ -6109,7 +6117,7 @@
         <v>99</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -6153,7 +6161,7 @@
         <v>105</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -6236,10 +6244,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="D11" s="20">
         <v>1</v>
@@ -6253,7 +6261,7 @@
       <c r="G11" s="19"/>
       <c r="H11" s="39"/>
       <c r="I11" s="47" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="J11" s="48">
         <f>(E11*10^-3)^2*3.14</f>
@@ -6353,10 +6361,10 @@
         <v>10</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="D15" s="29">
         <v>1.3</v>
@@ -6385,10 +6393,10 @@
         <v>20</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="D16" s="20">
         <v>0.01</v>
@@ -6400,7 +6408,7 @@
         <v>135.8913</v>
       </c>
       <c r="G16" s="27" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="H16" s="33">
         <v>2.5</v>
@@ -6680,7 +6688,7 @@
         <v>106</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C29" s="25" t="s">
         <v>111</v>
@@ -6695,10 +6703,10 @@
         <v>82</v>
       </c>
       <c r="G29" s="25" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="H29" s="25" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="I29" s="25" t="s">
         <v>109</v>
@@ -6715,16 +6723,16 @@
         <v>10</v>
       </c>
       <c r="B30" s="31" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="C30" s="31" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="D30" s="20">
         <v>500</v>
       </c>
       <c r="E30" s="31" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="F30" s="31">
         <v>5</v>
@@ -6785,7 +6793,7 @@
       <c r="N32" s="9"/>
       <c r="O32" s="58"/>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" ht="13.5" spans="1:15">
       <c r="A33" s="37"/>
       <c r="B33" s="38"/>
       <c r="C33" s="38"/>
@@ -6839,7 +6847,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B1" s="1" t="str">
         <f>EL_01001</f>
@@ -6876,2732 +6884,2732 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="1" width="17.4285714285714" style="123" customWidth="1"/>
-    <col min="2" max="2" width="28.7142857142857" style="125" customWidth="1"/>
-    <col min="3" max="3" width="13.5714285714286" style="123" customWidth="1"/>
-    <col min="4" max="4" width="10" style="123" customWidth="1"/>
-    <col min="5" max="5" width="25.1428571428571" style="123" customWidth="1"/>
-    <col min="6" max="6" width="39.1428571428571" style="126" customWidth="1"/>
-    <col min="7" max="7" width="14" style="123" customWidth="1"/>
-    <col min="8" max="8" width="11" style="123" customWidth="1"/>
-    <col min="9" max="13" width="10.4285714285714" style="127" customWidth="1"/>
-    <col min="14" max="14" width="9.71428571428571" style="123" customWidth="1"/>
-    <col min="15" max="15" width="11.1428571428571" style="125" customWidth="1"/>
-    <col min="16" max="16384" width="9.14285714285714" style="125"/>
+    <col min="1" max="1" width="17.4285714285714" style="124" customWidth="1"/>
+    <col min="2" max="2" width="28.7142857142857" style="126" customWidth="1"/>
+    <col min="3" max="3" width="13.5714285714286" style="124" customWidth="1"/>
+    <col min="4" max="4" width="10" style="124" customWidth="1"/>
+    <col min="5" max="5" width="25.1428571428571" style="124" customWidth="1"/>
+    <col min="6" max="6" width="39.1428571428571" style="127" customWidth="1"/>
+    <col min="7" max="7" width="14" style="124" customWidth="1"/>
+    <col min="8" max="8" width="11" style="124" customWidth="1"/>
+    <col min="9" max="13" width="10.4285714285714" style="128" customWidth="1"/>
+    <col min="14" max="14" width="9.71428571428571" style="124" customWidth="1"/>
+    <col min="15" max="15" width="11.1428571428571" style="126" customWidth="1"/>
+    <col min="16" max="16384" width="9.14285714285714" style="126"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.5" spans="1:15">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="129" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="129" t="s">
+      <c r="B1" s="130" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="130"/>
-      <c r="M1" s="172" t="s">
+      <c r="D1" s="131"/>
+      <c r="M1" s="173" t="s">
         <v>68</v>
       </c>
-      <c r="N1" s="173"/>
-      <c r="O1" s="174" t="e">
+      <c r="N1" s="174"/>
+      <c r="O1" s="175" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="2" s="119" customFormat="1" ht="13.5" spans="1:6">
-      <c r="A2" s="131" t="s">
+    <row r="2" s="120" customFormat="1" ht="13.5" spans="1:6">
+      <c r="A2" s="132" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="132" t="s">
+      <c r="B2" s="133" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="133"/>
-      <c r="F2" s="155"/>
-    </row>
-    <row r="3" s="119" customFormat="1" ht="14.25" spans="1:6">
-      <c r="A3" s="134" t="s">
+      <c r="C2" s="134"/>
+      <c r="F2" s="156"/>
+    </row>
+    <row r="3" s="120" customFormat="1" ht="14.25" spans="1:6">
+      <c r="A3" s="135" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="135">
+      <c r="B3" s="136">
         <v>2018</v>
       </c>
-      <c r="C3" s="133"/>
-      <c r="F3" s="155"/>
-    </row>
-    <row r="4" s="119" customFormat="1" ht="14.25" spans="1:6">
-      <c r="A4" s="136" t="s">
+      <c r="C3" s="134"/>
+      <c r="F3" s="156"/>
+    </row>
+    <row r="4" s="120" customFormat="1" ht="14.25" spans="1:6">
+      <c r="A4" s="137" t="s">
         <v>72</v>
       </c>
-      <c r="B4" s="137">
+      <c r="B4" s="138">
         <v>81</v>
       </c>
-      <c r="C4" s="133"/>
-      <c r="D4" s="130" t="s">
+      <c r="C4" s="134"/>
+      <c r="D4" s="131" t="s">
         <v>73</v>
       </c>
-      <c r="F4" s="155"/>
-    </row>
-    <row r="5" s="120" customFormat="1" ht="13.5" spans="1:6">
-      <c r="A5" s="138"/>
-      <c r="B5" s="139"/>
-      <c r="C5" s="140"/>
-      <c r="F5" s="156"/>
-    </row>
-    <row r="6" s="121" customFormat="1" ht="49.5" customHeight="1" spans="1:15">
-      <c r="A6" s="141" t="s">
+      <c r="F4" s="156"/>
+    </row>
+    <row r="5" s="121" customFormat="1" ht="13.5" spans="1:6">
+      <c r="A5" s="139"/>
+      <c r="B5" s="140"/>
+      <c r="C5" s="141"/>
+      <c r="F5" s="157"/>
+    </row>
+    <row r="6" s="122" customFormat="1" ht="49.5" customHeight="1" spans="1:15">
+      <c r="A6" s="142" t="s">
         <v>74</v>
       </c>
-      <c r="B6" s="142" t="s">
+      <c r="B6" s="143" t="s">
         <v>75</v>
       </c>
-      <c r="C6" s="142" t="s">
+      <c r="C6" s="143" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="142" t="s">
+      <c r="D6" s="143" t="s">
         <v>77</v>
       </c>
-      <c r="E6" s="142" t="s">
+      <c r="E6" s="143" t="s">
         <v>78</v>
       </c>
-      <c r="F6" s="142" t="s">
+      <c r="F6" s="143" t="s">
         <v>79</v>
       </c>
-      <c r="G6" s="142" t="s">
+      <c r="G6" s="143" t="s">
         <v>80</v>
       </c>
-      <c r="H6" s="157" t="s">
+      <c r="H6" s="158" t="s">
         <v>81</v>
       </c>
-      <c r="I6" s="142" t="s">
+      <c r="I6" s="143" t="s">
         <v>82</v>
       </c>
-      <c r="J6" s="142" t="s">
+      <c r="J6" s="143" t="s">
         <v>83</v>
       </c>
-      <c r="K6" s="142" t="s">
+      <c r="K6" s="143" t="s">
         <v>84</v>
       </c>
-      <c r="L6" s="142" t="s">
+      <c r="L6" s="143" t="s">
         <v>85</v>
       </c>
-      <c r="M6" s="142" t="s">
+      <c r="M6" s="143" t="s">
         <v>86</v>
       </c>
-      <c r="N6" s="175" t="s">
+      <c r="N6" s="176" t="s">
         <v>87</v>
       </c>
-      <c r="O6" s="142" t="s">
+      <c r="O6" s="143" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="7" ht="12.75" spans="1:15">
-      <c r="A7" s="143"/>
-      <c r="B7" s="144" t="str">
+      <c r="A7" s="144"/>
+      <c r="B7" s="145" t="str">
         <f>EL_A0001!B3</f>
         <v>Electrical</v>
       </c>
-      <c r="C7" s="145" t="str">
+      <c r="C7" s="146" t="str">
         <f>EL_A0001</f>
         <v>EL_A0001</v>
       </c>
-      <c r="D7" s="145" t="s">
+      <c r="D7" s="146" t="s">
         <v>89</v>
       </c>
-      <c r="E7" s="145"/>
-      <c r="F7" s="158" t="str">
+      <c r="E7" s="146"/>
+      <c r="F7" s="159" t="str">
         <f>EL_A0001!B4</f>
         <v>Rear firewall instruments and wires</v>
       </c>
-      <c r="G7" s="145"/>
-      <c r="H7" s="159">
+      <c r="G7" s="146"/>
+      <c r="H7" s="160">
         <f t="shared" ref="H7:H17" si="0">SUM(J7:M7)</f>
-        <v>1114.01</v>
-      </c>
-      <c r="I7" s="165">
+        <v>1110.48333333333</v>
+      </c>
+      <c r="I7" s="166">
         <f>EL_A0001_q</f>
         <v>1</v>
       </c>
-      <c r="J7" s="166">
+      <c r="J7" s="167">
         <f>El_A0001_m</f>
         <v>1107.35</v>
       </c>
-      <c r="K7" s="166">
+      <c r="K7" s="167">
         <f>EL_A0001_p</f>
         <v>1</v>
       </c>
-      <c r="L7" s="166">
+      <c r="L7" s="167">
         <f>EL_A0001_f</f>
-        <v>0.66</v>
-      </c>
-      <c r="M7" s="166">
+        <v>0.3</v>
+      </c>
+      <c r="M7" s="167">
         <f>EL_A0001_t</f>
-        <v>5</v>
-      </c>
-      <c r="N7" s="176">
+        <v>1.83333333333333</v>
+      </c>
+      <c r="N7" s="177">
         <f t="shared" ref="N7:N17" si="1">H7*I7</f>
-        <v>1114.01</v>
-      </c>
-      <c r="O7" s="177"/>
+        <v>1110.48333333333</v>
+      </c>
+      <c r="O7" s="178"/>
     </row>
     <row r="8" ht="12.75" spans="1:15">
-      <c r="A8" s="146"/>
-      <c r="B8" s="147" t="str">
+      <c r="A8" s="147"/>
+      <c r="B8" s="148" t="str">
         <f>EL_A0001!$B$3</f>
         <v>Electrical</v>
       </c>
-      <c r="C8" s="148" t="str">
+      <c r="C8" s="149" t="str">
         <f>EL_01001</f>
         <v>EL 01001</v>
       </c>
-      <c r="D8" s="149" t="s">
+      <c r="D8" s="150" t="s">
         <v>89</v>
       </c>
-      <c r="E8" s="149" t="str">
+      <c r="E8" s="150" t="str">
         <f>F7</f>
         <v>Rear firewall instruments and wires</v>
       </c>
-      <c r="F8" s="160" t="str">
+      <c r="F8" s="161" t="str">
         <f>'EL Part 1'!B5</f>
         <v>Part 1</v>
       </c>
-      <c r="G8" s="149"/>
-      <c r="H8" s="161">
+      <c r="G8" s="150"/>
+      <c r="H8" s="162">
         <f t="shared" si="0"/>
         <v>6.86154879333333</v>
       </c>
-      <c r="I8" s="167">
+      <c r="I8" s="168">
         <f>EL_A0001_q*EL_01001_q</f>
         <v>1</v>
       </c>
-      <c r="J8" s="168">
+      <c r="J8" s="169">
         <f>EL_01001_m</f>
         <v>1.33093296</v>
       </c>
-      <c r="K8" s="168">
+      <c r="K8" s="169">
         <f>EL_01001_p</f>
         <v>4.6972825</v>
       </c>
-      <c r="L8" s="168">
+      <c r="L8" s="169">
         <f>EL_01001_f</f>
         <v>0</v>
       </c>
-      <c r="M8" s="168">
+      <c r="M8" s="169">
         <f>EL_01001_t</f>
         <v>0.833333333333333</v>
       </c>
-      <c r="N8" s="178">
+      <c r="N8" s="179">
         <f t="shared" si="1"/>
         <v>6.86154879333333</v>
       </c>
-      <c r="O8" s="179"/>
+      <c r="O8" s="180"/>
     </row>
     <row r="9" ht="12.75" spans="1:15">
-      <c r="A9" s="146"/>
-      <c r="B9" s="147" t="str">
+      <c r="A9" s="147"/>
+      <c r="B9" s="148" t="str">
         <f>EL_A0001!$B$3</f>
         <v>Electrical</v>
       </c>
-      <c r="C9" s="149"/>
-      <c r="D9" s="149" t="s">
+      <c r="C9" s="150"/>
+      <c r="D9" s="150" t="s">
         <v>89</v>
       </c>
-      <c r="E9" s="149"/>
-      <c r="F9" s="147"/>
-      <c r="G9" s="149"/>
-      <c r="H9" s="161">
+      <c r="E9" s="150"/>
+      <c r="F9" s="148"/>
+      <c r="G9" s="150"/>
+      <c r="H9" s="162">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I9" s="169"/>
-      <c r="J9" s="168"/>
-      <c r="K9" s="168"/>
-      <c r="L9" s="168"/>
-      <c r="M9" s="168"/>
-      <c r="N9" s="178">
+      <c r="I9" s="170"/>
+      <c r="J9" s="169"/>
+      <c r="K9" s="169"/>
+      <c r="L9" s="169"/>
+      <c r="M9" s="169"/>
+      <c r="N9" s="179">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O9" s="179"/>
+      <c r="O9" s="180"/>
     </row>
     <row r="10" ht="12.75" spans="1:15">
-      <c r="A10" s="146"/>
-      <c r="B10" s="147" t="str">
+      <c r="A10" s="147"/>
+      <c r="B10" s="148" t="str">
         <f>EL_A0001!$B$3</f>
         <v>Electrical</v>
       </c>
-      <c r="C10" s="149"/>
-      <c r="D10" s="149" t="s">
+      <c r="C10" s="150"/>
+      <c r="D10" s="150" t="s">
         <v>89</v>
       </c>
-      <c r="E10" s="149"/>
-      <c r="F10" s="147"/>
-      <c r="G10" s="149"/>
-      <c r="H10" s="161">
+      <c r="E10" s="150"/>
+      <c r="F10" s="148"/>
+      <c r="G10" s="150"/>
+      <c r="H10" s="162">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I10" s="169"/>
-      <c r="J10" s="168"/>
-      <c r="K10" s="168"/>
-      <c r="L10" s="168"/>
-      <c r="M10" s="168"/>
-      <c r="N10" s="178">
+      <c r="I10" s="170"/>
+      <c r="J10" s="169"/>
+      <c r="K10" s="169"/>
+      <c r="L10" s="169"/>
+      <c r="M10" s="169"/>
+      <c r="N10" s="179">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O10" s="179"/>
+      <c r="O10" s="180"/>
     </row>
     <row r="11" ht="12.75" spans="1:15">
-      <c r="A11" s="146"/>
-      <c r="B11" s="147" t="str">
+      <c r="A11" s="147"/>
+      <c r="B11" s="148" t="str">
         <f>EL_A0001!$B$3</f>
         <v>Electrical</v>
       </c>
-      <c r="C11" s="149"/>
-      <c r="D11" s="149" t="s">
+      <c r="C11" s="150"/>
+      <c r="D11" s="150" t="s">
         <v>89</v>
       </c>
-      <c r="E11" s="149"/>
-      <c r="F11" s="147"/>
-      <c r="G11" s="149"/>
-      <c r="H11" s="161">
+      <c r="E11" s="150"/>
+      <c r="F11" s="148"/>
+      <c r="G11" s="150"/>
+      <c r="H11" s="162">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I11" s="169"/>
-      <c r="J11" s="168"/>
-      <c r="K11" s="168"/>
-      <c r="L11" s="168"/>
-      <c r="M11" s="168"/>
-      <c r="N11" s="178">
+      <c r="I11" s="170"/>
+      <c r="J11" s="169"/>
+      <c r="K11" s="169"/>
+      <c r="L11" s="169"/>
+      <c r="M11" s="169"/>
+      <c r="N11" s="179">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O11" s="179"/>
+      <c r="O11" s="180"/>
     </row>
     <row r="12" ht="12.75" spans="1:15">
-      <c r="A12" s="146"/>
-      <c r="B12" s="147" t="str">
+      <c r="A12" s="147"/>
+      <c r="B12" s="148" t="str">
         <f>EL_A0001!$B$3</f>
         <v>Electrical</v>
       </c>
-      <c r="C12" s="149"/>
-      <c r="D12" s="149" t="s">
+      <c r="C12" s="150"/>
+      <c r="D12" s="150" t="s">
         <v>89</v>
       </c>
-      <c r="E12" s="149"/>
-      <c r="F12" s="147"/>
-      <c r="G12" s="149"/>
-      <c r="H12" s="161">
+      <c r="E12" s="150"/>
+      <c r="F12" s="148"/>
+      <c r="G12" s="150"/>
+      <c r="H12" s="162">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I12" s="169"/>
-      <c r="J12" s="168"/>
-      <c r="K12" s="168"/>
-      <c r="L12" s="168"/>
-      <c r="M12" s="168"/>
-      <c r="N12" s="178">
+      <c r="I12" s="170"/>
+      <c r="J12" s="169"/>
+      <c r="K12" s="169"/>
+      <c r="L12" s="169"/>
+      <c r="M12" s="169"/>
+      <c r="N12" s="179">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O12" s="179"/>
+      <c r="O12" s="180"/>
     </row>
     <row r="13" ht="12.75" spans="1:15">
-      <c r="A13" s="146"/>
-      <c r="B13" s="147" t="str">
+      <c r="A13" s="147"/>
+      <c r="B13" s="148" t="str">
         <f>EL_A0001!$B$3</f>
         <v>Electrical</v>
       </c>
-      <c r="C13" s="149"/>
-      <c r="D13" s="149" t="s">
+      <c r="C13" s="150"/>
+      <c r="D13" s="150" t="s">
         <v>89</v>
       </c>
-      <c r="E13" s="149"/>
-      <c r="F13" s="147"/>
-      <c r="G13" s="149"/>
-      <c r="H13" s="161">
+      <c r="E13" s="150"/>
+      <c r="F13" s="148"/>
+      <c r="G13" s="150"/>
+      <c r="H13" s="162">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I13" s="169"/>
-      <c r="J13" s="168"/>
-      <c r="K13" s="168"/>
-      <c r="L13" s="168"/>
-      <c r="M13" s="168"/>
-      <c r="N13" s="178">
+      <c r="I13" s="170"/>
+      <c r="J13" s="169"/>
+      <c r="K13" s="169"/>
+      <c r="L13" s="169"/>
+      <c r="M13" s="169"/>
+      <c r="N13" s="179">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O13" s="179"/>
+      <c r="O13" s="180"/>
     </row>
     <row r="14" ht="12.75" spans="1:15">
-      <c r="A14" s="146"/>
-      <c r="B14" s="147" t="str">
+      <c r="A14" s="147"/>
+      <c r="B14" s="148" t="str">
         <f>EL_A0001!$B$3</f>
         <v>Electrical</v>
       </c>
-      <c r="C14" s="149"/>
-      <c r="D14" s="149" t="s">
+      <c r="C14" s="150"/>
+      <c r="D14" s="150" t="s">
         <v>89</v>
       </c>
-      <c r="E14" s="149"/>
-      <c r="F14" s="147"/>
-      <c r="G14" s="149"/>
-      <c r="H14" s="161">
+      <c r="E14" s="150"/>
+      <c r="F14" s="148"/>
+      <c r="G14" s="150"/>
+      <c r="H14" s="162">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I14" s="169"/>
-      <c r="J14" s="168"/>
-      <c r="K14" s="168"/>
-      <c r="L14" s="168"/>
-      <c r="M14" s="168"/>
-      <c r="N14" s="178">
+      <c r="I14" s="170"/>
+      <c r="J14" s="169"/>
+      <c r="K14" s="169"/>
+      <c r="L14" s="169"/>
+      <c r="M14" s="169"/>
+      <c r="N14" s="179">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O14" s="179"/>
+      <c r="O14" s="180"/>
     </row>
     <row r="15" ht="12.75" spans="1:15">
-      <c r="A15" s="146"/>
-      <c r="B15" s="147" t="str">
+      <c r="A15" s="147"/>
+      <c r="B15" s="148" t="str">
         <f>EL_A0001!$B$3</f>
         <v>Electrical</v>
       </c>
-      <c r="C15" s="149"/>
-      <c r="D15" s="149" t="s">
+      <c r="C15" s="150"/>
+      <c r="D15" s="150" t="s">
         <v>89</v>
       </c>
-      <c r="E15" s="149"/>
-      <c r="F15" s="147"/>
-      <c r="G15" s="162"/>
-      <c r="H15" s="161">
+      <c r="E15" s="150"/>
+      <c r="F15" s="148"/>
+      <c r="G15" s="163"/>
+      <c r="H15" s="162">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I15" s="169"/>
-      <c r="J15" s="168"/>
-      <c r="K15" s="168"/>
-      <c r="L15" s="168"/>
-      <c r="M15" s="168"/>
-      <c r="N15" s="178">
+      <c r="I15" s="170"/>
+      <c r="J15" s="169"/>
+      <c r="K15" s="169"/>
+      <c r="L15" s="169"/>
+      <c r="M15" s="169"/>
+      <c r="N15" s="179">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O15" s="179"/>
+      <c r="O15" s="180"/>
     </row>
     <row r="16" ht="12.75" spans="1:15">
-      <c r="A16" s="146"/>
-      <c r="B16" s="147" t="str">
+      <c r="A16" s="147"/>
+      <c r="B16" s="148" t="str">
         <f>EL_A0001!$B$3</f>
         <v>Electrical</v>
       </c>
-      <c r="C16" s="149"/>
-      <c r="D16" s="149" t="s">
+      <c r="C16" s="150"/>
+      <c r="D16" s="150" t="s">
         <v>89</v>
       </c>
-      <c r="E16" s="149"/>
-      <c r="F16" s="147"/>
-      <c r="G16" s="149"/>
-      <c r="H16" s="161">
+      <c r="E16" s="150"/>
+      <c r="F16" s="148"/>
+      <c r="G16" s="150"/>
+      <c r="H16" s="162">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I16" s="169"/>
-      <c r="J16" s="168"/>
-      <c r="K16" s="168"/>
-      <c r="L16" s="168"/>
-      <c r="M16" s="168"/>
-      <c r="N16" s="178">
+      <c r="I16" s="170"/>
+      <c r="J16" s="169"/>
+      <c r="K16" s="169"/>
+      <c r="L16" s="169"/>
+      <c r="M16" s="169"/>
+      <c r="N16" s="179">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O16" s="179"/>
+      <c r="O16" s="180"/>
     </row>
     <row r="17" ht="13.5" spans="1:15">
-      <c r="A17" s="146"/>
-      <c r="B17" s="147" t="str">
+      <c r="A17" s="147"/>
+      <c r="B17" s="148" t="str">
         <f>EL_A0001!$B$3</f>
         <v>Electrical</v>
       </c>
-      <c r="C17" s="149"/>
-      <c r="D17" s="149" t="s">
+      <c r="C17" s="150"/>
+      <c r="D17" s="150" t="s">
         <v>89</v>
       </c>
-      <c r="E17" s="149"/>
-      <c r="F17" s="147"/>
-      <c r="G17" s="149"/>
-      <c r="H17" s="161">
+      <c r="E17" s="150"/>
+      <c r="F17" s="148"/>
+      <c r="G17" s="150"/>
+      <c r="H17" s="162">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I17" s="169"/>
-      <c r="J17" s="168"/>
-      <c r="K17" s="168"/>
-      <c r="L17" s="168"/>
-      <c r="M17" s="168"/>
-      <c r="N17" s="178">
+      <c r="I17" s="170"/>
+      <c r="J17" s="169"/>
+      <c r="K17" s="169"/>
+      <c r="L17" s="169"/>
+      <c r="M17" s="169"/>
+      <c r="N17" s="179">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O17" s="179"/>
-    </row>
-    <row r="18" s="122" customFormat="1" ht="14.25" spans="1:15">
-      <c r="A18" s="150"/>
-      <c r="B18" s="151" t="str">
+      <c r="O17" s="180"/>
+    </row>
+    <row r="18" s="123" customFormat="1" ht="14.25" spans="1:15">
+      <c r="A18" s="151"/>
+      <c r="B18" s="152" t="str">
         <f>EL_A0001!B3</f>
         <v>Electrical</v>
       </c>
-      <c r="C18" s="152"/>
-      <c r="D18" s="152"/>
-      <c r="E18" s="152"/>
-      <c r="F18" s="151" t="s">
+      <c r="C18" s="153"/>
+      <c r="D18" s="153"/>
+      <c r="E18" s="153"/>
+      <c r="F18" s="152" t="s">
         <v>90</v>
       </c>
-      <c r="G18" s="152"/>
-      <c r="H18" s="163"/>
-      <c r="I18" s="170"/>
-      <c r="J18" s="171">
+      <c r="G18" s="153"/>
+      <c r="H18" s="164"/>
+      <c r="I18" s="171"/>
+      <c r="J18" s="172">
         <f t="shared" ref="J18:M18" si="2">SUMPRODUCT($I7:$I17,J7:J17)</f>
         <v>1108.68093296</v>
       </c>
-      <c r="K18" s="171">
+      <c r="K18" s="172">
         <f t="shared" si="2"/>
         <v>5.6972825</v>
       </c>
-      <c r="L18" s="171">
+      <c r="L18" s="172">
         <f t="shared" si="2"/>
-        <v>0.66</v>
-      </c>
-      <c r="M18" s="171">
+        <v>0.3</v>
+      </c>
+      <c r="M18" s="172">
         <f t="shared" si="2"/>
-        <v>5.83333333333333</v>
-      </c>
-      <c r="N18" s="171">
+        <v>2.66666666666667</v>
+      </c>
+      <c r="N18" s="172">
         <f>SUM(N7:N17)</f>
-        <v>1120.87154879333</v>
-      </c>
-      <c r="O18" s="180"/>
-    </row>
-    <row r="19" spans="1:14">
-      <c r="A19" s="153"/>
-      <c r="B19" s="126"/>
-      <c r="C19" s="125"/>
-      <c r="D19" s="125"/>
-      <c r="E19" s="125"/>
-      <c r="F19" s="125"/>
-      <c r="G19" s="125"/>
-      <c r="H19" s="164"/>
-      <c r="I19" s="125"/>
-      <c r="J19" s="125"/>
-      <c r="K19" s="125"/>
-      <c r="L19" s="125"/>
-      <c r="M19" s="125"/>
-      <c r="N19" s="125"/>
+        <v>1117.34488212667</v>
+      </c>
+      <c r="O18" s="181"/>
+    </row>
+    <row r="19" ht="12" spans="1:14">
+      <c r="A19" s="154"/>
+      <c r="B19" s="127"/>
+      <c r="C19" s="126"/>
+      <c r="D19" s="126"/>
+      <c r="E19" s="126"/>
+      <c r="F19" s="126"/>
+      <c r="G19" s="126"/>
+      <c r="H19" s="165"/>
+      <c r="I19" s="126"/>
+      <c r="J19" s="126"/>
+      <c r="K19" s="126"/>
+      <c r="L19" s="126"/>
+      <c r="M19" s="126"/>
+      <c r="N19" s="126"/>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="153"/>
-      <c r="B20" s="126"/>
-      <c r="C20" s="125"/>
-      <c r="D20" s="125"/>
-      <c r="E20" s="125"/>
-      <c r="F20" s="125"/>
-      <c r="G20" s="125"/>
-      <c r="H20" s="164"/>
-      <c r="I20" s="125"/>
-      <c r="J20" s="125"/>
-      <c r="K20" s="125"/>
-      <c r="L20" s="125"/>
-      <c r="M20" s="125"/>
-      <c r="N20" s="125"/>
+      <c r="A20" s="154"/>
+      <c r="B20" s="127"/>
+      <c r="C20" s="126"/>
+      <c r="D20" s="126"/>
+      <c r="E20" s="126"/>
+      <c r="F20" s="126"/>
+      <c r="G20" s="126"/>
+      <c r="H20" s="165"/>
+      <c r="I20" s="126"/>
+      <c r="J20" s="126"/>
+      <c r="K20" s="126"/>
+      <c r="L20" s="126"/>
+      <c r="M20" s="126"/>
+      <c r="N20" s="126"/>
     </row>
     <row r="21" spans="1:14">
-      <c r="A21" s="153"/>
-      <c r="B21" s="153"/>
-      <c r="D21" s="125"/>
-      <c r="E21" s="125"/>
-      <c r="G21" s="125"/>
-      <c r="H21" s="125"/>
-      <c r="I21" s="164"/>
-      <c r="J21" s="164"/>
-      <c r="K21" s="164"/>
-      <c r="L21" s="164"/>
-      <c r="M21" s="164"/>
-      <c r="N21" s="125"/>
+      <c r="A21" s="154"/>
+      <c r="B21" s="154"/>
+      <c r="D21" s="126"/>
+      <c r="E21" s="126"/>
+      <c r="G21" s="126"/>
+      <c r="H21" s="126"/>
+      <c r="I21" s="165"/>
+      <c r="J21" s="165"/>
+      <c r="K21" s="165"/>
+      <c r="L21" s="165"/>
+      <c r="M21" s="165"/>
+      <c r="N21" s="126"/>
     </row>
     <row r="22" spans="1:14">
-      <c r="A22" s="153"/>
-      <c r="B22" s="153"/>
-      <c r="D22" s="125"/>
-      <c r="E22" s="125"/>
-      <c r="G22" s="125"/>
-      <c r="H22" s="125"/>
-      <c r="I22" s="164"/>
-      <c r="J22" s="164"/>
-      <c r="K22" s="164"/>
-      <c r="L22" s="164"/>
-      <c r="M22" s="164"/>
-      <c r="N22" s="181"/>
+      <c r="A22" s="154"/>
+      <c r="B22" s="154"/>
+      <c r="D22" s="126"/>
+      <c r="E22" s="126"/>
+      <c r="G22" s="126"/>
+      <c r="H22" s="126"/>
+      <c r="I22" s="165"/>
+      <c r="J22" s="165"/>
+      <c r="K22" s="165"/>
+      <c r="L22" s="165"/>
+      <c r="M22" s="165"/>
+      <c r="N22" s="182"/>
     </row>
     <row r="23" spans="1:14">
-      <c r="A23" s="153"/>
-      <c r="B23" s="153"/>
-      <c r="D23" s="125"/>
-      <c r="E23" s="125"/>
-      <c r="G23" s="125"/>
-      <c r="H23" s="125"/>
-      <c r="I23" s="164"/>
-      <c r="J23" s="164"/>
-      <c r="K23" s="164"/>
-      <c r="L23" s="164"/>
-      <c r="M23" s="164"/>
-      <c r="N23" s="125"/>
+      <c r="A23" s="154"/>
+      <c r="B23" s="154"/>
+      <c r="D23" s="126"/>
+      <c r="E23" s="126"/>
+      <c r="G23" s="126"/>
+      <c r="H23" s="126"/>
+      <c r="I23" s="165"/>
+      <c r="J23" s="165"/>
+      <c r="K23" s="165"/>
+      <c r="L23" s="165"/>
+      <c r="M23" s="165"/>
+      <c r="N23" s="126"/>
     </row>
     <row r="24" spans="1:14">
-      <c r="A24" s="153"/>
-      <c r="B24" s="153"/>
-      <c r="D24" s="125"/>
-      <c r="E24" s="125"/>
-      <c r="G24" s="125"/>
-      <c r="H24" s="125"/>
-      <c r="I24" s="164"/>
-      <c r="J24" s="164"/>
-      <c r="K24" s="164"/>
-      <c r="L24" s="164"/>
-      <c r="M24" s="164"/>
-      <c r="N24" s="181"/>
+      <c r="A24" s="154"/>
+      <c r="B24" s="154"/>
+      <c r="D24" s="126"/>
+      <c r="E24" s="126"/>
+      <c r="G24" s="126"/>
+      <c r="H24" s="126"/>
+      <c r="I24" s="165"/>
+      <c r="J24" s="165"/>
+      <c r="K24" s="165"/>
+      <c r="L24" s="165"/>
+      <c r="M24" s="165"/>
+      <c r="N24" s="182"/>
     </row>
     <row r="25" spans="1:14">
-      <c r="A25" s="153"/>
-      <c r="B25" s="153"/>
-      <c r="D25" s="125"/>
-      <c r="E25" s="125"/>
-      <c r="G25" s="125"/>
-      <c r="H25" s="125"/>
-      <c r="I25" s="164"/>
-      <c r="J25" s="164"/>
-      <c r="K25" s="164"/>
-      <c r="L25" s="164"/>
-      <c r="M25" s="164"/>
-      <c r="N25" s="125"/>
+      <c r="A25" s="154"/>
+      <c r="B25" s="154"/>
+      <c r="D25" s="126"/>
+      <c r="E25" s="126"/>
+      <c r="G25" s="126"/>
+      <c r="H25" s="126"/>
+      <c r="I25" s="165"/>
+      <c r="J25" s="165"/>
+      <c r="K25" s="165"/>
+      <c r="L25" s="165"/>
+      <c r="M25" s="165"/>
+      <c r="N25" s="126"/>
     </row>
     <row r="26" spans="1:14">
-      <c r="A26" s="153"/>
-      <c r="B26" s="153"/>
-      <c r="D26" s="125"/>
-      <c r="E26" s="125"/>
-      <c r="G26" s="125"/>
-      <c r="H26" s="125"/>
-      <c r="I26" s="164"/>
-      <c r="J26" s="164"/>
-      <c r="K26" s="164"/>
-      <c r="L26" s="164"/>
-      <c r="M26" s="164"/>
-      <c r="N26" s="125"/>
+      <c r="A26" s="154"/>
+      <c r="B26" s="154"/>
+      <c r="D26" s="126"/>
+      <c r="E26" s="126"/>
+      <c r="G26" s="126"/>
+      <c r="H26" s="126"/>
+      <c r="I26" s="165"/>
+      <c r="J26" s="165"/>
+      <c r="K26" s="165"/>
+      <c r="L26" s="165"/>
+      <c r="M26" s="165"/>
+      <c r="N26" s="126"/>
     </row>
     <row r="27" spans="1:14">
-      <c r="A27" s="153"/>
-      <c r="B27" s="153"/>
-      <c r="D27" s="125"/>
-      <c r="E27" s="125"/>
-      <c r="G27" s="125"/>
-      <c r="H27" s="125"/>
-      <c r="I27" s="164"/>
-      <c r="J27" s="164"/>
-      <c r="K27" s="164"/>
-      <c r="L27" s="164"/>
-      <c r="M27" s="164"/>
-      <c r="N27" s="125"/>
+      <c r="A27" s="154"/>
+      <c r="B27" s="154"/>
+      <c r="D27" s="126"/>
+      <c r="E27" s="126"/>
+      <c r="G27" s="126"/>
+      <c r="H27" s="126"/>
+      <c r="I27" s="165"/>
+      <c r="J27" s="165"/>
+      <c r="K27" s="165"/>
+      <c r="L27" s="165"/>
+      <c r="M27" s="165"/>
+      <c r="N27" s="126"/>
     </row>
     <row r="28" spans="1:14">
-      <c r="A28" s="153"/>
-      <c r="B28" s="153"/>
-      <c r="D28" s="125"/>
-      <c r="E28" s="125"/>
-      <c r="G28" s="125"/>
-      <c r="H28" s="125"/>
-      <c r="I28" s="164"/>
-      <c r="J28" s="164"/>
-      <c r="K28" s="164"/>
-      <c r="L28" s="164"/>
-      <c r="M28" s="164"/>
-      <c r="N28" s="125"/>
+      <c r="A28" s="154"/>
+      <c r="B28" s="154"/>
+      <c r="D28" s="126"/>
+      <c r="E28" s="126"/>
+      <c r="G28" s="126"/>
+      <c r="H28" s="126"/>
+      <c r="I28" s="165"/>
+      <c r="J28" s="165"/>
+      <c r="K28" s="165"/>
+      <c r="L28" s="165"/>
+      <c r="M28" s="165"/>
+      <c r="N28" s="126"/>
     </row>
     <row r="29" spans="1:14">
-      <c r="A29" s="153"/>
-      <c r="B29" s="153"/>
-      <c r="D29" s="125"/>
-      <c r="E29" s="125"/>
-      <c r="G29" s="125"/>
-      <c r="H29" s="125"/>
-      <c r="I29" s="164"/>
-      <c r="J29" s="164"/>
-      <c r="K29" s="164"/>
-      <c r="L29" s="164"/>
-      <c r="M29" s="164"/>
-      <c r="N29" s="125"/>
+      <c r="A29" s="154"/>
+      <c r="B29" s="154"/>
+      <c r="D29" s="126"/>
+      <c r="E29" s="126"/>
+      <c r="G29" s="126"/>
+      <c r="H29" s="126"/>
+      <c r="I29" s="165"/>
+      <c r="J29" s="165"/>
+      <c r="K29" s="165"/>
+      <c r="L29" s="165"/>
+      <c r="M29" s="165"/>
+      <c r="N29" s="126"/>
     </row>
     <row r="30" spans="1:14">
-      <c r="A30" s="153"/>
-      <c r="B30" s="153"/>
-      <c r="D30" s="125"/>
-      <c r="E30" s="125"/>
-      <c r="G30" s="125"/>
-      <c r="H30" s="125"/>
-      <c r="I30" s="164"/>
-      <c r="J30" s="164"/>
-      <c r="K30" s="164"/>
-      <c r="L30" s="164"/>
-      <c r="M30" s="164"/>
-      <c r="N30" s="125"/>
+      <c r="A30" s="154"/>
+      <c r="B30" s="154"/>
+      <c r="D30" s="126"/>
+      <c r="E30" s="126"/>
+      <c r="G30" s="126"/>
+      <c r="H30" s="126"/>
+      <c r="I30" s="165"/>
+      <c r="J30" s="165"/>
+      <c r="K30" s="165"/>
+      <c r="L30" s="165"/>
+      <c r="M30" s="165"/>
+      <c r="N30" s="126"/>
     </row>
     <row r="31" spans="1:14">
-      <c r="A31" s="153"/>
-      <c r="B31" s="153"/>
-      <c r="D31" s="125"/>
-      <c r="E31" s="125"/>
-      <c r="G31" s="125"/>
-      <c r="H31" s="125"/>
-      <c r="I31" s="164"/>
-      <c r="J31" s="164"/>
-      <c r="K31" s="164"/>
-      <c r="L31" s="164"/>
-      <c r="M31" s="164"/>
-      <c r="N31" s="125"/>
+      <c r="A31" s="154"/>
+      <c r="B31" s="154"/>
+      <c r="D31" s="126"/>
+      <c r="E31" s="126"/>
+      <c r="G31" s="126"/>
+      <c r="H31" s="126"/>
+      <c r="I31" s="165"/>
+      <c r="J31" s="165"/>
+      <c r="K31" s="165"/>
+      <c r="L31" s="165"/>
+      <c r="M31" s="165"/>
+      <c r="N31" s="126"/>
     </row>
     <row r="32" spans="1:14">
-      <c r="A32" s="153"/>
-      <c r="B32" s="153"/>
-      <c r="D32" s="125"/>
-      <c r="E32" s="125"/>
-      <c r="G32" s="125"/>
-      <c r="H32" s="125"/>
-      <c r="I32" s="164"/>
-      <c r="J32" s="164"/>
-      <c r="K32" s="164"/>
-      <c r="L32" s="164"/>
-      <c r="M32" s="164"/>
-      <c r="N32" s="125"/>
+      <c r="A32" s="154"/>
+      <c r="B32" s="154"/>
+      <c r="D32" s="126"/>
+      <c r="E32" s="126"/>
+      <c r="G32" s="126"/>
+      <c r="H32" s="126"/>
+      <c r="I32" s="165"/>
+      <c r="J32" s="165"/>
+      <c r="K32" s="165"/>
+      <c r="L32" s="165"/>
+      <c r="M32" s="165"/>
+      <c r="N32" s="126"/>
     </row>
     <row r="33" spans="1:14">
-      <c r="A33" s="153"/>
-      <c r="B33" s="153"/>
-      <c r="D33" s="125"/>
-      <c r="E33" s="125"/>
-      <c r="G33" s="125"/>
-      <c r="H33" s="125"/>
-      <c r="I33" s="164"/>
-      <c r="J33" s="164"/>
-      <c r="K33" s="164"/>
-      <c r="L33" s="164"/>
-      <c r="M33" s="164"/>
-      <c r="N33" s="125"/>
+      <c r="A33" s="154"/>
+      <c r="B33" s="154"/>
+      <c r="D33" s="126"/>
+      <c r="E33" s="126"/>
+      <c r="G33" s="126"/>
+      <c r="H33" s="126"/>
+      <c r="I33" s="165"/>
+      <c r="J33" s="165"/>
+      <c r="K33" s="165"/>
+      <c r="L33" s="165"/>
+      <c r="M33" s="165"/>
+      <c r="N33" s="126"/>
     </row>
     <row r="34" spans="1:14">
-      <c r="A34" s="153"/>
-      <c r="B34" s="153"/>
-      <c r="D34" s="125"/>
-      <c r="E34" s="125"/>
-      <c r="G34" s="125"/>
-      <c r="H34" s="125"/>
-      <c r="I34" s="164"/>
-      <c r="J34" s="164"/>
-      <c r="K34" s="164"/>
-      <c r="L34" s="164"/>
-      <c r="M34" s="164"/>
-      <c r="N34" s="125"/>
+      <c r="A34" s="154"/>
+      <c r="B34" s="154"/>
+      <c r="D34" s="126"/>
+      <c r="E34" s="126"/>
+      <c r="G34" s="126"/>
+      <c r="H34" s="126"/>
+      <c r="I34" s="165"/>
+      <c r="J34" s="165"/>
+      <c r="K34" s="165"/>
+      <c r="L34" s="165"/>
+      <c r="M34" s="165"/>
+      <c r="N34" s="126"/>
     </row>
     <row r="35" spans="1:14">
-      <c r="A35" s="153"/>
-      <c r="B35" s="153"/>
-      <c r="D35" s="125"/>
-      <c r="E35" s="125"/>
-      <c r="G35" s="125"/>
-      <c r="H35" s="125"/>
-      <c r="I35" s="164"/>
-      <c r="J35" s="164"/>
-      <c r="K35" s="164"/>
-      <c r="L35" s="164"/>
-      <c r="M35" s="164"/>
-      <c r="N35" s="125"/>
+      <c r="A35" s="154"/>
+      <c r="B35" s="154"/>
+      <c r="D35" s="126"/>
+      <c r="E35" s="126"/>
+      <c r="G35" s="126"/>
+      <c r="H35" s="126"/>
+      <c r="I35" s="165"/>
+      <c r="J35" s="165"/>
+      <c r="K35" s="165"/>
+      <c r="L35" s="165"/>
+      <c r="M35" s="165"/>
+      <c r="N35" s="126"/>
     </row>
     <row r="36" spans="1:14">
-      <c r="A36" s="153"/>
-      <c r="B36" s="153"/>
-      <c r="D36" s="125"/>
-      <c r="E36" s="125"/>
-      <c r="G36" s="125"/>
-      <c r="H36" s="125"/>
-      <c r="I36" s="164"/>
-      <c r="J36" s="164"/>
-      <c r="K36" s="164"/>
-      <c r="L36" s="164"/>
-      <c r="M36" s="164"/>
-      <c r="N36" s="125"/>
+      <c r="A36" s="154"/>
+      <c r="B36" s="154"/>
+      <c r="D36" s="126"/>
+      <c r="E36" s="126"/>
+      <c r="G36" s="126"/>
+      <c r="H36" s="126"/>
+      <c r="I36" s="165"/>
+      <c r="J36" s="165"/>
+      <c r="K36" s="165"/>
+      <c r="L36" s="165"/>
+      <c r="M36" s="165"/>
+      <c r="N36" s="126"/>
     </row>
     <row r="37" spans="1:14">
-      <c r="A37" s="153"/>
-      <c r="B37" s="153"/>
-      <c r="D37" s="125"/>
-      <c r="E37" s="125"/>
-      <c r="G37" s="125"/>
-      <c r="H37" s="125"/>
-      <c r="I37" s="164"/>
-      <c r="J37" s="164"/>
-      <c r="K37" s="164"/>
-      <c r="L37" s="164"/>
-      <c r="M37" s="164"/>
-      <c r="N37" s="125"/>
+      <c r="A37" s="154"/>
+      <c r="B37" s="154"/>
+      <c r="D37" s="126"/>
+      <c r="E37" s="126"/>
+      <c r="G37" s="126"/>
+      <c r="H37" s="126"/>
+      <c r="I37" s="165"/>
+      <c r="J37" s="165"/>
+      <c r="K37" s="165"/>
+      <c r="L37" s="165"/>
+      <c r="M37" s="165"/>
+      <c r="N37" s="126"/>
     </row>
     <row r="38" spans="1:14">
-      <c r="A38" s="153"/>
-      <c r="B38" s="153"/>
-      <c r="D38" s="125"/>
-      <c r="E38" s="125"/>
-      <c r="G38" s="125"/>
-      <c r="H38" s="125"/>
-      <c r="I38" s="164"/>
-      <c r="J38" s="164"/>
-      <c r="K38" s="164"/>
-      <c r="L38" s="164"/>
-      <c r="M38" s="164"/>
-      <c r="N38" s="125"/>
+      <c r="A38" s="154"/>
+      <c r="B38" s="154"/>
+      <c r="D38" s="126"/>
+      <c r="E38" s="126"/>
+      <c r="G38" s="126"/>
+      <c r="H38" s="126"/>
+      <c r="I38" s="165"/>
+      <c r="J38" s="165"/>
+      <c r="K38" s="165"/>
+      <c r="L38" s="165"/>
+      <c r="M38" s="165"/>
+      <c r="N38" s="126"/>
     </row>
     <row r="39" spans="1:14">
-      <c r="A39" s="153"/>
-      <c r="B39" s="153"/>
-      <c r="D39" s="125"/>
-      <c r="E39" s="125"/>
-      <c r="G39" s="125"/>
-      <c r="H39" s="125"/>
-      <c r="I39" s="164"/>
-      <c r="J39" s="164"/>
-      <c r="K39" s="164"/>
-      <c r="L39" s="164"/>
-      <c r="M39" s="164"/>
-      <c r="N39" s="125"/>
+      <c r="A39" s="154"/>
+      <c r="B39" s="154"/>
+      <c r="D39" s="126"/>
+      <c r="E39" s="126"/>
+      <c r="G39" s="126"/>
+      <c r="H39" s="126"/>
+      <c r="I39" s="165"/>
+      <c r="J39" s="165"/>
+      <c r="K39" s="165"/>
+      <c r="L39" s="165"/>
+      <c r="M39" s="165"/>
+      <c r="N39" s="126"/>
     </row>
     <row r="40" spans="1:14">
-      <c r="A40" s="153"/>
-      <c r="B40" s="153"/>
-      <c r="D40" s="125"/>
-      <c r="E40" s="125"/>
-      <c r="G40" s="125"/>
-      <c r="H40" s="125"/>
-      <c r="I40" s="164"/>
-      <c r="J40" s="164"/>
-      <c r="K40" s="164"/>
-      <c r="L40" s="164"/>
-      <c r="M40" s="164"/>
-      <c r="N40" s="125"/>
+      <c r="A40" s="154"/>
+      <c r="B40" s="154"/>
+      <c r="D40" s="126"/>
+      <c r="E40" s="126"/>
+      <c r="G40" s="126"/>
+      <c r="H40" s="126"/>
+      <c r="I40" s="165"/>
+      <c r="J40" s="165"/>
+      <c r="K40" s="165"/>
+      <c r="L40" s="165"/>
+      <c r="M40" s="165"/>
+      <c r="N40" s="126"/>
     </row>
     <row r="41" spans="1:14">
-      <c r="A41" s="153"/>
-      <c r="B41" s="153"/>
-      <c r="D41" s="125"/>
-      <c r="E41" s="125"/>
-      <c r="G41" s="125"/>
-      <c r="H41" s="125"/>
-      <c r="I41" s="164"/>
-      <c r="J41" s="164"/>
-      <c r="K41" s="164"/>
-      <c r="L41" s="164"/>
-      <c r="M41" s="164"/>
-      <c r="N41" s="125"/>
+      <c r="A41" s="154"/>
+      <c r="B41" s="154"/>
+      <c r="D41" s="126"/>
+      <c r="E41" s="126"/>
+      <c r="G41" s="126"/>
+      <c r="H41" s="126"/>
+      <c r="I41" s="165"/>
+      <c r="J41" s="165"/>
+      <c r="K41" s="165"/>
+      <c r="L41" s="165"/>
+      <c r="M41" s="165"/>
+      <c r="N41" s="126"/>
     </row>
     <row r="42" spans="1:14">
-      <c r="A42" s="153"/>
-      <c r="B42" s="153"/>
-      <c r="D42" s="125"/>
-      <c r="E42" s="125"/>
-      <c r="G42" s="125"/>
-      <c r="H42" s="125"/>
-      <c r="I42" s="164"/>
-      <c r="J42" s="164"/>
-      <c r="K42" s="164"/>
-      <c r="L42" s="164"/>
-      <c r="M42" s="164"/>
-      <c r="N42" s="125"/>
+      <c r="A42" s="154"/>
+      <c r="B42" s="154"/>
+      <c r="D42" s="126"/>
+      <c r="E42" s="126"/>
+      <c r="G42" s="126"/>
+      <c r="H42" s="126"/>
+      <c r="I42" s="165"/>
+      <c r="J42" s="165"/>
+      <c r="K42" s="165"/>
+      <c r="L42" s="165"/>
+      <c r="M42" s="165"/>
+      <c r="N42" s="126"/>
     </row>
     <row r="43" spans="1:14">
-      <c r="A43" s="153"/>
-      <c r="B43" s="153"/>
-      <c r="D43" s="125"/>
-      <c r="E43" s="125"/>
-      <c r="G43" s="125"/>
-      <c r="H43" s="125"/>
-      <c r="I43" s="164"/>
-      <c r="J43" s="164"/>
-      <c r="K43" s="164"/>
-      <c r="L43" s="164"/>
-      <c r="M43" s="164"/>
-      <c r="N43" s="125"/>
+      <c r="A43" s="154"/>
+      <c r="B43" s="154"/>
+      <c r="D43" s="126"/>
+      <c r="E43" s="126"/>
+      <c r="G43" s="126"/>
+      <c r="H43" s="126"/>
+      <c r="I43" s="165"/>
+      <c r="J43" s="165"/>
+      <c r="K43" s="165"/>
+      <c r="L43" s="165"/>
+      <c r="M43" s="165"/>
+      <c r="N43" s="126"/>
     </row>
     <row r="44" spans="1:14">
-      <c r="A44" s="153"/>
-      <c r="B44" s="153"/>
-      <c r="D44" s="125"/>
-      <c r="E44" s="125"/>
-      <c r="G44" s="125"/>
-      <c r="H44" s="125"/>
-      <c r="I44" s="164"/>
-      <c r="J44" s="164"/>
-      <c r="K44" s="164"/>
-      <c r="L44" s="164"/>
-      <c r="M44" s="164"/>
-      <c r="N44" s="125"/>
+      <c r="A44" s="154"/>
+      <c r="B44" s="154"/>
+      <c r="D44" s="126"/>
+      <c r="E44" s="126"/>
+      <c r="G44" s="126"/>
+      <c r="H44" s="126"/>
+      <c r="I44" s="165"/>
+      <c r="J44" s="165"/>
+      <c r="K44" s="165"/>
+      <c r="L44" s="165"/>
+      <c r="M44" s="165"/>
+      <c r="N44" s="126"/>
     </row>
     <row r="45" spans="1:14">
-      <c r="A45" s="153"/>
-      <c r="B45" s="153"/>
-      <c r="D45" s="125"/>
-      <c r="E45" s="125"/>
-      <c r="G45" s="125"/>
-      <c r="H45" s="125"/>
-      <c r="I45" s="164"/>
-      <c r="J45" s="164"/>
-      <c r="K45" s="164"/>
-      <c r="L45" s="164"/>
-      <c r="M45" s="164"/>
-      <c r="N45" s="125"/>
+      <c r="A45" s="154"/>
+      <c r="B45" s="154"/>
+      <c r="D45" s="126"/>
+      <c r="E45" s="126"/>
+      <c r="G45" s="126"/>
+      <c r="H45" s="126"/>
+      <c r="I45" s="165"/>
+      <c r="J45" s="165"/>
+      <c r="K45" s="165"/>
+      <c r="L45" s="165"/>
+      <c r="M45" s="165"/>
+      <c r="N45" s="126"/>
     </row>
     <row r="46" spans="1:14">
-      <c r="A46" s="153"/>
-      <c r="B46" s="153"/>
-      <c r="D46" s="125"/>
-      <c r="E46" s="125"/>
-      <c r="G46" s="125"/>
-      <c r="H46" s="125"/>
-      <c r="I46" s="164"/>
-      <c r="J46" s="164"/>
-      <c r="K46" s="164"/>
-      <c r="L46" s="164"/>
-      <c r="M46" s="164"/>
-      <c r="N46" s="125"/>
+      <c r="A46" s="154"/>
+      <c r="B46" s="154"/>
+      <c r="D46" s="126"/>
+      <c r="E46" s="126"/>
+      <c r="G46" s="126"/>
+      <c r="H46" s="126"/>
+      <c r="I46" s="165"/>
+      <c r="J46" s="165"/>
+      <c r="K46" s="165"/>
+      <c r="L46" s="165"/>
+      <c r="M46" s="165"/>
+      <c r="N46" s="126"/>
     </row>
     <row r="47" spans="1:14">
-      <c r="A47" s="153"/>
-      <c r="B47" s="153"/>
-      <c r="D47" s="125"/>
-      <c r="E47" s="125"/>
-      <c r="G47" s="125"/>
-      <c r="H47" s="125"/>
-      <c r="I47" s="164"/>
-      <c r="J47" s="164"/>
-      <c r="K47" s="164"/>
-      <c r="L47" s="164"/>
-      <c r="M47" s="164"/>
-      <c r="N47" s="125"/>
+      <c r="A47" s="154"/>
+      <c r="B47" s="154"/>
+      <c r="D47" s="126"/>
+      <c r="E47" s="126"/>
+      <c r="G47" s="126"/>
+      <c r="H47" s="126"/>
+      <c r="I47" s="165"/>
+      <c r="J47" s="165"/>
+      <c r="K47" s="165"/>
+      <c r="L47" s="165"/>
+      <c r="M47" s="165"/>
+      <c r="N47" s="126"/>
     </row>
     <row r="48" spans="1:14">
-      <c r="A48" s="153"/>
-      <c r="B48" s="153"/>
-      <c r="D48" s="125"/>
-      <c r="E48" s="125"/>
-      <c r="G48" s="125"/>
-      <c r="H48" s="125"/>
-      <c r="I48" s="164"/>
-      <c r="J48" s="164"/>
-      <c r="K48" s="164"/>
-      <c r="L48" s="164"/>
-      <c r="M48" s="164"/>
-      <c r="N48" s="125"/>
-    </row>
-    <row r="49" s="123" customFormat="1" spans="1:13">
-      <c r="A49" s="154"/>
-      <c r="B49" s="153"/>
-      <c r="F49" s="126"/>
-      <c r="I49" s="127"/>
-      <c r="J49" s="127"/>
-      <c r="K49" s="127"/>
-      <c r="L49" s="127"/>
-      <c r="M49" s="127"/>
-    </row>
-    <row r="50" s="123" customFormat="1" spans="1:13">
-      <c r="A50" s="154"/>
-      <c r="B50" s="153"/>
-      <c r="F50" s="126"/>
-      <c r="I50" s="127"/>
-      <c r="J50" s="127"/>
-      <c r="K50" s="127"/>
-      <c r="L50" s="127"/>
-      <c r="M50" s="127"/>
-    </row>
-    <row r="51" s="123" customFormat="1" spans="1:13">
-      <c r="A51" s="154"/>
-      <c r="B51" s="153"/>
-      <c r="F51" s="126"/>
-      <c r="I51" s="127"/>
-      <c r="J51" s="127"/>
-      <c r="K51" s="127"/>
-      <c r="L51" s="127"/>
-      <c r="M51" s="127"/>
-    </row>
-    <row r="52" s="123" customFormat="1" spans="1:13">
-      <c r="A52" s="154"/>
-      <c r="B52" s="153"/>
-      <c r="F52" s="126"/>
-      <c r="I52" s="127"/>
-      <c r="J52" s="127"/>
-      <c r="K52" s="127"/>
-      <c r="L52" s="127"/>
-      <c r="M52" s="127"/>
-    </row>
-    <row r="53" s="123" customFormat="1" spans="1:13">
-      <c r="A53" s="154"/>
-      <c r="B53" s="153"/>
-      <c r="F53" s="126"/>
-      <c r="I53" s="127"/>
-      <c r="J53" s="127"/>
-      <c r="K53" s="127"/>
-      <c r="L53" s="127"/>
-      <c r="M53" s="127"/>
-    </row>
-    <row r="54" s="123" customFormat="1" spans="1:13">
-      <c r="A54" s="154"/>
-      <c r="B54" s="153"/>
-      <c r="F54" s="126"/>
-      <c r="I54" s="127"/>
-      <c r="J54" s="127"/>
-      <c r="K54" s="127"/>
-      <c r="L54" s="127"/>
-      <c r="M54" s="127"/>
-    </row>
-    <row r="55" s="123" customFormat="1" spans="1:13">
-      <c r="A55" s="154"/>
-      <c r="B55" s="153"/>
-      <c r="F55" s="126"/>
-      <c r="I55" s="127"/>
-      <c r="J55" s="127"/>
-      <c r="K55" s="127"/>
-      <c r="L55" s="127"/>
-      <c r="M55" s="127"/>
-    </row>
-    <row r="56" s="123" customFormat="1" spans="1:13">
-      <c r="A56" s="154"/>
-      <c r="B56" s="153"/>
-      <c r="F56" s="126"/>
-      <c r="I56" s="127"/>
-      <c r="J56" s="127"/>
-      <c r="K56" s="127"/>
-      <c r="L56" s="127"/>
-      <c r="M56" s="127"/>
-    </row>
-    <row r="57" s="123" customFormat="1" spans="1:13">
-      <c r="A57" s="154"/>
-      <c r="B57" s="153"/>
-      <c r="F57" s="126"/>
-      <c r="I57" s="127"/>
-      <c r="J57" s="127"/>
-      <c r="K57" s="127"/>
-      <c r="L57" s="127"/>
-      <c r="M57" s="127"/>
-    </row>
-    <row r="58" s="123" customFormat="1" spans="1:13">
-      <c r="A58" s="154"/>
-      <c r="B58" s="153"/>
-      <c r="F58" s="126"/>
-      <c r="I58" s="127"/>
-      <c r="J58" s="127"/>
-      <c r="K58" s="127"/>
-      <c r="L58" s="127"/>
-      <c r="M58" s="127"/>
-    </row>
-    <row r="59" s="124" customFormat="1" spans="1:14">
-      <c r="A59" s="154"/>
-      <c r="B59" s="153"/>
-      <c r="C59" s="123"/>
-      <c r="D59" s="123"/>
-      <c r="E59" s="123"/>
-      <c r="F59" s="126"/>
-      <c r="G59" s="123"/>
-      <c r="H59" s="123"/>
-      <c r="I59" s="127"/>
-      <c r="J59" s="127"/>
-      <c r="K59" s="127"/>
-      <c r="L59" s="127"/>
-      <c r="M59" s="127"/>
-      <c r="N59" s="123"/>
-    </row>
-    <row r="60" s="124" customFormat="1" spans="1:14">
-      <c r="A60" s="154"/>
-      <c r="B60" s="153"/>
-      <c r="C60" s="123"/>
-      <c r="D60" s="123"/>
-      <c r="E60" s="123"/>
-      <c r="F60" s="126"/>
-      <c r="G60" s="123"/>
-      <c r="H60" s="123"/>
-      <c r="I60" s="127"/>
-      <c r="J60" s="127"/>
-      <c r="K60" s="127"/>
-      <c r="L60" s="127"/>
-      <c r="M60" s="127"/>
-      <c r="N60" s="123"/>
-    </row>
-    <row r="61" s="124" customFormat="1" spans="1:14">
-      <c r="A61" s="154"/>
-      <c r="B61" s="153"/>
-      <c r="C61" s="123"/>
-      <c r="D61" s="123"/>
-      <c r="E61" s="123"/>
-      <c r="F61" s="126"/>
-      <c r="G61" s="123"/>
-      <c r="H61" s="123"/>
-      <c r="I61" s="127"/>
-      <c r="J61" s="127"/>
-      <c r="K61" s="127"/>
-      <c r="L61" s="127"/>
-      <c r="M61" s="127"/>
-      <c r="N61" s="123"/>
-    </row>
-    <row r="62" s="124" customFormat="1" spans="1:14">
-      <c r="A62" s="154"/>
-      <c r="B62" s="153"/>
-      <c r="C62" s="123"/>
-      <c r="D62" s="123"/>
-      <c r="E62" s="123"/>
-      <c r="F62" s="126"/>
-      <c r="G62" s="123"/>
-      <c r="H62" s="123"/>
-      <c r="I62" s="127"/>
-      <c r="J62" s="127"/>
-      <c r="K62" s="127"/>
-      <c r="L62" s="127"/>
-      <c r="M62" s="127"/>
-      <c r="N62" s="123"/>
-    </row>
-    <row r="63" s="124" customFormat="1" spans="1:14">
-      <c r="A63" s="154"/>
-      <c r="B63" s="153"/>
-      <c r="C63" s="123"/>
-      <c r="D63" s="123"/>
-      <c r="E63" s="123"/>
-      <c r="F63" s="126"/>
-      <c r="G63" s="123"/>
-      <c r="H63" s="123"/>
-      <c r="I63" s="127"/>
-      <c r="J63" s="127"/>
-      <c r="K63" s="127"/>
-      <c r="L63" s="127"/>
-      <c r="M63" s="127"/>
-      <c r="N63" s="123"/>
-    </row>
-    <row r="64" s="124" customFormat="1" spans="1:14">
-      <c r="A64" s="154"/>
-      <c r="B64" s="153"/>
-      <c r="C64" s="123"/>
-      <c r="D64" s="123"/>
-      <c r="E64" s="123"/>
-      <c r="F64" s="126"/>
-      <c r="G64" s="123"/>
-      <c r="H64" s="123"/>
-      <c r="I64" s="127"/>
-      <c r="J64" s="127"/>
-      <c r="K64" s="127"/>
-      <c r="L64" s="127"/>
-      <c r="M64" s="127"/>
-      <c r="N64" s="123"/>
-    </row>
-    <row r="65" s="124" customFormat="1" spans="1:14">
-      <c r="A65" s="154"/>
-      <c r="B65" s="153"/>
-      <c r="C65" s="123"/>
-      <c r="D65" s="123"/>
-      <c r="E65" s="123"/>
-      <c r="F65" s="126"/>
-      <c r="G65" s="123"/>
-      <c r="H65" s="123"/>
-      <c r="I65" s="127"/>
-      <c r="J65" s="127"/>
-      <c r="K65" s="127"/>
-      <c r="L65" s="127"/>
-      <c r="M65" s="127"/>
-      <c r="N65" s="123"/>
-    </row>
-    <row r="66" s="124" customFormat="1" spans="1:14">
-      <c r="A66" s="154"/>
-      <c r="B66" s="153"/>
-      <c r="C66" s="123"/>
-      <c r="D66" s="123"/>
-      <c r="E66" s="123"/>
-      <c r="F66" s="126"/>
-      <c r="G66" s="123"/>
-      <c r="H66" s="123"/>
-      <c r="I66" s="127"/>
-      <c r="J66" s="127"/>
-      <c r="K66" s="127"/>
-      <c r="L66" s="127"/>
-      <c r="M66" s="127"/>
-      <c r="N66" s="123"/>
-    </row>
-    <row r="67" s="124" customFormat="1" spans="1:14">
-      <c r="A67" s="154"/>
-      <c r="B67" s="153"/>
-      <c r="C67" s="123"/>
-      <c r="D67" s="123"/>
-      <c r="E67" s="123"/>
-      <c r="F67" s="126"/>
-      <c r="G67" s="123"/>
-      <c r="H67" s="123"/>
-      <c r="I67" s="127"/>
-      <c r="J67" s="127"/>
-      <c r="K67" s="127"/>
-      <c r="L67" s="127"/>
-      <c r="M67" s="127"/>
-      <c r="N67" s="123"/>
-    </row>
-    <row r="68" s="124" customFormat="1" spans="1:14">
-      <c r="A68" s="154"/>
-      <c r="B68" s="153"/>
-      <c r="C68" s="123"/>
-      <c r="D68" s="123"/>
-      <c r="E68" s="123"/>
-      <c r="F68" s="126"/>
-      <c r="G68" s="123"/>
-      <c r="H68" s="123"/>
-      <c r="I68" s="127"/>
-      <c r="J68" s="127"/>
-      <c r="K68" s="127"/>
-      <c r="L68" s="127"/>
-      <c r="M68" s="127"/>
-      <c r="N68" s="123"/>
-    </row>
-    <row r="69" s="124" customFormat="1" spans="1:14">
-      <c r="A69" s="154"/>
-      <c r="B69" s="153"/>
-      <c r="C69" s="123"/>
-      <c r="D69" s="123"/>
-      <c r="E69" s="123"/>
-      <c r="F69" s="126"/>
-      <c r="G69" s="123"/>
-      <c r="H69" s="123"/>
-      <c r="I69" s="127"/>
-      <c r="J69" s="127"/>
-      <c r="K69" s="127"/>
-      <c r="L69" s="127"/>
-      <c r="M69" s="127"/>
-      <c r="N69" s="123"/>
-    </row>
-    <row r="70" s="124" customFormat="1" spans="1:14">
-      <c r="A70" s="154"/>
-      <c r="B70" s="153"/>
-      <c r="C70" s="123"/>
-      <c r="D70" s="123"/>
-      <c r="E70" s="123"/>
-      <c r="F70" s="126"/>
-      <c r="G70" s="123"/>
-      <c r="H70" s="123"/>
-      <c r="I70" s="127"/>
-      <c r="J70" s="127"/>
-      <c r="K70" s="127"/>
-      <c r="L70" s="127"/>
-      <c r="M70" s="127"/>
-      <c r="N70" s="123"/>
-    </row>
-    <row r="71" s="124" customFormat="1" spans="1:14">
-      <c r="A71" s="154"/>
-      <c r="B71" s="153"/>
-      <c r="C71" s="123"/>
-      <c r="D71" s="123"/>
-      <c r="E71" s="123"/>
-      <c r="F71" s="126"/>
-      <c r="G71" s="123"/>
-      <c r="H71" s="123"/>
-      <c r="I71" s="127"/>
-      <c r="J71" s="127"/>
-      <c r="K71" s="127"/>
-      <c r="L71" s="127"/>
-      <c r="M71" s="127"/>
-      <c r="N71" s="123"/>
-    </row>
-    <row r="72" s="124" customFormat="1" spans="1:14">
-      <c r="A72" s="154"/>
-      <c r="B72" s="153"/>
-      <c r="C72" s="123"/>
-      <c r="D72" s="123"/>
-      <c r="E72" s="123"/>
-      <c r="F72" s="126"/>
-      <c r="G72" s="123"/>
-      <c r="H72" s="123"/>
-      <c r="I72" s="127"/>
-      <c r="J72" s="127"/>
-      <c r="K72" s="127"/>
-      <c r="L72" s="127"/>
-      <c r="M72" s="127"/>
-      <c r="N72" s="123"/>
-    </row>
-    <row r="73" s="124" customFormat="1" spans="1:14">
-      <c r="A73" s="154"/>
-      <c r="B73" s="153"/>
-      <c r="C73" s="123"/>
-      <c r="D73" s="123"/>
-      <c r="E73" s="123"/>
-      <c r="F73" s="126"/>
-      <c r="G73" s="123"/>
-      <c r="H73" s="123"/>
-      <c r="I73" s="127"/>
-      <c r="J73" s="127"/>
-      <c r="K73" s="127"/>
-      <c r="L73" s="127"/>
-      <c r="M73" s="127"/>
-      <c r="N73" s="123"/>
-    </row>
-    <row r="74" s="124" customFormat="1" spans="1:14">
-      <c r="A74" s="154"/>
-      <c r="B74" s="153"/>
-      <c r="C74" s="123"/>
-      <c r="D74" s="123"/>
-      <c r="E74" s="123"/>
-      <c r="F74" s="126"/>
-      <c r="G74" s="123"/>
-      <c r="H74" s="123"/>
-      <c r="I74" s="127"/>
-      <c r="J74" s="127"/>
-      <c r="K74" s="127"/>
-      <c r="L74" s="127"/>
-      <c r="M74" s="127"/>
-      <c r="N74" s="123"/>
-    </row>
-    <row r="75" s="124" customFormat="1" spans="1:14">
-      <c r="A75" s="154"/>
-      <c r="B75" s="153"/>
-      <c r="C75" s="123"/>
-      <c r="D75" s="123"/>
-      <c r="E75" s="123"/>
-      <c r="F75" s="126"/>
-      <c r="G75" s="123"/>
-      <c r="H75" s="123"/>
-      <c r="I75" s="127"/>
-      <c r="J75" s="127"/>
-      <c r="K75" s="127"/>
-      <c r="L75" s="127"/>
-      <c r="M75" s="127"/>
-      <c r="N75" s="123"/>
-    </row>
-    <row r="76" s="124" customFormat="1" spans="1:14">
-      <c r="A76" s="154"/>
-      <c r="B76" s="153"/>
-      <c r="C76" s="123"/>
-      <c r="D76" s="123"/>
-      <c r="E76" s="123"/>
-      <c r="F76" s="126"/>
-      <c r="G76" s="123"/>
-      <c r="H76" s="123"/>
-      <c r="I76" s="127"/>
-      <c r="J76" s="127"/>
-      <c r="K76" s="127"/>
-      <c r="L76" s="127"/>
-      <c r="M76" s="127"/>
-      <c r="N76" s="123"/>
-    </row>
-    <row r="77" s="124" customFormat="1" spans="1:14">
-      <c r="A77" s="154"/>
-      <c r="B77" s="153"/>
-      <c r="C77" s="123"/>
-      <c r="D77" s="123"/>
-      <c r="E77" s="123"/>
-      <c r="F77" s="126"/>
-      <c r="G77" s="123"/>
-      <c r="H77" s="123"/>
-      <c r="I77" s="127"/>
-      <c r="J77" s="127"/>
-      <c r="K77" s="127"/>
-      <c r="L77" s="127"/>
-      <c r="M77" s="127"/>
-      <c r="N77" s="123"/>
-    </row>
-    <row r="78" s="124" customFormat="1" spans="1:14">
-      <c r="A78" s="154"/>
-      <c r="B78" s="153"/>
-      <c r="C78" s="123"/>
-      <c r="D78" s="123"/>
-      <c r="E78" s="123"/>
-      <c r="F78" s="126"/>
-      <c r="G78" s="123"/>
-      <c r="H78" s="123"/>
-      <c r="I78" s="127"/>
-      <c r="J78" s="127"/>
-      <c r="K78" s="127"/>
-      <c r="L78" s="127"/>
-      <c r="M78" s="127"/>
-      <c r="N78" s="123"/>
-    </row>
-    <row r="79" s="124" customFormat="1" spans="1:14">
-      <c r="A79" s="154"/>
-      <c r="B79" s="153"/>
-      <c r="C79" s="123"/>
-      <c r="D79" s="123"/>
-      <c r="E79" s="123"/>
-      <c r="F79" s="126"/>
-      <c r="G79" s="123"/>
-      <c r="H79" s="123"/>
-      <c r="I79" s="127"/>
-      <c r="J79" s="127"/>
-      <c r="K79" s="127"/>
-      <c r="L79" s="127"/>
-      <c r="M79" s="127"/>
-      <c r="N79" s="123"/>
-    </row>
-    <row r="80" s="124" customFormat="1" spans="1:14">
-      <c r="A80" s="154"/>
-      <c r="B80" s="153"/>
-      <c r="C80" s="123"/>
-      <c r="D80" s="123"/>
-      <c r="E80" s="123"/>
-      <c r="F80" s="126"/>
-      <c r="G80" s="123"/>
-      <c r="H80" s="123"/>
-      <c r="I80" s="127"/>
-      <c r="J80" s="127"/>
-      <c r="K80" s="127"/>
-      <c r="L80" s="127"/>
-      <c r="M80" s="127"/>
-      <c r="N80" s="123"/>
-    </row>
-    <row r="81" s="124" customFormat="1" spans="1:14">
-      <c r="A81" s="154"/>
-      <c r="B81" s="153"/>
-      <c r="C81" s="123"/>
-      <c r="D81" s="123"/>
-      <c r="E81" s="123"/>
-      <c r="F81" s="126"/>
-      <c r="G81" s="123"/>
-      <c r="H81" s="123"/>
-      <c r="I81" s="127"/>
-      <c r="J81" s="127"/>
-      <c r="K81" s="127"/>
-      <c r="L81" s="127"/>
-      <c r="M81" s="127"/>
-      <c r="N81" s="123"/>
-    </row>
-    <row r="82" s="124" customFormat="1" spans="1:14">
-      <c r="A82" s="154"/>
-      <c r="B82" s="153"/>
-      <c r="C82" s="123"/>
-      <c r="D82" s="123"/>
-      <c r="E82" s="123"/>
-      <c r="F82" s="126"/>
-      <c r="G82" s="123"/>
-      <c r="H82" s="123"/>
-      <c r="I82" s="127"/>
-      <c r="J82" s="127"/>
-      <c r="K82" s="127"/>
-      <c r="L82" s="127"/>
-      <c r="M82" s="127"/>
-      <c r="N82" s="123"/>
-    </row>
-    <row r="83" s="124" customFormat="1" spans="1:14">
-      <c r="A83" s="154"/>
-      <c r="B83" s="153"/>
-      <c r="C83" s="123"/>
-      <c r="D83" s="123"/>
-      <c r="E83" s="123"/>
-      <c r="F83" s="126"/>
-      <c r="G83" s="123"/>
-      <c r="H83" s="123"/>
-      <c r="I83" s="127"/>
-      <c r="J83" s="127"/>
-      <c r="K83" s="127"/>
-      <c r="L83" s="127"/>
-      <c r="M83" s="127"/>
-      <c r="N83" s="123"/>
-    </row>
-    <row r="84" s="124" customFormat="1" spans="1:14">
-      <c r="A84" s="154"/>
-      <c r="B84" s="153"/>
-      <c r="C84" s="123"/>
-      <c r="D84" s="123"/>
-      <c r="E84" s="123"/>
-      <c r="F84" s="126"/>
-      <c r="G84" s="123"/>
-      <c r="H84" s="123"/>
-      <c r="I84" s="127"/>
-      <c r="J84" s="127"/>
-      <c r="K84" s="127"/>
-      <c r="L84" s="127"/>
-      <c r="M84" s="127"/>
-      <c r="N84" s="123"/>
-    </row>
-    <row r="85" s="124" customFormat="1" spans="1:14">
-      <c r="A85" s="154"/>
-      <c r="B85" s="153"/>
-      <c r="C85" s="123"/>
-      <c r="D85" s="123"/>
-      <c r="E85" s="123"/>
-      <c r="F85" s="126"/>
-      <c r="G85" s="123"/>
-      <c r="H85" s="123"/>
-      <c r="I85" s="127"/>
-      <c r="J85" s="127"/>
-      <c r="K85" s="127"/>
-      <c r="L85" s="127"/>
-      <c r="M85" s="127"/>
-      <c r="N85" s="123"/>
-    </row>
-    <row r="86" s="124" customFormat="1" spans="1:14">
-      <c r="A86" s="154"/>
-      <c r="B86" s="153"/>
-      <c r="C86" s="123"/>
-      <c r="D86" s="123"/>
-      <c r="E86" s="123"/>
-      <c r="F86" s="126"/>
-      <c r="G86" s="123"/>
-      <c r="H86" s="123"/>
-      <c r="I86" s="127"/>
-      <c r="J86" s="127"/>
-      <c r="K86" s="127"/>
-      <c r="L86" s="127"/>
-      <c r="M86" s="127"/>
-      <c r="N86" s="123"/>
-    </row>
-    <row r="87" s="124" customFormat="1" spans="1:14">
-      <c r="A87" s="154"/>
-      <c r="B87" s="153"/>
-      <c r="C87" s="123"/>
-      <c r="D87" s="123"/>
-      <c r="E87" s="123"/>
-      <c r="F87" s="126"/>
-      <c r="G87" s="123"/>
-      <c r="H87" s="123"/>
-      <c r="I87" s="127"/>
-      <c r="J87" s="127"/>
-      <c r="K87" s="127"/>
-      <c r="L87" s="127"/>
-      <c r="M87" s="127"/>
-      <c r="N87" s="123"/>
-    </row>
-    <row r="88" s="124" customFormat="1" spans="1:14">
-      <c r="A88" s="154"/>
-      <c r="B88" s="153"/>
-      <c r="C88" s="123"/>
-      <c r="D88" s="123"/>
-      <c r="E88" s="123"/>
-      <c r="F88" s="126"/>
-      <c r="G88" s="123"/>
-      <c r="H88" s="123"/>
-      <c r="I88" s="127"/>
-      <c r="J88" s="127"/>
-      <c r="K88" s="127"/>
-      <c r="L88" s="127"/>
-      <c r="M88" s="127"/>
-      <c r="N88" s="123"/>
-    </row>
-    <row r="89" s="124" customFormat="1" spans="1:14">
-      <c r="A89" s="154"/>
-      <c r="B89" s="153"/>
-      <c r="C89" s="123"/>
-      <c r="D89" s="123"/>
-      <c r="E89" s="123"/>
-      <c r="F89" s="126"/>
-      <c r="G89" s="123"/>
-      <c r="H89" s="123"/>
-      <c r="I89" s="127"/>
-      <c r="J89" s="127"/>
-      <c r="K89" s="127"/>
-      <c r="L89" s="127"/>
-      <c r="M89" s="127"/>
-      <c r="N89" s="123"/>
-    </row>
-    <row r="90" s="124" customFormat="1" spans="1:14">
-      <c r="A90" s="154"/>
-      <c r="B90" s="153"/>
-      <c r="C90" s="123"/>
-      <c r="D90" s="123"/>
-      <c r="E90" s="123"/>
-      <c r="F90" s="126"/>
-      <c r="G90" s="123"/>
-      <c r="H90" s="123"/>
-      <c r="I90" s="127"/>
-      <c r="J90" s="127"/>
-      <c r="K90" s="127"/>
-      <c r="L90" s="127"/>
-      <c r="M90" s="127"/>
-      <c r="N90" s="123"/>
-    </row>
-    <row r="91" s="124" customFormat="1" spans="1:14">
-      <c r="A91" s="154"/>
-      <c r="B91" s="153"/>
-      <c r="C91" s="123"/>
-      <c r="D91" s="123"/>
-      <c r="E91" s="123"/>
-      <c r="F91" s="126"/>
-      <c r="G91" s="123"/>
-      <c r="H91" s="123"/>
-      <c r="I91" s="127"/>
-      <c r="J91" s="127"/>
-      <c r="K91" s="127"/>
-      <c r="L91" s="127"/>
-      <c r="M91" s="127"/>
-      <c r="N91" s="123"/>
-    </row>
-    <row r="92" s="124" customFormat="1" spans="1:14">
-      <c r="A92" s="154"/>
-      <c r="B92" s="153"/>
-      <c r="C92" s="123"/>
-      <c r="D92" s="123"/>
-      <c r="E92" s="123"/>
-      <c r="F92" s="126"/>
-      <c r="G92" s="123"/>
-      <c r="H92" s="123"/>
-      <c r="I92" s="127"/>
-      <c r="J92" s="127"/>
-      <c r="K92" s="127"/>
-      <c r="L92" s="127"/>
-      <c r="M92" s="127"/>
-      <c r="N92" s="123"/>
-    </row>
-    <row r="93" s="124" customFormat="1" spans="1:14">
-      <c r="A93" s="154"/>
-      <c r="B93" s="153"/>
-      <c r="C93" s="123"/>
-      <c r="D93" s="123"/>
-      <c r="E93" s="123"/>
-      <c r="F93" s="126"/>
-      <c r="G93" s="123"/>
-      <c r="H93" s="123"/>
-      <c r="I93" s="127"/>
-      <c r="J93" s="127"/>
-      <c r="K93" s="127"/>
-      <c r="L93" s="127"/>
-      <c r="M93" s="127"/>
-      <c r="N93" s="123"/>
-    </row>
-    <row r="94" s="124" customFormat="1" spans="1:14">
-      <c r="A94" s="154"/>
-      <c r="B94" s="153"/>
-      <c r="C94" s="123"/>
-      <c r="D94" s="123"/>
-      <c r="E94" s="123"/>
-      <c r="F94" s="126"/>
-      <c r="G94" s="123"/>
-      <c r="H94" s="123"/>
-      <c r="I94" s="127"/>
-      <c r="J94" s="127"/>
-      <c r="K94" s="127"/>
-      <c r="L94" s="127"/>
-      <c r="M94" s="127"/>
-      <c r="N94" s="123"/>
-    </row>
-    <row r="95" s="124" customFormat="1" spans="1:14">
-      <c r="A95" s="154"/>
-      <c r="B95" s="153"/>
-      <c r="C95" s="123"/>
-      <c r="D95" s="123"/>
-      <c r="E95" s="123"/>
-      <c r="F95" s="126"/>
-      <c r="G95" s="123"/>
-      <c r="H95" s="123"/>
-      <c r="I95" s="127"/>
-      <c r="J95" s="127"/>
-      <c r="K95" s="127"/>
-      <c r="L95" s="127"/>
-      <c r="M95" s="127"/>
-      <c r="N95" s="123"/>
-    </row>
-    <row r="96" s="124" customFormat="1" spans="1:14">
-      <c r="A96" s="154"/>
-      <c r="B96" s="153"/>
-      <c r="C96" s="123"/>
-      <c r="D96" s="123"/>
-      <c r="E96" s="123"/>
-      <c r="F96" s="126"/>
-      <c r="G96" s="123"/>
-      <c r="H96" s="123"/>
-      <c r="I96" s="127"/>
-      <c r="J96" s="127"/>
-      <c r="K96" s="127"/>
-      <c r="L96" s="127"/>
-      <c r="M96" s="127"/>
-      <c r="N96" s="123"/>
-    </row>
-    <row r="97" s="124" customFormat="1" spans="1:14">
-      <c r="A97" s="154"/>
-      <c r="B97" s="153"/>
-      <c r="C97" s="123"/>
-      <c r="D97" s="123"/>
-      <c r="E97" s="123"/>
-      <c r="F97" s="126"/>
-      <c r="G97" s="123"/>
-      <c r="H97" s="123"/>
-      <c r="I97" s="127"/>
-      <c r="J97" s="127"/>
-      <c r="K97" s="127"/>
-      <c r="L97" s="127"/>
-      <c r="M97" s="127"/>
-      <c r="N97" s="123"/>
-    </row>
-    <row r="98" s="124" customFormat="1" spans="1:14">
-      <c r="A98" s="154"/>
-      <c r="B98" s="153"/>
-      <c r="C98" s="123"/>
-      <c r="D98" s="123"/>
-      <c r="E98" s="123"/>
-      <c r="F98" s="126"/>
-      <c r="G98" s="123"/>
-      <c r="H98" s="123"/>
-      <c r="I98" s="127"/>
-      <c r="J98" s="127"/>
-      <c r="K98" s="127"/>
-      <c r="L98" s="127"/>
-      <c r="M98" s="127"/>
-      <c r="N98" s="123"/>
-    </row>
-    <row r="99" s="124" customFormat="1" spans="1:14">
-      <c r="A99" s="154"/>
-      <c r="B99" s="153"/>
-      <c r="C99" s="123"/>
-      <c r="D99" s="123"/>
-      <c r="E99" s="123"/>
-      <c r="F99" s="126"/>
-      <c r="G99" s="123"/>
-      <c r="H99" s="123"/>
-      <c r="I99" s="127"/>
-      <c r="J99" s="127"/>
-      <c r="K99" s="127"/>
-      <c r="L99" s="127"/>
-      <c r="M99" s="127"/>
-      <c r="N99" s="123"/>
-    </row>
-    <row r="100" s="124" customFormat="1" spans="1:14">
-      <c r="A100" s="154"/>
-      <c r="B100" s="153"/>
-      <c r="C100" s="123"/>
-      <c r="D100" s="123"/>
-      <c r="E100" s="123"/>
-      <c r="F100" s="126"/>
-      <c r="G100" s="123"/>
-      <c r="H100" s="123"/>
-      <c r="I100" s="127"/>
-      <c r="J100" s="127"/>
-      <c r="K100" s="127"/>
-      <c r="L100" s="127"/>
-      <c r="M100" s="127"/>
-      <c r="N100" s="123"/>
-    </row>
-    <row r="101" s="124" customFormat="1" spans="1:14">
-      <c r="A101" s="154"/>
-      <c r="B101" s="153"/>
-      <c r="C101" s="123"/>
-      <c r="D101" s="123"/>
-      <c r="E101" s="123"/>
-      <c r="F101" s="126"/>
-      <c r="G101" s="123"/>
-      <c r="H101" s="123"/>
-      <c r="I101" s="127"/>
-      <c r="J101" s="127"/>
-      <c r="K101" s="127"/>
-      <c r="L101" s="127"/>
-      <c r="M101" s="127"/>
-      <c r="N101" s="123"/>
-    </row>
-    <row r="102" s="124" customFormat="1" spans="1:14">
-      <c r="A102" s="154"/>
-      <c r="B102" s="153"/>
-      <c r="C102" s="123"/>
-      <c r="D102" s="123"/>
-      <c r="E102" s="123"/>
-      <c r="F102" s="126"/>
-      <c r="G102" s="123"/>
-      <c r="H102" s="123"/>
-      <c r="I102" s="127"/>
-      <c r="J102" s="127"/>
-      <c r="K102" s="127"/>
-      <c r="L102" s="127"/>
-      <c r="M102" s="127"/>
-      <c r="N102" s="123"/>
-    </row>
-    <row r="103" s="124" customFormat="1" spans="1:14">
-      <c r="A103" s="154"/>
-      <c r="B103" s="153"/>
-      <c r="C103" s="123"/>
-      <c r="D103" s="123"/>
-      <c r="E103" s="123"/>
-      <c r="F103" s="126"/>
-      <c r="G103" s="123"/>
-      <c r="H103" s="123"/>
-      <c r="I103" s="127"/>
-      <c r="J103" s="127"/>
-      <c r="K103" s="127"/>
-      <c r="L103" s="127"/>
-      <c r="M103" s="127"/>
-      <c r="N103" s="123"/>
-    </row>
-    <row r="104" s="124" customFormat="1" spans="1:14">
-      <c r="A104" s="154"/>
-      <c r="B104" s="153"/>
-      <c r="C104" s="123"/>
-      <c r="D104" s="123"/>
-      <c r="E104" s="123"/>
-      <c r="F104" s="126"/>
-      <c r="G104" s="123"/>
-      <c r="H104" s="123"/>
-      <c r="I104" s="127"/>
-      <c r="J104" s="127"/>
-      <c r="K104" s="127"/>
-      <c r="L104" s="127"/>
-      <c r="M104" s="127"/>
-      <c r="N104" s="123"/>
-    </row>
-    <row r="105" s="124" customFormat="1" spans="1:14">
-      <c r="A105" s="154"/>
-      <c r="B105" s="153"/>
-      <c r="C105" s="123"/>
-      <c r="D105" s="123"/>
-      <c r="E105" s="123"/>
-      <c r="F105" s="126"/>
-      <c r="G105" s="123"/>
-      <c r="H105" s="123"/>
-      <c r="I105" s="127"/>
-      <c r="J105" s="127"/>
-      <c r="K105" s="127"/>
-      <c r="L105" s="127"/>
-      <c r="M105" s="127"/>
-      <c r="N105" s="123"/>
-    </row>
-    <row r="106" s="124" customFormat="1" spans="1:14">
-      <c r="A106" s="154"/>
-      <c r="B106" s="153"/>
-      <c r="C106" s="123"/>
-      <c r="D106" s="123"/>
-      <c r="E106" s="123"/>
-      <c r="F106" s="126"/>
-      <c r="G106" s="123"/>
-      <c r="H106" s="123"/>
-      <c r="I106" s="127"/>
-      <c r="J106" s="127"/>
-      <c r="K106" s="127"/>
-      <c r="L106" s="127"/>
-      <c r="M106" s="127"/>
-      <c r="N106" s="123"/>
-    </row>
-    <row r="107" s="124" customFormat="1" spans="1:14">
-      <c r="A107" s="154"/>
-      <c r="B107" s="153"/>
-      <c r="C107" s="123"/>
-      <c r="D107" s="123"/>
-      <c r="E107" s="123"/>
-      <c r="F107" s="126"/>
-      <c r="G107" s="123"/>
-      <c r="H107" s="123"/>
-      <c r="I107" s="127"/>
-      <c r="J107" s="127"/>
-      <c r="K107" s="127"/>
-      <c r="L107" s="127"/>
-      <c r="M107" s="127"/>
-      <c r="N107" s="123"/>
-    </row>
-    <row r="108" s="124" customFormat="1" spans="1:14">
-      <c r="A108" s="154"/>
-      <c r="B108" s="153"/>
-      <c r="C108" s="123"/>
-      <c r="D108" s="123"/>
-      <c r="E108" s="123"/>
-      <c r="F108" s="126"/>
-      <c r="G108" s="123"/>
-      <c r="H108" s="123"/>
-      <c r="I108" s="127"/>
-      <c r="J108" s="127"/>
-      <c r="K108" s="127"/>
-      <c r="L108" s="127"/>
-      <c r="M108" s="127"/>
-      <c r="N108" s="123"/>
-    </row>
-    <row r="109" s="124" customFormat="1" spans="1:14">
-      <c r="A109" s="154"/>
-      <c r="B109" s="153"/>
-      <c r="C109" s="123"/>
-      <c r="D109" s="123"/>
-      <c r="E109" s="123"/>
-      <c r="F109" s="126"/>
-      <c r="G109" s="123"/>
-      <c r="H109" s="123"/>
-      <c r="I109" s="127"/>
-      <c r="J109" s="127"/>
-      <c r="K109" s="127"/>
-      <c r="L109" s="127"/>
-      <c r="M109" s="127"/>
-      <c r="N109" s="123"/>
-    </row>
-    <row r="110" s="124" customFormat="1" spans="1:14">
-      <c r="A110" s="154"/>
-      <c r="B110" s="153"/>
-      <c r="C110" s="123"/>
-      <c r="D110" s="123"/>
-      <c r="E110" s="123"/>
-      <c r="F110" s="126"/>
-      <c r="G110" s="123"/>
-      <c r="H110" s="123"/>
-      <c r="I110" s="127"/>
-      <c r="J110" s="127"/>
-      <c r="K110" s="127"/>
-      <c r="L110" s="127"/>
-      <c r="M110" s="127"/>
-      <c r="N110" s="123"/>
-    </row>
-    <row r="111" s="124" customFormat="1" spans="1:14">
-      <c r="A111" s="154"/>
-      <c r="B111" s="153"/>
-      <c r="C111" s="123"/>
-      <c r="D111" s="123"/>
-      <c r="E111" s="123"/>
-      <c r="F111" s="126"/>
-      <c r="G111" s="123"/>
-      <c r="H111" s="123"/>
-      <c r="I111" s="127"/>
-      <c r="J111" s="127"/>
-      <c r="K111" s="127"/>
-      <c r="L111" s="127"/>
-      <c r="M111" s="127"/>
-      <c r="N111" s="123"/>
-    </row>
-    <row r="112" s="124" customFormat="1" spans="1:14">
-      <c r="A112" s="154"/>
-      <c r="B112" s="153"/>
-      <c r="C112" s="123"/>
-      <c r="D112" s="123"/>
-      <c r="E112" s="123"/>
-      <c r="F112" s="126"/>
-      <c r="G112" s="123"/>
-      <c r="H112" s="123"/>
-      <c r="I112" s="127"/>
-      <c r="J112" s="127"/>
-      <c r="K112" s="127"/>
-      <c r="L112" s="127"/>
-      <c r="M112" s="127"/>
-      <c r="N112" s="123"/>
-    </row>
-    <row r="113" s="124" customFormat="1" spans="1:14">
-      <c r="A113" s="154"/>
-      <c r="B113" s="153"/>
-      <c r="C113" s="123"/>
-      <c r="D113" s="123"/>
-      <c r="E113" s="123"/>
-      <c r="F113" s="126"/>
-      <c r="G113" s="123"/>
-      <c r="H113" s="123"/>
-      <c r="I113" s="127"/>
-      <c r="J113" s="127"/>
-      <c r="K113" s="127"/>
-      <c r="L113" s="127"/>
-      <c r="M113" s="127"/>
-      <c r="N113" s="123"/>
-    </row>
-    <row r="114" s="124" customFormat="1" spans="1:14">
-      <c r="A114" s="154"/>
-      <c r="B114" s="153"/>
-      <c r="C114" s="123"/>
-      <c r="D114" s="123"/>
-      <c r="E114" s="123"/>
-      <c r="F114" s="126"/>
-      <c r="G114" s="123"/>
-      <c r="H114" s="123"/>
-      <c r="I114" s="127"/>
-      <c r="J114" s="127"/>
-      <c r="K114" s="127"/>
-      <c r="L114" s="127"/>
-      <c r="M114" s="127"/>
-      <c r="N114" s="123"/>
-    </row>
-    <row r="115" s="124" customFormat="1" spans="1:14">
-      <c r="A115" s="154"/>
-      <c r="B115" s="153"/>
-      <c r="C115" s="123"/>
-      <c r="D115" s="123"/>
-      <c r="E115" s="123"/>
-      <c r="F115" s="126"/>
-      <c r="G115" s="123"/>
-      <c r="H115" s="123"/>
-      <c r="I115" s="127"/>
-      <c r="J115" s="127"/>
-      <c r="K115" s="127"/>
-      <c r="L115" s="127"/>
-      <c r="M115" s="127"/>
-      <c r="N115" s="123"/>
-    </row>
-    <row r="116" s="124" customFormat="1" spans="1:14">
-      <c r="A116" s="154"/>
-      <c r="B116" s="153"/>
-      <c r="C116" s="123"/>
-      <c r="D116" s="123"/>
-      <c r="E116" s="123"/>
-      <c r="F116" s="126"/>
-      <c r="G116" s="123"/>
-      <c r="H116" s="123"/>
-      <c r="I116" s="127"/>
-      <c r="J116" s="127"/>
-      <c r="K116" s="127"/>
-      <c r="L116" s="127"/>
-      <c r="M116" s="127"/>
-      <c r="N116" s="123"/>
-    </row>
-    <row r="117" s="124" customFormat="1" spans="1:14">
-      <c r="A117" s="154"/>
-      <c r="B117" s="153"/>
-      <c r="C117" s="123"/>
-      <c r="D117" s="123"/>
-      <c r="E117" s="123"/>
-      <c r="F117" s="126"/>
-      <c r="G117" s="123"/>
-      <c r="H117" s="123"/>
-      <c r="I117" s="127"/>
-      <c r="J117" s="127"/>
-      <c r="K117" s="127"/>
-      <c r="L117" s="127"/>
-      <c r="M117" s="127"/>
-      <c r="N117" s="123"/>
-    </row>
-    <row r="118" s="124" customFormat="1" spans="1:14">
-      <c r="A118" s="154"/>
-      <c r="B118" s="153"/>
-      <c r="C118" s="123"/>
-      <c r="D118" s="123"/>
-      <c r="E118" s="123"/>
-      <c r="F118" s="126"/>
-      <c r="G118" s="123"/>
-      <c r="H118" s="123"/>
-      <c r="I118" s="127"/>
-      <c r="J118" s="127"/>
-      <c r="K118" s="127"/>
-      <c r="L118" s="127"/>
-      <c r="M118" s="127"/>
-      <c r="N118" s="123"/>
-    </row>
-    <row r="119" s="124" customFormat="1" spans="1:14">
-      <c r="A119" s="154"/>
-      <c r="B119" s="153"/>
-      <c r="C119" s="123"/>
-      <c r="D119" s="123"/>
-      <c r="E119" s="123"/>
-      <c r="F119" s="126"/>
-      <c r="G119" s="123"/>
-      <c r="H119" s="123"/>
-      <c r="I119" s="127"/>
-      <c r="J119" s="127"/>
-      <c r="K119" s="127"/>
-      <c r="L119" s="127"/>
-      <c r="M119" s="127"/>
-      <c r="N119" s="123"/>
-    </row>
-    <row r="120" s="124" customFormat="1" spans="1:14">
-      <c r="A120" s="154"/>
-      <c r="B120" s="153"/>
-      <c r="C120" s="123"/>
-      <c r="D120" s="123"/>
-      <c r="E120" s="123"/>
-      <c r="F120" s="126"/>
-      <c r="G120" s="123"/>
-      <c r="H120" s="123"/>
-      <c r="I120" s="127"/>
-      <c r="J120" s="127"/>
-      <c r="K120" s="127"/>
-      <c r="L120" s="127"/>
-      <c r="M120" s="127"/>
-      <c r="N120" s="123"/>
-    </row>
-    <row r="121" s="124" customFormat="1" spans="1:14">
-      <c r="A121" s="154"/>
-      <c r="B121" s="153"/>
-      <c r="C121" s="123"/>
-      <c r="D121" s="123"/>
-      <c r="E121" s="123"/>
-      <c r="F121" s="126"/>
-      <c r="G121" s="123"/>
-      <c r="H121" s="123"/>
-      <c r="I121" s="127"/>
-      <c r="J121" s="127"/>
-      <c r="K121" s="127"/>
-      <c r="L121" s="127"/>
-      <c r="M121" s="127"/>
-      <c r="N121" s="123"/>
-    </row>
-    <row r="122" s="124" customFormat="1" spans="1:14">
-      <c r="A122" s="154"/>
-      <c r="B122" s="153"/>
-      <c r="C122" s="123"/>
-      <c r="D122" s="123"/>
-      <c r="E122" s="123"/>
-      <c r="F122" s="126"/>
-      <c r="G122" s="123"/>
-      <c r="H122" s="123"/>
-      <c r="I122" s="127"/>
-      <c r="J122" s="127"/>
-      <c r="K122" s="127"/>
-      <c r="L122" s="127"/>
-      <c r="M122" s="127"/>
-      <c r="N122" s="123"/>
-    </row>
-    <row r="123" s="124" customFormat="1" spans="1:14">
-      <c r="A123" s="154"/>
-      <c r="B123" s="153"/>
-      <c r="C123" s="123"/>
-      <c r="D123" s="123"/>
-      <c r="E123" s="123"/>
-      <c r="F123" s="126"/>
-      <c r="G123" s="123"/>
-      <c r="H123" s="123"/>
-      <c r="I123" s="127"/>
-      <c r="J123" s="127"/>
-      <c r="K123" s="127"/>
-      <c r="L123" s="127"/>
-      <c r="M123" s="127"/>
-      <c r="N123" s="123"/>
-    </row>
-    <row r="124" s="124" customFormat="1" spans="1:14">
-      <c r="A124" s="154"/>
-      <c r="B124" s="153"/>
-      <c r="C124" s="123"/>
-      <c r="D124" s="123"/>
-      <c r="E124" s="123"/>
-      <c r="F124" s="126"/>
-      <c r="G124" s="123"/>
-      <c r="H124" s="123"/>
-      <c r="I124" s="127"/>
-      <c r="J124" s="127"/>
-      <c r="K124" s="127"/>
-      <c r="L124" s="127"/>
-      <c r="M124" s="127"/>
-      <c r="N124" s="123"/>
-    </row>
-    <row r="125" s="124" customFormat="1" spans="1:14">
-      <c r="A125" s="154"/>
-      <c r="B125" s="153"/>
-      <c r="C125" s="123"/>
-      <c r="D125" s="123"/>
-      <c r="E125" s="123"/>
-      <c r="F125" s="126"/>
-      <c r="G125" s="123"/>
-      <c r="H125" s="123"/>
-      <c r="I125" s="127"/>
-      <c r="J125" s="127"/>
-      <c r="K125" s="127"/>
-      <c r="L125" s="127"/>
-      <c r="M125" s="127"/>
-      <c r="N125" s="123"/>
-    </row>
-    <row r="126" s="124" customFormat="1" spans="1:14">
-      <c r="A126" s="154"/>
-      <c r="B126" s="153"/>
-      <c r="C126" s="123"/>
-      <c r="D126" s="123"/>
-      <c r="E126" s="123"/>
-      <c r="F126" s="126"/>
-      <c r="G126" s="123"/>
-      <c r="H126" s="123"/>
-      <c r="I126" s="127"/>
-      <c r="J126" s="127"/>
-      <c r="K126" s="127"/>
-      <c r="L126" s="127"/>
-      <c r="M126" s="127"/>
-      <c r="N126" s="123"/>
-    </row>
-    <row r="127" s="124" customFormat="1" spans="1:14">
-      <c r="A127" s="154"/>
-      <c r="B127" s="153"/>
-      <c r="C127" s="123"/>
-      <c r="D127" s="123"/>
-      <c r="E127" s="123"/>
-      <c r="F127" s="126"/>
-      <c r="G127" s="123"/>
-      <c r="H127" s="123"/>
-      <c r="I127" s="127"/>
-      <c r="J127" s="127"/>
-      <c r="K127" s="127"/>
-      <c r="L127" s="127"/>
-      <c r="M127" s="127"/>
-      <c r="N127" s="123"/>
-    </row>
-    <row r="128" s="124" customFormat="1" spans="1:14">
-      <c r="A128" s="154"/>
-      <c r="B128" s="153"/>
-      <c r="C128" s="123"/>
-      <c r="D128" s="123"/>
-      <c r="E128" s="123"/>
-      <c r="F128" s="126"/>
-      <c r="G128" s="123"/>
-      <c r="H128" s="123"/>
-      <c r="I128" s="127"/>
-      <c r="J128" s="127"/>
-      <c r="K128" s="127"/>
-      <c r="L128" s="127"/>
-      <c r="M128" s="127"/>
-      <c r="N128" s="123"/>
-    </row>
-    <row r="129" s="124" customFormat="1" spans="1:14">
-      <c r="A129" s="154"/>
-      <c r="B129" s="153"/>
-      <c r="C129" s="123"/>
-      <c r="D129" s="123"/>
-      <c r="E129" s="123"/>
-      <c r="F129" s="126"/>
-      <c r="G129" s="123"/>
-      <c r="H129" s="123"/>
-      <c r="I129" s="127"/>
-      <c r="J129" s="127"/>
-      <c r="K129" s="127"/>
-      <c r="L129" s="127"/>
-      <c r="M129" s="127"/>
-      <c r="N129" s="123"/>
-    </row>
-    <row r="130" s="124" customFormat="1" spans="1:14">
-      <c r="A130" s="154"/>
-      <c r="B130" s="153"/>
-      <c r="C130" s="123"/>
-      <c r="D130" s="123"/>
-      <c r="E130" s="123"/>
-      <c r="F130" s="126"/>
-      <c r="G130" s="123"/>
-      <c r="H130" s="123"/>
-      <c r="I130" s="127"/>
-      <c r="J130" s="127"/>
-      <c r="K130" s="127"/>
-      <c r="L130" s="127"/>
-      <c r="M130" s="127"/>
-      <c r="N130" s="123"/>
-    </row>
-    <row r="131" s="124" customFormat="1" spans="1:14">
-      <c r="A131" s="154"/>
-      <c r="B131" s="153"/>
-      <c r="C131" s="123"/>
-      <c r="D131" s="123"/>
-      <c r="E131" s="123"/>
-      <c r="F131" s="126"/>
-      <c r="G131" s="123"/>
-      <c r="H131" s="123"/>
-      <c r="I131" s="127"/>
-      <c r="J131" s="127"/>
-      <c r="K131" s="127"/>
-      <c r="L131" s="127"/>
-      <c r="M131" s="127"/>
-      <c r="N131" s="123"/>
-    </row>
-    <row r="132" s="124" customFormat="1" spans="1:14">
-      <c r="A132" s="154"/>
-      <c r="B132" s="153"/>
-      <c r="C132" s="123"/>
-      <c r="D132" s="123"/>
-      <c r="E132" s="123"/>
-      <c r="F132" s="126"/>
-      <c r="G132" s="123"/>
-      <c r="H132" s="123"/>
-      <c r="I132" s="127"/>
-      <c r="J132" s="127"/>
-      <c r="K132" s="127"/>
-      <c r="L132" s="127"/>
-      <c r="M132" s="127"/>
-      <c r="N132" s="123"/>
-    </row>
-    <row r="133" s="124" customFormat="1" spans="1:14">
-      <c r="A133" s="154"/>
-      <c r="B133" s="153"/>
-      <c r="C133" s="123"/>
-      <c r="D133" s="123"/>
-      <c r="E133" s="123"/>
-      <c r="F133" s="126"/>
-      <c r="G133" s="123"/>
-      <c r="H133" s="123"/>
-      <c r="I133" s="127"/>
-      <c r="J133" s="127"/>
-      <c r="K133" s="127"/>
-      <c r="L133" s="127"/>
-      <c r="M133" s="127"/>
-      <c r="N133" s="123"/>
-    </row>
-    <row r="134" s="124" customFormat="1" spans="1:14">
-      <c r="A134" s="154"/>
-      <c r="B134" s="153"/>
-      <c r="C134" s="123"/>
-      <c r="D134" s="123"/>
-      <c r="E134" s="123"/>
-      <c r="F134" s="126"/>
-      <c r="G134" s="123"/>
-      <c r="H134" s="123"/>
-      <c r="I134" s="127"/>
-      <c r="J134" s="127"/>
-      <c r="K134" s="127"/>
-      <c r="L134" s="127"/>
-      <c r="M134" s="127"/>
-      <c r="N134" s="123"/>
-    </row>
-    <row r="135" s="124" customFormat="1" spans="1:14">
-      <c r="A135" s="154"/>
-      <c r="B135" s="153"/>
-      <c r="C135" s="123"/>
-      <c r="D135" s="123"/>
-      <c r="E135" s="123"/>
-      <c r="F135" s="126"/>
-      <c r="G135" s="123"/>
-      <c r="H135" s="123"/>
-      <c r="I135" s="127"/>
-      <c r="J135" s="127"/>
-      <c r="K135" s="127"/>
-      <c r="L135" s="127"/>
-      <c r="M135" s="127"/>
-      <c r="N135" s="123"/>
-    </row>
-    <row r="136" s="124" customFormat="1" spans="1:14">
-      <c r="A136" s="154"/>
-      <c r="B136" s="153"/>
-      <c r="C136" s="123"/>
-      <c r="D136" s="123"/>
-      <c r="E136" s="123"/>
-      <c r="F136" s="126"/>
-      <c r="G136" s="123"/>
-      <c r="H136" s="123"/>
-      <c r="I136" s="127"/>
-      <c r="J136" s="127"/>
-      <c r="K136" s="127"/>
-      <c r="L136" s="127"/>
-      <c r="M136" s="127"/>
-      <c r="N136" s="123"/>
-    </row>
-    <row r="137" s="124" customFormat="1" spans="1:14">
-      <c r="A137" s="154"/>
-      <c r="B137" s="153"/>
-      <c r="C137" s="123"/>
-      <c r="D137" s="123"/>
-      <c r="E137" s="123"/>
-      <c r="F137" s="126"/>
-      <c r="G137" s="123"/>
-      <c r="H137" s="123"/>
-      <c r="I137" s="127"/>
-      <c r="J137" s="127"/>
-      <c r="K137" s="127"/>
-      <c r="L137" s="127"/>
-      <c r="M137" s="127"/>
-      <c r="N137" s="123"/>
-    </row>
-    <row r="138" s="124" customFormat="1" spans="1:14">
-      <c r="A138" s="154"/>
-      <c r="B138" s="153"/>
-      <c r="C138" s="123"/>
-      <c r="D138" s="123"/>
-      <c r="E138" s="123"/>
-      <c r="F138" s="126"/>
-      <c r="G138" s="123"/>
-      <c r="H138" s="123"/>
-      <c r="I138" s="127"/>
-      <c r="J138" s="127"/>
-      <c r="K138" s="127"/>
-      <c r="L138" s="127"/>
-      <c r="M138" s="127"/>
-      <c r="N138" s="123"/>
-    </row>
-    <row r="139" s="124" customFormat="1" spans="1:14">
-      <c r="A139" s="154"/>
-      <c r="B139" s="153"/>
-      <c r="C139" s="123"/>
-      <c r="D139" s="123"/>
-      <c r="E139" s="123"/>
-      <c r="F139" s="126"/>
-      <c r="G139" s="123"/>
-      <c r="H139" s="123"/>
-      <c r="I139" s="127"/>
-      <c r="J139" s="127"/>
-      <c r="K139" s="127"/>
-      <c r="L139" s="127"/>
-      <c r="M139" s="127"/>
-      <c r="N139" s="123"/>
-    </row>
-    <row r="140" s="124" customFormat="1" spans="1:14">
-      <c r="A140" s="154"/>
-      <c r="B140" s="153"/>
-      <c r="C140" s="123"/>
-      <c r="D140" s="123"/>
-      <c r="E140" s="123"/>
-      <c r="F140" s="126"/>
-      <c r="G140" s="123"/>
-      <c r="H140" s="123"/>
-      <c r="I140" s="127"/>
-      <c r="J140" s="127"/>
-      <c r="K140" s="127"/>
-      <c r="L140" s="127"/>
-      <c r="M140" s="127"/>
-      <c r="N140" s="123"/>
-    </row>
-    <row r="141" s="124" customFormat="1" spans="1:14">
-      <c r="A141" s="154"/>
-      <c r="B141" s="153"/>
-      <c r="C141" s="123"/>
-      <c r="D141" s="123"/>
-      <c r="E141" s="123"/>
-      <c r="F141" s="126"/>
-      <c r="G141" s="123"/>
-      <c r="H141" s="123"/>
-      <c r="I141" s="127"/>
-      <c r="J141" s="127"/>
-      <c r="K141" s="127"/>
-      <c r="L141" s="127"/>
-      <c r="M141" s="127"/>
-      <c r="N141" s="123"/>
-    </row>
-    <row r="142" s="124" customFormat="1" spans="1:14">
-      <c r="A142" s="154"/>
-      <c r="B142" s="153"/>
-      <c r="C142" s="123"/>
-      <c r="D142" s="123"/>
-      <c r="E142" s="123"/>
-      <c r="F142" s="126"/>
-      <c r="G142" s="123"/>
-      <c r="H142" s="123"/>
-      <c r="I142" s="127"/>
-      <c r="J142" s="127"/>
-      <c r="K142" s="127"/>
-      <c r="L142" s="127"/>
-      <c r="M142" s="127"/>
-      <c r="N142" s="123"/>
-    </row>
-    <row r="143" s="124" customFormat="1" spans="1:14">
-      <c r="A143" s="154"/>
-      <c r="B143" s="153"/>
-      <c r="C143" s="123"/>
-      <c r="D143" s="123"/>
-      <c r="E143" s="123"/>
-      <c r="F143" s="126"/>
-      <c r="G143" s="123"/>
-      <c r="H143" s="123"/>
-      <c r="I143" s="127"/>
-      <c r="J143" s="127"/>
-      <c r="K143" s="127"/>
-      <c r="L143" s="127"/>
-      <c r="M143" s="127"/>
-      <c r="N143" s="123"/>
-    </row>
-    <row r="144" s="124" customFormat="1" spans="1:14">
-      <c r="A144" s="154"/>
-      <c r="B144" s="153"/>
-      <c r="C144" s="123"/>
-      <c r="D144" s="123"/>
-      <c r="E144" s="123"/>
-      <c r="F144" s="126"/>
-      <c r="G144" s="123"/>
-      <c r="H144" s="123"/>
-      <c r="I144" s="127"/>
-      <c r="J144" s="127"/>
-      <c r="K144" s="127"/>
-      <c r="L144" s="127"/>
-      <c r="M144" s="127"/>
-      <c r="N144" s="123"/>
-    </row>
-    <row r="145" s="124" customFormat="1" spans="1:14">
-      <c r="A145" s="154"/>
-      <c r="B145" s="153"/>
-      <c r="C145" s="123"/>
-      <c r="D145" s="123"/>
-      <c r="E145" s="123"/>
-      <c r="F145" s="126"/>
-      <c r="G145" s="123"/>
-      <c r="H145" s="123"/>
-      <c r="I145" s="127"/>
-      <c r="J145" s="127"/>
-      <c r="K145" s="127"/>
-      <c r="L145" s="127"/>
-      <c r="M145" s="127"/>
-      <c r="N145" s="123"/>
-    </row>
-    <row r="146" s="124" customFormat="1" spans="1:14">
-      <c r="A146" s="154"/>
-      <c r="B146" s="153"/>
-      <c r="C146" s="123"/>
-      <c r="D146" s="123"/>
-      <c r="E146" s="123"/>
-      <c r="F146" s="126"/>
-      <c r="G146" s="123"/>
-      <c r="H146" s="123"/>
-      <c r="I146" s="127"/>
-      <c r="J146" s="127"/>
-      <c r="K146" s="127"/>
-      <c r="L146" s="127"/>
-      <c r="M146" s="127"/>
-      <c r="N146" s="123"/>
-    </row>
-    <row r="147" s="124" customFormat="1" spans="1:14">
-      <c r="A147" s="154"/>
-      <c r="B147" s="153"/>
-      <c r="C147" s="123"/>
-      <c r="D147" s="123"/>
-      <c r="E147" s="123"/>
-      <c r="F147" s="126"/>
-      <c r="G147" s="123"/>
-      <c r="H147" s="123"/>
-      <c r="I147" s="127"/>
-      <c r="J147" s="127"/>
-      <c r="K147" s="127"/>
-      <c r="L147" s="127"/>
-      <c r="M147" s="127"/>
-      <c r="N147" s="123"/>
-    </row>
-    <row r="148" s="124" customFormat="1" spans="1:14">
-      <c r="A148" s="154"/>
-      <c r="B148" s="153"/>
-      <c r="C148" s="123"/>
-      <c r="D148" s="123"/>
-      <c r="E148" s="123"/>
-      <c r="F148" s="126"/>
-      <c r="G148" s="123"/>
-      <c r="H148" s="123"/>
-      <c r="I148" s="127"/>
-      <c r="J148" s="127"/>
-      <c r="K148" s="127"/>
-      <c r="L148" s="127"/>
-      <c r="M148" s="127"/>
-      <c r="N148" s="123"/>
-    </row>
-    <row r="149" s="124" customFormat="1" spans="1:14">
-      <c r="A149" s="154"/>
-      <c r="B149" s="153"/>
-      <c r="C149" s="123"/>
-      <c r="D149" s="123"/>
-      <c r="E149" s="123"/>
-      <c r="F149" s="126"/>
-      <c r="G149" s="123"/>
-      <c r="H149" s="123"/>
-      <c r="I149" s="127"/>
-      <c r="J149" s="127"/>
-      <c r="K149" s="127"/>
-      <c r="L149" s="127"/>
-      <c r="M149" s="127"/>
-      <c r="N149" s="123"/>
-    </row>
-    <row r="150" s="124" customFormat="1" spans="1:14">
-      <c r="A150" s="154"/>
-      <c r="B150" s="153"/>
-      <c r="C150" s="123"/>
-      <c r="D150" s="123"/>
-      <c r="E150" s="123"/>
-      <c r="F150" s="126"/>
-      <c r="G150" s="123"/>
-      <c r="H150" s="123"/>
-      <c r="I150" s="127"/>
-      <c r="J150" s="127"/>
-      <c r="K150" s="127"/>
-      <c r="L150" s="127"/>
-      <c r="M150" s="127"/>
-      <c r="N150" s="123"/>
-    </row>
-    <row r="151" s="124" customFormat="1" spans="1:14">
-      <c r="A151" s="154"/>
-      <c r="B151" s="153"/>
-      <c r="C151" s="123"/>
-      <c r="D151" s="123"/>
-      <c r="E151" s="123"/>
-      <c r="F151" s="126"/>
-      <c r="G151" s="123"/>
-      <c r="H151" s="123"/>
-      <c r="I151" s="127"/>
-      <c r="J151" s="127"/>
-      <c r="K151" s="127"/>
-      <c r="L151" s="127"/>
-      <c r="M151" s="127"/>
-      <c r="N151" s="123"/>
-    </row>
-    <row r="152" s="124" customFormat="1" spans="1:14">
-      <c r="A152" s="154"/>
-      <c r="B152" s="153"/>
-      <c r="C152" s="123"/>
-      <c r="D152" s="123"/>
-      <c r="E152" s="123"/>
-      <c r="F152" s="126"/>
-      <c r="G152" s="123"/>
-      <c r="H152" s="123"/>
-      <c r="I152" s="127"/>
-      <c r="J152" s="127"/>
-      <c r="K152" s="127"/>
-      <c r="L152" s="127"/>
-      <c r="M152" s="127"/>
-      <c r="N152" s="123"/>
-    </row>
-    <row r="153" s="124" customFormat="1" spans="1:14">
-      <c r="A153" s="154"/>
-      <c r="B153" s="153"/>
-      <c r="C153" s="123"/>
-      <c r="D153" s="123"/>
-      <c r="E153" s="123"/>
-      <c r="F153" s="126"/>
-      <c r="G153" s="123"/>
-      <c r="H153" s="123"/>
-      <c r="I153" s="127"/>
-      <c r="J153" s="127"/>
-      <c r="K153" s="127"/>
-      <c r="L153" s="127"/>
-      <c r="M153" s="127"/>
-      <c r="N153" s="123"/>
-    </row>
-    <row r="154" s="124" customFormat="1" spans="1:14">
-      <c r="A154" s="154"/>
-      <c r="B154" s="153"/>
-      <c r="C154" s="123"/>
-      <c r="D154" s="123"/>
-      <c r="E154" s="123"/>
-      <c r="F154" s="126"/>
-      <c r="G154" s="123"/>
-      <c r="H154" s="123"/>
-      <c r="I154" s="127"/>
-      <c r="J154" s="127"/>
-      <c r="K154" s="127"/>
-      <c r="L154" s="127"/>
-      <c r="M154" s="127"/>
-      <c r="N154" s="123"/>
-    </row>
-    <row r="155" s="124" customFormat="1" spans="1:14">
-      <c r="A155" s="154"/>
-      <c r="B155" s="153"/>
-      <c r="C155" s="123"/>
-      <c r="D155" s="123"/>
-      <c r="E155" s="123"/>
-      <c r="F155" s="126"/>
-      <c r="G155" s="123"/>
-      <c r="H155" s="123"/>
-      <c r="I155" s="127"/>
-      <c r="J155" s="127"/>
-      <c r="K155" s="127"/>
-      <c r="L155" s="127"/>
-      <c r="M155" s="127"/>
-      <c r="N155" s="123"/>
-    </row>
-    <row r="156" s="124" customFormat="1" spans="1:14">
-      <c r="A156" s="154"/>
-      <c r="B156" s="153"/>
-      <c r="C156" s="123"/>
-      <c r="D156" s="123"/>
-      <c r="E156" s="123"/>
-      <c r="F156" s="126"/>
-      <c r="G156" s="123"/>
-      <c r="H156" s="123"/>
-      <c r="I156" s="127"/>
-      <c r="J156" s="127"/>
-      <c r="K156" s="127"/>
-      <c r="L156" s="127"/>
-      <c r="M156" s="127"/>
-      <c r="N156" s="123"/>
-    </row>
-    <row r="157" s="124" customFormat="1" spans="1:14">
-      <c r="A157" s="154"/>
-      <c r="B157" s="153"/>
-      <c r="C157" s="123"/>
-      <c r="D157" s="123"/>
-      <c r="E157" s="123"/>
-      <c r="F157" s="126"/>
-      <c r="G157" s="123"/>
-      <c r="H157" s="123"/>
-      <c r="I157" s="127"/>
-      <c r="J157" s="127"/>
-      <c r="K157" s="127"/>
-      <c r="L157" s="127"/>
-      <c r="M157" s="127"/>
-      <c r="N157" s="123"/>
-    </row>
-    <row r="158" s="124" customFormat="1" spans="1:14">
-      <c r="A158" s="154"/>
-      <c r="B158" s="153"/>
-      <c r="C158" s="123"/>
-      <c r="D158" s="123"/>
-      <c r="E158" s="123"/>
-      <c r="F158" s="126"/>
-      <c r="G158" s="123"/>
-      <c r="H158" s="123"/>
-      <c r="I158" s="127"/>
-      <c r="J158" s="127"/>
-      <c r="K158" s="127"/>
-      <c r="L158" s="127"/>
-      <c r="M158" s="127"/>
-      <c r="N158" s="123"/>
-    </row>
-    <row r="159" s="124" customFormat="1" spans="1:14">
-      <c r="A159" s="154"/>
-      <c r="B159" s="153"/>
-      <c r="C159" s="123"/>
-      <c r="D159" s="123"/>
-      <c r="E159" s="123"/>
-      <c r="F159" s="126"/>
-      <c r="G159" s="123"/>
-      <c r="H159" s="123"/>
-      <c r="I159" s="127"/>
-      <c r="J159" s="127"/>
-      <c r="K159" s="127"/>
-      <c r="L159" s="127"/>
-      <c r="M159" s="127"/>
-      <c r="N159" s="123"/>
-    </row>
-    <row r="160" s="124" customFormat="1" spans="1:14">
-      <c r="A160" s="154"/>
-      <c r="B160" s="153"/>
-      <c r="C160" s="123"/>
-      <c r="D160" s="123"/>
-      <c r="E160" s="123"/>
-      <c r="F160" s="126"/>
-      <c r="G160" s="123"/>
-      <c r="H160" s="123"/>
-      <c r="I160" s="127"/>
-      <c r="J160" s="127"/>
-      <c r="K160" s="127"/>
-      <c r="L160" s="127"/>
-      <c r="M160" s="127"/>
-      <c r="N160" s="123"/>
-    </row>
-    <row r="161" s="124" customFormat="1" spans="1:14">
-      <c r="A161" s="154"/>
-      <c r="B161" s="153"/>
-      <c r="C161" s="123"/>
-      <c r="D161" s="123"/>
-      <c r="E161" s="123"/>
-      <c r="F161" s="126"/>
-      <c r="G161" s="123"/>
-      <c r="H161" s="123"/>
-      <c r="I161" s="127"/>
-      <c r="J161" s="127"/>
-      <c r="K161" s="127"/>
-      <c r="L161" s="127"/>
-      <c r="M161" s="127"/>
-      <c r="N161" s="123"/>
-    </row>
-    <row r="162" s="124" customFormat="1" spans="1:14">
-      <c r="A162" s="154"/>
-      <c r="B162" s="153"/>
-      <c r="C162" s="123"/>
-      <c r="D162" s="123"/>
-      <c r="E162" s="123"/>
-      <c r="F162" s="126"/>
-      <c r="G162" s="123"/>
-      <c r="H162" s="123"/>
-      <c r="I162" s="127"/>
-      <c r="J162" s="127"/>
-      <c r="K162" s="127"/>
-      <c r="L162" s="127"/>
-      <c r="M162" s="127"/>
-      <c r="N162" s="123"/>
-    </row>
-    <row r="163" s="124" customFormat="1" spans="1:14">
-      <c r="A163" s="154"/>
-      <c r="B163" s="153"/>
-      <c r="C163" s="123"/>
-      <c r="D163" s="123"/>
-      <c r="E163" s="123"/>
-      <c r="F163" s="126"/>
-      <c r="G163" s="123"/>
-      <c r="H163" s="123"/>
-      <c r="I163" s="127"/>
-      <c r="J163" s="127"/>
-      <c r="K163" s="127"/>
-      <c r="L163" s="127"/>
-      <c r="M163" s="127"/>
-      <c r="N163" s="123"/>
-    </row>
-    <row r="164" s="124" customFormat="1" spans="1:14">
-      <c r="A164" s="154"/>
-      <c r="B164" s="153"/>
-      <c r="C164" s="123"/>
-      <c r="D164" s="123"/>
-      <c r="E164" s="123"/>
-      <c r="F164" s="126"/>
-      <c r="G164" s="123"/>
-      <c r="H164" s="123"/>
-      <c r="I164" s="127"/>
-      <c r="J164" s="127"/>
-      <c r="K164" s="127"/>
-      <c r="L164" s="127"/>
-      <c r="M164" s="127"/>
-      <c r="N164" s="123"/>
+      <c r="A48" s="154"/>
+      <c r="B48" s="154"/>
+      <c r="D48" s="126"/>
+      <c r="E48" s="126"/>
+      <c r="G48" s="126"/>
+      <c r="H48" s="126"/>
+      <c r="I48" s="165"/>
+      <c r="J48" s="165"/>
+      <c r="K48" s="165"/>
+      <c r="L48" s="165"/>
+      <c r="M48" s="165"/>
+      <c r="N48" s="126"/>
+    </row>
+    <row r="49" s="124" customFormat="1" spans="1:13">
+      <c r="A49" s="155"/>
+      <c r="B49" s="154"/>
+      <c r="F49" s="127"/>
+      <c r="I49" s="128"/>
+      <c r="J49" s="128"/>
+      <c r="K49" s="128"/>
+      <c r="L49" s="128"/>
+      <c r="M49" s="128"/>
+    </row>
+    <row r="50" s="124" customFormat="1" spans="1:13">
+      <c r="A50" s="155"/>
+      <c r="B50" s="154"/>
+      <c r="F50" s="127"/>
+      <c r="I50" s="128"/>
+      <c r="J50" s="128"/>
+      <c r="K50" s="128"/>
+      <c r="L50" s="128"/>
+      <c r="M50" s="128"/>
+    </row>
+    <row r="51" s="124" customFormat="1" spans="1:13">
+      <c r="A51" s="155"/>
+      <c r="B51" s="154"/>
+      <c r="F51" s="127"/>
+      <c r="I51" s="128"/>
+      <c r="J51" s="128"/>
+      <c r="K51" s="128"/>
+      <c r="L51" s="128"/>
+      <c r="M51" s="128"/>
+    </row>
+    <row r="52" s="124" customFormat="1" spans="1:13">
+      <c r="A52" s="155"/>
+      <c r="B52" s="154"/>
+      <c r="F52" s="127"/>
+      <c r="I52" s="128"/>
+      <c r="J52" s="128"/>
+      <c r="K52" s="128"/>
+      <c r="L52" s="128"/>
+      <c r="M52" s="128"/>
+    </row>
+    <row r="53" s="124" customFormat="1" spans="1:13">
+      <c r="A53" s="155"/>
+      <c r="B53" s="154"/>
+      <c r="F53" s="127"/>
+      <c r="I53" s="128"/>
+      <c r="J53" s="128"/>
+      <c r="K53" s="128"/>
+      <c r="L53" s="128"/>
+      <c r="M53" s="128"/>
+    </row>
+    <row r="54" s="124" customFormat="1" spans="1:13">
+      <c r="A54" s="155"/>
+      <c r="B54" s="154"/>
+      <c r="F54" s="127"/>
+      <c r="I54" s="128"/>
+      <c r="J54" s="128"/>
+      <c r="K54" s="128"/>
+      <c r="L54" s="128"/>
+      <c r="M54" s="128"/>
+    </row>
+    <row r="55" s="124" customFormat="1" spans="1:13">
+      <c r="A55" s="155"/>
+      <c r="B55" s="154"/>
+      <c r="F55" s="127"/>
+      <c r="I55" s="128"/>
+      <c r="J55" s="128"/>
+      <c r="K55" s="128"/>
+      <c r="L55" s="128"/>
+      <c r="M55" s="128"/>
+    </row>
+    <row r="56" s="124" customFormat="1" spans="1:13">
+      <c r="A56" s="155"/>
+      <c r="B56" s="154"/>
+      <c r="F56" s="127"/>
+      <c r="I56" s="128"/>
+      <c r="J56" s="128"/>
+      <c r="K56" s="128"/>
+      <c r="L56" s="128"/>
+      <c r="M56" s="128"/>
+    </row>
+    <row r="57" s="124" customFormat="1" spans="1:13">
+      <c r="A57" s="155"/>
+      <c r="B57" s="154"/>
+      <c r="F57" s="127"/>
+      <c r="I57" s="128"/>
+      <c r="J57" s="128"/>
+      <c r="K57" s="128"/>
+      <c r="L57" s="128"/>
+      <c r="M57" s="128"/>
+    </row>
+    <row r="58" s="124" customFormat="1" spans="1:13">
+      <c r="A58" s="155"/>
+      <c r="B58" s="154"/>
+      <c r="F58" s="127"/>
+      <c r="I58" s="128"/>
+      <c r="J58" s="128"/>
+      <c r="K58" s="128"/>
+      <c r="L58" s="128"/>
+      <c r="M58" s="128"/>
+    </row>
+    <row r="59" s="125" customFormat="1" spans="1:14">
+      <c r="A59" s="155"/>
+      <c r="B59" s="154"/>
+      <c r="C59" s="124"/>
+      <c r="D59" s="124"/>
+      <c r="E59" s="124"/>
+      <c r="F59" s="127"/>
+      <c r="G59" s="124"/>
+      <c r="H59" s="124"/>
+      <c r="I59" s="128"/>
+      <c r="J59" s="128"/>
+      <c r="K59" s="128"/>
+      <c r="L59" s="128"/>
+      <c r="M59" s="128"/>
+      <c r="N59" s="124"/>
+    </row>
+    <row r="60" s="125" customFormat="1" spans="1:14">
+      <c r="A60" s="155"/>
+      <c r="B60" s="154"/>
+      <c r="C60" s="124"/>
+      <c r="D60" s="124"/>
+      <c r="E60" s="124"/>
+      <c r="F60" s="127"/>
+      <c r="G60" s="124"/>
+      <c r="H60" s="124"/>
+      <c r="I60" s="128"/>
+      <c r="J60" s="128"/>
+      <c r="K60" s="128"/>
+      <c r="L60" s="128"/>
+      <c r="M60" s="128"/>
+      <c r="N60" s="124"/>
+    </row>
+    <row r="61" s="125" customFormat="1" spans="1:14">
+      <c r="A61" s="155"/>
+      <c r="B61" s="154"/>
+      <c r="C61" s="124"/>
+      <c r="D61" s="124"/>
+      <c r="E61" s="124"/>
+      <c r="F61" s="127"/>
+      <c r="G61" s="124"/>
+      <c r="H61" s="124"/>
+      <c r="I61" s="128"/>
+      <c r="J61" s="128"/>
+      <c r="K61" s="128"/>
+      <c r="L61" s="128"/>
+      <c r="M61" s="128"/>
+      <c r="N61" s="124"/>
+    </row>
+    <row r="62" s="125" customFormat="1" spans="1:14">
+      <c r="A62" s="155"/>
+      <c r="B62" s="154"/>
+      <c r="C62" s="124"/>
+      <c r="D62" s="124"/>
+      <c r="E62" s="124"/>
+      <c r="F62" s="127"/>
+      <c r="G62" s="124"/>
+      <c r="H62" s="124"/>
+      <c r="I62" s="128"/>
+      <c r="J62" s="128"/>
+      <c r="K62" s="128"/>
+      <c r="L62" s="128"/>
+      <c r="M62" s="128"/>
+      <c r="N62" s="124"/>
+    </row>
+    <row r="63" s="125" customFormat="1" spans="1:14">
+      <c r="A63" s="155"/>
+      <c r="B63" s="154"/>
+      <c r="C63" s="124"/>
+      <c r="D63" s="124"/>
+      <c r="E63" s="124"/>
+      <c r="F63" s="127"/>
+      <c r="G63" s="124"/>
+      <c r="H63" s="124"/>
+      <c r="I63" s="128"/>
+      <c r="J63" s="128"/>
+      <c r="K63" s="128"/>
+      <c r="L63" s="128"/>
+      <c r="M63" s="128"/>
+      <c r="N63" s="124"/>
+    </row>
+    <row r="64" s="125" customFormat="1" spans="1:14">
+      <c r="A64" s="155"/>
+      <c r="B64" s="154"/>
+      <c r="C64" s="124"/>
+      <c r="D64" s="124"/>
+      <c r="E64" s="124"/>
+      <c r="F64" s="127"/>
+      <c r="G64" s="124"/>
+      <c r="H64" s="124"/>
+      <c r="I64" s="128"/>
+      <c r="J64" s="128"/>
+      <c r="K64" s="128"/>
+      <c r="L64" s="128"/>
+      <c r="M64" s="128"/>
+      <c r="N64" s="124"/>
+    </row>
+    <row r="65" s="125" customFormat="1" spans="1:14">
+      <c r="A65" s="155"/>
+      <c r="B65" s="154"/>
+      <c r="C65" s="124"/>
+      <c r="D65" s="124"/>
+      <c r="E65" s="124"/>
+      <c r="F65" s="127"/>
+      <c r="G65" s="124"/>
+      <c r="H65" s="124"/>
+      <c r="I65" s="128"/>
+      <c r="J65" s="128"/>
+      <c r="K65" s="128"/>
+      <c r="L65" s="128"/>
+      <c r="M65" s="128"/>
+      <c r="N65" s="124"/>
+    </row>
+    <row r="66" s="125" customFormat="1" spans="1:14">
+      <c r="A66" s="155"/>
+      <c r="B66" s="154"/>
+      <c r="C66" s="124"/>
+      <c r="D66" s="124"/>
+      <c r="E66" s="124"/>
+      <c r="F66" s="127"/>
+      <c r="G66" s="124"/>
+      <c r="H66" s="124"/>
+      <c r="I66" s="128"/>
+      <c r="J66" s="128"/>
+      <c r="K66" s="128"/>
+      <c r="L66" s="128"/>
+      <c r="M66" s="128"/>
+      <c r="N66" s="124"/>
+    </row>
+    <row r="67" s="125" customFormat="1" spans="1:14">
+      <c r="A67" s="155"/>
+      <c r="B67" s="154"/>
+      <c r="C67" s="124"/>
+      <c r="D67" s="124"/>
+      <c r="E67" s="124"/>
+      <c r="F67" s="127"/>
+      <c r="G67" s="124"/>
+      <c r="H67" s="124"/>
+      <c r="I67" s="128"/>
+      <c r="J67" s="128"/>
+      <c r="K67" s="128"/>
+      <c r="L67" s="128"/>
+      <c r="M67" s="128"/>
+      <c r="N67" s="124"/>
+    </row>
+    <row r="68" s="125" customFormat="1" spans="1:14">
+      <c r="A68" s="155"/>
+      <c r="B68" s="154"/>
+      <c r="C68" s="124"/>
+      <c r="D68" s="124"/>
+      <c r="E68" s="124"/>
+      <c r="F68" s="127"/>
+      <c r="G68" s="124"/>
+      <c r="H68" s="124"/>
+      <c r="I68" s="128"/>
+      <c r="J68" s="128"/>
+      <c r="K68" s="128"/>
+      <c r="L68" s="128"/>
+      <c r="M68" s="128"/>
+      <c r="N68" s="124"/>
+    </row>
+    <row r="69" s="125" customFormat="1" spans="1:14">
+      <c r="A69" s="155"/>
+      <c r="B69" s="154"/>
+      <c r="C69" s="124"/>
+      <c r="D69" s="124"/>
+      <c r="E69" s="124"/>
+      <c r="F69" s="127"/>
+      <c r="G69" s="124"/>
+      <c r="H69" s="124"/>
+      <c r="I69" s="128"/>
+      <c r="J69" s="128"/>
+      <c r="K69" s="128"/>
+      <c r="L69" s="128"/>
+      <c r="M69" s="128"/>
+      <c r="N69" s="124"/>
+    </row>
+    <row r="70" s="125" customFormat="1" spans="1:14">
+      <c r="A70" s="155"/>
+      <c r="B70" s="154"/>
+      <c r="C70" s="124"/>
+      <c r="D70" s="124"/>
+      <c r="E70" s="124"/>
+      <c r="F70" s="127"/>
+      <c r="G70" s="124"/>
+      <c r="H70" s="124"/>
+      <c r="I70" s="128"/>
+      <c r="J70" s="128"/>
+      <c r="K70" s="128"/>
+      <c r="L70" s="128"/>
+      <c r="M70" s="128"/>
+      <c r="N70" s="124"/>
+    </row>
+    <row r="71" s="125" customFormat="1" spans="1:14">
+      <c r="A71" s="155"/>
+      <c r="B71" s="154"/>
+      <c r="C71" s="124"/>
+      <c r="D71" s="124"/>
+      <c r="E71" s="124"/>
+      <c r="F71" s="127"/>
+      <c r="G71" s="124"/>
+      <c r="H71" s="124"/>
+      <c r="I71" s="128"/>
+      <c r="J71" s="128"/>
+      <c r="K71" s="128"/>
+      <c r="L71" s="128"/>
+      <c r="M71" s="128"/>
+      <c r="N71" s="124"/>
+    </row>
+    <row r="72" s="125" customFormat="1" spans="1:14">
+      <c r="A72" s="155"/>
+      <c r="B72" s="154"/>
+      <c r="C72" s="124"/>
+      <c r="D72" s="124"/>
+      <c r="E72" s="124"/>
+      <c r="F72" s="127"/>
+      <c r="G72" s="124"/>
+      <c r="H72" s="124"/>
+      <c r="I72" s="128"/>
+      <c r="J72" s="128"/>
+      <c r="K72" s="128"/>
+      <c r="L72" s="128"/>
+      <c r="M72" s="128"/>
+      <c r="N72" s="124"/>
+    </row>
+    <row r="73" s="125" customFormat="1" spans="1:14">
+      <c r="A73" s="155"/>
+      <c r="B73" s="154"/>
+      <c r="C73" s="124"/>
+      <c r="D73" s="124"/>
+      <c r="E73" s="124"/>
+      <c r="F73" s="127"/>
+      <c r="G73" s="124"/>
+      <c r="H73" s="124"/>
+      <c r="I73" s="128"/>
+      <c r="J73" s="128"/>
+      <c r="K73" s="128"/>
+      <c r="L73" s="128"/>
+      <c r="M73" s="128"/>
+      <c r="N73" s="124"/>
+    </row>
+    <row r="74" s="125" customFormat="1" spans="1:14">
+      <c r="A74" s="155"/>
+      <c r="B74" s="154"/>
+      <c r="C74" s="124"/>
+      <c r="D74" s="124"/>
+      <c r="E74" s="124"/>
+      <c r="F74" s="127"/>
+      <c r="G74" s="124"/>
+      <c r="H74" s="124"/>
+      <c r="I74" s="128"/>
+      <c r="J74" s="128"/>
+      <c r="K74" s="128"/>
+      <c r="L74" s="128"/>
+      <c r="M74" s="128"/>
+      <c r="N74" s="124"/>
+    </row>
+    <row r="75" s="125" customFormat="1" spans="1:14">
+      <c r="A75" s="155"/>
+      <c r="B75" s="154"/>
+      <c r="C75" s="124"/>
+      <c r="D75" s="124"/>
+      <c r="E75" s="124"/>
+      <c r="F75" s="127"/>
+      <c r="G75" s="124"/>
+      <c r="H75" s="124"/>
+      <c r="I75" s="128"/>
+      <c r="J75" s="128"/>
+      <c r="K75" s="128"/>
+      <c r="L75" s="128"/>
+      <c r="M75" s="128"/>
+      <c r="N75" s="124"/>
+    </row>
+    <row r="76" s="125" customFormat="1" spans="1:14">
+      <c r="A76" s="155"/>
+      <c r="B76" s="154"/>
+      <c r="C76" s="124"/>
+      <c r="D76" s="124"/>
+      <c r="E76" s="124"/>
+      <c r="F76" s="127"/>
+      <c r="G76" s="124"/>
+      <c r="H76" s="124"/>
+      <c r="I76" s="128"/>
+      <c r="J76" s="128"/>
+      <c r="K76" s="128"/>
+      <c r="L76" s="128"/>
+      <c r="M76" s="128"/>
+      <c r="N76" s="124"/>
+    </row>
+    <row r="77" s="125" customFormat="1" spans="1:14">
+      <c r="A77" s="155"/>
+      <c r="B77" s="154"/>
+      <c r="C77" s="124"/>
+      <c r="D77" s="124"/>
+      <c r="E77" s="124"/>
+      <c r="F77" s="127"/>
+      <c r="G77" s="124"/>
+      <c r="H77" s="124"/>
+      <c r="I77" s="128"/>
+      <c r="J77" s="128"/>
+      <c r="K77" s="128"/>
+      <c r="L77" s="128"/>
+      <c r="M77" s="128"/>
+      <c r="N77" s="124"/>
+    </row>
+    <row r="78" s="125" customFormat="1" spans="1:14">
+      <c r="A78" s="155"/>
+      <c r="B78" s="154"/>
+      <c r="C78" s="124"/>
+      <c r="D78" s="124"/>
+      <c r="E78" s="124"/>
+      <c r="F78" s="127"/>
+      <c r="G78" s="124"/>
+      <c r="H78" s="124"/>
+      <c r="I78" s="128"/>
+      <c r="J78" s="128"/>
+      <c r="K78" s="128"/>
+      <c r="L78" s="128"/>
+      <c r="M78" s="128"/>
+      <c r="N78" s="124"/>
+    </row>
+    <row r="79" s="125" customFormat="1" spans="1:14">
+      <c r="A79" s="155"/>
+      <c r="B79" s="154"/>
+      <c r="C79" s="124"/>
+      <c r="D79" s="124"/>
+      <c r="E79" s="124"/>
+      <c r="F79" s="127"/>
+      <c r="G79" s="124"/>
+      <c r="H79" s="124"/>
+      <c r="I79" s="128"/>
+      <c r="J79" s="128"/>
+      <c r="K79" s="128"/>
+      <c r="L79" s="128"/>
+      <c r="M79" s="128"/>
+      <c r="N79" s="124"/>
+    </row>
+    <row r="80" s="125" customFormat="1" spans="1:14">
+      <c r="A80" s="155"/>
+      <c r="B80" s="154"/>
+      <c r="C80" s="124"/>
+      <c r="D80" s="124"/>
+      <c r="E80" s="124"/>
+      <c r="F80" s="127"/>
+      <c r="G80" s="124"/>
+      <c r="H80" s="124"/>
+      <c r="I80" s="128"/>
+      <c r="J80" s="128"/>
+      <c r="K80" s="128"/>
+      <c r="L80" s="128"/>
+      <c r="M80" s="128"/>
+      <c r="N80" s="124"/>
+    </row>
+    <row r="81" s="125" customFormat="1" spans="1:14">
+      <c r="A81" s="155"/>
+      <c r="B81" s="154"/>
+      <c r="C81" s="124"/>
+      <c r="D81" s="124"/>
+      <c r="E81" s="124"/>
+      <c r="F81" s="127"/>
+      <c r="G81" s="124"/>
+      <c r="H81" s="124"/>
+      <c r="I81" s="128"/>
+      <c r="J81" s="128"/>
+      <c r="K81" s="128"/>
+      <c r="L81" s="128"/>
+      <c r="M81" s="128"/>
+      <c r="N81" s="124"/>
+    </row>
+    <row r="82" s="125" customFormat="1" spans="1:14">
+      <c r="A82" s="155"/>
+      <c r="B82" s="154"/>
+      <c r="C82" s="124"/>
+      <c r="D82" s="124"/>
+      <c r="E82" s="124"/>
+      <c r="F82" s="127"/>
+      <c r="G82" s="124"/>
+      <c r="H82" s="124"/>
+      <c r="I82" s="128"/>
+      <c r="J82" s="128"/>
+      <c r="K82" s="128"/>
+      <c r="L82" s="128"/>
+      <c r="M82" s="128"/>
+      <c r="N82" s="124"/>
+    </row>
+    <row r="83" s="125" customFormat="1" spans="1:14">
+      <c r="A83" s="155"/>
+      <c r="B83" s="154"/>
+      <c r="C83" s="124"/>
+      <c r="D83" s="124"/>
+      <c r="E83" s="124"/>
+      <c r="F83" s="127"/>
+      <c r="G83" s="124"/>
+      <c r="H83" s="124"/>
+      <c r="I83" s="128"/>
+      <c r="J83" s="128"/>
+      <c r="K83" s="128"/>
+      <c r="L83" s="128"/>
+      <c r="M83" s="128"/>
+      <c r="N83" s="124"/>
+    </row>
+    <row r="84" s="125" customFormat="1" spans="1:14">
+      <c r="A84" s="155"/>
+      <c r="B84" s="154"/>
+      <c r="C84" s="124"/>
+      <c r="D84" s="124"/>
+      <c r="E84" s="124"/>
+      <c r="F84" s="127"/>
+      <c r="G84" s="124"/>
+      <c r="H84" s="124"/>
+      <c r="I84" s="128"/>
+      <c r="J84" s="128"/>
+      <c r="K84" s="128"/>
+      <c r="L84" s="128"/>
+      <c r="M84" s="128"/>
+      <c r="N84" s="124"/>
+    </row>
+    <row r="85" s="125" customFormat="1" spans="1:14">
+      <c r="A85" s="155"/>
+      <c r="B85" s="154"/>
+      <c r="C85" s="124"/>
+      <c r="D85" s="124"/>
+      <c r="E85" s="124"/>
+      <c r="F85" s="127"/>
+      <c r="G85" s="124"/>
+      <c r="H85" s="124"/>
+      <c r="I85" s="128"/>
+      <c r="J85" s="128"/>
+      <c r="K85" s="128"/>
+      <c r="L85" s="128"/>
+      <c r="M85" s="128"/>
+      <c r="N85" s="124"/>
+    </row>
+    <row r="86" s="125" customFormat="1" spans="1:14">
+      <c r="A86" s="155"/>
+      <c r="B86" s="154"/>
+      <c r="C86" s="124"/>
+      <c r="D86" s="124"/>
+      <c r="E86" s="124"/>
+      <c r="F86" s="127"/>
+      <c r="G86" s="124"/>
+      <c r="H86" s="124"/>
+      <c r="I86" s="128"/>
+      <c r="J86" s="128"/>
+      <c r="K86" s="128"/>
+      <c r="L86" s="128"/>
+      <c r="M86" s="128"/>
+      <c r="N86" s="124"/>
+    </row>
+    <row r="87" s="125" customFormat="1" spans="1:14">
+      <c r="A87" s="155"/>
+      <c r="B87" s="154"/>
+      <c r="C87" s="124"/>
+      <c r="D87" s="124"/>
+      <c r="E87" s="124"/>
+      <c r="F87" s="127"/>
+      <c r="G87" s="124"/>
+      <c r="H87" s="124"/>
+      <c r="I87" s="128"/>
+      <c r="J87" s="128"/>
+      <c r="K87" s="128"/>
+      <c r="L87" s="128"/>
+      <c r="M87" s="128"/>
+      <c r="N87" s="124"/>
+    </row>
+    <row r="88" s="125" customFormat="1" spans="1:14">
+      <c r="A88" s="155"/>
+      <c r="B88" s="154"/>
+      <c r="C88" s="124"/>
+      <c r="D88" s="124"/>
+      <c r="E88" s="124"/>
+      <c r="F88" s="127"/>
+      <c r="G88" s="124"/>
+      <c r="H88" s="124"/>
+      <c r="I88" s="128"/>
+      <c r="J88" s="128"/>
+      <c r="K88" s="128"/>
+      <c r="L88" s="128"/>
+      <c r="M88" s="128"/>
+      <c r="N88" s="124"/>
+    </row>
+    <row r="89" s="125" customFormat="1" spans="1:14">
+      <c r="A89" s="155"/>
+      <c r="B89" s="154"/>
+      <c r="C89" s="124"/>
+      <c r="D89" s="124"/>
+      <c r="E89" s="124"/>
+      <c r="F89" s="127"/>
+      <c r="G89" s="124"/>
+      <c r="H89" s="124"/>
+      <c r="I89" s="128"/>
+      <c r="J89" s="128"/>
+      <c r="K89" s="128"/>
+      <c r="L89" s="128"/>
+      <c r="M89" s="128"/>
+      <c r="N89" s="124"/>
+    </row>
+    <row r="90" s="125" customFormat="1" spans="1:14">
+      <c r="A90" s="155"/>
+      <c r="B90" s="154"/>
+      <c r="C90" s="124"/>
+      <c r="D90" s="124"/>
+      <c r="E90" s="124"/>
+      <c r="F90" s="127"/>
+      <c r="G90" s="124"/>
+      <c r="H90" s="124"/>
+      <c r="I90" s="128"/>
+      <c r="J90" s="128"/>
+      <c r="K90" s="128"/>
+      <c r="L90" s="128"/>
+      <c r="M90" s="128"/>
+      <c r="N90" s="124"/>
+    </row>
+    <row r="91" s="125" customFormat="1" spans="1:14">
+      <c r="A91" s="155"/>
+      <c r="B91" s="154"/>
+      <c r="C91" s="124"/>
+      <c r="D91" s="124"/>
+      <c r="E91" s="124"/>
+      <c r="F91" s="127"/>
+      <c r="G91" s="124"/>
+      <c r="H91" s="124"/>
+      <c r="I91" s="128"/>
+      <c r="J91" s="128"/>
+      <c r="K91" s="128"/>
+      <c r="L91" s="128"/>
+      <c r="M91" s="128"/>
+      <c r="N91" s="124"/>
+    </row>
+    <row r="92" s="125" customFormat="1" spans="1:14">
+      <c r="A92" s="155"/>
+      <c r="B92" s="154"/>
+      <c r="C92" s="124"/>
+      <c r="D92" s="124"/>
+      <c r="E92" s="124"/>
+      <c r="F92" s="127"/>
+      <c r="G92" s="124"/>
+      <c r="H92" s="124"/>
+      <c r="I92" s="128"/>
+      <c r="J92" s="128"/>
+      <c r="K92" s="128"/>
+      <c r="L92" s="128"/>
+      <c r="M92" s="128"/>
+      <c r="N92" s="124"/>
+    </row>
+    <row r="93" s="125" customFormat="1" spans="1:14">
+      <c r="A93" s="155"/>
+      <c r="B93" s="154"/>
+      <c r="C93" s="124"/>
+      <c r="D93" s="124"/>
+      <c r="E93" s="124"/>
+      <c r="F93" s="127"/>
+      <c r="G93" s="124"/>
+      <c r="H93" s="124"/>
+      <c r="I93" s="128"/>
+      <c r="J93" s="128"/>
+      <c r="K93" s="128"/>
+      <c r="L93" s="128"/>
+      <c r="M93" s="128"/>
+      <c r="N93" s="124"/>
+    </row>
+    <row r="94" s="125" customFormat="1" spans="1:14">
+      <c r="A94" s="155"/>
+      <c r="B94" s="154"/>
+      <c r="C94" s="124"/>
+      <c r="D94" s="124"/>
+      <c r="E94" s="124"/>
+      <c r="F94" s="127"/>
+      <c r="G94" s="124"/>
+      <c r="H94" s="124"/>
+      <c r="I94" s="128"/>
+      <c r="J94" s="128"/>
+      <c r="K94" s="128"/>
+      <c r="L94" s="128"/>
+      <c r="M94" s="128"/>
+      <c r="N94" s="124"/>
+    </row>
+    <row r="95" s="125" customFormat="1" spans="1:14">
+      <c r="A95" s="155"/>
+      <c r="B95" s="154"/>
+      <c r="C95" s="124"/>
+      <c r="D95" s="124"/>
+      <c r="E95" s="124"/>
+      <c r="F95" s="127"/>
+      <c r="G95" s="124"/>
+      <c r="H95" s="124"/>
+      <c r="I95" s="128"/>
+      <c r="J95" s="128"/>
+      <c r="K95" s="128"/>
+      <c r="L95" s="128"/>
+      <c r="M95" s="128"/>
+      <c r="N95" s="124"/>
+    </row>
+    <row r="96" s="125" customFormat="1" spans="1:14">
+      <c r="A96" s="155"/>
+      <c r="B96" s="154"/>
+      <c r="C96" s="124"/>
+      <c r="D96" s="124"/>
+      <c r="E96" s="124"/>
+      <c r="F96" s="127"/>
+      <c r="G96" s="124"/>
+      <c r="H96" s="124"/>
+      <c r="I96" s="128"/>
+      <c r="J96" s="128"/>
+      <c r="K96" s="128"/>
+      <c r="L96" s="128"/>
+      <c r="M96" s="128"/>
+      <c r="N96" s="124"/>
+    </row>
+    <row r="97" s="125" customFormat="1" spans="1:14">
+      <c r="A97" s="155"/>
+      <c r="B97" s="154"/>
+      <c r="C97" s="124"/>
+      <c r="D97" s="124"/>
+      <c r="E97" s="124"/>
+      <c r="F97" s="127"/>
+      <c r="G97" s="124"/>
+      <c r="H97" s="124"/>
+      <c r="I97" s="128"/>
+      <c r="J97" s="128"/>
+      <c r="K97" s="128"/>
+      <c r="L97" s="128"/>
+      <c r="M97" s="128"/>
+      <c r="N97" s="124"/>
+    </row>
+    <row r="98" s="125" customFormat="1" spans="1:14">
+      <c r="A98" s="155"/>
+      <c r="B98" s="154"/>
+      <c r="C98" s="124"/>
+      <c r="D98" s="124"/>
+      <c r="E98" s="124"/>
+      <c r="F98" s="127"/>
+      <c r="G98" s="124"/>
+      <c r="H98" s="124"/>
+      <c r="I98" s="128"/>
+      <c r="J98" s="128"/>
+      <c r="K98" s="128"/>
+      <c r="L98" s="128"/>
+      <c r="M98" s="128"/>
+      <c r="N98" s="124"/>
+    </row>
+    <row r="99" s="125" customFormat="1" spans="1:14">
+      <c r="A99" s="155"/>
+      <c r="B99" s="154"/>
+      <c r="C99" s="124"/>
+      <c r="D99" s="124"/>
+      <c r="E99" s="124"/>
+      <c r="F99" s="127"/>
+      <c r="G99" s="124"/>
+      <c r="H99" s="124"/>
+      <c r="I99" s="128"/>
+      <c r="J99" s="128"/>
+      <c r="K99" s="128"/>
+      <c r="L99" s="128"/>
+      <c r="M99" s="128"/>
+      <c r="N99" s="124"/>
+    </row>
+    <row r="100" s="125" customFormat="1" spans="1:14">
+      <c r="A100" s="155"/>
+      <c r="B100" s="154"/>
+      <c r="C100" s="124"/>
+      <c r="D100" s="124"/>
+      <c r="E100" s="124"/>
+      <c r="F100" s="127"/>
+      <c r="G100" s="124"/>
+      <c r="H100" s="124"/>
+      <c r="I100" s="128"/>
+      <c r="J100" s="128"/>
+      <c r="K100" s="128"/>
+      <c r="L100" s="128"/>
+      <c r="M100" s="128"/>
+      <c r="N100" s="124"/>
+    </row>
+    <row r="101" s="125" customFormat="1" spans="1:14">
+      <c r="A101" s="155"/>
+      <c r="B101" s="154"/>
+      <c r="C101" s="124"/>
+      <c r="D101" s="124"/>
+      <c r="E101" s="124"/>
+      <c r="F101" s="127"/>
+      <c r="G101" s="124"/>
+      <c r="H101" s="124"/>
+      <c r="I101" s="128"/>
+      <c r="J101" s="128"/>
+      <c r="K101" s="128"/>
+      <c r="L101" s="128"/>
+      <c r="M101" s="128"/>
+      <c r="N101" s="124"/>
+    </row>
+    <row r="102" s="125" customFormat="1" spans="1:14">
+      <c r="A102" s="155"/>
+      <c r="B102" s="154"/>
+      <c r="C102" s="124"/>
+      <c r="D102" s="124"/>
+      <c r="E102" s="124"/>
+      <c r="F102" s="127"/>
+      <c r="G102" s="124"/>
+      <c r="H102" s="124"/>
+      <c r="I102" s="128"/>
+      <c r="J102" s="128"/>
+      <c r="K102" s="128"/>
+      <c r="L102" s="128"/>
+      <c r="M102" s="128"/>
+      <c r="N102" s="124"/>
+    </row>
+    <row r="103" s="125" customFormat="1" spans="1:14">
+      <c r="A103" s="155"/>
+      <c r="B103" s="154"/>
+      <c r="C103" s="124"/>
+      <c r="D103" s="124"/>
+      <c r="E103" s="124"/>
+      <c r="F103" s="127"/>
+      <c r="G103" s="124"/>
+      <c r="H103" s="124"/>
+      <c r="I103" s="128"/>
+      <c r="J103" s="128"/>
+      <c r="K103" s="128"/>
+      <c r="L103" s="128"/>
+      <c r="M103" s="128"/>
+      <c r="N103" s="124"/>
+    </row>
+    <row r="104" s="125" customFormat="1" spans="1:14">
+      <c r="A104" s="155"/>
+      <c r="B104" s="154"/>
+      <c r="C104" s="124"/>
+      <c r="D104" s="124"/>
+      <c r="E104" s="124"/>
+      <c r="F104" s="127"/>
+      <c r="G104" s="124"/>
+      <c r="H104" s="124"/>
+      <c r="I104" s="128"/>
+      <c r="J104" s="128"/>
+      <c r="K104" s="128"/>
+      <c r="L104" s="128"/>
+      <c r="M104" s="128"/>
+      <c r="N104" s="124"/>
+    </row>
+    <row r="105" s="125" customFormat="1" spans="1:14">
+      <c r="A105" s="155"/>
+      <c r="B105" s="154"/>
+      <c r="C105" s="124"/>
+      <c r="D105" s="124"/>
+      <c r="E105" s="124"/>
+      <c r="F105" s="127"/>
+      <c r="G105" s="124"/>
+      <c r="H105" s="124"/>
+      <c r="I105" s="128"/>
+      <c r="J105" s="128"/>
+      <c r="K105" s="128"/>
+      <c r="L105" s="128"/>
+      <c r="M105" s="128"/>
+      <c r="N105" s="124"/>
+    </row>
+    <row r="106" s="125" customFormat="1" spans="1:14">
+      <c r="A106" s="155"/>
+      <c r="B106" s="154"/>
+      <c r="C106" s="124"/>
+      <c r="D106" s="124"/>
+      <c r="E106" s="124"/>
+      <c r="F106" s="127"/>
+      <c r="G106" s="124"/>
+      <c r="H106" s="124"/>
+      <c r="I106" s="128"/>
+      <c r="J106" s="128"/>
+      <c r="K106" s="128"/>
+      <c r="L106" s="128"/>
+      <c r="M106" s="128"/>
+      <c r="N106" s="124"/>
+    </row>
+    <row r="107" s="125" customFormat="1" spans="1:14">
+      <c r="A107" s="155"/>
+      <c r="B107" s="154"/>
+      <c r="C107" s="124"/>
+      <c r="D107" s="124"/>
+      <c r="E107" s="124"/>
+      <c r="F107" s="127"/>
+      <c r="G107" s="124"/>
+      <c r="H107" s="124"/>
+      <c r="I107" s="128"/>
+      <c r="J107" s="128"/>
+      <c r="K107" s="128"/>
+      <c r="L107" s="128"/>
+      <c r="M107" s="128"/>
+      <c r="N107" s="124"/>
+    </row>
+    <row r="108" s="125" customFormat="1" spans="1:14">
+      <c r="A108" s="155"/>
+      <c r="B108" s="154"/>
+      <c r="C108" s="124"/>
+      <c r="D108" s="124"/>
+      <c r="E108" s="124"/>
+      <c r="F108" s="127"/>
+      <c r="G108" s="124"/>
+      <c r="H108" s="124"/>
+      <c r="I108" s="128"/>
+      <c r="J108" s="128"/>
+      <c r="K108" s="128"/>
+      <c r="L108" s="128"/>
+      <c r="M108" s="128"/>
+      <c r="N108" s="124"/>
+    </row>
+    <row r="109" s="125" customFormat="1" spans="1:14">
+      <c r="A109" s="155"/>
+      <c r="B109" s="154"/>
+      <c r="C109" s="124"/>
+      <c r="D109" s="124"/>
+      <c r="E109" s="124"/>
+      <c r="F109" s="127"/>
+      <c r="G109" s="124"/>
+      <c r="H109" s="124"/>
+      <c r="I109" s="128"/>
+      <c r="J109" s="128"/>
+      <c r="K109" s="128"/>
+      <c r="L109" s="128"/>
+      <c r="M109" s="128"/>
+      <c r="N109" s="124"/>
+    </row>
+    <row r="110" s="125" customFormat="1" spans="1:14">
+      <c r="A110" s="155"/>
+      <c r="B110" s="154"/>
+      <c r="C110" s="124"/>
+      <c r="D110" s="124"/>
+      <c r="E110" s="124"/>
+      <c r="F110" s="127"/>
+      <c r="G110" s="124"/>
+      <c r="H110" s="124"/>
+      <c r="I110" s="128"/>
+      <c r="J110" s="128"/>
+      <c r="K110" s="128"/>
+      <c r="L110" s="128"/>
+      <c r="M110" s="128"/>
+      <c r="N110" s="124"/>
+    </row>
+    <row r="111" s="125" customFormat="1" spans="1:14">
+      <c r="A111" s="155"/>
+      <c r="B111" s="154"/>
+      <c r="C111" s="124"/>
+      <c r="D111" s="124"/>
+      <c r="E111" s="124"/>
+      <c r="F111" s="127"/>
+      <c r="G111" s="124"/>
+      <c r="H111" s="124"/>
+      <c r="I111" s="128"/>
+      <c r="J111" s="128"/>
+      <c r="K111" s="128"/>
+      <c r="L111" s="128"/>
+      <c r="M111" s="128"/>
+      <c r="N111" s="124"/>
+    </row>
+    <row r="112" s="125" customFormat="1" spans="1:14">
+      <c r="A112" s="155"/>
+      <c r="B112" s="154"/>
+      <c r="C112" s="124"/>
+      <c r="D112" s="124"/>
+      <c r="E112" s="124"/>
+      <c r="F112" s="127"/>
+      <c r="G112" s="124"/>
+      <c r="H112" s="124"/>
+      <c r="I112" s="128"/>
+      <c r="J112" s="128"/>
+      <c r="K112" s="128"/>
+      <c r="L112" s="128"/>
+      <c r="M112" s="128"/>
+      <c r="N112" s="124"/>
+    </row>
+    <row r="113" s="125" customFormat="1" spans="1:14">
+      <c r="A113" s="155"/>
+      <c r="B113" s="154"/>
+      <c r="C113" s="124"/>
+      <c r="D113" s="124"/>
+      <c r="E113" s="124"/>
+      <c r="F113" s="127"/>
+      <c r="G113" s="124"/>
+      <c r="H113" s="124"/>
+      <c r="I113" s="128"/>
+      <c r="J113" s="128"/>
+      <c r="K113" s="128"/>
+      <c r="L113" s="128"/>
+      <c r="M113" s="128"/>
+      <c r="N113" s="124"/>
+    </row>
+    <row r="114" s="125" customFormat="1" spans="1:14">
+      <c r="A114" s="155"/>
+      <c r="B114" s="154"/>
+      <c r="C114" s="124"/>
+      <c r="D114" s="124"/>
+      <c r="E114" s="124"/>
+      <c r="F114" s="127"/>
+      <c r="G114" s="124"/>
+      <c r="H114" s="124"/>
+      <c r="I114" s="128"/>
+      <c r="J114" s="128"/>
+      <c r="K114" s="128"/>
+      <c r="L114" s="128"/>
+      <c r="M114" s="128"/>
+      <c r="N114" s="124"/>
+    </row>
+    <row r="115" s="125" customFormat="1" spans="1:14">
+      <c r="A115" s="155"/>
+      <c r="B115" s="154"/>
+      <c r="C115" s="124"/>
+      <c r="D115" s="124"/>
+      <c r="E115" s="124"/>
+      <c r="F115" s="127"/>
+      <c r="G115" s="124"/>
+      <c r="H115" s="124"/>
+      <c r="I115" s="128"/>
+      <c r="J115" s="128"/>
+      <c r="K115" s="128"/>
+      <c r="L115" s="128"/>
+      <c r="M115" s="128"/>
+      <c r="N115" s="124"/>
+    </row>
+    <row r="116" s="125" customFormat="1" spans="1:14">
+      <c r="A116" s="155"/>
+      <c r="B116" s="154"/>
+      <c r="C116" s="124"/>
+      <c r="D116" s="124"/>
+      <c r="E116" s="124"/>
+      <c r="F116" s="127"/>
+      <c r="G116" s="124"/>
+      <c r="H116" s="124"/>
+      <c r="I116" s="128"/>
+      <c r="J116" s="128"/>
+      <c r="K116" s="128"/>
+      <c r="L116" s="128"/>
+      <c r="M116" s="128"/>
+      <c r="N116" s="124"/>
+    </row>
+    <row r="117" s="125" customFormat="1" spans="1:14">
+      <c r="A117" s="155"/>
+      <c r="B117" s="154"/>
+      <c r="C117" s="124"/>
+      <c r="D117" s="124"/>
+      <c r="E117" s="124"/>
+      <c r="F117" s="127"/>
+      <c r="G117" s="124"/>
+      <c r="H117" s="124"/>
+      <c r="I117" s="128"/>
+      <c r="J117" s="128"/>
+      <c r="K117" s="128"/>
+      <c r="L117" s="128"/>
+      <c r="M117" s="128"/>
+      <c r="N117" s="124"/>
+    </row>
+    <row r="118" s="125" customFormat="1" spans="1:14">
+      <c r="A118" s="155"/>
+      <c r="B118" s="154"/>
+      <c r="C118" s="124"/>
+      <c r="D118" s="124"/>
+      <c r="E118" s="124"/>
+      <c r="F118" s="127"/>
+      <c r="G118" s="124"/>
+      <c r="H118" s="124"/>
+      <c r="I118" s="128"/>
+      <c r="J118" s="128"/>
+      <c r="K118" s="128"/>
+      <c r="L118" s="128"/>
+      <c r="M118" s="128"/>
+      <c r="N118" s="124"/>
+    </row>
+    <row r="119" s="125" customFormat="1" spans="1:14">
+      <c r="A119" s="155"/>
+      <c r="B119" s="154"/>
+      <c r="C119" s="124"/>
+      <c r="D119" s="124"/>
+      <c r="E119" s="124"/>
+      <c r="F119" s="127"/>
+      <c r="G119" s="124"/>
+      <c r="H119" s="124"/>
+      <c r="I119" s="128"/>
+      <c r="J119" s="128"/>
+      <c r="K119" s="128"/>
+      <c r="L119" s="128"/>
+      <c r="M119" s="128"/>
+      <c r="N119" s="124"/>
+    </row>
+    <row r="120" s="125" customFormat="1" spans="1:14">
+      <c r="A120" s="155"/>
+      <c r="B120" s="154"/>
+      <c r="C120" s="124"/>
+      <c r="D120" s="124"/>
+      <c r="E120" s="124"/>
+      <c r="F120" s="127"/>
+      <c r="G120" s="124"/>
+      <c r="H120" s="124"/>
+      <c r="I120" s="128"/>
+      <c r="J120" s="128"/>
+      <c r="K120" s="128"/>
+      <c r="L120" s="128"/>
+      <c r="M120" s="128"/>
+      <c r="N120" s="124"/>
+    </row>
+    <row r="121" s="125" customFormat="1" spans="1:14">
+      <c r="A121" s="155"/>
+      <c r="B121" s="154"/>
+      <c r="C121" s="124"/>
+      <c r="D121" s="124"/>
+      <c r="E121" s="124"/>
+      <c r="F121" s="127"/>
+      <c r="G121" s="124"/>
+      <c r="H121" s="124"/>
+      <c r="I121" s="128"/>
+      <c r="J121" s="128"/>
+      <c r="K121" s="128"/>
+      <c r="L121" s="128"/>
+      <c r="M121" s="128"/>
+      <c r="N121" s="124"/>
+    </row>
+    <row r="122" s="125" customFormat="1" spans="1:14">
+      <c r="A122" s="155"/>
+      <c r="B122" s="154"/>
+      <c r="C122" s="124"/>
+      <c r="D122" s="124"/>
+      <c r="E122" s="124"/>
+      <c r="F122" s="127"/>
+      <c r="G122" s="124"/>
+      <c r="H122" s="124"/>
+      <c r="I122" s="128"/>
+      <c r="J122" s="128"/>
+      <c r="K122" s="128"/>
+      <c r="L122" s="128"/>
+      <c r="M122" s="128"/>
+      <c r="N122" s="124"/>
+    </row>
+    <row r="123" s="125" customFormat="1" spans="1:14">
+      <c r="A123" s="155"/>
+      <c r="B123" s="154"/>
+      <c r="C123" s="124"/>
+      <c r="D123" s="124"/>
+      <c r="E123" s="124"/>
+      <c r="F123" s="127"/>
+      <c r="G123" s="124"/>
+      <c r="H123" s="124"/>
+      <c r="I123" s="128"/>
+      <c r="J123" s="128"/>
+      <c r="K123" s="128"/>
+      <c r="L123" s="128"/>
+      <c r="M123" s="128"/>
+      <c r="N123" s="124"/>
+    </row>
+    <row r="124" s="125" customFormat="1" spans="1:14">
+      <c r="A124" s="155"/>
+      <c r="B124" s="154"/>
+      <c r="C124" s="124"/>
+      <c r="D124" s="124"/>
+      <c r="E124" s="124"/>
+      <c r="F124" s="127"/>
+      <c r="G124" s="124"/>
+      <c r="H124" s="124"/>
+      <c r="I124" s="128"/>
+      <c r="J124" s="128"/>
+      <c r="K124" s="128"/>
+      <c r="L124" s="128"/>
+      <c r="M124" s="128"/>
+      <c r="N124" s="124"/>
+    </row>
+    <row r="125" s="125" customFormat="1" spans="1:14">
+      <c r="A125" s="155"/>
+      <c r="B125" s="154"/>
+      <c r="C125" s="124"/>
+      <c r="D125" s="124"/>
+      <c r="E125" s="124"/>
+      <c r="F125" s="127"/>
+      <c r="G125" s="124"/>
+      <c r="H125" s="124"/>
+      <c r="I125" s="128"/>
+      <c r="J125" s="128"/>
+      <c r="K125" s="128"/>
+      <c r="L125" s="128"/>
+      <c r="M125" s="128"/>
+      <c r="N125" s="124"/>
+    </row>
+    <row r="126" s="125" customFormat="1" spans="1:14">
+      <c r="A126" s="155"/>
+      <c r="B126" s="154"/>
+      <c r="C126" s="124"/>
+      <c r="D126" s="124"/>
+      <c r="E126" s="124"/>
+      <c r="F126" s="127"/>
+      <c r="G126" s="124"/>
+      <c r="H126" s="124"/>
+      <c r="I126" s="128"/>
+      <c r="J126" s="128"/>
+      <c r="K126" s="128"/>
+      <c r="L126" s="128"/>
+      <c r="M126" s="128"/>
+      <c r="N126" s="124"/>
+    </row>
+    <row r="127" s="125" customFormat="1" spans="1:14">
+      <c r="A127" s="155"/>
+      <c r="B127" s="154"/>
+      <c r="C127" s="124"/>
+      <c r="D127" s="124"/>
+      <c r="E127" s="124"/>
+      <c r="F127" s="127"/>
+      <c r="G127" s="124"/>
+      <c r="H127" s="124"/>
+      <c r="I127" s="128"/>
+      <c r="J127" s="128"/>
+      <c r="K127" s="128"/>
+      <c r="L127" s="128"/>
+      <c r="M127" s="128"/>
+      <c r="N127" s="124"/>
+    </row>
+    <row r="128" s="125" customFormat="1" spans="1:14">
+      <c r="A128" s="155"/>
+      <c r="B128" s="154"/>
+      <c r="C128" s="124"/>
+      <c r="D128" s="124"/>
+      <c r="E128" s="124"/>
+      <c r="F128" s="127"/>
+      <c r="G128" s="124"/>
+      <c r="H128" s="124"/>
+      <c r="I128" s="128"/>
+      <c r="J128" s="128"/>
+      <c r="K128" s="128"/>
+      <c r="L128" s="128"/>
+      <c r="M128" s="128"/>
+      <c r="N128" s="124"/>
+    </row>
+    <row r="129" s="125" customFormat="1" spans="1:14">
+      <c r="A129" s="155"/>
+      <c r="B129" s="154"/>
+      <c r="C129" s="124"/>
+      <c r="D129" s="124"/>
+      <c r="E129" s="124"/>
+      <c r="F129" s="127"/>
+      <c r="G129" s="124"/>
+      <c r="H129" s="124"/>
+      <c r="I129" s="128"/>
+      <c r="J129" s="128"/>
+      <c r="K129" s="128"/>
+      <c r="L129" s="128"/>
+      <c r="M129" s="128"/>
+      <c r="N129" s="124"/>
+    </row>
+    <row r="130" s="125" customFormat="1" spans="1:14">
+      <c r="A130" s="155"/>
+      <c r="B130" s="154"/>
+      <c r="C130" s="124"/>
+      <c r="D130" s="124"/>
+      <c r="E130" s="124"/>
+      <c r="F130" s="127"/>
+      <c r="G130" s="124"/>
+      <c r="H130" s="124"/>
+      <c r="I130" s="128"/>
+      <c r="J130" s="128"/>
+      <c r="K130" s="128"/>
+      <c r="L130" s="128"/>
+      <c r="M130" s="128"/>
+      <c r="N130" s="124"/>
+    </row>
+    <row r="131" s="125" customFormat="1" spans="1:14">
+      <c r="A131" s="155"/>
+      <c r="B131" s="154"/>
+      <c r="C131" s="124"/>
+      <c r="D131" s="124"/>
+      <c r="E131" s="124"/>
+      <c r="F131" s="127"/>
+      <c r="G131" s="124"/>
+      <c r="H131" s="124"/>
+      <c r="I131" s="128"/>
+      <c r="J131" s="128"/>
+      <c r="K131" s="128"/>
+      <c r="L131" s="128"/>
+      <c r="M131" s="128"/>
+      <c r="N131" s="124"/>
+    </row>
+    <row r="132" s="125" customFormat="1" spans="1:14">
+      <c r="A132" s="155"/>
+      <c r="B132" s="154"/>
+      <c r="C132" s="124"/>
+      <c r="D132" s="124"/>
+      <c r="E132" s="124"/>
+      <c r="F132" s="127"/>
+      <c r="G132" s="124"/>
+      <c r="H132" s="124"/>
+      <c r="I132" s="128"/>
+      <c r="J132" s="128"/>
+      <c r="K132" s="128"/>
+      <c r="L132" s="128"/>
+      <c r="M132" s="128"/>
+      <c r="N132" s="124"/>
+    </row>
+    <row r="133" s="125" customFormat="1" spans="1:14">
+      <c r="A133" s="155"/>
+      <c r="B133" s="154"/>
+      <c r="C133" s="124"/>
+      <c r="D133" s="124"/>
+      <c r="E133" s="124"/>
+      <c r="F133" s="127"/>
+      <c r="G133" s="124"/>
+      <c r="H133" s="124"/>
+      <c r="I133" s="128"/>
+      <c r="J133" s="128"/>
+      <c r="K133" s="128"/>
+      <c r="L133" s="128"/>
+      <c r="M133" s="128"/>
+      <c r="N133" s="124"/>
+    </row>
+    <row r="134" s="125" customFormat="1" spans="1:14">
+      <c r="A134" s="155"/>
+      <c r="B134" s="154"/>
+      <c r="C134" s="124"/>
+      <c r="D134" s="124"/>
+      <c r="E134" s="124"/>
+      <c r="F134" s="127"/>
+      <c r="G134" s="124"/>
+      <c r="H134" s="124"/>
+      <c r="I134" s="128"/>
+      <c r="J134" s="128"/>
+      <c r="K134" s="128"/>
+      <c r="L134" s="128"/>
+      <c r="M134" s="128"/>
+      <c r="N134" s="124"/>
+    </row>
+    <row r="135" s="125" customFormat="1" spans="1:14">
+      <c r="A135" s="155"/>
+      <c r="B135" s="154"/>
+      <c r="C135" s="124"/>
+      <c r="D135" s="124"/>
+      <c r="E135" s="124"/>
+      <c r="F135" s="127"/>
+      <c r="G135" s="124"/>
+      <c r="H135" s="124"/>
+      <c r="I135" s="128"/>
+      <c r="J135" s="128"/>
+      <c r="K135" s="128"/>
+      <c r="L135" s="128"/>
+      <c r="M135" s="128"/>
+      <c r="N135" s="124"/>
+    </row>
+    <row r="136" s="125" customFormat="1" spans="1:14">
+      <c r="A136" s="155"/>
+      <c r="B136" s="154"/>
+      <c r="C136" s="124"/>
+      <c r="D136" s="124"/>
+      <c r="E136" s="124"/>
+      <c r="F136" s="127"/>
+      <c r="G136" s="124"/>
+      <c r="H136" s="124"/>
+      <c r="I136" s="128"/>
+      <c r="J136" s="128"/>
+      <c r="K136" s="128"/>
+      <c r="L136" s="128"/>
+      <c r="M136" s="128"/>
+      <c r="N136" s="124"/>
+    </row>
+    <row r="137" s="125" customFormat="1" spans="1:14">
+      <c r="A137" s="155"/>
+      <c r="B137" s="154"/>
+      <c r="C137" s="124"/>
+      <c r="D137" s="124"/>
+      <c r="E137" s="124"/>
+      <c r="F137" s="127"/>
+      <c r="G137" s="124"/>
+      <c r="H137" s="124"/>
+      <c r="I137" s="128"/>
+      <c r="J137" s="128"/>
+      <c r="K137" s="128"/>
+      <c r="L137" s="128"/>
+      <c r="M137" s="128"/>
+      <c r="N137" s="124"/>
+    </row>
+    <row r="138" s="125" customFormat="1" spans="1:14">
+      <c r="A138" s="155"/>
+      <c r="B138" s="154"/>
+      <c r="C138" s="124"/>
+      <c r="D138" s="124"/>
+      <c r="E138" s="124"/>
+      <c r="F138" s="127"/>
+      <c r="G138" s="124"/>
+      <c r="H138" s="124"/>
+      <c r="I138" s="128"/>
+      <c r="J138" s="128"/>
+      <c r="K138" s="128"/>
+      <c r="L138" s="128"/>
+      <c r="M138" s="128"/>
+      <c r="N138" s="124"/>
+    </row>
+    <row r="139" s="125" customFormat="1" spans="1:14">
+      <c r="A139" s="155"/>
+      <c r="B139" s="154"/>
+      <c r="C139" s="124"/>
+      <c r="D139" s="124"/>
+      <c r="E139" s="124"/>
+      <c r="F139" s="127"/>
+      <c r="G139" s="124"/>
+      <c r="H139" s="124"/>
+      <c r="I139" s="128"/>
+      <c r="J139" s="128"/>
+      <c r="K139" s="128"/>
+      <c r="L139" s="128"/>
+      <c r="M139" s="128"/>
+      <c r="N139" s="124"/>
+    </row>
+    <row r="140" s="125" customFormat="1" spans="1:14">
+      <c r="A140" s="155"/>
+      <c r="B140" s="154"/>
+      <c r="C140" s="124"/>
+      <c r="D140" s="124"/>
+      <c r="E140" s="124"/>
+      <c r="F140" s="127"/>
+      <c r="G140" s="124"/>
+      <c r="H140" s="124"/>
+      <c r="I140" s="128"/>
+      <c r="J140" s="128"/>
+      <c r="K140" s="128"/>
+      <c r="L140" s="128"/>
+      <c r="M140" s="128"/>
+      <c r="N140" s="124"/>
+    </row>
+    <row r="141" s="125" customFormat="1" spans="1:14">
+      <c r="A141" s="155"/>
+      <c r="B141" s="154"/>
+      <c r="C141" s="124"/>
+      <c r="D141" s="124"/>
+      <c r="E141" s="124"/>
+      <c r="F141" s="127"/>
+      <c r="G141" s="124"/>
+      <c r="H141" s="124"/>
+      <c r="I141" s="128"/>
+      <c r="J141" s="128"/>
+      <c r="K141" s="128"/>
+      <c r="L141" s="128"/>
+      <c r="M141" s="128"/>
+      <c r="N141" s="124"/>
+    </row>
+    <row r="142" s="125" customFormat="1" spans="1:14">
+      <c r="A142" s="155"/>
+      <c r="B142" s="154"/>
+      <c r="C142" s="124"/>
+      <c r="D142" s="124"/>
+      <c r="E142" s="124"/>
+      <c r="F142" s="127"/>
+      <c r="G142" s="124"/>
+      <c r="H142" s="124"/>
+      <c r="I142" s="128"/>
+      <c r="J142" s="128"/>
+      <c r="K142" s="128"/>
+      <c r="L142" s="128"/>
+      <c r="M142" s="128"/>
+      <c r="N142" s="124"/>
+    </row>
+    <row r="143" s="125" customFormat="1" spans="1:14">
+      <c r="A143" s="155"/>
+      <c r="B143" s="154"/>
+      <c r="C143" s="124"/>
+      <c r="D143" s="124"/>
+      <c r="E143" s="124"/>
+      <c r="F143" s="127"/>
+      <c r="G143" s="124"/>
+      <c r="H143" s="124"/>
+      <c r="I143" s="128"/>
+      <c r="J143" s="128"/>
+      <c r="K143" s="128"/>
+      <c r="L143" s="128"/>
+      <c r="M143" s="128"/>
+      <c r="N143" s="124"/>
+    </row>
+    <row r="144" s="125" customFormat="1" spans="1:14">
+      <c r="A144" s="155"/>
+      <c r="B144" s="154"/>
+      <c r="C144" s="124"/>
+      <c r="D144" s="124"/>
+      <c r="E144" s="124"/>
+      <c r="F144" s="127"/>
+      <c r="G144" s="124"/>
+      <c r="H144" s="124"/>
+      <c r="I144" s="128"/>
+      <c r="J144" s="128"/>
+      <c r="K144" s="128"/>
+      <c r="L144" s="128"/>
+      <c r="M144" s="128"/>
+      <c r="N144" s="124"/>
+    </row>
+    <row r="145" s="125" customFormat="1" spans="1:14">
+      <c r="A145" s="155"/>
+      <c r="B145" s="154"/>
+      <c r="C145" s="124"/>
+      <c r="D145" s="124"/>
+      <c r="E145" s="124"/>
+      <c r="F145" s="127"/>
+      <c r="G145" s="124"/>
+      <c r="H145" s="124"/>
+      <c r="I145" s="128"/>
+      <c r="J145" s="128"/>
+      <c r="K145" s="128"/>
+      <c r="L145" s="128"/>
+      <c r="M145" s="128"/>
+      <c r="N145" s="124"/>
+    </row>
+    <row r="146" s="125" customFormat="1" spans="1:14">
+      <c r="A146" s="155"/>
+      <c r="B146" s="154"/>
+      <c r="C146" s="124"/>
+      <c r="D146" s="124"/>
+      <c r="E146" s="124"/>
+      <c r="F146" s="127"/>
+      <c r="G146" s="124"/>
+      <c r="H146" s="124"/>
+      <c r="I146" s="128"/>
+      <c r="J146" s="128"/>
+      <c r="K146" s="128"/>
+      <c r="L146" s="128"/>
+      <c r="M146" s="128"/>
+      <c r="N146" s="124"/>
+    </row>
+    <row r="147" s="125" customFormat="1" spans="1:14">
+      <c r="A147" s="155"/>
+      <c r="B147" s="154"/>
+      <c r="C147" s="124"/>
+      <c r="D147" s="124"/>
+      <c r="E147" s="124"/>
+      <c r="F147" s="127"/>
+      <c r="G147" s="124"/>
+      <c r="H147" s="124"/>
+      <c r="I147" s="128"/>
+      <c r="J147" s="128"/>
+      <c r="K147" s="128"/>
+      <c r="L147" s="128"/>
+      <c r="M147" s="128"/>
+      <c r="N147" s="124"/>
+    </row>
+    <row r="148" s="125" customFormat="1" spans="1:14">
+      <c r="A148" s="155"/>
+      <c r="B148" s="154"/>
+      <c r="C148" s="124"/>
+      <c r="D148" s="124"/>
+      <c r="E148" s="124"/>
+      <c r="F148" s="127"/>
+      <c r="G148" s="124"/>
+      <c r="H148" s="124"/>
+      <c r="I148" s="128"/>
+      <c r="J148" s="128"/>
+      <c r="K148" s="128"/>
+      <c r="L148" s="128"/>
+      <c r="M148" s="128"/>
+      <c r="N148" s="124"/>
+    </row>
+    <row r="149" s="125" customFormat="1" spans="1:14">
+      <c r="A149" s="155"/>
+      <c r="B149" s="154"/>
+      <c r="C149" s="124"/>
+      <c r="D149" s="124"/>
+      <c r="E149" s="124"/>
+      <c r="F149" s="127"/>
+      <c r="G149" s="124"/>
+      <c r="H149" s="124"/>
+      <c r="I149" s="128"/>
+      <c r="J149" s="128"/>
+      <c r="K149" s="128"/>
+      <c r="L149" s="128"/>
+      <c r="M149" s="128"/>
+      <c r="N149" s="124"/>
+    </row>
+    <row r="150" s="125" customFormat="1" spans="1:14">
+      <c r="A150" s="155"/>
+      <c r="B150" s="154"/>
+      <c r="C150" s="124"/>
+      <c r="D150" s="124"/>
+      <c r="E150" s="124"/>
+      <c r="F150" s="127"/>
+      <c r="G150" s="124"/>
+      <c r="H150" s="124"/>
+      <c r="I150" s="128"/>
+      <c r="J150" s="128"/>
+      <c r="K150" s="128"/>
+      <c r="L150" s="128"/>
+      <c r="M150" s="128"/>
+      <c r="N150" s="124"/>
+    </row>
+    <row r="151" s="125" customFormat="1" spans="1:14">
+      <c r="A151" s="155"/>
+      <c r="B151" s="154"/>
+      <c r="C151" s="124"/>
+      <c r="D151" s="124"/>
+      <c r="E151" s="124"/>
+      <c r="F151" s="127"/>
+      <c r="G151" s="124"/>
+      <c r="H151" s="124"/>
+      <c r="I151" s="128"/>
+      <c r="J151" s="128"/>
+      <c r="K151" s="128"/>
+      <c r="L151" s="128"/>
+      <c r="M151" s="128"/>
+      <c r="N151" s="124"/>
+    </row>
+    <row r="152" s="125" customFormat="1" spans="1:14">
+      <c r="A152" s="155"/>
+      <c r="B152" s="154"/>
+      <c r="C152" s="124"/>
+      <c r="D152" s="124"/>
+      <c r="E152" s="124"/>
+      <c r="F152" s="127"/>
+      <c r="G152" s="124"/>
+      <c r="H152" s="124"/>
+      <c r="I152" s="128"/>
+      <c r="J152" s="128"/>
+      <c r="K152" s="128"/>
+      <c r="L152" s="128"/>
+      <c r="M152" s="128"/>
+      <c r="N152" s="124"/>
+    </row>
+    <row r="153" s="125" customFormat="1" spans="1:14">
+      <c r="A153" s="155"/>
+      <c r="B153" s="154"/>
+      <c r="C153" s="124"/>
+      <c r="D153" s="124"/>
+      <c r="E153" s="124"/>
+      <c r="F153" s="127"/>
+      <c r="G153" s="124"/>
+      <c r="H153" s="124"/>
+      <c r="I153" s="128"/>
+      <c r="J153" s="128"/>
+      <c r="K153" s="128"/>
+      <c r="L153" s="128"/>
+      <c r="M153" s="128"/>
+      <c r="N153" s="124"/>
+    </row>
+    <row r="154" s="125" customFormat="1" spans="1:14">
+      <c r="A154" s="155"/>
+      <c r="B154" s="154"/>
+      <c r="C154" s="124"/>
+      <c r="D154" s="124"/>
+      <c r="E154" s="124"/>
+      <c r="F154" s="127"/>
+      <c r="G154" s="124"/>
+      <c r="H154" s="124"/>
+      <c r="I154" s="128"/>
+      <c r="J154" s="128"/>
+      <c r="K154" s="128"/>
+      <c r="L154" s="128"/>
+      <c r="M154" s="128"/>
+      <c r="N154" s="124"/>
+    </row>
+    <row r="155" s="125" customFormat="1" spans="1:14">
+      <c r="A155" s="155"/>
+      <c r="B155" s="154"/>
+      <c r="C155" s="124"/>
+      <c r="D155" s="124"/>
+      <c r="E155" s="124"/>
+      <c r="F155" s="127"/>
+      <c r="G155" s="124"/>
+      <c r="H155" s="124"/>
+      <c r="I155" s="128"/>
+      <c r="J155" s="128"/>
+      <c r="K155" s="128"/>
+      <c r="L155" s="128"/>
+      <c r="M155" s="128"/>
+      <c r="N155" s="124"/>
+    </row>
+    <row r="156" s="125" customFormat="1" spans="1:14">
+      <c r="A156" s="155"/>
+      <c r="B156" s="154"/>
+      <c r="C156" s="124"/>
+      <c r="D156" s="124"/>
+      <c r="E156" s="124"/>
+      <c r="F156" s="127"/>
+      <c r="G156" s="124"/>
+      <c r="H156" s="124"/>
+      <c r="I156" s="128"/>
+      <c r="J156" s="128"/>
+      <c r="K156" s="128"/>
+      <c r="L156" s="128"/>
+      <c r="M156" s="128"/>
+      <c r="N156" s="124"/>
+    </row>
+    <row r="157" s="125" customFormat="1" spans="1:14">
+      <c r="A157" s="155"/>
+      <c r="B157" s="154"/>
+      <c r="C157" s="124"/>
+      <c r="D157" s="124"/>
+      <c r="E157" s="124"/>
+      <c r="F157" s="127"/>
+      <c r="G157" s="124"/>
+      <c r="H157" s="124"/>
+      <c r="I157" s="128"/>
+      <c r="J157" s="128"/>
+      <c r="K157" s="128"/>
+      <c r="L157" s="128"/>
+      <c r="M157" s="128"/>
+      <c r="N157" s="124"/>
+    </row>
+    <row r="158" s="125" customFormat="1" spans="1:14">
+      <c r="A158" s="155"/>
+      <c r="B158" s="154"/>
+      <c r="C158" s="124"/>
+      <c r="D158" s="124"/>
+      <c r="E158" s="124"/>
+      <c r="F158" s="127"/>
+      <c r="G158" s="124"/>
+      <c r="H158" s="124"/>
+      <c r="I158" s="128"/>
+      <c r="J158" s="128"/>
+      <c r="K158" s="128"/>
+      <c r="L158" s="128"/>
+      <c r="M158" s="128"/>
+      <c r="N158" s="124"/>
+    </row>
+    <row r="159" s="125" customFormat="1" spans="1:14">
+      <c r="A159" s="155"/>
+      <c r="B159" s="154"/>
+      <c r="C159" s="124"/>
+      <c r="D159" s="124"/>
+      <c r="E159" s="124"/>
+      <c r="F159" s="127"/>
+      <c r="G159" s="124"/>
+      <c r="H159" s="124"/>
+      <c r="I159" s="128"/>
+      <c r="J159" s="128"/>
+      <c r="K159" s="128"/>
+      <c r="L159" s="128"/>
+      <c r="M159" s="128"/>
+      <c r="N159" s="124"/>
+    </row>
+    <row r="160" s="125" customFormat="1" spans="1:14">
+      <c r="A160" s="155"/>
+      <c r="B160" s="154"/>
+      <c r="C160" s="124"/>
+      <c r="D160" s="124"/>
+      <c r="E160" s="124"/>
+      <c r="F160" s="127"/>
+      <c r="G160" s="124"/>
+      <c r="H160" s="124"/>
+      <c r="I160" s="128"/>
+      <c r="J160" s="128"/>
+      <c r="K160" s="128"/>
+      <c r="L160" s="128"/>
+      <c r="M160" s="128"/>
+      <c r="N160" s="124"/>
+    </row>
+    <row r="161" s="125" customFormat="1" spans="1:14">
+      <c r="A161" s="155"/>
+      <c r="B161" s="154"/>
+      <c r="C161" s="124"/>
+      <c r="D161" s="124"/>
+      <c r="E161" s="124"/>
+      <c r="F161" s="127"/>
+      <c r="G161" s="124"/>
+      <c r="H161" s="124"/>
+      <c r="I161" s="128"/>
+      <c r="J161" s="128"/>
+      <c r="K161" s="128"/>
+      <c r="L161" s="128"/>
+      <c r="M161" s="128"/>
+      <c r="N161" s="124"/>
+    </row>
+    <row r="162" s="125" customFormat="1" spans="1:14">
+      <c r="A162" s="155"/>
+      <c r="B162" s="154"/>
+      <c r="C162" s="124"/>
+      <c r="D162" s="124"/>
+      <c r="E162" s="124"/>
+      <c r="F162" s="127"/>
+      <c r="G162" s="124"/>
+      <c r="H162" s="124"/>
+      <c r="I162" s="128"/>
+      <c r="J162" s="128"/>
+      <c r="K162" s="128"/>
+      <c r="L162" s="128"/>
+      <c r="M162" s="128"/>
+      <c r="N162" s="124"/>
+    </row>
+    <row r="163" s="125" customFormat="1" spans="1:14">
+      <c r="A163" s="155"/>
+      <c r="B163" s="154"/>
+      <c r="C163" s="124"/>
+      <c r="D163" s="124"/>
+      <c r="E163" s="124"/>
+      <c r="F163" s="127"/>
+      <c r="G163" s="124"/>
+      <c r="H163" s="124"/>
+      <c r="I163" s="128"/>
+      <c r="J163" s="128"/>
+      <c r="K163" s="128"/>
+      <c r="L163" s="128"/>
+      <c r="M163" s="128"/>
+      <c r="N163" s="124"/>
+    </row>
+    <row r="164" s="125" customFormat="1" spans="1:14">
+      <c r="A164" s="155"/>
+      <c r="B164" s="154"/>
+      <c r="C164" s="124"/>
+      <c r="D164" s="124"/>
+      <c r="E164" s="124"/>
+      <c r="F164" s="127"/>
+      <c r="G164" s="124"/>
+      <c r="H164" s="124"/>
+      <c r="I164" s="128"/>
+      <c r="J164" s="128"/>
+      <c r="K164" s="128"/>
+      <c r="L164" s="128"/>
+      <c r="M164" s="128"/>
+      <c r="N164" s="124"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -9623,10 +9631,10 @@
     <tabColor theme="9"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O91"/>
+  <dimension ref="A1:O109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="B52" workbookViewId="0">
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
@@ -9691,7 +9699,7 @@
       </c>
       <c r="N2" s="104">
         <f>EL_A0001_pa+El_A0001_m+EL_A0001_p+EL_A0001_f+EL_A0001_t</f>
-        <v>1128.37543138708</v>
+        <v>1124.84876472042</v>
       </c>
       <c r="O2" s="58"/>
     </row>
@@ -9767,7 +9775,7 @@
       </c>
       <c r="N5" s="57">
         <f>N2*N3</f>
-        <v>1128.37543138708</v>
+        <v>1124.84876472042</v>
       </c>
       <c r="O5" s="58"/>
     </row>
@@ -9873,7 +9881,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="57">
-        <f>C10*D10</f>
+        <f t="shared" ref="E10:E15" si="0">C10*D10</f>
         <v>1.699651</v>
       </c>
       <c r="F10" s="9"/>
@@ -9903,7 +9911,7 @@
         <v>3</v>
       </c>
       <c r="E11" s="57">
-        <f>C11*D11</f>
+        <f t="shared" si="0"/>
         <v>1.31549884375</v>
       </c>
       <c r="F11" s="36"/>
@@ -9933,7 +9941,7 @@
         <v>2</v>
       </c>
       <c r="E12" s="57">
-        <f>C12*D12</f>
+        <f t="shared" si="0"/>
         <v>1.5855975</v>
       </c>
       <c r="F12" s="36"/>
@@ -9963,7 +9971,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="57">
-        <f>C13*D13</f>
+        <f t="shared" si="0"/>
         <v>6.86154879333333</v>
       </c>
       <c r="F13" s="36"/>
@@ -9993,7 +10001,7 @@
         <v>2</v>
       </c>
       <c r="E14" s="57">
-        <f>C14*D14</f>
+        <f t="shared" si="0"/>
         <v>1.59253775</v>
       </c>
       <c r="F14" s="36"/>
@@ -10023,7 +10031,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="57">
-        <f>C15*D15</f>
+        <f t="shared" si="0"/>
         <v>1.3105975</v>
       </c>
       <c r="F15" s="9"/>
@@ -10148,7 +10156,7 @@
         <v>1</v>
       </c>
       <c r="N19" s="57">
-        <f t="shared" ref="N19:N32" si="0">M19*D19</f>
+        <f t="shared" ref="N19:N32" si="1">M19*D19</f>
         <v>850</v>
       </c>
       <c r="O19" s="58"/>
@@ -10180,7 +10188,7 @@
         <v>1</v>
       </c>
       <c r="N20" s="57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="O20" s="61"/>
@@ -10212,7 +10220,7 @@
         <v>1</v>
       </c>
       <c r="N21" s="57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="O21" s="58"/>
@@ -10244,7 +10252,7 @@
         <v>2</v>
       </c>
       <c r="N22" s="57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="O22" s="58"/>
@@ -10276,7 +10284,7 @@
         <v>1</v>
       </c>
       <c r="N23" s="57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="O23" s="58"/>
@@ -10308,7 +10316,7 @@
         <v>1</v>
       </c>
       <c r="N24" s="57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="O24" s="58"/>
@@ -10338,7 +10346,7 @@
         <v>1</v>
       </c>
       <c r="N25" s="57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="O25" s="58"/>
@@ -10370,7 +10378,7 @@
         <v>1</v>
       </c>
       <c r="N26" s="57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="O26" s="58"/>
@@ -10402,7 +10410,7 @@
         <v>1</v>
       </c>
       <c r="N27" s="57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="O27" s="58"/>
@@ -10434,7 +10442,7 @@
         <v>1</v>
       </c>
       <c r="N28" s="57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="O28" s="58"/>
@@ -10466,7 +10474,7 @@
         <v>1</v>
       </c>
       <c r="N29" s="57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="O29" s="58"/>
@@ -10496,7 +10504,7 @@
         <v>1</v>
       </c>
       <c r="N30" s="57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="O30" s="58"/>
@@ -10528,7 +10536,7 @@
         <v>8</v>
       </c>
       <c r="N31" s="57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="O31" s="58"/>
@@ -10560,7 +10568,7 @@
         <v>4</v>
       </c>
       <c r="N32" s="57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="O32" s="58"/>
@@ -10592,7 +10600,7 @@
         <v>9</v>
       </c>
       <c r="N33" s="57">
-        <f t="shared" ref="N33:N57" si="1">M33*D33</f>
+        <f t="shared" ref="N33:N57" si="2">M33*D33</f>
         <v>9</v>
       </c>
       <c r="O33" s="58"/>
@@ -10624,7 +10632,7 @@
         <v>3</v>
       </c>
       <c r="N34" s="57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.15</v>
       </c>
       <c r="O34" s="58"/>
@@ -10656,7 +10664,7 @@
         <v>2</v>
       </c>
       <c r="N35" s="57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
       <c r="O35" s="58"/>
@@ -10688,7 +10696,7 @@
         <v>2</v>
       </c>
       <c r="N36" s="57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
       <c r="O36" s="58"/>
@@ -10720,7 +10728,7 @@
         <v>2</v>
       </c>
       <c r="N37" s="57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
       <c r="O37" s="58"/>
@@ -10752,7 +10760,7 @@
         <v>6</v>
       </c>
       <c r="N38" s="57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.3</v>
       </c>
       <c r="O38" s="58"/>
@@ -10784,7 +10792,7 @@
         <v>2</v>
       </c>
       <c r="N39" s="57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
       <c r="O39" s="58"/>
@@ -10816,7 +10824,7 @@
         <v>2</v>
       </c>
       <c r="N40" s="57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
       <c r="O40" s="58"/>
@@ -10848,7 +10856,7 @@
         <v>38</v>
       </c>
       <c r="N41" s="57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.9</v>
       </c>
       <c r="O41" s="58"/>
@@ -10880,7 +10888,7 @@
         <v>2</v>
       </c>
       <c r="N42" s="57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
       <c r="O42" s="58"/>
@@ -10912,7 +10920,7 @@
         <v>8</v>
       </c>
       <c r="N43" s="57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.4</v>
       </c>
       <c r="O43" s="58"/>
@@ -10944,7 +10952,7 @@
         <v>8</v>
       </c>
       <c r="N44" s="57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.4</v>
       </c>
       <c r="O44" s="58"/>
@@ -10976,7 +10984,7 @@
         <v>2</v>
       </c>
       <c r="N45" s="57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
       <c r="O45" s="58"/>
@@ -11008,7 +11016,7 @@
         <v>3</v>
       </c>
       <c r="N46" s="57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.15</v>
       </c>
       <c r="O46" s="58"/>
@@ -11040,7 +11048,7 @@
         <v>3</v>
       </c>
       <c r="N47" s="57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="O47" s="58"/>
@@ -11072,7 +11080,7 @@
         <v>2</v>
       </c>
       <c r="N48" s="57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="O48" s="58"/>
@@ -11104,7 +11112,7 @@
         <v>1</v>
       </c>
       <c r="N49" s="57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="O49" s="58"/>
@@ -11136,7 +11144,7 @@
         <v>2</v>
       </c>
       <c r="N50" s="57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="O50" s="58"/>
@@ -11168,7 +11176,7 @@
         <v>1</v>
       </c>
       <c r="N51" s="57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.05</v>
       </c>
       <c r="O51" s="58"/>
@@ -11200,7 +11208,7 @@
         <v>1</v>
       </c>
       <c r="N52" s="57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.05</v>
       </c>
       <c r="O52" s="58"/>
@@ -11232,7 +11240,7 @@
         <v>32</v>
       </c>
       <c r="N53" s="57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="O53" s="58"/>
@@ -11264,7 +11272,7 @@
         <v>5</v>
       </c>
       <c r="N54" s="57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="O54" s="58"/>
@@ -11294,7 +11302,7 @@
         <v>8</v>
       </c>
       <c r="N55" s="57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="O55" s="58"/>
@@ -11326,7 +11334,7 @@
         <v>2</v>
       </c>
       <c r="N56" s="57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="O56" s="58"/>
@@ -11358,7 +11366,7 @@
         <v>1</v>
       </c>
       <c r="N57" s="57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O57" s="58"/>
@@ -11388,7 +11396,7 @@
         <v>35</v>
       </c>
       <c r="N58" s="57">
-        <f t="shared" ref="N58:N64" si="2">M58*D58</f>
+        <f t="shared" ref="N58:N64" si="3">M58*D58</f>
         <v>35</v>
       </c>
       <c r="O58" s="58"/>
@@ -11418,7 +11426,7 @@
         <v>1.5</v>
       </c>
       <c r="N59" s="57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.75</v>
       </c>
       <c r="O59" s="58"/>
@@ -11448,7 +11456,7 @@
         <v>10</v>
       </c>
       <c r="N60" s="57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="O60" s="58"/>
@@ -11478,7 +11486,7 @@
         <v>4</v>
       </c>
       <c r="N61" s="57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="O61" s="58"/>
@@ -11510,7 +11518,7 @@
         <v>1</v>
       </c>
       <c r="N62" s="83">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="O62" s="58"/>
@@ -11542,7 +11550,7 @@
         <v>1</v>
       </c>
       <c r="N63" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="O63" s="58"/>
@@ -11574,7 +11582,7 @@
         <v>1</v>
       </c>
       <c r="N64" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="O64" s="58"/>
@@ -11592,10 +11600,10 @@
       <c r="J65" s="22"/>
       <c r="K65" s="22"/>
       <c r="L65" s="22"/>
-      <c r="M65" s="118" t="s">
+      <c r="M65" s="119" t="s">
         <v>109</v>
       </c>
-      <c r="N65" s="117">
+      <c r="N65" s="118">
         <f>SUM(N19:N63)</f>
         <v>1107.35</v>
       </c>
@@ -11673,7 +11681,7 @@
       <c r="G68" s="111"/>
       <c r="H68" s="111"/>
       <c r="I68" s="57">
-        <f t="shared" ref="I68:I73" si="3">IF(H68="",D68*F68,D68*F68*H68)</f>
+        <f t="shared" ref="I68:I73" si="4">IF(H68="",D68*F68,D68*F68*H68)</f>
         <v>0</v>
       </c>
       <c r="J68" s="9"/>
@@ -11703,7 +11711,7 @@
       <c r="G69" s="75"/>
       <c r="H69" s="75"/>
       <c r="I69" s="57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J69" s="9"/>
@@ -11735,7 +11743,7 @@
       <c r="G70" s="75"/>
       <c r="H70" s="75"/>
       <c r="I70" s="57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J70" s="9"/>
@@ -11755,7 +11763,7 @@
       <c r="G71" s="75"/>
       <c r="H71" s="75"/>
       <c r="I71" s="57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J71" s="36"/>
@@ -11775,7 +11783,7 @@
       <c r="G72" s="111"/>
       <c r="H72" s="111"/>
       <c r="I72" s="57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J72" s="36"/>
@@ -11797,7 +11805,7 @@
       <c r="G73" s="75"/>
       <c r="H73" s="75"/>
       <c r="I73" s="57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J73" s="36"/>
@@ -11808,7 +11816,9 @@
       <c r="O73" s="64"/>
     </row>
     <row r="74" spans="1:15">
-      <c r="A74" s="21"/>
+      <c r="A74" s="21">
+        <v>1</v>
+      </c>
       <c r="B74" s="22"/>
       <c r="C74" s="22"/>
       <c r="D74" s="22"/>
@@ -11894,26 +11904,26 @@
         <v>201</v>
       </c>
       <c r="D77" s="108">
-        <v>0.14</v>
+        <v>0.04</v>
       </c>
       <c r="E77" s="112">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F77" s="112" t="s">
         <v>202</v>
       </c>
       <c r="G77" s="112">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="H77" s="112" t="s">
         <v>202</v>
       </c>
       <c r="I77" s="59">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J77" s="57">
-        <f t="shared" ref="J77:J80" si="4">I77*D77</f>
-        <v>0.28</v>
+        <f t="shared" ref="J77:J80" si="5">I77*D77</f>
+        <v>0.12</v>
       </c>
       <c r="K77" s="9"/>
       <c r="L77" s="9"/>
@@ -11935,7 +11945,7 @@
         <v>0.01</v>
       </c>
       <c r="E78" s="75">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F78" s="113" t="s">
         <v>202</v>
@@ -11943,11 +11953,11 @@
       <c r="G78" s="75"/>
       <c r="H78" s="75"/>
       <c r="I78" s="59">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J78" s="57">
-        <f t="shared" si="4"/>
-        <v>0.02</v>
+        <f t="shared" si="5"/>
+        <v>0.03</v>
       </c>
       <c r="K78" s="9"/>
       <c r="L78" s="9"/>
@@ -11969,7 +11979,7 @@
         <v>0.01</v>
       </c>
       <c r="E79" s="75">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F79" s="113" t="s">
         <v>202</v>
@@ -11977,11 +11987,11 @@
       <c r="G79" s="75"/>
       <c r="H79" s="75"/>
       <c r="I79" s="59">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="J79" s="57">
-        <f t="shared" si="4"/>
-        <v>0.12</v>
+        <f t="shared" si="5"/>
+        <v>0.03</v>
       </c>
       <c r="K79" s="9"/>
       <c r="L79" s="9"/>
@@ -11993,27 +12003,33 @@
       <c r="A80" s="75">
         <v>40</v>
       </c>
-      <c r="B80" s="109" t="s">
-        <v>205</v>
-      </c>
-      <c r="C80" s="81"/>
-      <c r="D80" s="110">
+      <c r="B80" s="75" t="s">
+        <v>200</v>
+      </c>
+      <c r="C80" s="81" t="s">
+        <v>169</v>
+      </c>
+      <c r="D80" s="109">
         <v>0.04</v>
       </c>
       <c r="E80" s="81">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F80" s="114" t="s">
         <v>202</v>
       </c>
-      <c r="G80" s="81"/>
-      <c r="H80" s="81"/>
+      <c r="G80" s="81">
+        <v>15</v>
+      </c>
+      <c r="H80" s="81" t="s">
+        <v>202</v>
+      </c>
       <c r="I80" s="116">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J80" s="57">
-        <f t="shared" si="4"/>
-        <v>0.24</v>
+        <f t="shared" si="5"/>
+        <v>0.08</v>
       </c>
       <c r="K80" s="52"/>
       <c r="L80" s="52"/>
@@ -12022,16 +12038,33 @@
       <c r="O80" s="58"/>
     </row>
     <row r="81" spans="1:15">
-      <c r="A81" s="75"/>
-      <c r="B81" s="109"/>
-      <c r="C81" s="81"/>
-      <c r="D81" s="110"/>
-      <c r="E81" s="81"/>
-      <c r="F81" s="114"/>
+      <c r="A81" s="75">
+        <v>50</v>
+      </c>
+      <c r="B81" s="75" t="s">
+        <v>203</v>
+      </c>
+      <c r="C81" s="81" t="s">
+        <v>169</v>
+      </c>
+      <c r="D81" s="109">
+        <v>0.02</v>
+      </c>
+      <c r="E81" s="81">
+        <v>5</v>
+      </c>
+      <c r="F81" s="114" t="s">
+        <v>202</v>
+      </c>
       <c r="G81" s="81"/>
       <c r="H81" s="81"/>
-      <c r="I81" s="116"/>
-      <c r="J81" s="57"/>
+      <c r="I81" s="116">
+        <v>2</v>
+      </c>
+      <c r="J81" s="57">
+        <f>I81*D81</f>
+        <v>0.04</v>
+      </c>
       <c r="K81" s="52"/>
       <c r="L81" s="52"/>
       <c r="M81" s="52"/>
@@ -12039,222 +12072,800 @@
       <c r="O81" s="58"/>
     </row>
     <row r="82" s="4" customFormat="1" spans="1:15">
-      <c r="A82" s="75"/>
-      <c r="B82" s="75"/>
-      <c r="C82" s="81"/>
-      <c r="D82" s="108"/>
-      <c r="E82" s="75"/>
-      <c r="F82" s="113"/>
+      <c r="A82" s="75">
+        <v>60</v>
+      </c>
+      <c r="B82" s="75" t="s">
+        <v>204</v>
+      </c>
+      <c r="C82" s="81" t="s">
+        <v>169</v>
+      </c>
+      <c r="D82" s="108">
+        <v>0.01</v>
+      </c>
+      <c r="E82" s="75">
+        <v>5</v>
+      </c>
+      <c r="F82" s="113" t="s">
+        <v>202</v>
+      </c>
       <c r="G82" s="75"/>
       <c r="H82" s="75"/>
-      <c r="I82" s="59"/>
-      <c r="J82" s="57"/>
+      <c r="I82" s="59">
+        <v>2</v>
+      </c>
+      <c r="J82" s="57">
+        <f>I82*D82</f>
+        <v>0.02</v>
+      </c>
       <c r="K82" s="36"/>
       <c r="L82" s="36"/>
       <c r="M82" s="36"/>
       <c r="N82" s="36"/>
       <c r="O82" s="64"/>
     </row>
-    <row r="83" spans="1:15">
-      <c r="A83" s="75"/>
-      <c r="B83" s="109"/>
-      <c r="C83" s="107" t="s">
+    <row r="83" s="4" customFormat="1" spans="1:15">
+      <c r="A83" s="75">
+        <v>70</v>
+      </c>
+      <c r="B83" s="75" t="s">
+        <v>200</v>
+      </c>
+      <c r="C83" s="81" t="s">
+        <v>205</v>
+      </c>
+      <c r="D83" s="108">
+        <v>0.04</v>
+      </c>
+      <c r="E83" s="75">
+        <v>5</v>
+      </c>
+      <c r="F83" s="113" t="s">
+        <v>202</v>
+      </c>
+      <c r="G83" s="75">
+        <v>15</v>
+      </c>
+      <c r="H83" s="75" t="s">
+        <v>202</v>
+      </c>
+      <c r="I83" s="59">
+        <v>2</v>
+      </c>
+      <c r="J83" s="57">
+        <f>I83*D83</f>
+        <v>0.08</v>
+      </c>
+      <c r="K83" s="36"/>
+      <c r="L83" s="36"/>
+      <c r="M83" s="36"/>
+      <c r="N83" s="36"/>
+      <c r="O83" s="64"/>
+    </row>
+    <row r="84" s="4" customFormat="1" spans="1:15">
+      <c r="A84" s="75">
+        <v>80</v>
+      </c>
+      <c r="B84" s="75" t="s">
+        <v>203</v>
+      </c>
+      <c r="C84" s="81" t="s">
+        <v>205</v>
+      </c>
+      <c r="D84" s="108">
+        <v>0.02</v>
+      </c>
+      <c r="E84" s="75">
+        <v>5</v>
+      </c>
+      <c r="F84" s="113" t="s">
+        <v>202</v>
+      </c>
+      <c r="G84" s="75"/>
+      <c r="H84" s="75"/>
+      <c r="I84" s="59">
+        <v>2</v>
+      </c>
+      <c r="J84" s="57">
+        <f>I84*D84</f>
+        <v>0.04</v>
+      </c>
+      <c r="K84" s="36"/>
+      <c r="L84" s="36"/>
+      <c r="M84" s="36"/>
+      <c r="N84" s="36"/>
+      <c r="O84" s="64"/>
+    </row>
+    <row r="85" s="4" customFormat="1" spans="1:15">
+      <c r="A85" s="75">
+        <v>90</v>
+      </c>
+      <c r="B85" s="75" t="s">
+        <v>204</v>
+      </c>
+      <c r="C85" s="81" t="s">
+        <v>205</v>
+      </c>
+      <c r="D85" s="108">
+        <v>0.01</v>
+      </c>
+      <c r="E85" s="75">
+        <v>5</v>
+      </c>
+      <c r="F85" s="113" t="s">
+        <v>202</v>
+      </c>
+      <c r="G85" s="75"/>
+      <c r="H85" s="75"/>
+      <c r="I85" s="59">
+        <v>2</v>
+      </c>
+      <c r="J85" s="57">
+        <f>I85*D85</f>
+        <v>0.02</v>
+      </c>
+      <c r="K85" s="36"/>
+      <c r="L85" s="36"/>
+      <c r="M85" s="36"/>
+      <c r="N85" s="36"/>
+      <c r="O85" s="64"/>
+    </row>
+    <row r="86" s="4" customFormat="1" spans="1:15">
+      <c r="A86" s="75">
+        <v>100</v>
+      </c>
+      <c r="B86" s="75" t="s">
+        <v>200</v>
+      </c>
+      <c r="C86" s="81" t="s">
+        <v>182</v>
+      </c>
+      <c r="D86" s="108">
+        <v>0.04</v>
+      </c>
+      <c r="E86" s="75">
+        <v>5</v>
+      </c>
+      <c r="F86" s="113" t="s">
+        <v>202</v>
+      </c>
+      <c r="G86" s="75">
+        <v>15</v>
+      </c>
+      <c r="H86" s="75" t="s">
+        <v>202</v>
+      </c>
+      <c r="I86" s="59">
+        <v>2</v>
+      </c>
+      <c r="J86" s="57">
+        <f>I86*D86</f>
+        <v>0.08</v>
+      </c>
+      <c r="K86" s="36"/>
+      <c r="L86" s="36"/>
+      <c r="M86" s="36"/>
+      <c r="N86" s="36"/>
+      <c r="O86" s="64"/>
+    </row>
+    <row r="87" s="4" customFormat="1" spans="1:15">
+      <c r="A87" s="75">
+        <v>110</v>
+      </c>
+      <c r="B87" s="75" t="s">
+        <v>203</v>
+      </c>
+      <c r="C87" s="81" t="s">
+        <v>182</v>
+      </c>
+      <c r="D87" s="108">
+        <v>0.02</v>
+      </c>
+      <c r="E87" s="75">
+        <v>5</v>
+      </c>
+      <c r="F87" s="113" t="s">
+        <v>202</v>
+      </c>
+      <c r="G87" s="75"/>
+      <c r="H87" s="75"/>
+      <c r="I87" s="59">
+        <v>2</v>
+      </c>
+      <c r="J87" s="57">
+        <f>I87*D87</f>
+        <v>0.04</v>
+      </c>
+      <c r="K87" s="36"/>
+      <c r="L87" s="36"/>
+      <c r="M87" s="36"/>
+      <c r="N87" s="36"/>
+      <c r="O87" s="64"/>
+    </row>
+    <row r="88" s="4" customFormat="1" spans="1:15">
+      <c r="A88" s="75">
+        <v>120</v>
+      </c>
+      <c r="B88" s="75" t="s">
+        <v>204</v>
+      </c>
+      <c r="C88" s="81" t="s">
+        <v>182</v>
+      </c>
+      <c r="D88" s="108">
+        <v>0.01</v>
+      </c>
+      <c r="E88" s="75">
+        <v>5</v>
+      </c>
+      <c r="F88" s="113" t="s">
+        <v>202</v>
+      </c>
+      <c r="G88" s="75"/>
+      <c r="H88" s="75"/>
+      <c r="I88" s="59">
+        <v>2</v>
+      </c>
+      <c r="J88" s="57">
+        <f>I88*D88</f>
+        <v>0.02</v>
+      </c>
+      <c r="K88" s="36"/>
+      <c r="L88" s="36"/>
+      <c r="M88" s="36"/>
+      <c r="N88" s="36"/>
+      <c r="O88" s="64"/>
+    </row>
+    <row r="89" s="4" customFormat="1" spans="1:15">
+      <c r="A89" s="75">
+        <v>130</v>
+      </c>
+      <c r="B89" s="75" t="s">
+        <v>200</v>
+      </c>
+      <c r="C89" s="81" t="s">
+        <v>206</v>
+      </c>
+      <c r="D89" s="108">
+        <v>0.04</v>
+      </c>
+      <c r="E89" s="75">
+        <v>3</v>
+      </c>
+      <c r="F89" s="113" t="s">
+        <v>202</v>
+      </c>
+      <c r="G89" s="75">
+        <v>15</v>
+      </c>
+      <c r="H89" s="75" t="s">
+        <v>202</v>
+      </c>
+      <c r="I89" s="59">
+        <v>3</v>
+      </c>
+      <c r="J89" s="57">
+        <f>I89*D89</f>
+        <v>0.12</v>
+      </c>
+      <c r="K89" s="36"/>
+      <c r="L89" s="36"/>
+      <c r="M89" s="36"/>
+      <c r="N89" s="36"/>
+      <c r="O89" s="64"/>
+    </row>
+    <row r="90" s="4" customFormat="1" spans="1:15">
+      <c r="A90" s="75">
+        <v>140</v>
+      </c>
+      <c r="B90" s="75" t="s">
+        <v>203</v>
+      </c>
+      <c r="C90" s="81" t="s">
+        <v>206</v>
+      </c>
+      <c r="D90" s="108">
+        <v>0.02</v>
+      </c>
+      <c r="E90" s="75">
+        <v>3</v>
+      </c>
+      <c r="F90" s="113" t="s">
+        <v>202</v>
+      </c>
+      <c r="G90" s="75"/>
+      <c r="H90" s="75"/>
+      <c r="I90" s="59">
+        <v>3</v>
+      </c>
+      <c r="J90" s="57">
+        <f>I90*D90</f>
+        <v>0.06</v>
+      </c>
+      <c r="K90" s="36"/>
+      <c r="L90" s="36"/>
+      <c r="M90" s="36"/>
+      <c r="N90" s="36"/>
+      <c r="O90" s="64"/>
+    </row>
+    <row r="91" s="4" customFormat="1" spans="1:15">
+      <c r="A91" s="75">
+        <v>150</v>
+      </c>
+      <c r="B91" s="75" t="s">
+        <v>204</v>
+      </c>
+      <c r="C91" s="81" t="s">
+        <v>206</v>
+      </c>
+      <c r="D91" s="108">
+        <v>0.01</v>
+      </c>
+      <c r="E91" s="75">
+        <v>3</v>
+      </c>
+      <c r="F91" s="113" t="s">
+        <v>202</v>
+      </c>
+      <c r="G91" s="75"/>
+      <c r="H91" s="75"/>
+      <c r="I91" s="59">
+        <v>3</v>
+      </c>
+      <c r="J91" s="57">
+        <f>I91*D91</f>
+        <v>0.03</v>
+      </c>
+      <c r="K91" s="36"/>
+      <c r="L91" s="36"/>
+      <c r="M91" s="36"/>
+      <c r="N91" s="36"/>
+      <c r="O91" s="64"/>
+    </row>
+    <row r="92" s="4" customFormat="1" spans="1:15">
+      <c r="A92" s="75">
+        <v>160</v>
+      </c>
+      <c r="B92" s="75" t="s">
+        <v>200</v>
+      </c>
+      <c r="C92" s="81" t="s">
+        <v>137</v>
+      </c>
+      <c r="D92" s="108">
+        <v>0.04</v>
+      </c>
+      <c r="E92" s="75">
+        <v>3</v>
+      </c>
+      <c r="F92" s="113" t="s">
+        <v>202</v>
+      </c>
+      <c r="G92" s="75">
+        <v>15</v>
+      </c>
+      <c r="H92" s="75" t="s">
+        <v>202</v>
+      </c>
+      <c r="I92" s="59">
+        <v>2</v>
+      </c>
+      <c r="J92" s="57">
+        <f>I92*D92</f>
+        <v>0.08</v>
+      </c>
+      <c r="K92" s="36"/>
+      <c r="L92" s="36"/>
+      <c r="M92" s="36"/>
+      <c r="N92" s="36"/>
+      <c r="O92" s="64"/>
+    </row>
+    <row r="93" s="4" customFormat="1" spans="1:15">
+      <c r="A93" s="75">
+        <v>170</v>
+      </c>
+      <c r="B93" s="75" t="s">
+        <v>203</v>
+      </c>
+      <c r="C93" s="81" t="s">
+        <v>137</v>
+      </c>
+      <c r="D93" s="108">
+        <v>0.02</v>
+      </c>
+      <c r="E93" s="75">
+        <v>3</v>
+      </c>
+      <c r="F93" s="113" t="s">
+        <v>202</v>
+      </c>
+      <c r="G93" s="75"/>
+      <c r="H93" s="75"/>
+      <c r="I93" s="59">
+        <v>2</v>
+      </c>
+      <c r="J93" s="57">
+        <f>I93*D93</f>
+        <v>0.04</v>
+      </c>
+      <c r="K93" s="36"/>
+      <c r="L93" s="36"/>
+      <c r="M93" s="36"/>
+      <c r="N93" s="36"/>
+      <c r="O93" s="64"/>
+    </row>
+    <row r="94" s="4" customFormat="1" spans="1:15">
+      <c r="A94" s="75">
+        <v>180</v>
+      </c>
+      <c r="B94" s="75" t="s">
+        <v>204</v>
+      </c>
+      <c r="C94" s="81" t="s">
+        <v>137</v>
+      </c>
+      <c r="D94" s="108">
+        <v>0.01</v>
+      </c>
+      <c r="E94" s="75">
+        <v>3</v>
+      </c>
+      <c r="F94" s="113" t="s">
+        <v>202</v>
+      </c>
+      <c r="G94" s="75"/>
+      <c r="H94" s="75"/>
+      <c r="I94" s="59">
+        <v>2</v>
+      </c>
+      <c r="J94" s="57">
+        <f>I94*D94</f>
+        <v>0.02</v>
+      </c>
+      <c r="K94" s="36"/>
+      <c r="L94" s="36"/>
+      <c r="M94" s="36"/>
+      <c r="N94" s="36"/>
+      <c r="O94" s="64"/>
+    </row>
+    <row r="95" s="4" customFormat="1" spans="1:15">
+      <c r="A95" s="75">
+        <v>190</v>
+      </c>
+      <c r="B95" s="75" t="s">
+        <v>207</v>
+      </c>
+      <c r="C95" s="81"/>
+      <c r="D95" s="108">
+        <v>0.003</v>
+      </c>
+      <c r="E95" s="75"/>
+      <c r="F95" s="113" t="s">
+        <v>208</v>
+      </c>
+      <c r="G95" s="75"/>
+      <c r="H95" s="75"/>
+      <c r="I95" s="117"/>
+      <c r="J95" s="57">
+        <f>I95*D95</f>
+        <v>0</v>
+      </c>
+      <c r="K95" s="36"/>
+      <c r="L95" s="36"/>
+      <c r="M95" s="36"/>
+      <c r="N95" s="36"/>
+      <c r="O95" s="64"/>
+    </row>
+    <row r="96" s="4" customFormat="1" spans="1:15">
+      <c r="A96" s="75">
+        <v>200</v>
+      </c>
+      <c r="B96" s="75" t="s">
+        <v>209</v>
+      </c>
+      <c r="C96" s="81"/>
+      <c r="D96" s="108">
+        <v>0.002</v>
+      </c>
+      <c r="E96" s="75"/>
+      <c r="F96" s="113" t="s">
+        <v>208</v>
+      </c>
+      <c r="G96" s="75"/>
+      <c r="H96" s="75"/>
+      <c r="I96" s="117"/>
+      <c r="J96" s="57">
+        <f>I96*D96</f>
+        <v>0</v>
+      </c>
+      <c r="K96" s="36"/>
+      <c r="L96" s="36"/>
+      <c r="M96" s="36"/>
+      <c r="N96" s="36"/>
+      <c r="O96" s="64"/>
+    </row>
+    <row r="97" s="4" customFormat="1" spans="1:15">
+      <c r="A97" s="75">
+        <v>210</v>
+      </c>
+      <c r="B97" s="75" t="s">
+        <v>210</v>
+      </c>
+      <c r="C97" s="81"/>
+      <c r="D97" s="108">
+        <v>0.04</v>
+      </c>
+      <c r="E97" s="75"/>
+      <c r="F97" s="113" t="s">
+        <v>123</v>
+      </c>
+      <c r="G97" s="75"/>
+      <c r="H97" s="75"/>
+      <c r="I97" s="117">
+        <v>10</v>
+      </c>
+      <c r="J97" s="57">
+        <f>I97*D97</f>
+        <v>0.4</v>
+      </c>
+      <c r="K97" s="36"/>
+      <c r="L97" s="36"/>
+      <c r="M97" s="36"/>
+      <c r="N97" s="36"/>
+      <c r="O97" s="64"/>
+    </row>
+    <row r="98" s="4" customFormat="1" spans="1:15">
+      <c r="A98" s="75"/>
+      <c r="B98" s="75"/>
+      <c r="C98" s="81"/>
+      <c r="D98" s="108"/>
+      <c r="E98" s="75"/>
+      <c r="F98" s="113"/>
+      <c r="G98" s="75"/>
+      <c r="H98" s="75"/>
+      <c r="I98" s="59"/>
+      <c r="J98" s="57"/>
+      <c r="K98" s="36"/>
+      <c r="L98" s="36"/>
+      <c r="M98" s="36"/>
+      <c r="N98" s="36"/>
+      <c r="O98" s="64"/>
+    </row>
+    <row r="99" s="4" customFormat="1" spans="1:15">
+      <c r="A99" s="75"/>
+      <c r="B99" s="75"/>
+      <c r="C99" s="81"/>
+      <c r="D99" s="108"/>
+      <c r="E99" s="75"/>
+      <c r="F99" s="113"/>
+      <c r="G99" s="75"/>
+      <c r="H99" s="75"/>
+      <c r="I99" s="59"/>
+      <c r="J99" s="57"/>
+      <c r="K99" s="36"/>
+      <c r="L99" s="36"/>
+      <c r="M99" s="36"/>
+      <c r="N99" s="36"/>
+      <c r="O99" s="64"/>
+    </row>
+    <row r="100" s="4" customFormat="1" spans="1:15">
+      <c r="A100" s="75"/>
+      <c r="B100" s="75"/>
+      <c r="C100" s="81"/>
+      <c r="D100" s="108"/>
+      <c r="E100" s="75"/>
+      <c r="F100" s="113"/>
+      <c r="G100" s="75"/>
+      <c r="H100" s="75"/>
+      <c r="I100" s="59"/>
+      <c r="J100" s="57"/>
+      <c r="K100" s="36"/>
+      <c r="L100" s="36"/>
+      <c r="M100" s="36"/>
+      <c r="N100" s="36"/>
+      <c r="O100" s="64"/>
+    </row>
+    <row r="101" spans="1:15">
+      <c r="A101" s="75"/>
+      <c r="B101" s="110"/>
+      <c r="C101" s="107" t="s">
         <v>198</v>
       </c>
-      <c r="D83" s="110"/>
-      <c r="E83" s="81"/>
-      <c r="F83" s="114"/>
-      <c r="G83" s="81"/>
-      <c r="H83" s="81"/>
-      <c r="I83" s="116"/>
-      <c r="J83" s="57"/>
-      <c r="K83" s="52"/>
-      <c r="L83" s="52"/>
-      <c r="M83" s="52"/>
-      <c r="N83" s="52"/>
-      <c r="O83" s="58"/>
-    </row>
-    <row r="84" spans="1:15">
-      <c r="A84" s="21"/>
-      <c r="B84" s="22"/>
-      <c r="C84" s="22"/>
-      <c r="D84" s="22"/>
-      <c r="E84" s="22"/>
-      <c r="F84" s="22"/>
-      <c r="G84" s="22"/>
-      <c r="H84" s="22"/>
-      <c r="I84" s="80" t="s">
+      <c r="D101" s="109"/>
+      <c r="E101" s="81"/>
+      <c r="F101" s="114"/>
+      <c r="G101" s="81"/>
+      <c r="H101" s="81"/>
+      <c r="I101" s="116"/>
+      <c r="J101" s="57"/>
+      <c r="K101" s="52"/>
+      <c r="L101" s="52"/>
+      <c r="M101" s="52"/>
+      <c r="N101" s="52"/>
+      <c r="O101" s="58"/>
+    </row>
+    <row r="102" spans="1:15">
+      <c r="A102" s="21"/>
+      <c r="B102" s="22"/>
+      <c r="C102" s="22"/>
+      <c r="D102" s="22"/>
+      <c r="E102" s="22"/>
+      <c r="F102" s="22"/>
+      <c r="G102" s="22"/>
+      <c r="H102" s="22"/>
+      <c r="I102" s="80" t="s">
         <v>109</v>
       </c>
-      <c r="J84" s="88">
+      <c r="J102" s="88">
         <f>SUM(J77:J81)</f>
-        <v>0.66</v>
-      </c>
-      <c r="K84" s="9"/>
-      <c r="L84" s="9"/>
-      <c r="M84" s="9"/>
-      <c r="N84" s="9"/>
-      <c r="O84" s="58"/>
-    </row>
-    <row r="85" spans="1:15">
-      <c r="A85" s="23"/>
-      <c r="B85" s="9"/>
-      <c r="C85" s="9"/>
-      <c r="D85" s="9"/>
-      <c r="E85" s="9"/>
-      <c r="F85" s="9"/>
-      <c r="G85" s="9"/>
-      <c r="H85" s="9"/>
-      <c r="I85" s="9"/>
-      <c r="J85" s="9"/>
-      <c r="K85" s="9"/>
-      <c r="L85" s="9"/>
-      <c r="M85" s="9"/>
-      <c r="N85" s="9"/>
-      <c r="O85" s="58"/>
-    </row>
-    <row r="86" spans="1:15">
-      <c r="A86" s="74" t="s">
+        <v>0.3</v>
+      </c>
+      <c r="K102" s="9"/>
+      <c r="L102" s="9"/>
+      <c r="M102" s="9"/>
+      <c r="N102" s="9"/>
+      <c r="O102" s="58"/>
+    </row>
+    <row r="103" spans="1:15">
+      <c r="A103" s="23"/>
+      <c r="B103" s="9"/>
+      <c r="C103" s="9"/>
+      <c r="D103" s="9"/>
+      <c r="E103" s="9"/>
+      <c r="F103" s="9"/>
+      <c r="G103" s="9"/>
+      <c r="H103" s="9"/>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c r="L103" s="9"/>
+      <c r="M103" s="9"/>
+      <c r="N103" s="9"/>
+      <c r="O103" s="58"/>
+    </row>
+    <row r="104" spans="1:15">
+      <c r="A104" s="74" t="s">
         <v>106</v>
       </c>
-      <c r="B86" s="74" t="s">
-        <v>206</v>
-      </c>
-      <c r="C86" s="74" t="s">
+      <c r="B104" s="74" t="s">
+        <v>211</v>
+      </c>
+      <c r="C104" s="74" t="s">
         <v>111</v>
       </c>
-      <c r="D86" s="74" t="s">
+      <c r="D104" s="74" t="s">
         <v>112</v>
       </c>
-      <c r="E86" s="74" t="s">
+      <c r="E104" s="74" t="s">
         <v>187</v>
       </c>
-      <c r="F86" s="74" t="s">
+      <c r="F104" s="74" t="s">
         <v>82</v>
       </c>
-      <c r="G86" s="74" t="s">
-        <v>207</v>
-      </c>
-      <c r="H86" s="74" t="s">
-        <v>208</v>
-      </c>
-      <c r="I86" s="74" t="s">
+      <c r="G104" s="74" t="s">
+        <v>212</v>
+      </c>
+      <c r="H104" s="74" t="s">
+        <v>213</v>
+      </c>
+      <c r="I104" s="74" t="s">
         <v>109</v>
       </c>
-      <c r="J86" s="22"/>
-      <c r="K86" s="9"/>
-      <c r="L86" s="9"/>
-      <c r="M86" s="9"/>
-      <c r="N86" s="9"/>
-      <c r="O86" s="58"/>
-    </row>
-    <row r="87" spans="1:15">
-      <c r="A87" s="75">
+      <c r="J104" s="22"/>
+      <c r="K104" s="9"/>
+      <c r="L104" s="9"/>
+      <c r="M104" s="9"/>
+      <c r="N104" s="9"/>
+      <c r="O104" s="58"/>
+    </row>
+    <row r="105" spans="1:15">
+      <c r="A105" s="75">
         <v>10</v>
       </c>
-      <c r="B87" s="75" t="s">
-        <v>209</v>
-      </c>
-      <c r="C87" s="75" t="s">
-        <v>210</v>
-      </c>
-      <c r="D87" s="57">
+      <c r="B105" s="75" t="s">
+        <v>214</v>
+      </c>
+      <c r="C105" s="75" t="s">
+        <v>215</v>
+      </c>
+      <c r="D105" s="57">
         <v>500</v>
       </c>
-      <c r="E87" s="75" t="s">
-        <v>211</v>
-      </c>
-      <c r="F87" s="75">
-        <v>30</v>
-      </c>
-      <c r="G87" s="75">
+      <c r="E105" s="75" t="s">
+        <v>216</v>
+      </c>
+      <c r="F105" s="75">
+        <v>11</v>
+      </c>
+      <c r="G105" s="75">
         <v>3000</v>
       </c>
-      <c r="H87" s="75">
+      <c r="H105" s="75">
         <v>1</v>
       </c>
-      <c r="I87" s="57">
-        <f>D87*F87/G87*H87</f>
-        <v>5</v>
-      </c>
-      <c r="J87" s="22"/>
-      <c r="K87" s="9"/>
-      <c r="L87" s="9"/>
-      <c r="M87" s="9"/>
-      <c r="N87" s="9"/>
-      <c r="O87" s="58"/>
-    </row>
-    <row r="88" spans="1:15">
-      <c r="A88" s="111"/>
-      <c r="B88" s="111"/>
-      <c r="C88" s="111"/>
-      <c r="D88" s="111"/>
-      <c r="E88" s="111"/>
-      <c r="F88" s="111"/>
-      <c r="G88" s="111"/>
-      <c r="H88" s="111"/>
-      <c r="I88" s="111"/>
-      <c r="J88" s="36"/>
-      <c r="K88" s="9"/>
-      <c r="L88" s="9"/>
-      <c r="M88" s="9"/>
-      <c r="N88" s="9"/>
-      <c r="O88" s="58"/>
-    </row>
-    <row r="89" spans="1:15">
-      <c r="A89" s="21"/>
-      <c r="B89" s="22"/>
-      <c r="C89" s="22"/>
-      <c r="D89" s="22"/>
-      <c r="E89" s="22"/>
-      <c r="F89" s="22"/>
-      <c r="G89" s="22"/>
-      <c r="H89" s="115" t="s">
+      <c r="I105" s="57">
+        <f>D105*F105/G105*H105</f>
+        <v>1.83333333333333</v>
+      </c>
+      <c r="J105" s="22"/>
+      <c r="K105" s="9"/>
+      <c r="L105" s="9"/>
+      <c r="M105" s="9"/>
+      <c r="N105" s="9"/>
+      <c r="O105" s="58"/>
+    </row>
+    <row r="106" spans="1:15">
+      <c r="A106" s="111"/>
+      <c r="B106" s="111"/>
+      <c r="C106" s="111"/>
+      <c r="D106" s="111"/>
+      <c r="E106" s="111"/>
+      <c r="F106" s="111"/>
+      <c r="G106" s="111"/>
+      <c r="H106" s="111"/>
+      <c r="I106" s="111"/>
+      <c r="J106" s="36"/>
+      <c r="K106" s="9"/>
+      <c r="L106" s="9"/>
+      <c r="M106" s="9"/>
+      <c r="N106" s="9"/>
+      <c r="O106" s="58"/>
+    </row>
+    <row r="107" spans="1:15">
+      <c r="A107" s="21"/>
+      <c r="B107" s="22"/>
+      <c r="C107" s="22"/>
+      <c r="D107" s="22"/>
+      <c r="E107" s="22"/>
+      <c r="F107" s="22"/>
+      <c r="G107" s="22"/>
+      <c r="H107" s="115" t="s">
         <v>109</v>
       </c>
-      <c r="I89" s="117">
-        <f>SUM(I87:I88)</f>
-        <v>5</v>
-      </c>
-      <c r="J89" s="22"/>
-      <c r="K89" s="9"/>
-      <c r="L89" s="9"/>
-      <c r="M89" s="9"/>
-      <c r="N89" s="9"/>
-      <c r="O89" s="58"/>
-    </row>
-    <row r="90" spans="1:15">
-      <c r="A90" s="37"/>
-      <c r="B90" s="38"/>
-      <c r="C90" s="38"/>
-      <c r="D90" s="38"/>
-      <c r="E90" s="38"/>
-      <c r="F90" s="38"/>
-      <c r="G90" s="38"/>
-      <c r="H90" s="38"/>
-      <c r="I90" s="38"/>
-      <c r="J90" s="38"/>
-      <c r="K90" s="38"/>
-      <c r="L90" s="38"/>
-      <c r="M90" s="38"/>
-      <c r="N90" s="38"/>
-      <c r="O90" s="65"/>
-    </row>
-    <row r="91" spans="1:14">
-      <c r="A91" s="9"/>
-      <c r="B91" s="9"/>
-      <c r="C91" s="9"/>
-      <c r="D91" s="9"/>
-      <c r="E91" s="9"/>
-      <c r="F91" s="9"/>
-      <c r="G91" s="9"/>
-      <c r="H91" s="9"/>
-      <c r="I91" s="9"/>
-      <c r="J91" s="9"/>
-      <c r="K91" s="9"/>
-      <c r="L91" s="9"/>
-      <c r="M91" s="9"/>
-      <c r="N91" s="9"/>
+      <c r="I107" s="118">
+        <f>SUM(I105:I106)</f>
+        <v>1.83333333333333</v>
+      </c>
+      <c r="J107" s="22"/>
+      <c r="K107" s="9"/>
+      <c r="L107" s="9"/>
+      <c r="M107" s="9"/>
+      <c r="N107" s="9"/>
+      <c r="O107" s="58"/>
+    </row>
+    <row r="108" ht="13.5" spans="1:15">
+      <c r="A108" s="37"/>
+      <c r="B108" s="38"/>
+      <c r="C108" s="38"/>
+      <c r="D108" s="38"/>
+      <c r="E108" s="38"/>
+      <c r="F108" s="38"/>
+      <c r="G108" s="38"/>
+      <c r="H108" s="38"/>
+      <c r="I108" s="38"/>
+      <c r="J108" s="38"/>
+      <c r="K108" s="38"/>
+      <c r="L108" s="38"/>
+      <c r="M108" s="38"/>
+      <c r="N108" s="38"/>
+      <c r="O108" s="65"/>
+    </row>
+    <row r="109" spans="1:14">
+      <c r="A109" s="9"/>
+      <c r="B109" s="9"/>
+      <c r="C109" s="9"/>
+      <c r="D109" s="9"/>
+      <c r="E109" s="9"/>
+      <c r="F109" s="9"/>
+      <c r="G109" s="9"/>
+      <c r="H109" s="9"/>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c r="L109" s="9"/>
+      <c r="M109" s="9"/>
+      <c r="N109" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -12271,7 +12882,7 @@
     <oddFooter>&amp;C&amp;P</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="90" max="16383" man="1"/>
+    <brk id="108" max="16383" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
@@ -12364,7 +12975,7 @@
         <v>98</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
@@ -12412,7 +13023,7 @@
         <v>107</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="7" t="s">
@@ -12442,7 +13053,7 @@
         <v>99</v>
       </c>
       <c r="B6" s="67" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -12486,7 +13097,7 @@
         <v>105</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -12569,10 +13180,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="D11" s="20">
         <v>2.25</v>
@@ -12590,7 +13201,7 @@
         <v>202</v>
       </c>
       <c r="I11" s="47" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="J11" s="48">
         <f>(E11*10^-3)*(G11*10^-3)</f>
@@ -12690,10 +13301,10 @@
         <v>10</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="D15" s="29">
         <v>1.3</v>
@@ -12705,7 +13316,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="71" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="H15" s="71">
         <v>0.5</v>
@@ -12726,10 +13337,10 @@
         <v>20</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="D16" s="20">
         <v>0.01</v>
@@ -12741,7 +13352,7 @@
         <v>7.23</v>
       </c>
       <c r="G16" s="27" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="H16" s="33">
         <v>2.5</v>
@@ -12796,7 +13407,7 @@
       <c r="N18" s="9"/>
       <c r="O18" s="58"/>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" ht="13.5" spans="1:15">
       <c r="A19" s="37"/>
       <c r="B19" s="38"/>
       <c r="C19" s="38"/>
@@ -12852,7 +13463,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="66" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B1" s="66" t="str">
         <f>EL_01001</f>
@@ -12961,7 +13572,7 @@
         <v>98</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
@@ -13009,7 +13620,7 @@
         <v>107</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="7" t="s">
@@ -13039,7 +13650,7 @@
         <v>99</v>
       </c>
       <c r="B6" s="67" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -13083,7 +13694,7 @@
         <v>105</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -13166,10 +13777,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="D11" s="20">
         <v>2.25</v>
@@ -13187,7 +13798,7 @@
         <v>202</v>
       </c>
       <c r="I11" s="47" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="J11" s="48">
         <f>(E11*10^-3)*(G11*10^-3)</f>
@@ -13287,10 +13898,10 @@
         <v>10</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="D15" s="29">
         <v>1.3</v>
@@ -13302,7 +13913,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="71" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="H15" s="71">
         <f>1/3</f>
@@ -13324,10 +13935,10 @@
         <v>20</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="D16" s="20">
         <v>0.01</v>
@@ -13337,7 +13948,7 @@
       </c>
       <c r="F16" s="70"/>
       <c r="G16" s="27" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="H16" s="33">
         <v>2.5</v>
@@ -13392,7 +14003,7 @@
       <c r="N18" s="9"/>
       <c r="O18" s="58"/>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" ht="13.5" spans="1:15">
       <c r="A19" s="37"/>
       <c r="B19" s="38"/>
       <c r="C19" s="38"/>
@@ -13447,7 +14058,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="66" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B1" s="66" t="str">
         <f>EL_01002</f>
@@ -13555,7 +14166,7 @@
         <v>98</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
@@ -13603,7 +14214,7 @@
         <v>107</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="7" t="s">
@@ -13633,7 +14244,7 @@
         <v>99</v>
       </c>
       <c r="B6" s="67" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -13677,7 +14288,7 @@
         <v>105</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -13760,10 +14371,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="D11" s="20">
         <v>2.25</v>
@@ -13781,7 +14392,7 @@
         <v>202</v>
       </c>
       <c r="I11" s="47" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="J11" s="48">
         <f>(E11*10^-3)*(G11*10^-3)</f>
@@ -13881,10 +14492,10 @@
         <v>10</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="D15" s="29">
         <v>1.3</v>
@@ -13896,7 +14507,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="71" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="H15" s="71">
         <v>0.5</v>
@@ -13917,10 +14528,10 @@
         <v>20</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="D16" s="20">
         <v>0.01</v>
@@ -13932,7 +14543,7 @@
         <v>5.5</v>
       </c>
       <c r="G16" s="27" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="H16" s="33">
         <v>2.5</v>
@@ -13987,7 +14598,7 @@
       <c r="N18" s="9"/>
       <c r="O18" s="58"/>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" ht="13.5" spans="1:15">
       <c r="A19" s="37"/>
       <c r="B19" s="38"/>
       <c r="C19" s="38"/>
@@ -14043,7 +14654,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="66" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B1" s="66" t="str">
         <f>EL_01003</f>

--- a/EL - Electrical/Cost/EL_A0001.xlsx
+++ b/EL - Electrical/Cost/EL_A0001.xlsx
@@ -5,7 +5,7 @@
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8565" activeTab="2"/>
+    <workbookView windowWidth="28695" windowHeight="13620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -93,12 +93,12 @@
     <definedName name="EL_02002_q">'EL Part 1'!#REF!</definedName>
     <definedName name="EL_02002_t">'EL Part 1'!#REF!</definedName>
     <definedName name="EL_A0001">EL_A0001!$B$5</definedName>
-    <definedName name="EL_A0001_f">EL_A0001!$J$102</definedName>
-    <definedName name="El_A0001_m">EL_A0001!$N$65</definedName>
-    <definedName name="EL_A0001_p">EL_A0001!$I$74</definedName>
+    <definedName name="EL_A0001_f">EL_A0001!$J$115</definedName>
+    <definedName name="El_A0001_m">EL_A0001!$N$66</definedName>
+    <definedName name="EL_A0001_p">EL_A0001!$I$87</definedName>
     <definedName name="EL_A0001_pa">EL_A0001!$E$16</definedName>
     <definedName name="EL_A0001_q">EL_A0001!$N$3</definedName>
-    <definedName name="EL_A0001_t">EL_A0001!$I$107</definedName>
+    <definedName name="EL_A0001_t">EL_A0001!$I$120</definedName>
     <definedName name="EL_A0002">EL_A0001!#REF!</definedName>
     <definedName name="EL_A0002_f">EL_A0001!#REF!</definedName>
     <definedName name="EL_A0002_m">EL_A0001!#REF!</definedName>
@@ -314,7 +314,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271">
   <si>
     <t>Petite marche à suivre pour remplir cette merveille qu'est le cost</t>
   </si>
@@ -786,7 +786,10 @@
     <t>Crash sensor</t>
   </si>
   <si>
-    <t>Oil pressure switch</t>
+    <t>Sensor, Fluid pressure</t>
+  </si>
+  <si>
+    <t>Oil pressure sensor</t>
   </si>
   <si>
     <t>Sensor, Wide band air fuel ratio</t>
@@ -801,7 +804,7 @@
     <t>pin</t>
   </si>
   <si>
-    <t>Discharge resistor connector - 2x2 pins</t>
+    <t>Firewall interface - 22 pins</t>
   </si>
   <si>
     <t>Connector, Computer Type</t>
@@ -816,10 +819,10 @@
     <t>TPS - 3 wires</t>
   </si>
   <si>
-    <t>Oil pressure switch - 2 wires</t>
-  </si>
-  <si>
-    <t>Neutral switch - 2 wires</t>
+    <t>Oil pressure sensor - 2 wires</t>
+  </si>
+  <si>
+    <t>Neutral switch - 1 wire</t>
   </si>
   <si>
     <t>ECT - 2 wires</t>
@@ -849,7 +852,7 @@
     <t>Crash sensor - 2 wires</t>
   </si>
   <si>
-    <t>MAP &amp; IAT - 3 wires</t>
+    <t>MAP &amp; IAT - 4 wires</t>
   </si>
   <si>
     <t>Connector, High Power, &gt;2Amps</t>
@@ -876,6 +879,9 @@
     <t>wire</t>
   </si>
   <si>
+    <t>Break light</t>
+  </si>
+  <si>
     <t>Connection to frame's ground</t>
   </si>
   <si>
@@ -954,16 +960,79 @@
     <t>Aerosol apply</t>
   </si>
   <si>
-    <t>Tabs painting</t>
+    <t>Brackets painting</t>
   </si>
   <si>
     <t>m^2</t>
   </si>
   <si>
-    <t>Process 3 (example : Ratchet)</t>
-  </si>
-  <si>
-    <t>Example : Tighten bolts</t>
+    <t>Gearmotor box painting</t>
+  </si>
+  <si>
+    <t>Assemble, 1kg, Loose</t>
+  </si>
+  <si>
+    <t>Assemble Master switch panel on brackets</t>
+  </si>
+  <si>
+    <t>Assemble, 3kg, Loose</t>
+  </si>
+  <si>
+    <t>Assemble ECU on vehicle</t>
+  </si>
+  <si>
+    <t>Lambda sensor</t>
+  </si>
+  <si>
+    <t>Assemble fuse box on fuse box brackets</t>
+  </si>
+  <si>
+    <t>Cut wire</t>
+  </si>
+  <si>
+    <t>Cut sensor to appropriate length</t>
+  </si>
+  <si>
+    <t>Strip wire</t>
+  </si>
+  <si>
+    <t>Strip wire ends</t>
+  </si>
+  <si>
+    <t>Cut (scissors, knife)</t>
+  </si>
+  <si>
+    <t>Cut heat shrink tubing</t>
+  </si>
+  <si>
+    <t>repeat 15</t>
+  </si>
+  <si>
+    <t>Shrink tube</t>
+  </si>
+  <si>
+    <t>Install and route wiring harness</t>
+  </si>
+  <si>
+    <t>Connector assembly, crimp</t>
+  </si>
+  <si>
+    <t>contact</t>
+  </si>
+  <si>
+    <t>Connector Install, Circular, Bayonet</t>
+  </si>
+  <si>
+    <t>Taping Wire Bundle</t>
+  </si>
+  <si>
+    <t>Wire Dressing (install and route)</t>
+  </si>
+  <si>
+    <t>Ratchet &lt;= 6.35 mm</t>
+  </si>
+  <si>
+    <t>Reaction Tool &lt;= 6.35 mm</t>
   </si>
   <si>
     <t>lignes vides à supprimer si non utilisées</t>
@@ -1017,82 +1086,85 @@
     <t>Welds - Welding Fixture</t>
   </si>
   <si>
+    <t>Brackets welding</t>
+  </si>
+  <si>
+    <t>point</t>
+  </si>
+  <si>
+    <t>Drawing</t>
+  </si>
+  <si>
+    <t>Fuse box bracket</t>
+  </si>
+  <si>
+    <t>EL_01001</t>
+  </si>
+  <si>
+    <t>Description brève de la pièce</t>
+  </si>
+  <si>
+    <t>Steel, mild</t>
+  </si>
+  <si>
+    <t>Stock material for part</t>
+  </si>
+  <si>
+    <t>Rectangular</t>
+  </si>
+  <si>
+    <t>Machining Setup, Install and remove</t>
+  </si>
+  <si>
+    <t>Setup for laser cutting</t>
+  </si>
+  <si>
+    <t>2 parts cut from a single machine setup</t>
+  </si>
+  <si>
+    <t>Laser Cut</t>
+  </si>
+  <si>
+    <t>Cutout shape</t>
+  </si>
+  <si>
+    <t>Material - Cast Iron</t>
+  </si>
+  <si>
+    <t>Drawing part :</t>
+  </si>
+  <si>
+    <t>Ground bracket</t>
+  </si>
+  <si>
+    <t>EL_01002</t>
+  </si>
+  <si>
+    <t>3 parts cut from a single machine setup</t>
+  </si>
+  <si>
+    <t>Break light bracket</t>
+  </si>
+  <si>
+    <t>EL_01003</t>
+  </si>
+  <si>
+    <t>Master switch panel</t>
+  </si>
+  <si>
+    <t>EL 01004</t>
+  </si>
+  <si>
+    <t>Cast Iron (per kg)</t>
+  </si>
+  <si>
+    <t>circle area</t>
+  </si>
+  <si>
+    <t>FracIncld</t>
+  </si>
+  <si>
     <t>Exemple de Tooling</t>
-  </si>
-  <si>
-    <t>point</t>
-  </si>
-  <si>
-    <t>Drawing</t>
-  </si>
-  <si>
-    <t>Fuse box bracket</t>
-  </si>
-  <si>
-    <t>EL_01001</t>
-  </si>
-  <si>
-    <t>Description brève de la pièce</t>
-  </si>
-  <si>
-    <t>Steel, mild</t>
-  </si>
-  <si>
-    <t>Stock material for part</t>
-  </si>
-  <si>
-    <t>Rectangular</t>
-  </si>
-  <si>
-    <t>Machining Setup, Install and remove</t>
-  </si>
-  <si>
-    <t>Setup for laser cutting</t>
-  </si>
-  <si>
-    <t>2 parts cut from a single machine setup</t>
-  </si>
-  <si>
-    <t>Laser Cut</t>
-  </si>
-  <si>
-    <t>Cutout shape</t>
-  </si>
-  <si>
-    <t>Material - Cast Iron</t>
-  </si>
-  <si>
-    <t>Drawing part :</t>
-  </si>
-  <si>
-    <t>Ground bracket</t>
-  </si>
-  <si>
-    <t>EL_01002</t>
-  </si>
-  <si>
-    <t>3 parts cut from a single machine setup</t>
-  </si>
-  <si>
-    <t>Break light bracket</t>
-  </si>
-  <si>
-    <t>EL_01003</t>
-  </si>
-  <si>
-    <t>Master switch panel</t>
-  </si>
-  <si>
-    <t>EL 01004</t>
-  </si>
-  <si>
-    <t>Cast Iron (per kg)</t>
-  </si>
-  <si>
-    <t>circle area</t>
-  </si>
-  <si>
-    <t>FracIncld</t>
   </si>
   <si>
     <t>Master switch panel bracket</t>
@@ -1118,20 +1190,20 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="14">
-    <numFmt numFmtId="176" formatCode="h:mm\ AM/PM"/>
-    <numFmt numFmtId="177" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    <numFmt numFmtId="178" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="176" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00.;_-[$$-409]* \-??_ ;_-@_ "/>
+    <numFmt numFmtId="177" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* \-??_);_(@_)"/>
     <numFmt numFmtId="179" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* \-??_);_(@_)"/>
-    <numFmt numFmtId="180" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
     <numFmt numFmtId="181" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* \-??_);_(@_)"/>
+    <numFmt numFmtId="182" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="183" formatCode="h:mm\ AM/PM"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="184" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="185" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="186" formatCode="&quot;$&quot;#,##0.00_);&quot;($&quot;#,##0.00\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="182" formatCode="_(* #,##0_);_(* \(#,##0\);_(* \-??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="183" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
-    <numFmt numFmtId="184" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00.;_-[$$-409]* \-??_ ;_-@_ "/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="185" formatCode="&quot;$&quot;#,##0.00_);&quot;($&quot;#,##0.00\)"/>
-    <numFmt numFmtId="186" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="42">
     <font>
@@ -1270,56 +1342,19 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1338,7 +1373,54 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1352,11 +1434,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1368,31 +1449,29 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1402,13 +1481,6 @@
       <color indexed="8"/>
       <name val="Calibri"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -1494,7 +1566,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1506,7 +1578,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1518,7 +1662,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1530,144 +1734,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="40">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -1884,19 +1956,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -2029,17 +2088,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFD0D7E5"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFD0D7E5"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFD0D7E5"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFD0D7E5"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2049,21 +2108,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2085,29 +2129,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2128,6 +2152,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -2142,171 +2181,191 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD0D7E5"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD0D7E5"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD0D7E5"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD0D7E5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="39" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="38" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="20" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="37" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="14" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="37" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="16" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="28" fillId="13" borderId="33">
+    <xf numFmtId="44" fontId="23" fillId="13" borderId="31">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="186" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="184" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="0" fillId="0" borderId="30">
+    <xf numFmtId="186" fontId="0" fillId="0" borderId="37">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="36" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2367,7 +2426,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="183" fontId="3" fillId="0" borderId="9" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="185" fontId="3" fillId="0" borderId="9" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2439,39 +2498,39 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="181" fontId="3" fillId="0" borderId="17" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="181" fontId="2" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="183" fontId="3" fillId="0" borderId="3" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="185" fontId="3" fillId="0" borderId="3" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="183" fontId="3" fillId="0" borderId="17" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="185" fontId="3" fillId="0" borderId="17" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="3" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="3" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="11" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="11" fontId="3" fillId="0" borderId="3" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="179" fontId="3" fillId="0" borderId="3" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="3" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="182" fontId="3" fillId="0" borderId="3" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="3" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="17" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="182" fontId="3" fillId="0" borderId="17" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="182" fontId="3" fillId="0" borderId="9" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="3" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="17" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="9" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="3" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="184" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="184" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2479,169 +2538,169 @@
     <xf numFmtId="39" fontId="3" fillId="0" borderId="3" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="37" fontId="3" fillId="0" borderId="3" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="37" fontId="3" fillId="4" borderId="3" xfId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="181" fontId="2" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="181" fontId="2" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="46"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="46" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="22" xfId="46" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="23" xfId="46" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="24" xfId="46" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="25" xfId="46" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="21" xfId="46" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="22" xfId="46" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="23" xfId="46" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="24" xfId="46" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="46" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="26" xfId="46" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="25" xfId="46" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="25" xfId="46" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="24" xfId="46" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="27" xfId="46" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="25" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="26" xfId="46" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="24" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="46" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="46" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="46" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="17" fillId="8" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="183" fontId="17" fillId="8" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="17" fillId="9" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="183" fontId="17" fillId="9" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="17" fillId="9" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="183" fontId="17" fillId="9" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="28" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="183" fontId="17" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyFont="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="46" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="46" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="17" fillId="8" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="180" fontId="17" fillId="8" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="17" fillId="9" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="180" fontId="17" fillId="9" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="11" fontId="17" fillId="9" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="11" fontId="17" fillId="9" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="27" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="37" fontId="17" fillId="8" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="37" fontId="17" fillId="8" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="177" fontId="17" fillId="8" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="17" fillId="8" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="37" fontId="17" fillId="9" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="37" fontId="17" fillId="9" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="177" fontId="17" fillId="9" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="17" fillId="9" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="177" fontId="17" fillId="0" borderId="28" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="17" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="7" fillId="11" borderId="29" xfId="46" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="11" borderId="28" xfId="46" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="18" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="17" fillId="8" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="17" fillId="8" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="17" fillId="9" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="17" fillId="9" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="56">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma 2" xfId="1"/>
-    <cellStyle name="Currency 2" xfId="2"/>
-    <cellStyle name="Monétaire 2" xfId="3"/>
-    <cellStyle name="Normal 2" xfId="4"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Monétaire 2" xfId="2"/>
+    <cellStyle name="Currency 2" xfId="3"/>
+    <cellStyle name="Comma 2" xfId="4"/>
     <cellStyle name="60% - Accent6" xfId="5" builtinId="52"/>
     <cellStyle name="40% - Accent6" xfId="6" builtinId="51"/>
     <cellStyle name="60% - Accent5" xfId="7" builtinId="48"/>
@@ -3938,7 +3997,7 @@
         <v>98</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>217</v>
+        <v>240</v>
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
@@ -3986,7 +4045,7 @@
         <v>107</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="7" t="s">
@@ -4016,7 +4075,7 @@
         <v>99</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -4060,7 +4119,7 @@
         <v>105</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -4143,10 +4202,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>222</v>
+        <v>245</v>
       </c>
       <c r="D11" s="20">
         <v>1</v>
@@ -4155,12 +4214,12 @@
         <v>116</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>202</v>
+        <v>225</v>
       </c>
       <c r="G11" s="19"/>
       <c r="H11" s="39"/>
       <c r="I11" s="47" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c r="J11" s="48">
         <f>(E11*10^-3)^2*3.14</f>
@@ -4225,7 +4284,7 @@
         <v>106</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C14" s="25" t="s">
         <v>111</v>
@@ -4234,16 +4293,16 @@
         <v>112</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F14" s="25" t="s">
         <v>82</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I14" s="25" t="s">
         <v>109</v>
@@ -4260,10 +4319,10 @@
         <v>10</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>224</v>
+        <v>247</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>225</v>
+        <v>248</v>
       </c>
       <c r="D15" s="29">
         <v>1.3</v>
@@ -4292,22 +4351,22 @@
         <v>20</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>227</v>
+        <v>250</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>228</v>
+        <v>251</v>
       </c>
       <c r="D16" s="20">
         <v>0.01</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F16" s="40">
         <v>135.8913</v>
       </c>
       <c r="G16" s="27" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="H16" s="33">
         <v>2.5</v>
@@ -4366,7 +4425,7 @@
     <row r="19" spans="1:15">
       <c r="A19" s="32"/>
       <c r="B19" s="34" t="s">
-        <v>198</v>
+        <v>221</v>
       </c>
       <c r="C19" s="33"/>
       <c r="D19" s="20"/>
@@ -4449,7 +4508,7 @@
         <v>106</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
       <c r="C23" s="25" t="s">
         <v>111</v>
@@ -4504,7 +4563,7 @@
     <row r="25" spans="1:15">
       <c r="A25" s="30"/>
       <c r="B25" s="34" t="s">
-        <v>198</v>
+        <v>221</v>
       </c>
       <c r="C25" s="31"/>
       <c r="D25" s="20"/>
@@ -4587,7 +4646,7 @@
         <v>106</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="C29" s="25" t="s">
         <v>111</v>
@@ -4596,16 +4655,16 @@
         <v>112</v>
       </c>
       <c r="E29" s="25" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F29" s="25" t="s">
         <v>82</v>
       </c>
       <c r="G29" s="25" t="s">
-        <v>212</v>
+        <v>235</v>
       </c>
       <c r="H29" s="25" t="s">
-        <v>240</v>
+        <v>263</v>
       </c>
       <c r="I29" s="25" t="s">
         <v>109</v>
@@ -4622,16 +4681,16 @@
         <v>10</v>
       </c>
       <c r="B30" s="31" t="s">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c r="C30" s="31" t="s">
-        <v>215</v>
+        <v>264</v>
       </c>
       <c r="D30" s="20">
         <v>500</v>
       </c>
       <c r="E30" s="31" t="s">
-        <v>216</v>
+        <v>239</v>
       </c>
       <c r="F30" s="31">
         <v>5</v>
@@ -4747,7 +4806,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="66" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="B1" s="66" t="str">
         <f>EL_01003</f>
@@ -4854,7 +4913,7 @@
         <v>98</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>217</v>
+        <v>240</v>
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
@@ -4902,7 +4961,7 @@
         <v>107</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="7" t="s">
@@ -4932,7 +4991,7 @@
         <v>99</v>
       </c>
       <c r="B6" s="67" t="s">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -4976,7 +5035,7 @@
         <v>105</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -5059,10 +5118,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>222</v>
+        <v>245</v>
       </c>
       <c r="D11" s="20">
         <v>2.25</v>
@@ -5071,16 +5130,16 @@
         <v>12</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>202</v>
+        <v>225</v>
       </c>
       <c r="G11" s="19">
         <v>15</v>
       </c>
       <c r="H11" s="39" t="s">
-        <v>202</v>
+        <v>225</v>
       </c>
       <c r="I11" s="47" t="s">
-        <v>223</v>
+        <v>246</v>
       </c>
       <c r="J11" s="48">
         <f>(E11*10^-3)*(G11*10^-3)</f>
@@ -5145,7 +5204,7 @@
         <v>106</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C14" s="25" t="s">
         <v>111</v>
@@ -5154,16 +5213,16 @@
         <v>112</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F14" s="25" t="s">
         <v>82</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I14" s="25" t="s">
         <v>109</v>
@@ -5180,10 +5239,10 @@
         <v>10</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>224</v>
+        <v>247</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>225</v>
+        <v>248</v>
       </c>
       <c r="D15" s="29">
         <v>1.3</v>
@@ -5195,7 +5254,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="71" t="s">
-        <v>226</v>
+        <v>249</v>
       </c>
       <c r="H15" s="71">
         <v>0.5</v>
@@ -5216,22 +5275,22 @@
         <v>20</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>227</v>
+        <v>250</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>228</v>
+        <v>251</v>
       </c>
       <c r="D16" s="20">
         <v>0.01</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F16" s="72">
         <v>5.66</v>
       </c>
       <c r="G16" s="27" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="H16" s="33">
         <v>2.5</v>
@@ -5342,7 +5401,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="66" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="B1" s="66" t="str">
         <f>EL_01005</f>
@@ -5450,7 +5509,7 @@
         <v>98</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>217</v>
+        <v>240</v>
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
@@ -5498,7 +5557,7 @@
         <v>107</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="7" t="s">
@@ -5528,7 +5587,7 @@
         <v>99</v>
       </c>
       <c r="B6" s="67" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -5572,7 +5631,7 @@
         <v>105</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -5655,10 +5714,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>222</v>
+        <v>245</v>
       </c>
       <c r="D11" s="20">
         <v>2.25</v>
@@ -5667,16 +5726,16 @@
         <v>20</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>202</v>
+        <v>225</v>
       </c>
       <c r="G11" s="19">
         <v>20</v>
       </c>
       <c r="H11" s="39" t="s">
-        <v>202</v>
+        <v>225</v>
       </c>
       <c r="I11" s="47" t="s">
-        <v>223</v>
+        <v>246</v>
       </c>
       <c r="J11" s="48">
         <f>(E11*10^-3)*(G11*10^-3)</f>
@@ -5741,7 +5800,7 @@
         <v>106</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C14" s="25" t="s">
         <v>111</v>
@@ -5750,16 +5809,16 @@
         <v>112</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F14" s="25" t="s">
         <v>82</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I14" s="25" t="s">
         <v>109</v>
@@ -5776,10 +5835,10 @@
         <v>10</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>224</v>
+        <v>247</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>225</v>
+        <v>248</v>
       </c>
       <c r="D15" s="29">
         <v>1.3</v>
@@ -5808,20 +5867,20 @@
         <v>20</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>227</v>
+        <v>250</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>228</v>
+        <v>251</v>
       </c>
       <c r="D16" s="20">
         <v>0.01</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F16" s="70"/>
       <c r="G16" s="27" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="H16" s="33">
         <v>2.5</v>
@@ -5931,7 +5990,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="66" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="B1" s="66" t="str">
         <f>EL_01006</f>
@@ -6039,7 +6098,7 @@
         <v>98</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>217</v>
+        <v>240</v>
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
@@ -6087,7 +6146,7 @@
         <v>107</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="7" t="s">
@@ -6117,7 +6176,7 @@
         <v>99</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>246</v>
+        <v>270</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -6161,7 +6220,7 @@
         <v>105</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -6244,10 +6303,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>222</v>
+        <v>245</v>
       </c>
       <c r="D11" s="20">
         <v>1</v>
@@ -6256,12 +6315,12 @@
         <v>116</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>202</v>
+        <v>225</v>
       </c>
       <c r="G11" s="19"/>
       <c r="H11" s="39"/>
       <c r="I11" s="47" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c r="J11" s="48">
         <f>(E11*10^-3)^2*3.14</f>
@@ -6326,7 +6385,7 @@
         <v>106</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C14" s="25" t="s">
         <v>111</v>
@@ -6335,16 +6394,16 @@
         <v>112</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F14" s="25" t="s">
         <v>82</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I14" s="25" t="s">
         <v>109</v>
@@ -6361,10 +6420,10 @@
         <v>10</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>224</v>
+        <v>247</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>225</v>
+        <v>248</v>
       </c>
       <c r="D15" s="29">
         <v>1.3</v>
@@ -6393,22 +6452,22 @@
         <v>20</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>227</v>
+        <v>250</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>228</v>
+        <v>251</v>
       </c>
       <c r="D16" s="20">
         <v>0.01</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F16" s="40">
         <v>135.8913</v>
       </c>
       <c r="G16" s="27" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="H16" s="33">
         <v>2.5</v>
@@ -6467,7 +6526,7 @@
     <row r="19" spans="1:15">
       <c r="A19" s="32"/>
       <c r="B19" s="34" t="s">
-        <v>198</v>
+        <v>221</v>
       </c>
       <c r="C19" s="33"/>
       <c r="D19" s="20"/>
@@ -6550,7 +6609,7 @@
         <v>106</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
       <c r="C23" s="25" t="s">
         <v>111</v>
@@ -6605,7 +6664,7 @@
     <row r="25" spans="1:15">
       <c r="A25" s="30"/>
       <c r="B25" s="34" t="s">
-        <v>198</v>
+        <v>221</v>
       </c>
       <c r="C25" s="31"/>
       <c r="D25" s="20"/>
@@ -6688,7 +6747,7 @@
         <v>106</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="C29" s="25" t="s">
         <v>111</v>
@@ -6697,16 +6756,16 @@
         <v>112</v>
       </c>
       <c r="E29" s="25" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F29" s="25" t="s">
         <v>82</v>
       </c>
       <c r="G29" s="25" t="s">
-        <v>212</v>
+        <v>235</v>
       </c>
       <c r="H29" s="25" t="s">
-        <v>240</v>
+        <v>263</v>
       </c>
       <c r="I29" s="25" t="s">
         <v>109</v>
@@ -6723,16 +6782,16 @@
         <v>10</v>
       </c>
       <c r="B30" s="31" t="s">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c r="C30" s="31" t="s">
-        <v>215</v>
+        <v>264</v>
       </c>
       <c r="D30" s="20">
         <v>500</v>
       </c>
       <c r="E30" s="31" t="s">
-        <v>216</v>
+        <v>239</v>
       </c>
       <c r="F30" s="31">
         <v>5</v>
@@ -6847,7 +6906,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="B1" s="1" t="str">
         <f>EL_01001</f>
@@ -7022,7 +7081,7 @@
       <c r="G7" s="146"/>
       <c r="H7" s="160">
         <f t="shared" ref="H7:H17" si="0">SUM(J7:M7)</f>
-        <v>1110.48333333333</v>
+        <v>1223.3104158</v>
       </c>
       <c r="I7" s="166">
         <f>EL_A0001_q</f>
@@ -7030,11 +7089,11 @@
       </c>
       <c r="J7" s="167">
         <f>El_A0001_m</f>
-        <v>1107.35</v>
+        <v>1125.85</v>
       </c>
       <c r="K7" s="167">
         <f>EL_A0001_p</f>
-        <v>1</v>
+        <v>95.1604158</v>
       </c>
       <c r="L7" s="167">
         <f>EL_A0001_f</f>
@@ -7042,11 +7101,11 @@
       </c>
       <c r="M7" s="167">
         <f>EL_A0001_t</f>
-        <v>1.83333333333333</v>
+        <v>2</v>
       </c>
       <c r="N7" s="177">
         <f t="shared" ref="N7:N17" si="1">H7*I7</f>
-        <v>1110.48333333333</v>
+        <v>1223.3104158</v>
       </c>
       <c r="O7" s="178"/>
     </row>
@@ -7371,11 +7430,11 @@
       <c r="I18" s="171"/>
       <c r="J18" s="172">
         <f t="shared" ref="J18:M18" si="2">SUMPRODUCT($I7:$I17,J7:J17)</f>
-        <v>1108.68093296</v>
+        <v>1127.18093296</v>
       </c>
       <c r="K18" s="172">
         <f t="shared" si="2"/>
-        <v>5.6972825</v>
+        <v>99.8576983</v>
       </c>
       <c r="L18" s="172">
         <f t="shared" si="2"/>
@@ -7383,11 +7442,11 @@
       </c>
       <c r="M18" s="172">
         <f t="shared" si="2"/>
-        <v>2.66666666666667</v>
+        <v>2.83333333333333</v>
       </c>
       <c r="N18" s="172">
         <f>SUM(N7:N17)</f>
-        <v>1117.34488212667</v>
+        <v>1230.17196459333</v>
       </c>
       <c r="O18" s="181"/>
     </row>
@@ -9631,17 +9690,17 @@
     <tabColor theme="9"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O109"/>
+  <dimension ref="A1:O122"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="B52" workbookViewId="0">
-      <selection activeCell="C70" sqref="C70"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="H100" sqref="H100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="11.4285714285714"/>
-    <col min="2" max="2" width="28"/>
-    <col min="3" max="3" width="35.5714285714286"/>
+    <col min="2" max="2" width="32.7809523809524" customWidth="1"/>
+    <col min="3" max="3" width="38.1238095238095" customWidth="1"/>
     <col min="4" max="4" width="11.4285714285714"/>
     <col min="5" max="5" width="13.1428571428571"/>
     <col min="6" max="7" width="11.4285714285714"/>
@@ -9697,9 +9756,9 @@
       <c r="M2" s="74" t="s">
         <v>92</v>
       </c>
-      <c r="N2" s="104">
+      <c r="N2" s="101">
         <f>EL_A0001_pa+El_A0001_m+EL_A0001_p+EL_A0001_f+EL_A0001_t</f>
-        <v>1124.84876472042</v>
+        <v>1237.67584718708</v>
       </c>
       <c r="O2" s="58"/>
     </row>
@@ -9742,7 +9801,7 @@
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
-      <c r="J4" s="92" t="s">
+      <c r="J4" s="89" t="s">
         <v>98</v>
       </c>
       <c r="K4" s="9"/>
@@ -9765,7 +9824,7 @@
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
-      <c r="J5" s="92" t="s">
+      <c r="J5" s="89" t="s">
         <v>101</v>
       </c>
       <c r="K5" s="9"/>
@@ -9775,7 +9834,7 @@
       </c>
       <c r="N5" s="57">
         <f>N2*N3</f>
-        <v>1124.84876472042</v>
+        <v>1237.67584718708</v>
       </c>
       <c r="O5" s="58"/>
     </row>
@@ -9793,7 +9852,7 @@
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
-      <c r="J6" s="92" t="s">
+      <c r="J6" s="89" t="s">
         <v>104</v>
       </c>
       <c r="K6" s="9"/>
@@ -9953,7 +10012,7 @@
       <c r="L12" s="36"/>
       <c r="M12" s="36"/>
       <c r="N12" s="36"/>
-      <c r="O12" s="105"/>
+      <c r="O12" s="102"/>
     </row>
     <row r="13" s="4" customFormat="1" spans="1:15">
       <c r="A13" s="75">
@@ -9983,7 +10042,7 @@
       <c r="L13" s="36"/>
       <c r="M13" s="36"/>
       <c r="N13" s="36"/>
-      <c r="O13" s="105"/>
+      <c r="O13" s="102"/>
     </row>
     <row r="14" s="4" customFormat="1" spans="1:15">
       <c r="A14" s="75">
@@ -10052,7 +10111,7 @@
       <c r="D16" s="80" t="s">
         <v>109</v>
       </c>
-      <c r="E16" s="88">
+      <c r="E16" s="85">
         <f>SUM(E10:E15)</f>
         <v>14.3654313870833</v>
       </c>
@@ -10147,12 +10206,12 @@
         <v>123</v>
       </c>
       <c r="G19" s="75"/>
-      <c r="H19" s="89"/>
-      <c r="I19" s="93"/>
-      <c r="J19" s="94"/>
-      <c r="K19" s="89"/>
-      <c r="L19" s="89"/>
-      <c r="M19" s="89">
+      <c r="H19" s="86"/>
+      <c r="I19" s="90"/>
+      <c r="J19" s="91"/>
+      <c r="K19" s="86"/>
+      <c r="L19" s="86"/>
+      <c r="M19" s="86">
         <v>1</v>
       </c>
       <c r="N19" s="57">
@@ -10174,17 +10233,17 @@
       <c r="D20" s="57">
         <v>4</v>
       </c>
-      <c r="E20" s="90"/>
-      <c r="F20" s="90" t="s">
+      <c r="E20" s="87"/>
+      <c r="F20" s="87" t="s">
         <v>123</v>
       </c>
-      <c r="G20" s="90"/>
-      <c r="H20" s="89"/>
-      <c r="I20" s="95"/>
-      <c r="J20" s="96"/>
-      <c r="K20" s="97"/>
-      <c r="L20" s="98"/>
-      <c r="M20" s="99">
+      <c r="G20" s="87"/>
+      <c r="H20" s="86"/>
+      <c r="I20" s="92"/>
+      <c r="J20" s="93"/>
+      <c r="K20" s="94"/>
+      <c r="L20" s="95"/>
+      <c r="M20" s="96">
         <v>1</v>
       </c>
       <c r="N20" s="57">
@@ -10211,12 +10270,12 @@
         <v>123</v>
       </c>
       <c r="G21" s="75"/>
-      <c r="H21" s="89"/>
-      <c r="I21" s="99"/>
-      <c r="J21" s="100"/>
-      <c r="K21" s="89"/>
-      <c r="L21" s="96"/>
-      <c r="M21" s="89">
+      <c r="H21" s="86"/>
+      <c r="I21" s="96"/>
+      <c r="J21" s="97"/>
+      <c r="K21" s="86"/>
+      <c r="L21" s="93"/>
+      <c r="M21" s="86">
         <v>1</v>
       </c>
       <c r="N21" s="57">
@@ -10243,12 +10302,12 @@
         <v>123</v>
       </c>
       <c r="G22" s="75"/>
-      <c r="H22" s="89"/>
-      <c r="I22" s="99"/>
-      <c r="J22" s="100"/>
-      <c r="K22" s="89"/>
-      <c r="L22" s="96"/>
-      <c r="M22" s="89">
+      <c r="H22" s="86"/>
+      <c r="I22" s="96"/>
+      <c r="J22" s="97"/>
+      <c r="K22" s="86"/>
+      <c r="L22" s="93"/>
+      <c r="M22" s="86">
         <v>2</v>
       </c>
       <c r="N22" s="57">
@@ -10275,12 +10334,12 @@
         <v>123</v>
       </c>
       <c r="G23" s="75"/>
-      <c r="H23" s="89"/>
-      <c r="I23" s="99"/>
-      <c r="J23" s="100"/>
-      <c r="K23" s="89"/>
-      <c r="L23" s="96"/>
-      <c r="M23" s="89">
+      <c r="H23" s="86"/>
+      <c r="I23" s="96"/>
+      <c r="J23" s="97"/>
+      <c r="K23" s="86"/>
+      <c r="L23" s="93"/>
+      <c r="M23" s="86">
         <v>1</v>
       </c>
       <c r="N23" s="57">
@@ -10307,12 +10366,12 @@
         <v>123</v>
       </c>
       <c r="G24" s="75"/>
-      <c r="H24" s="89"/>
-      <c r="I24" s="99"/>
-      <c r="J24" s="100"/>
-      <c r="K24" s="89"/>
-      <c r="L24" s="96"/>
-      <c r="M24" s="89">
+      <c r="H24" s="86"/>
+      <c r="I24" s="96"/>
+      <c r="J24" s="97"/>
+      <c r="K24" s="86"/>
+      <c r="L24" s="93"/>
+      <c r="M24" s="86">
         <v>1</v>
       </c>
       <c r="N24" s="57">
@@ -10337,12 +10396,12 @@
         <v>123</v>
       </c>
       <c r="G25" s="75"/>
-      <c r="H25" s="89"/>
-      <c r="I25" s="99"/>
-      <c r="J25" s="100"/>
-      <c r="K25" s="89"/>
-      <c r="L25" s="96"/>
-      <c r="M25" s="89">
+      <c r="H25" s="86"/>
+      <c r="I25" s="96"/>
+      <c r="J25" s="97"/>
+      <c r="K25" s="86"/>
+      <c r="L25" s="93"/>
+      <c r="M25" s="86">
         <v>1</v>
       </c>
       <c r="N25" s="57">
@@ -10369,12 +10428,12 @@
         <v>123</v>
       </c>
       <c r="G26" s="75"/>
-      <c r="H26" s="89"/>
-      <c r="I26" s="99"/>
-      <c r="J26" s="100"/>
-      <c r="K26" s="89"/>
-      <c r="L26" s="96"/>
-      <c r="M26" s="89">
+      <c r="H26" s="86"/>
+      <c r="I26" s="96"/>
+      <c r="J26" s="97"/>
+      <c r="K26" s="86"/>
+      <c r="L26" s="93"/>
+      <c r="M26" s="86">
         <v>1</v>
       </c>
       <c r="N26" s="57">
@@ -10401,12 +10460,12 @@
         <v>123</v>
       </c>
       <c r="G27" s="75"/>
-      <c r="H27" s="89"/>
-      <c r="I27" s="99"/>
-      <c r="J27" s="100"/>
-      <c r="K27" s="89"/>
-      <c r="L27" s="96"/>
-      <c r="M27" s="89">
+      <c r="H27" s="86"/>
+      <c r="I27" s="96"/>
+      <c r="J27" s="97"/>
+      <c r="K27" s="86"/>
+      <c r="L27" s="93"/>
+      <c r="M27" s="86">
         <v>1</v>
       </c>
       <c r="N27" s="57">
@@ -10433,12 +10492,12 @@
         <v>123</v>
       </c>
       <c r="G28" s="75"/>
-      <c r="H28" s="89"/>
-      <c r="I28" s="99"/>
-      <c r="J28" s="100"/>
-      <c r="K28" s="89"/>
-      <c r="L28" s="96"/>
-      <c r="M28" s="89">
+      <c r="H28" s="86"/>
+      <c r="I28" s="96"/>
+      <c r="J28" s="97"/>
+      <c r="K28" s="86"/>
+      <c r="L28" s="93"/>
+      <c r="M28" s="86">
         <v>1</v>
       </c>
       <c r="N28" s="57">
@@ -10452,10 +10511,10 @@
         <v>110</v>
       </c>
       <c r="B29" s="75" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C29" s="75" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D29" s="57">
         <v>4</v>
@@ -10465,12 +10524,12 @@
         <v>123</v>
       </c>
       <c r="G29" s="75"/>
-      <c r="H29" s="89"/>
-      <c r="I29" s="99"/>
-      <c r="J29" s="100"/>
-      <c r="K29" s="89"/>
-      <c r="L29" s="96"/>
-      <c r="M29" s="89">
+      <c r="H29" s="86"/>
+      <c r="I29" s="96"/>
+      <c r="J29" s="97"/>
+      <c r="K29" s="86"/>
+      <c r="L29" s="93"/>
+      <c r="M29" s="86">
         <v>1</v>
       </c>
       <c r="N29" s="57">
@@ -10484,7 +10543,7 @@
         <v>120</v>
       </c>
       <c r="B30" s="75" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C30" s="75"/>
       <c r="D30" s="57">
@@ -10495,12 +10554,12 @@
         <v>123</v>
       </c>
       <c r="G30" s="75"/>
-      <c r="H30" s="89"/>
-      <c r="I30" s="99"/>
-      <c r="J30" s="100"/>
-      <c r="K30" s="89"/>
-      <c r="L30" s="96"/>
-      <c r="M30" s="89">
+      <c r="H30" s="86"/>
+      <c r="I30" s="96"/>
+      <c r="J30" s="97"/>
+      <c r="K30" s="86"/>
+      <c r="L30" s="93"/>
+      <c r="M30" s="86">
         <v>1</v>
       </c>
       <c r="N30" s="57">
@@ -10514,25 +10573,25 @@
         <v>130</v>
       </c>
       <c r="B31" s="75" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C31" s="75" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D31" s="57">
         <v>1</v>
       </c>
       <c r="E31" s="75"/>
       <c r="F31" s="75" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G31" s="75"/>
-      <c r="H31" s="89"/>
-      <c r="I31" s="99"/>
-      <c r="J31" s="100"/>
-      <c r="K31" s="89"/>
-      <c r="L31" s="96"/>
-      <c r="M31" s="89">
+      <c r="H31" s="86"/>
+      <c r="I31" s="96"/>
+      <c r="J31" s="97"/>
+      <c r="K31" s="86"/>
+      <c r="L31" s="93"/>
+      <c r="M31" s="86">
         <v>8</v>
       </c>
       <c r="N31" s="57">
@@ -10546,30 +10605,30 @@
         <v>140</v>
       </c>
       <c r="B32" s="75" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C32" s="75" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D32" s="57">
         <v>1</v>
       </c>
       <c r="E32" s="75"/>
       <c r="F32" s="75" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G32" s="75"/>
-      <c r="H32" s="89"/>
-      <c r="I32" s="99"/>
-      <c r="J32" s="100"/>
-      <c r="K32" s="89"/>
-      <c r="L32" s="96"/>
-      <c r="M32" s="89">
-        <v>4</v>
+      <c r="H32" s="86"/>
+      <c r="I32" s="96"/>
+      <c r="J32" s="97"/>
+      <c r="K32" s="86"/>
+      <c r="L32" s="93"/>
+      <c r="M32" s="86">
+        <v>22</v>
       </c>
       <c r="N32" s="57">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="O32" s="58"/>
     </row>
@@ -10578,25 +10637,25 @@
         <v>150</v>
       </c>
       <c r="B33" s="75" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C33" s="75" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D33" s="57">
         <v>1</v>
       </c>
       <c r="E33" s="75"/>
       <c r="F33" s="75" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G33" s="75"/>
-      <c r="H33" s="89"/>
-      <c r="I33" s="99"/>
-      <c r="J33" s="100"/>
-      <c r="K33" s="89"/>
-      <c r="L33" s="96"/>
-      <c r="M33" s="89">
+      <c r="H33" s="86"/>
+      <c r="I33" s="96"/>
+      <c r="J33" s="97"/>
+      <c r="K33" s="86"/>
+      <c r="L33" s="93"/>
+      <c r="M33" s="86">
         <v>9</v>
       </c>
       <c r="N33" s="57">
@@ -10610,25 +10669,25 @@
         <v>160</v>
       </c>
       <c r="B34" s="75" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C34" s="75" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D34" s="57">
         <v>0.05</v>
       </c>
       <c r="E34" s="75"/>
       <c r="F34" s="75" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G34" s="75"/>
-      <c r="H34" s="89"/>
-      <c r="I34" s="99"/>
-      <c r="J34" s="100"/>
-      <c r="K34" s="89"/>
-      <c r="L34" s="96"/>
-      <c r="M34" s="89">
+      <c r="H34" s="86"/>
+      <c r="I34" s="96"/>
+      <c r="J34" s="97"/>
+      <c r="K34" s="86"/>
+      <c r="L34" s="93"/>
+      <c r="M34" s="86">
         <v>3</v>
       </c>
       <c r="N34" s="57">
@@ -10642,25 +10701,25 @@
         <v>170</v>
       </c>
       <c r="B35" s="75" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C35" s="75" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D35" s="57">
         <v>0.05</v>
       </c>
       <c r="E35" s="75"/>
       <c r="F35" s="75" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G35" s="75"/>
-      <c r="H35" s="89"/>
-      <c r="I35" s="99"/>
-      <c r="J35" s="100"/>
-      <c r="K35" s="89"/>
-      <c r="L35" s="96"/>
-      <c r="M35" s="89">
+      <c r="H35" s="86"/>
+      <c r="I35" s="96"/>
+      <c r="J35" s="97"/>
+      <c r="K35" s="86"/>
+      <c r="L35" s="93"/>
+      <c r="M35" s="86">
         <v>2</v>
       </c>
       <c r="N35" s="57">
@@ -10674,30 +10733,30 @@
         <v>180</v>
       </c>
       <c r="B36" s="75" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C36" s="75" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D36" s="57">
         <v>0.05</v>
       </c>
       <c r="E36" s="75"/>
       <c r="F36" s="75" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G36" s="75"/>
-      <c r="H36" s="89"/>
-      <c r="I36" s="99"/>
-      <c r="J36" s="100"/>
-      <c r="K36" s="89"/>
-      <c r="L36" s="96"/>
-      <c r="M36" s="89">
-        <v>2</v>
+      <c r="H36" s="86"/>
+      <c r="I36" s="96"/>
+      <c r="J36" s="97"/>
+      <c r="K36" s="86"/>
+      <c r="L36" s="93"/>
+      <c r="M36" s="86">
+        <v>1</v>
       </c>
       <c r="N36" s="57">
         <f t="shared" si="2"/>
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="O36" s="58"/>
     </row>
@@ -10706,25 +10765,25 @@
         <v>190</v>
       </c>
       <c r="B37" s="75" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C37" s="75" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D37" s="57">
         <v>0.05</v>
       </c>
       <c r="E37" s="75"/>
       <c r="F37" s="75" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G37" s="75"/>
-      <c r="H37" s="89"/>
-      <c r="I37" s="99"/>
-      <c r="J37" s="100"/>
-      <c r="K37" s="89"/>
-      <c r="L37" s="96"/>
-      <c r="M37" s="89">
+      <c r="H37" s="86"/>
+      <c r="I37" s="96"/>
+      <c r="J37" s="97"/>
+      <c r="K37" s="86"/>
+      <c r="L37" s="93"/>
+      <c r="M37" s="86">
         <v>2</v>
       </c>
       <c r="N37" s="57">
@@ -10738,25 +10797,25 @@
         <v>200</v>
       </c>
       <c r="B38" s="75" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C38" s="75" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D38" s="57">
         <v>0.05</v>
       </c>
       <c r="E38" s="75"/>
       <c r="F38" s="75" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G38" s="75"/>
-      <c r="H38" s="89"/>
-      <c r="I38" s="99"/>
-      <c r="J38" s="100"/>
-      <c r="K38" s="89"/>
-      <c r="L38" s="96"/>
-      <c r="M38" s="89">
+      <c r="H38" s="86"/>
+      <c r="I38" s="96"/>
+      <c r="J38" s="97"/>
+      <c r="K38" s="86"/>
+      <c r="L38" s="93"/>
+      <c r="M38" s="86">
         <v>6</v>
       </c>
       <c r="N38" s="57">
@@ -10770,25 +10829,25 @@
         <v>210</v>
       </c>
       <c r="B39" s="75" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C39" s="75" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D39" s="57">
         <v>0.05</v>
       </c>
       <c r="E39" s="75"/>
       <c r="F39" s="75" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G39" s="75"/>
-      <c r="H39" s="89"/>
-      <c r="I39" s="99"/>
-      <c r="J39" s="100"/>
-      <c r="K39" s="89"/>
-      <c r="L39" s="96"/>
-      <c r="M39" s="89">
+      <c r="H39" s="86"/>
+      <c r="I39" s="96"/>
+      <c r="J39" s="97"/>
+      <c r="K39" s="86"/>
+      <c r="L39" s="93"/>
+      <c r="M39" s="86">
         <v>2</v>
       </c>
       <c r="N39" s="57">
@@ -10802,25 +10861,25 @@
         <v>220</v>
       </c>
       <c r="B40" s="75" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C40" s="75" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D40" s="57">
         <v>0.05</v>
       </c>
       <c r="E40" s="75"/>
       <c r="F40" s="75" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G40" s="75"/>
-      <c r="H40" s="89"/>
-      <c r="I40" s="99"/>
-      <c r="J40" s="100"/>
-      <c r="K40" s="89"/>
-      <c r="L40" s="96"/>
-      <c r="M40" s="89">
+      <c r="H40" s="86"/>
+      <c r="I40" s="96"/>
+      <c r="J40" s="97"/>
+      <c r="K40" s="86"/>
+      <c r="L40" s="93"/>
+      <c r="M40" s="86">
         <v>2</v>
       </c>
       <c r="N40" s="57">
@@ -10834,25 +10893,25 @@
         <v>230</v>
       </c>
       <c r="B41" s="75" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C41" s="75" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D41" s="57">
         <v>0.05</v>
       </c>
       <c r="E41" s="75"/>
       <c r="F41" s="75" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G41" s="75"/>
-      <c r="H41" s="89"/>
-      <c r="I41" s="99"/>
-      <c r="J41" s="100"/>
-      <c r="K41" s="89"/>
-      <c r="L41" s="96"/>
-      <c r="M41" s="89">
+      <c r="H41" s="86"/>
+      <c r="I41" s="96"/>
+      <c r="J41" s="97"/>
+      <c r="K41" s="86"/>
+      <c r="L41" s="93"/>
+      <c r="M41" s="86">
         <v>38</v>
       </c>
       <c r="N41" s="57">
@@ -10866,25 +10925,25 @@
         <v>240</v>
       </c>
       <c r="B42" s="75" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C42" s="75" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D42" s="57">
         <v>0.05</v>
       </c>
       <c r="E42" s="75"/>
       <c r="F42" s="75" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G42" s="75"/>
-      <c r="H42" s="89"/>
-      <c r="I42" s="99"/>
-      <c r="J42" s="100"/>
-      <c r="K42" s="89"/>
-      <c r="L42" s="96"/>
-      <c r="M42" s="89">
+      <c r="H42" s="86"/>
+      <c r="I42" s="96"/>
+      <c r="J42" s="97"/>
+      <c r="K42" s="86"/>
+      <c r="L42" s="93"/>
+      <c r="M42" s="86">
         <v>2</v>
       </c>
       <c r="N42" s="57">
@@ -10898,25 +10957,25 @@
         <v>250</v>
       </c>
       <c r="B43" s="75" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C43" s="75" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D43" s="57">
         <v>0.05</v>
       </c>
       <c r="E43" s="75"/>
       <c r="F43" s="75" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G43" s="75"/>
-      <c r="H43" s="89"/>
-      <c r="I43" s="99"/>
-      <c r="J43" s="100"/>
-      <c r="K43" s="89"/>
-      <c r="L43" s="96"/>
-      <c r="M43" s="89">
+      <c r="H43" s="86"/>
+      <c r="I43" s="96"/>
+      <c r="J43" s="97"/>
+      <c r="K43" s="86"/>
+      <c r="L43" s="93"/>
+      <c r="M43" s="86">
         <v>8</v>
       </c>
       <c r="N43" s="57">
@@ -10930,25 +10989,25 @@
         <v>260</v>
       </c>
       <c r="B44" s="75" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C44" s="75" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D44" s="57">
         <v>0.05</v>
       </c>
       <c r="E44" s="75"/>
       <c r="F44" s="75" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G44" s="75"/>
-      <c r="H44" s="89"/>
-      <c r="I44" s="99"/>
-      <c r="J44" s="100"/>
-      <c r="K44" s="89"/>
-      <c r="L44" s="96"/>
-      <c r="M44" s="89">
+      <c r="H44" s="86"/>
+      <c r="I44" s="96"/>
+      <c r="J44" s="97"/>
+      <c r="K44" s="86"/>
+      <c r="L44" s="93"/>
+      <c r="M44" s="86">
         <v>8</v>
       </c>
       <c r="N44" s="57">
@@ -10962,25 +11021,25 @@
         <v>270</v>
       </c>
       <c r="B45" s="75" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C45" s="75" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D45" s="57">
         <v>0.05</v>
       </c>
       <c r="E45" s="75"/>
       <c r="F45" s="75" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G45" s="75"/>
-      <c r="H45" s="89"/>
-      <c r="I45" s="99"/>
-      <c r="J45" s="100"/>
-      <c r="K45" s="89"/>
-      <c r="L45" s="96"/>
-      <c r="M45" s="89">
+      <c r="H45" s="86"/>
+      <c r="I45" s="96"/>
+      <c r="J45" s="97"/>
+      <c r="K45" s="86"/>
+      <c r="L45" s="93"/>
+      <c r="M45" s="86">
         <v>2</v>
       </c>
       <c r="N45" s="57">
@@ -10994,30 +11053,30 @@
         <v>280</v>
       </c>
       <c r="B46" s="75" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C46" s="75" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D46" s="57">
         <v>0.05</v>
       </c>
       <c r="E46" s="75"/>
       <c r="F46" s="75" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G46" s="75"/>
-      <c r="H46" s="89"/>
-      <c r="I46" s="99"/>
-      <c r="J46" s="100"/>
-      <c r="K46" s="89"/>
-      <c r="L46" s="96"/>
-      <c r="M46" s="89">
-        <v>3</v>
+      <c r="H46" s="86"/>
+      <c r="I46" s="96"/>
+      <c r="J46" s="97"/>
+      <c r="K46" s="86"/>
+      <c r="L46" s="93"/>
+      <c r="M46" s="86">
+        <v>4</v>
       </c>
       <c r="N46" s="57">
         <f t="shared" si="2"/>
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="O46" s="58"/>
     </row>
@@ -11026,25 +11085,25 @@
         <v>290</v>
       </c>
       <c r="B47" s="75" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C47" s="75" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D47" s="57">
         <v>2</v>
       </c>
       <c r="E47" s="75"/>
       <c r="F47" s="75" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G47" s="75"/>
-      <c r="H47" s="89"/>
-      <c r="I47" s="99"/>
-      <c r="J47" s="100"/>
-      <c r="K47" s="89"/>
-      <c r="L47" s="96"/>
-      <c r="M47" s="89">
+      <c r="H47" s="86"/>
+      <c r="I47" s="96"/>
+      <c r="J47" s="97"/>
+      <c r="K47" s="86"/>
+      <c r="L47" s="93"/>
+      <c r="M47" s="86">
         <v>3</v>
       </c>
       <c r="N47" s="57">
@@ -11058,25 +11117,25 @@
         <v>300</v>
       </c>
       <c r="B48" s="75" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C48" s="75" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D48" s="57">
         <v>2</v>
       </c>
       <c r="E48" s="75"/>
       <c r="F48" s="75" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G48" s="75"/>
-      <c r="H48" s="89"/>
-      <c r="I48" s="99"/>
-      <c r="J48" s="100"/>
-      <c r="K48" s="89"/>
-      <c r="L48" s="96"/>
-      <c r="M48" s="89">
+      <c r="H48" s="86"/>
+      <c r="I48" s="96"/>
+      <c r="J48" s="97"/>
+      <c r="K48" s="86"/>
+      <c r="L48" s="93"/>
+      <c r="M48" s="86">
         <v>2</v>
       </c>
       <c r="N48" s="57">
@@ -11090,25 +11149,25 @@
         <v>310</v>
       </c>
       <c r="B49" s="75" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C49" s="75" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D49" s="57">
         <v>2</v>
       </c>
       <c r="E49" s="75"/>
       <c r="F49" s="75" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G49" s="75"/>
-      <c r="H49" s="89"/>
-      <c r="I49" s="99"/>
-      <c r="J49" s="100"/>
-      <c r="K49" s="89"/>
-      <c r="L49" s="96"/>
-      <c r="M49" s="89">
+      <c r="H49" s="86"/>
+      <c r="I49" s="96"/>
+      <c r="J49" s="97"/>
+      <c r="K49" s="86"/>
+      <c r="L49" s="93"/>
+      <c r="M49" s="86">
         <v>1</v>
       </c>
       <c r="N49" s="57">
@@ -11122,25 +11181,25 @@
         <v>320</v>
       </c>
       <c r="B50" s="75" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C50" s="75" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D50" s="57">
         <v>2</v>
       </c>
       <c r="E50" s="75"/>
       <c r="F50" s="75" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G50" s="75"/>
-      <c r="H50" s="89"/>
-      <c r="I50" s="99"/>
-      <c r="J50" s="100"/>
-      <c r="K50" s="89"/>
-      <c r="L50" s="96"/>
-      <c r="M50" s="89">
+      <c r="H50" s="86"/>
+      <c r="I50" s="96"/>
+      <c r="J50" s="97"/>
+      <c r="K50" s="86"/>
+      <c r="L50" s="93"/>
+      <c r="M50" s="86">
         <v>2</v>
       </c>
       <c r="N50" s="57">
@@ -11154,30 +11213,30 @@
         <v>330</v>
       </c>
       <c r="B51" s="75" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C51" s="75" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D51" s="57">
         <v>0.05</v>
       </c>
       <c r="E51" s="75"/>
       <c r="F51" s="75" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G51" s="75"/>
-      <c r="H51" s="89"/>
-      <c r="I51" s="99"/>
-      <c r="J51" s="100"/>
-      <c r="K51" s="89"/>
-      <c r="L51" s="96"/>
-      <c r="M51" s="89">
-        <v>1</v>
+      <c r="H51" s="86"/>
+      <c r="I51" s="96"/>
+      <c r="J51" s="97"/>
+      <c r="K51" s="86"/>
+      <c r="L51" s="93"/>
+      <c r="M51" s="86">
+        <v>2</v>
       </c>
       <c r="N51" s="57">
         <f t="shared" si="2"/>
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="O51" s="58"/>
     </row>
@@ -11186,30 +11245,30 @@
         <v>340</v>
       </c>
       <c r="B52" s="75" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C52" s="75" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D52" s="57">
         <v>0.05</v>
       </c>
       <c r="E52" s="75"/>
       <c r="F52" s="75" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G52" s="75"/>
-      <c r="H52" s="89"/>
-      <c r="I52" s="99"/>
-      <c r="J52" s="100"/>
-      <c r="K52" s="89"/>
-      <c r="L52" s="96"/>
-      <c r="M52" s="89">
-        <v>1</v>
+      <c r="H52" s="86"/>
+      <c r="I52" s="96"/>
+      <c r="J52" s="97"/>
+      <c r="K52" s="86"/>
+      <c r="L52" s="93"/>
+      <c r="M52" s="86">
+        <v>6</v>
       </c>
       <c r="N52" s="57">
-        <f t="shared" si="2"/>
-        <v>0.05</v>
+        <f>M52*D52</f>
+        <v>0.3</v>
       </c>
       <c r="O52" s="58"/>
     </row>
@@ -11218,30 +11277,30 @@
         <v>350</v>
       </c>
       <c r="B53" s="75" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C53" s="75" t="s">
         <v>170</v>
       </c>
       <c r="D53" s="57">
-        <v>0.25</v>
+        <v>0.05</v>
       </c>
       <c r="E53" s="75"/>
       <c r="F53" s="75" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="G53" s="75"/>
-      <c r="H53" s="89"/>
-      <c r="I53" s="99"/>
-      <c r="J53" s="100"/>
-      <c r="K53" s="89"/>
-      <c r="L53" s="96"/>
-      <c r="M53" s="89">
-        <v>32</v>
+      <c r="H53" s="86"/>
+      <c r="I53" s="96"/>
+      <c r="J53" s="97"/>
+      <c r="K53" s="86"/>
+      <c r="L53" s="93"/>
+      <c r="M53" s="86">
+        <v>4</v>
       </c>
       <c r="N53" s="57">
-        <f t="shared" si="2"/>
-        <v>8</v>
+        <f>M53*D53</f>
+        <v>0.2</v>
       </c>
       <c r="O53" s="58"/>
     </row>
@@ -11256,24 +11315,24 @@
         <v>172</v>
       </c>
       <c r="D54" s="57">
-        <v>4</v>
+        <v>0.25</v>
       </c>
       <c r="E54" s="75"/>
       <c r="F54" s="75" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="G54" s="75"/>
-      <c r="H54" s="89"/>
-      <c r="I54" s="99"/>
-      <c r="J54" s="100"/>
-      <c r="K54" s="89"/>
-      <c r="L54" s="96"/>
-      <c r="M54" s="89">
-        <v>5</v>
+      <c r="H54" s="86"/>
+      <c r="I54" s="96"/>
+      <c r="J54" s="97"/>
+      <c r="K54" s="86"/>
+      <c r="L54" s="93"/>
+      <c r="M54" s="86">
+        <v>32</v>
       </c>
       <c r="N54" s="57">
-        <f t="shared" si="2"/>
-        <v>20</v>
+        <f>M54*D54</f>
+        <v>8</v>
       </c>
       <c r="O54" s="58"/>
     </row>
@@ -11284,26 +11343,28 @@
       <c r="B55" s="75" t="s">
         <v>173</v>
       </c>
-      <c r="C55" s="75"/>
+      <c r="C55" s="75" t="s">
+        <v>174</v>
+      </c>
       <c r="D55" s="57">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E55" s="75"/>
       <c r="F55" s="75" t="s">
         <v>123</v>
       </c>
       <c r="G55" s="75"/>
-      <c r="H55" s="89"/>
-      <c r="I55" s="99"/>
-      <c r="J55" s="100"/>
-      <c r="K55" s="89"/>
-      <c r="L55" s="96"/>
-      <c r="M55" s="89">
-        <v>8</v>
+      <c r="H55" s="86"/>
+      <c r="I55" s="96"/>
+      <c r="J55" s="97"/>
+      <c r="K55" s="86"/>
+      <c r="L55" s="93"/>
+      <c r="M55" s="86">
+        <v>5</v>
       </c>
       <c r="N55" s="57">
-        <f t="shared" si="2"/>
-        <v>8</v>
+        <f>M55*D55</f>
+        <v>20</v>
       </c>
       <c r="O55" s="58"/>
     </row>
@@ -11312,30 +11373,28 @@
         <v>380</v>
       </c>
       <c r="B56" s="75" t="s">
-        <v>169</v>
-      </c>
-      <c r="C56" s="75" t="s">
-        <v>174</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="C56" s="75"/>
       <c r="D56" s="57">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E56" s="75"/>
       <c r="F56" s="75" t="s">
         <v>123</v>
       </c>
       <c r="G56" s="75"/>
-      <c r="H56" s="89"/>
-      <c r="I56" s="99"/>
-      <c r="J56" s="100"/>
-      <c r="K56" s="89"/>
-      <c r="L56" s="96"/>
-      <c r="M56" s="89">
-        <v>2</v>
+      <c r="H56" s="86"/>
+      <c r="I56" s="96"/>
+      <c r="J56" s="97"/>
+      <c r="K56" s="86"/>
+      <c r="L56" s="93"/>
+      <c r="M56" s="86">
+        <v>8</v>
       </c>
       <c r="N56" s="57">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f>M56*D56</f>
+        <v>8</v>
       </c>
       <c r="O56" s="58"/>
     </row>
@@ -11344,30 +11403,30 @@
         <v>390</v>
       </c>
       <c r="B57" s="75" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C57" s="75" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D57" s="57">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="E57" s="75"/>
       <c r="F57" s="75" t="s">
         <v>123</v>
       </c>
       <c r="G57" s="75"/>
-      <c r="H57" s="89"/>
-      <c r="I57" s="99"/>
-      <c r="J57" s="100"/>
-      <c r="K57" s="89"/>
-      <c r="L57" s="96"/>
-      <c r="M57" s="89">
-        <v>1</v>
+      <c r="H57" s="86"/>
+      <c r="I57" s="96"/>
+      <c r="J57" s="97"/>
+      <c r="K57" s="86"/>
+      <c r="L57" s="93"/>
+      <c r="M57" s="86">
+        <v>2</v>
       </c>
       <c r="N57" s="57">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f>M57*D57</f>
+        <v>0.5</v>
       </c>
       <c r="O57" s="58"/>
     </row>
@@ -11376,28 +11435,30 @@
         <v>400</v>
       </c>
       <c r="B58" s="75" t="s">
-        <v>176</v>
-      </c>
-      <c r="C58" s="75"/>
+        <v>175</v>
+      </c>
+      <c r="C58" s="75" t="s">
+        <v>177</v>
+      </c>
       <c r="D58" s="57">
         <v>1</v>
       </c>
       <c r="E58" s="75"/>
       <c r="F58" s="75" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
       <c r="G58" s="75"/>
-      <c r="H58" s="89"/>
-      <c r="I58" s="99"/>
-      <c r="J58" s="100"/>
-      <c r="K58" s="89"/>
-      <c r="L58" s="89"/>
-      <c r="M58" s="89">
-        <v>35</v>
+      <c r="H58" s="86"/>
+      <c r="I58" s="96"/>
+      <c r="J58" s="97"/>
+      <c r="K58" s="86"/>
+      <c r="L58" s="93"/>
+      <c r="M58" s="86">
+        <v>1</v>
       </c>
       <c r="N58" s="57">
-        <f t="shared" ref="N58:N64" si="3">M58*D58</f>
-        <v>35</v>
+        <f>M58*D58</f>
+        <v>1</v>
       </c>
       <c r="O58" s="58"/>
     </row>
@@ -11410,24 +11471,24 @@
       </c>
       <c r="C59" s="75"/>
       <c r="D59" s="57">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E59" s="75"/>
       <c r="F59" s="75" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G59" s="75"/>
-      <c r="H59" s="89"/>
-      <c r="I59" s="99"/>
-      <c r="J59" s="100"/>
-      <c r="K59" s="89"/>
-      <c r="L59" s="89"/>
-      <c r="M59" s="89">
-        <v>1.5</v>
+      <c r="H59" s="86"/>
+      <c r="I59" s="96"/>
+      <c r="J59" s="97"/>
+      <c r="K59" s="86"/>
+      <c r="L59" s="86"/>
+      <c r="M59" s="86">
+        <v>35</v>
       </c>
       <c r="N59" s="57">
-        <f t="shared" si="3"/>
-        <v>0.75</v>
+        <f t="shared" ref="N59:N65" si="3">M59*D59</f>
+        <v>35</v>
       </c>
       <c r="O59" s="58"/>
     </row>
@@ -11436,28 +11497,28 @@
         <v>420</v>
       </c>
       <c r="B60" s="75" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C60" s="75"/>
       <c r="D60" s="57">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="E60" s="75"/>
       <c r="F60" s="75" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G60" s="75"/>
-      <c r="H60" s="89"/>
-      <c r="I60" s="99"/>
-      <c r="J60" s="100"/>
-      <c r="K60" s="89"/>
-      <c r="L60" s="89"/>
-      <c r="M60" s="89">
-        <v>10</v>
+      <c r="H60" s="86"/>
+      <c r="I60" s="96"/>
+      <c r="J60" s="97"/>
+      <c r="K60" s="86"/>
+      <c r="L60" s="86"/>
+      <c r="M60" s="86">
+        <v>1.5</v>
       </c>
       <c r="N60" s="57">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>0.75</v>
       </c>
       <c r="O60" s="58"/>
     </row>
@@ -11466,107 +11527,105 @@
         <v>430</v>
       </c>
       <c r="B61" s="75" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C61" s="75"/>
       <c r="D61" s="57">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="E61" s="75"/>
       <c r="F61" s="75" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G61" s="75"/>
-      <c r="H61" s="89"/>
-      <c r="I61" s="99"/>
-      <c r="J61" s="100"/>
-      <c r="K61" s="89"/>
-      <c r="L61" s="89"/>
-      <c r="M61" s="89">
-        <v>4</v>
+      <c r="H61" s="86"/>
+      <c r="I61" s="96"/>
+      <c r="J61" s="97"/>
+      <c r="K61" s="86"/>
+      <c r="L61" s="86"/>
+      <c r="M61" s="86">
+        <v>10</v>
       </c>
       <c r="N61" s="57">
         <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="O61" s="58"/>
+    </row>
+    <row r="62" spans="1:15">
+      <c r="A62" s="75">
+        <v>440</v>
+      </c>
+      <c r="B62" s="75" t="s">
+        <v>182</v>
+      </c>
+      <c r="C62" s="75"/>
+      <c r="D62" s="57">
+        <v>0.5</v>
+      </c>
+      <c r="E62" s="75"/>
+      <c r="F62" s="75" t="s">
+        <v>179</v>
+      </c>
+      <c r="G62" s="75"/>
+      <c r="H62" s="86"/>
+      <c r="I62" s="96"/>
+      <c r="J62" s="97"/>
+      <c r="K62" s="86"/>
+      <c r="L62" s="86"/>
+      <c r="M62" s="86">
+        <v>4</v>
+      </c>
+      <c r="N62" s="57">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="O61" s="58"/>
-    </row>
-    <row r="62" spans="1:15">
-      <c r="A62" s="82">
-        <v>440</v>
-      </c>
-      <c r="B62" s="82" t="s">
-        <v>181</v>
-      </c>
-      <c r="C62" s="82" t="s">
-        <v>182</v>
-      </c>
-      <c r="D62" s="83">
+      <c r="O62" s="58"/>
+    </row>
+    <row r="63" spans="1:15">
+      <c r="A63" s="75">
+        <v>450</v>
+      </c>
+      <c r="B63" s="82" t="s">
+        <v>183</v>
+      </c>
+      <c r="C63" s="82" t="s">
+        <v>184</v>
+      </c>
+      <c r="D63" s="83">
         <v>3</v>
       </c>
-      <c r="E62" s="82"/>
-      <c r="F62" s="82" t="s">
+      <c r="E63" s="82"/>
+      <c r="F63" s="82" t="s">
         <v>123</v>
       </c>
-      <c r="G62" s="82"/>
-      <c r="H62" s="91"/>
-      <c r="I62" s="101"/>
-      <c r="J62" s="102"/>
-      <c r="K62" s="91"/>
-      <c r="L62" s="91"/>
-      <c r="M62" s="91">
+      <c r="G63" s="82"/>
+      <c r="H63" s="88"/>
+      <c r="I63" s="98"/>
+      <c r="J63" s="99"/>
+      <c r="K63" s="88"/>
+      <c r="L63" s="88"/>
+      <c r="M63" s="88">
         <v>1</v>
       </c>
-      <c r="N62" s="83">
+      <c r="N63" s="83">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="O62" s="58"/>
-    </row>
-    <row r="63" spans="1:15">
-      <c r="A63" s="31">
-        <v>450</v>
-      </c>
-      <c r="B63" s="84" t="s">
-        <v>183</v>
-      </c>
-      <c r="C63" s="31" t="s">
-        <v>184</v>
-      </c>
-      <c r="D63" s="20">
+      <c r="O63" s="58"/>
+    </row>
+    <row r="64" spans="1:15">
+      <c r="A64" s="75">
+        <v>460</v>
+      </c>
+      <c r="B64" s="84" t="s">
+        <v>185</v>
+      </c>
+      <c r="C64" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="D64" s="20">
         <v>25</v>
-      </c>
-      <c r="E63" s="31"/>
-      <c r="F63" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="G63" s="31"/>
-      <c r="H63" s="39"/>
-      <c r="I63" s="60"/>
-      <c r="J63" s="103"/>
-      <c r="K63" s="39"/>
-      <c r="L63" s="39"/>
-      <c r="M63" s="39">
-        <v>1</v>
-      </c>
-      <c r="N63" s="20">
-        <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-      <c r="O63" s="58"/>
-    </row>
-    <row r="64" spans="1:15">
-      <c r="A64" s="85">
-        <v>460</v>
-      </c>
-      <c r="B64" s="86" t="s">
-        <v>185</v>
-      </c>
-      <c r="C64" s="87" t="s">
-        <v>184</v>
-      </c>
-      <c r="D64" s="20">
-        <v>5</v>
       </c>
       <c r="E64" s="31"/>
       <c r="F64" s="31" t="s">
@@ -11575,7 +11634,7 @@
       <c r="G64" s="31"/>
       <c r="H64" s="39"/>
       <c r="I64" s="60"/>
-      <c r="J64" s="103"/>
+      <c r="J64" s="100"/>
       <c r="K64" s="39"/>
       <c r="L64" s="39"/>
       <c r="M64" s="39">
@@ -11583,135 +11642,137 @@
       </c>
       <c r="N64" s="20">
         <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="O64" s="58"/>
+    </row>
+    <row r="65" spans="1:15">
+      <c r="A65" s="75">
+        <v>470</v>
+      </c>
+      <c r="B65" s="103" t="s">
+        <v>187</v>
+      </c>
+      <c r="C65" s="104" t="s">
+        <v>186</v>
+      </c>
+      <c r="D65" s="20">
         <v>5</v>
       </c>
-      <c r="O64" s="58"/>
-    </row>
-    <row r="65" spans="1:15">
-      <c r="A65" s="21"/>
-      <c r="B65" s="22"/>
-      <c r="C65" s="22"/>
-      <c r="D65" s="22"/>
-      <c r="E65" s="22"/>
-      <c r="F65" s="22"/>
-      <c r="G65" s="22"/>
-      <c r="H65" s="22"/>
-      <c r="I65" s="22"/>
-      <c r="J65" s="22"/>
-      <c r="K65" s="22"/>
-      <c r="L65" s="22"/>
-      <c r="M65" s="119" t="s">
+      <c r="E65" s="31"/>
+      <c r="F65" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="G65" s="31"/>
+      <c r="H65" s="39"/>
+      <c r="I65" s="60"/>
+      <c r="J65" s="100"/>
+      <c r="K65" s="39"/>
+      <c r="L65" s="39"/>
+      <c r="M65" s="39">
+        <v>1</v>
+      </c>
+      <c r="N65" s="20">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="O65" s="58"/>
+    </row>
+    <row r="66" spans="1:15">
+      <c r="A66" s="21"/>
+      <c r="B66" s="22"/>
+      <c r="C66" s="22"/>
+      <c r="D66" s="22"/>
+      <c r="E66" s="22"/>
+      <c r="F66" s="22"/>
+      <c r="G66" s="22"/>
+      <c r="H66" s="22"/>
+      <c r="I66" s="22"/>
+      <c r="J66" s="22"/>
+      <c r="K66" s="22"/>
+      <c r="L66" s="22"/>
+      <c r="M66" s="119" t="s">
         <v>109</v>
       </c>
-      <c r="N65" s="118">
-        <f>SUM(N19:N63)</f>
-        <v>1107.35</v>
-      </c>
-      <c r="O65" s="58"/>
-    </row>
-    <row r="66" spans="1:15">
-      <c r="A66" s="23"/>
-      <c r="B66" s="9"/>
-      <c r="C66" s="9"/>
-      <c r="D66" s="9"/>
-      <c r="E66" s="9"/>
-      <c r="F66" s="9"/>
-      <c r="G66" s="9"/>
-      <c r="H66" s="9"/>
-      <c r="I66" s="9"/>
-      <c r="J66" s="9"/>
-      <c r="K66" s="9"/>
-      <c r="L66" s="9"/>
-      <c r="M66" s="9"/>
-      <c r="N66" s="9"/>
+      <c r="N66" s="118">
+        <f>SUM(N19:N64)</f>
+        <v>1125.85</v>
+      </c>
       <c r="O66" s="58"/>
     </row>
-    <row r="67" s="3" customFormat="1" spans="1:15">
-      <c r="A67" s="74" t="s">
+    <row r="67" spans="1:15">
+      <c r="A67" s="23"/>
+      <c r="B67" s="9"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="9"/>
+      <c r="H67" s="9"/>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c r="L67" s="9"/>
+      <c r="M67" s="9"/>
+      <c r="N67" s="9"/>
+      <c r="O67" s="58"/>
+    </row>
+    <row r="68" s="3" customFormat="1" spans="1:15">
+      <c r="A68" s="74" t="s">
         <v>106</v>
       </c>
-      <c r="B67" s="74" t="s">
-        <v>186</v>
-      </c>
-      <c r="C67" s="74" t="s">
+      <c r="B68" s="74" t="s">
+        <v>188</v>
+      </c>
+      <c r="C68" s="74" t="s">
         <v>111</v>
       </c>
-      <c r="D67" s="74" t="s">
+      <c r="D68" s="74" t="s">
         <v>112</v>
       </c>
-      <c r="E67" s="74" t="s">
-        <v>187</v>
-      </c>
-      <c r="F67" s="74" t="s">
+      <c r="E68" s="74" t="s">
+        <v>189</v>
+      </c>
+      <c r="F68" s="74" t="s">
         <v>82</v>
       </c>
-      <c r="G67" s="74" t="s">
-        <v>188</v>
-      </c>
-      <c r="H67" s="74" t="s">
-        <v>189</v>
-      </c>
-      <c r="I67" s="74" t="s">
+      <c r="G68" s="74" t="s">
+        <v>190</v>
+      </c>
+      <c r="H68" s="74" t="s">
+        <v>191</v>
+      </c>
+      <c r="I68" s="74" t="s">
         <v>109</v>
       </c>
-      <c r="J67" s="22"/>
-      <c r="K67" s="22"/>
-      <c r="L67" s="22"/>
-      <c r="M67" s="22"/>
-      <c r="N67" s="22"/>
-      <c r="O67" s="63"/>
-    </row>
-    <row r="68" spans="1:15">
-      <c r="A68" s="75">
-        <v>10</v>
-      </c>
-      <c r="B68" s="75" t="s">
-        <v>190</v>
-      </c>
-      <c r="C68" s="75" t="s">
-        <v>191</v>
-      </c>
-      <c r="D68" s="57">
-        <v>0.15</v>
-      </c>
-      <c r="E68" s="75" t="s">
-        <v>192</v>
-      </c>
-      <c r="F68" s="111"/>
-      <c r="G68" s="111"/>
-      <c r="H68" s="111"/>
-      <c r="I68" s="57">
-        <f t="shared" ref="I68:I73" si="4">IF(H68="",D68*F68,D68*F68*H68)</f>
-        <v>0</v>
-      </c>
-      <c r="J68" s="9"/>
-      <c r="K68" s="9"/>
-      <c r="L68" s="9"/>
-      <c r="M68" s="9"/>
-      <c r="N68" s="9"/>
-      <c r="O68" s="58"/>
+      <c r="J68" s="22"/>
+      <c r="K68" s="22"/>
+      <c r="L68" s="22"/>
+      <c r="M68" s="22"/>
+      <c r="N68" s="22"/>
+      <c r="O68" s="63"/>
     </row>
     <row r="69" spans="1:15">
       <c r="A69" s="75">
-        <v>20</v>
-      </c>
-      <c r="B69" s="106" t="s">
+        <v>10</v>
+      </c>
+      <c r="B69" s="75" t="s">
+        <v>192</v>
+      </c>
+      <c r="C69" s="75" t="s">
         <v>193</v>
       </c>
-      <c r="C69" s="75" t="s">
+      <c r="D69" s="57">
+        <v>0.15</v>
+      </c>
+      <c r="E69" s="75" t="s">
         <v>194</v>
       </c>
-      <c r="D69" s="57">
-        <v>5.25</v>
-      </c>
-      <c r="E69" s="106" t="s">
-        <v>195</v>
-      </c>
-      <c r="F69" s="111"/>
-      <c r="G69" s="75"/>
-      <c r="H69" s="75"/>
+      <c r="F69" s="110"/>
+      <c r="G69" s="110"/>
+      <c r="H69" s="110"/>
       <c r="I69" s="57">
-        <f t="shared" si="4"/>
+        <f>IF(H69="",D69*F69,D69*F69*H69)</f>
         <v>0</v>
       </c>
       <c r="J69" s="9"/>
@@ -11723,28 +11784,26 @@
     </row>
     <row r="70" spans="1:15">
       <c r="A70" s="75">
-        <v>30</v>
-      </c>
-      <c r="B70" s="106" t="s">
+        <v>20</v>
+      </c>
+      <c r="B70" s="105" t="s">
+        <v>195</v>
+      </c>
+      <c r="C70" s="75" t="s">
         <v>196</v>
       </c>
-      <c r="C70" s="75" t="s">
+      <c r="D70" s="57">
+        <v>5.25</v>
+      </c>
+      <c r="E70" s="105" t="s">
         <v>197</v>
       </c>
-      <c r="D70" s="57">
-        <v>0.5</v>
-      </c>
-      <c r="E70" s="75" t="s">
-        <v>123</v>
-      </c>
-      <c r="F70" s="111">
-        <v>2</v>
-      </c>
+      <c r="F70" s="110"/>
       <c r="G70" s="75"/>
       <c r="H70" s="75"/>
       <c r="I70" s="57">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f>IF(H70="",D70*F70,D70*F70*H70)</f>
+        <v>0</v>
       </c>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
@@ -11753,84 +11812,120 @@
       <c r="N70" s="9"/>
       <c r="O70" s="58"/>
     </row>
-    <row r="71" s="4" customFormat="1" spans="1:15">
-      <c r="A71" s="75"/>
-      <c r="B71" s="106"/>
-      <c r="C71" s="75"/>
-      <c r="D71" s="57"/>
-      <c r="E71" s="75"/>
-      <c r="F71" s="111"/>
+    <row r="71" spans="1:15">
+      <c r="A71" s="75">
+        <v>30</v>
+      </c>
+      <c r="B71" s="105" t="s">
+        <v>195</v>
+      </c>
+      <c r="C71" s="75" t="s">
+        <v>198</v>
+      </c>
+      <c r="D71" s="57">
+        <v>5.25</v>
+      </c>
+      <c r="E71" s="75" t="s">
+        <v>197</v>
+      </c>
+      <c r="F71" s="111">
+        <v>7.92e-5</v>
+      </c>
       <c r="G71" s="75"/>
       <c r="H71" s="75"/>
       <c r="I71" s="57">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J71" s="36"/>
-      <c r="K71" s="36"/>
-      <c r="L71" s="36"/>
-      <c r="M71" s="36"/>
-      <c r="N71" s="36"/>
-      <c r="O71" s="64"/>
-    </row>
-    <row r="72" s="3" customFormat="1" spans="1:15">
+        <f>IF(H71="",D71*F71,D71*F71*H71)</f>
+        <v>0.0004158</v>
+      </c>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c r="L71" s="9"/>
+      <c r="M71" s="9"/>
+      <c r="N71" s="9"/>
+      <c r="O71" s="58"/>
+    </row>
+    <row r="72" customFormat="1" spans="1:15">
       <c r="A72" s="75"/>
-      <c r="B72" s="75"/>
-      <c r="C72" s="75"/>
-      <c r="D72" s="57"/>
-      <c r="E72" s="75"/>
-      <c r="F72" s="111"/>
-      <c r="G72" s="111"/>
-      <c r="H72" s="111"/>
+      <c r="B72" s="105" t="s">
+        <v>199</v>
+      </c>
+      <c r="C72" s="75" t="s">
+        <v>200</v>
+      </c>
+      <c r="D72" s="57">
+        <v>0.06</v>
+      </c>
+      <c r="E72" s="75" t="s">
+        <v>123</v>
+      </c>
+      <c r="F72" s="111">
+        <v>1</v>
+      </c>
+      <c r="G72" s="75"/>
+      <c r="H72" s="75"/>
       <c r="I72" s="57">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J72" s="36"/>
-      <c r="K72" s="36"/>
-      <c r="L72" s="36"/>
-      <c r="M72" s="36"/>
-      <c r="N72" s="36"/>
-      <c r="O72" s="63"/>
-    </row>
-    <row r="73" s="4" customFormat="1" spans="1:15">
+        <f>IF(H72="",D72*F72,D72*F72*H72)</f>
+        <v>0.06</v>
+      </c>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c r="L72" s="9"/>
+      <c r="M72" s="9"/>
+      <c r="N72" s="9"/>
+      <c r="O72" s="58"/>
+    </row>
+    <row r="73" customFormat="1" spans="1:15">
       <c r="A73" s="75"/>
-      <c r="B73" s="106"/>
-      <c r="C73" s="107" t="s">
-        <v>198</v>
-      </c>
-      <c r="D73" s="57"/>
-      <c r="E73" s="106"/>
-      <c r="F73" s="111"/>
+      <c r="B73" s="105" t="s">
+        <v>201</v>
+      </c>
+      <c r="C73" s="75" t="s">
+        <v>202</v>
+      </c>
+      <c r="D73" s="57">
+        <v>0.19</v>
+      </c>
+      <c r="E73" s="75" t="s">
+        <v>123</v>
+      </c>
+      <c r="F73" s="111">
+        <v>1</v>
+      </c>
       <c r="G73" s="75"/>
       <c r="H73" s="75"/>
       <c r="I73" s="57">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J73" s="36"/>
-      <c r="K73" s="36"/>
-      <c r="L73" s="36"/>
-      <c r="M73" s="36"/>
-      <c r="N73" s="36"/>
-      <c r="O73" s="64"/>
-    </row>
-    <row r="74" spans="1:15">
-      <c r="A74" s="21">
+        <f>IF(H73="",D73*F73,D73*F73*H73)</f>
+        <v>0.19</v>
+      </c>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c r="L73" s="9"/>
+      <c r="M73" s="9"/>
+      <c r="N73" s="9"/>
+      <c r="O73" s="58"/>
+    </row>
+    <row r="74" customFormat="1" spans="1:15">
+      <c r="A74" s="75"/>
+      <c r="B74" s="105" t="s">
+        <v>199</v>
+      </c>
+      <c r="C74" s="75" t="s">
+        <v>203</v>
+      </c>
+      <c r="D74" s="57">
+        <v>0.06</v>
+      </c>
+      <c r="E74" s="75" t="s">
+        <v>123</v>
+      </c>
+      <c r="F74" s="111">
         <v>1</v>
       </c>
-      <c r="B74" s="22"/>
-      <c r="C74" s="22"/>
-      <c r="D74" s="22"/>
-      <c r="E74" s="22"/>
-      <c r="F74" s="22"/>
-      <c r="G74" s="22"/>
-      <c r="H74" s="80" t="s">
-        <v>109</v>
-      </c>
-      <c r="I74" s="88">
-        <f>SUM(I68:I70)</f>
-        <v>1</v>
+      <c r="G74" s="75"/>
+      <c r="H74" s="75"/>
+      <c r="I74" s="57">
+        <f>IF(H74="",D74*F74,D74*F74*H74)</f>
+        <v>0.06</v>
       </c>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
@@ -11839,16 +11934,29 @@
       <c r="N74" s="9"/>
       <c r="O74" s="58"/>
     </row>
-    <row r="75" spans="1:15">
-      <c r="A75" s="23"/>
-      <c r="B75" s="9"/>
-      <c r="C75" s="9"/>
-      <c r="D75" s="9"/>
-      <c r="E75" s="9"/>
-      <c r="F75" s="9"/>
-      <c r="G75" s="9"/>
-      <c r="H75" s="9"/>
-      <c r="I75" s="9"/>
+    <row r="75" customFormat="1" spans="1:15">
+      <c r="A75" s="75"/>
+      <c r="B75" s="105" t="s">
+        <v>199</v>
+      </c>
+      <c r="C75" s="75" t="s">
+        <v>204</v>
+      </c>
+      <c r="D75" s="57">
+        <v>0.06</v>
+      </c>
+      <c r="E75" s="75" t="s">
+        <v>123</v>
+      </c>
+      <c r="F75" s="111">
+        <v>1</v>
+      </c>
+      <c r="G75" s="75"/>
+      <c r="H75" s="75"/>
+      <c r="I75" s="57">
+        <f t="shared" ref="I75:I80" si="4">IF(H75="",D75*F75,D75*F75*H75)</f>
+        <v>0.06</v>
+      </c>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c r="L75" s="9"/>
@@ -11856,557 +11964,454 @@
       <c r="N75" s="9"/>
       <c r="O75" s="58"/>
     </row>
-    <row r="76" spans="1:15">
-      <c r="A76" s="74" t="s">
-        <v>106</v>
-      </c>
-      <c r="B76" s="74" t="s">
-        <v>199</v>
-      </c>
-      <c r="C76" s="74" t="s">
-        <v>111</v>
-      </c>
-      <c r="D76" s="74" t="s">
-        <v>112</v>
-      </c>
-      <c r="E76" s="74" t="s">
-        <v>113</v>
-      </c>
-      <c r="F76" s="74" t="s">
-        <v>114</v>
-      </c>
-      <c r="G76" s="74" t="s">
-        <v>115</v>
-      </c>
-      <c r="H76" s="74" t="s">
-        <v>116</v>
-      </c>
-      <c r="I76" s="74" t="s">
-        <v>82</v>
-      </c>
-      <c r="J76" s="74" t="s">
-        <v>109</v>
-      </c>
+    <row r="76" customFormat="1" spans="1:15">
+      <c r="A76" s="75"/>
+      <c r="B76" s="105" t="s">
+        <v>205</v>
+      </c>
+      <c r="C76" s="75" t="s">
+        <v>206</v>
+      </c>
+      <c r="D76" s="57">
+        <v>0.08</v>
+      </c>
+      <c r="E76" s="75" t="s">
+        <v>123</v>
+      </c>
+      <c r="F76" s="111">
+        <v>104</v>
+      </c>
+      <c r="G76" s="75"/>
+      <c r="H76" s="75"/>
+      <c r="I76" s="57">
+        <f t="shared" si="4"/>
+        <v>8.32</v>
+      </c>
+      <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c r="L76" s="9"/>
       <c r="M76" s="9"/>
       <c r="N76" s="9"/>
       <c r="O76" s="58"/>
     </row>
-    <row r="77" spans="1:15">
-      <c r="A77" s="75">
-        <v>10</v>
-      </c>
-      <c r="B77" s="75" t="s">
-        <v>200</v>
+    <row r="77" customFormat="1" spans="1:15">
+      <c r="A77" s="75"/>
+      <c r="B77" s="105" t="s">
+        <v>207</v>
       </c>
       <c r="C77" s="75" t="s">
-        <v>201</v>
-      </c>
-      <c r="D77" s="108">
-        <v>0.04</v>
-      </c>
-      <c r="E77" s="112">
-        <v>3</v>
-      </c>
-      <c r="F77" s="112" t="s">
-        <v>202</v>
-      </c>
-      <c r="G77" s="112">
-        <v>15</v>
-      </c>
-      <c r="H77" s="112" t="s">
-        <v>202</v>
-      </c>
-      <c r="I77" s="59">
-        <v>3</v>
-      </c>
-      <c r="J77" s="57">
-        <f t="shared" ref="J77:J80" si="5">I77*D77</f>
-        <v>0.12</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="D77" s="57">
+        <v>0.08</v>
+      </c>
+      <c r="E77" s="75" t="s">
+        <v>123</v>
+      </c>
+      <c r="F77" s="111">
+        <v>208</v>
+      </c>
+      <c r="G77" s="75"/>
+      <c r="H77" s="75"/>
+      <c r="I77" s="57">
+        <f t="shared" si="4"/>
+        <v>16.64</v>
+      </c>
+      <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c r="L77" s="9"/>
       <c r="M77" s="9"/>
       <c r="N77" s="9"/>
       <c r="O77" s="58"/>
     </row>
-    <row r="78" spans="1:15">
-      <c r="A78" s="75">
-        <v>20</v>
-      </c>
-      <c r="B78" s="75" t="s">
-        <v>203</v>
+    <row r="78" customFormat="1" spans="1:15">
+      <c r="A78" s="75"/>
+      <c r="B78" s="105" t="s">
+        <v>209</v>
       </c>
       <c r="C78" s="75" t="s">
-        <v>201</v>
-      </c>
-      <c r="D78" s="108">
-        <v>0.01</v>
-      </c>
-      <c r="E78" s="75">
-        <v>3</v>
-      </c>
-      <c r="F78" s="113" t="s">
-        <v>202</v>
-      </c>
-      <c r="G78" s="75"/>
-      <c r="H78" s="75"/>
-      <c r="I78" s="59">
-        <v>3</v>
-      </c>
-      <c r="J78" s="57">
-        <f t="shared" si="5"/>
-        <v>0.03</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="D78" s="57">
+        <v>0.06</v>
+      </c>
+      <c r="E78" s="75" t="s">
+        <v>194</v>
+      </c>
+      <c r="F78" s="111">
+        <v>1</v>
+      </c>
+      <c r="G78" s="75" t="s">
+        <v>211</v>
+      </c>
+      <c r="H78" s="75">
+        <v>15</v>
+      </c>
+      <c r="I78" s="57">
+        <f t="shared" si="4"/>
+        <v>0.9</v>
+      </c>
+      <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c r="L78" s="9"/>
       <c r="M78" s="9"/>
       <c r="N78" s="9"/>
       <c r="O78" s="58"/>
     </row>
-    <row r="79" spans="1:15">
-      <c r="A79" s="75">
+    <row r="79" customFormat="1" spans="1:15">
+      <c r="A79" s="75"/>
+      <c r="B79" s="105" t="s">
+        <v>212</v>
+      </c>
+      <c r="C79" s="75" t="s">
+        <v>213</v>
+      </c>
+      <c r="D79" s="57">
+        <v>0.15</v>
+      </c>
+      <c r="E79" s="75" t="s">
+        <v>194</v>
+      </c>
+      <c r="F79" s="111">
         <v>30</v>
-      </c>
-      <c r="B79" s="75" t="s">
-        <v>204</v>
-      </c>
-      <c r="C79" s="75" t="s">
-        <v>201</v>
-      </c>
-      <c r="D79" s="108">
-        <v>0.01</v>
-      </c>
-      <c r="E79" s="75">
-        <v>3</v>
-      </c>
-      <c r="F79" s="113" t="s">
-        <v>202</v>
       </c>
       <c r="G79" s="75"/>
       <c r="H79" s="75"/>
-      <c r="I79" s="59">
-        <v>3</v>
-      </c>
-      <c r="J79" s="57">
-        <f t="shared" si="5"/>
-        <v>0.03</v>
-      </c>
+      <c r="I79" s="57">
+        <f t="shared" si="4"/>
+        <v>4.5</v>
+      </c>
+      <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c r="L79" s="9"/>
       <c r="M79" s="9"/>
       <c r="N79" s="9"/>
       <c r="O79" s="58"/>
     </row>
-    <row r="80" spans="1:15">
-      <c r="A80" s="75">
-        <v>40</v>
-      </c>
-      <c r="B80" s="75" t="s">
-        <v>200</v>
-      </c>
-      <c r="C80" s="81" t="s">
-        <v>169</v>
-      </c>
-      <c r="D80" s="109">
+    <row r="80" customFormat="1" spans="1:15">
+      <c r="A80" s="75"/>
+      <c r="B80" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="C80" s="75"/>
+      <c r="D80" s="57">
+        <v>0.36</v>
+      </c>
+      <c r="E80" s="75" t="s">
+        <v>215</v>
+      </c>
+      <c r="F80" s="111">
+        <v>108</v>
+      </c>
+      <c r="G80" s="75"/>
+      <c r="H80" s="75"/>
+      <c r="I80" s="57">
+        <f t="shared" si="4"/>
+        <v>38.88</v>
+      </c>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c r="L80" s="9"/>
+      <c r="M80" s="9"/>
+      <c r="N80" s="9"/>
+      <c r="O80" s="58"/>
+    </row>
+    <row r="81" customFormat="1" spans="1:15">
+      <c r="A81" s="75"/>
+      <c r="B81" t="s">
+        <v>216</v>
+      </c>
+      <c r="C81" s="75"/>
+      <c r="D81" s="57">
+        <v>0.11</v>
+      </c>
+      <c r="E81" s="75" t="s">
+        <v>123</v>
+      </c>
+      <c r="F81" s="111">
+        <v>5</v>
+      </c>
+      <c r="G81" s="75"/>
+      <c r="H81" s="75"/>
+      <c r="I81" s="57">
+        <f>IF(H81="",D81*F81,D81*F81*H81)</f>
+        <v>0.55</v>
+      </c>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c r="L81" s="9"/>
+      <c r="M81" s="9"/>
+      <c r="N81" s="9"/>
+      <c r="O81" s="58"/>
+    </row>
+    <row r="82" customFormat="1" spans="1:15">
+      <c r="A82" s="75"/>
+      <c r="B82" t="s">
+        <v>217</v>
+      </c>
+      <c r="C82" s="75"/>
+      <c r="D82" s="57">
         <v>0.04</v>
       </c>
-      <c r="E80" s="81">
-        <v>5</v>
-      </c>
-      <c r="F80" s="114" t="s">
-        <v>202</v>
-      </c>
-      <c r="G80" s="81">
-        <v>15</v>
-      </c>
-      <c r="H80" s="81" t="s">
-        <v>202</v>
-      </c>
-      <c r="I80" s="116">
-        <v>2</v>
-      </c>
-      <c r="J80" s="57">
-        <f t="shared" si="5"/>
-        <v>0.08</v>
-      </c>
-      <c r="K80" s="52"/>
-      <c r="L80" s="52"/>
-      <c r="M80" s="52"/>
-      <c r="N80" s="52"/>
-      <c r="O80" s="58"/>
-    </row>
-    <row r="81" spans="1:15">
-      <c r="A81" s="75">
-        <v>50</v>
-      </c>
-      <c r="B81" s="75" t="s">
-        <v>203</v>
-      </c>
-      <c r="C81" s="81" t="s">
-        <v>169</v>
-      </c>
-      <c r="D81" s="109">
-        <v>0.02</v>
-      </c>
-      <c r="E81" s="81">
-        <v>5</v>
-      </c>
-      <c r="F81" s="114" t="s">
-        <v>202</v>
-      </c>
-      <c r="G81" s="81"/>
-      <c r="H81" s="81"/>
-      <c r="I81" s="116">
-        <v>2</v>
-      </c>
-      <c r="J81" s="57">
-        <f>I81*D81</f>
-        <v>0.04</v>
-      </c>
-      <c r="K81" s="52"/>
-      <c r="L81" s="52"/>
-      <c r="M81" s="52"/>
-      <c r="N81" s="52"/>
-      <c r="O81" s="58"/>
-    </row>
-    <row r="82" s="4" customFormat="1" spans="1:15">
-      <c r="A82" s="75">
-        <v>60</v>
-      </c>
-      <c r="B82" s="75" t="s">
-        <v>204</v>
-      </c>
-      <c r="C82" s="81" t="s">
-        <v>169</v>
-      </c>
-      <c r="D82" s="108">
-        <v>0.01</v>
-      </c>
-      <c r="E82" s="75">
-        <v>5</v>
-      </c>
-      <c r="F82" s="113" t="s">
-        <v>202</v>
+      <c r="E82" s="75" t="s">
+        <v>194</v>
+      </c>
+      <c r="F82" s="111">
+        <v>300</v>
       </c>
       <c r="G82" s="75"/>
       <c r="H82" s="75"/>
-      <c r="I82" s="59">
-        <v>2</v>
-      </c>
-      <c r="J82" s="57">
-        <f>I82*D82</f>
-        <v>0.02</v>
-      </c>
-      <c r="K82" s="36"/>
-      <c r="L82" s="36"/>
-      <c r="M82" s="36"/>
-      <c r="N82" s="36"/>
-      <c r="O82" s="64"/>
-    </row>
-    <row r="83" s="4" customFormat="1" spans="1:15">
-      <c r="A83" s="75">
-        <v>70</v>
-      </c>
-      <c r="B83" s="75" t="s">
-        <v>200</v>
-      </c>
-      <c r="C83" s="81" t="s">
-        <v>205</v>
-      </c>
-      <c r="D83" s="108">
-        <v>0.04</v>
-      </c>
-      <c r="E83" s="75">
-        <v>5</v>
-      </c>
-      <c r="F83" s="113" t="s">
-        <v>202</v>
-      </c>
-      <c r="G83" s="75">
-        <v>15</v>
-      </c>
-      <c r="H83" s="75" t="s">
-        <v>202</v>
-      </c>
-      <c r="I83" s="59">
-        <v>2</v>
-      </c>
-      <c r="J83" s="57">
-        <f>I83*D83</f>
-        <v>0.08</v>
-      </c>
-      <c r="K83" s="36"/>
-      <c r="L83" s="36"/>
-      <c r="M83" s="36"/>
-      <c r="N83" s="36"/>
-      <c r="O83" s="64"/>
+      <c r="I82" s="57">
+        <f>IF(H82="",D82*F82,D82*F82*H82)</f>
+        <v>12</v>
+      </c>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c r="L82" s="9"/>
+      <c r="M82" s="9"/>
+      <c r="N82" s="9"/>
+      <c r="O82" s="58"/>
+    </row>
+    <row r="83" customFormat="1" spans="1:15">
+      <c r="A83" s="75"/>
+      <c r="B83" s="105" t="s">
+        <v>218</v>
+      </c>
+      <c r="C83" s="75"/>
+      <c r="D83" s="57">
+        <v>1</v>
+      </c>
+      <c r="E83" s="75" t="s">
+        <v>179</v>
+      </c>
+      <c r="F83" s="111">
+        <v>4</v>
+      </c>
+      <c r="G83" s="75"/>
+      <c r="H83" s="75"/>
+      <c r="I83" s="57">
+        <f>IF(H83="",D83*F83,D83*F83*H83)</f>
+        <v>4</v>
+      </c>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c r="L83" s="9"/>
+      <c r="M83" s="9"/>
+      <c r="N83" s="9"/>
+      <c r="O83" s="58"/>
     </row>
     <row r="84" s="4" customFormat="1" spans="1:15">
-      <c r="A84" s="75">
-        <v>80</v>
-      </c>
-      <c r="B84" s="75" t="s">
-        <v>203</v>
-      </c>
-      <c r="C84" s="81" t="s">
-        <v>205</v>
-      </c>
-      <c r="D84" s="108">
-        <v>0.02</v>
-      </c>
-      <c r="E84" s="75">
-        <v>5</v>
-      </c>
-      <c r="F84" s="113" t="s">
-        <v>202</v>
+      <c r="A84" s="75"/>
+      <c r="B84" s="105" t="s">
+        <v>219</v>
+      </c>
+      <c r="C84" s="75"/>
+      <c r="D84" s="57">
+        <v>0.5</v>
+      </c>
+      <c r="E84" s="75" t="s">
+        <v>123</v>
+      </c>
+      <c r="F84" s="110">
+        <v>12</v>
       </c>
       <c r="G84" s="75"/>
       <c r="H84" s="75"/>
-      <c r="I84" s="59">
-        <v>2</v>
-      </c>
-      <c r="J84" s="57">
-        <f>I84*D84</f>
-        <v>0.04</v>
-      </c>
+      <c r="I84" s="57">
+        <f>IF(H84="",D84*F84,D84*F84*H84)</f>
+        <v>6</v>
+      </c>
+      <c r="J84" s="36"/>
       <c r="K84" s="36"/>
       <c r="L84" s="36"/>
       <c r="M84" s="36"/>
       <c r="N84" s="36"/>
       <c r="O84" s="64"/>
     </row>
-    <row r="85" s="4" customFormat="1" spans="1:15">
-      <c r="A85" s="75">
-        <v>90</v>
-      </c>
-      <c r="B85" s="75" t="s">
-        <v>204</v>
-      </c>
-      <c r="C85" s="81" t="s">
-        <v>205</v>
-      </c>
-      <c r="D85" s="108">
-        <v>0.01</v>
-      </c>
-      <c r="E85" s="75">
-        <v>5</v>
-      </c>
-      <c r="F85" s="113" t="s">
-        <v>202</v>
-      </c>
-      <c r="G85" s="75"/>
-      <c r="H85" s="75"/>
-      <c r="I85" s="59">
-        <v>2</v>
-      </c>
-      <c r="J85" s="57">
-        <f>I85*D85</f>
-        <v>0.02</v>
-      </c>
+    <row r="85" s="3" customFormat="1" spans="1:15">
+      <c r="A85" s="75"/>
+      <c r="B85" t="s">
+        <v>220</v>
+      </c>
+      <c r="C85" s="75"/>
+      <c r="D85" s="57">
+        <v>0.25</v>
+      </c>
+      <c r="E85" s="75" t="s">
+        <v>123</v>
+      </c>
+      <c r="F85" s="110">
+        <v>12</v>
+      </c>
+      <c r="G85" s="110"/>
+      <c r="H85" s="110"/>
+      <c r="I85" s="57">
+        <f>IF(H85="",D85*F85,D85*F85*H85)</f>
+        <v>3</v>
+      </c>
+      <c r="J85" s="36"/>
       <c r="K85" s="36"/>
       <c r="L85" s="36"/>
       <c r="M85" s="36"/>
       <c r="N85" s="36"/>
-      <c r="O85" s="64"/>
+      <c r="O85" s="63"/>
     </row>
     <row r="86" s="4" customFormat="1" spans="1:15">
-      <c r="A86" s="75">
-        <v>100</v>
-      </c>
-      <c r="B86" s="75" t="s">
-        <v>200</v>
-      </c>
-      <c r="C86" s="81" t="s">
-        <v>182</v>
-      </c>
-      <c r="D86" s="108">
-        <v>0.04</v>
-      </c>
-      <c r="E86" s="75">
-        <v>5</v>
-      </c>
-      <c r="F86" s="113" t="s">
-        <v>202</v>
-      </c>
-      <c r="G86" s="75">
-        <v>15</v>
-      </c>
-      <c r="H86" s="75" t="s">
-        <v>202</v>
-      </c>
-      <c r="I86" s="59">
-        <v>2</v>
-      </c>
-      <c r="J86" s="57">
-        <f>I86*D86</f>
-        <v>0.08</v>
-      </c>
+      <c r="A86" s="75"/>
+      <c r="B86" s="105"/>
+      <c r="C86" s="106" t="s">
+        <v>221</v>
+      </c>
+      <c r="D86" s="57"/>
+      <c r="E86" s="105"/>
+      <c r="F86" s="110"/>
+      <c r="G86" s="75"/>
+      <c r="H86" s="75"/>
+      <c r="I86" s="57">
+        <f>IF(H86="",D86*F86,D86*F86*H86)</f>
+        <v>0</v>
+      </c>
+      <c r="J86" s="36"/>
       <c r="K86" s="36"/>
       <c r="L86" s="36"/>
       <c r="M86" s="36"/>
       <c r="N86" s="36"/>
       <c r="O86" s="64"/>
     </row>
-    <row r="87" s="4" customFormat="1" spans="1:15">
-      <c r="A87" s="75">
-        <v>110</v>
-      </c>
-      <c r="B87" s="75" t="s">
-        <v>203</v>
-      </c>
-      <c r="C87" s="81" t="s">
-        <v>182</v>
-      </c>
-      <c r="D87" s="108">
-        <v>0.02</v>
-      </c>
-      <c r="E87" s="75">
-        <v>5</v>
-      </c>
-      <c r="F87" s="113" t="s">
-        <v>202</v>
-      </c>
-      <c r="G87" s="75"/>
-      <c r="H87" s="75"/>
-      <c r="I87" s="59">
-        <v>2</v>
-      </c>
-      <c r="J87" s="57">
-        <f>I87*D87</f>
+    <row r="87" spans="1:15">
+      <c r="A87" s="21">
+        <v>1</v>
+      </c>
+      <c r="B87" s="22"/>
+      <c r="C87" s="22"/>
+      <c r="D87" s="22"/>
+      <c r="E87" s="22"/>
+      <c r="F87" s="22"/>
+      <c r="G87" s="22"/>
+      <c r="H87" s="80" t="s">
+        <v>109</v>
+      </c>
+      <c r="I87" s="85">
+        <f>SUM(I69:I86)</f>
+        <v>95.1604158</v>
+      </c>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c r="L87" s="9"/>
+      <c r="M87" s="9"/>
+      <c r="N87" s="9"/>
+      <c r="O87" s="58"/>
+    </row>
+    <row r="88" spans="1:15">
+      <c r="A88" s="23"/>
+      <c r="B88" s="9"/>
+      <c r="C88" s="9"/>
+      <c r="D88" s="9"/>
+      <c r="E88" s="9"/>
+      <c r="F88" s="9"/>
+      <c r="G88" s="9"/>
+      <c r="H88" s="9"/>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c r="L88" s="9"/>
+      <c r="M88" s="9"/>
+      <c r="N88" s="9"/>
+      <c r="O88" s="58"/>
+    </row>
+    <row r="89" spans="1:15">
+      <c r="A89" s="74" t="s">
+        <v>106</v>
+      </c>
+      <c r="B89" s="74" t="s">
+        <v>222</v>
+      </c>
+      <c r="C89" s="74" t="s">
+        <v>111</v>
+      </c>
+      <c r="D89" s="74" t="s">
+        <v>112</v>
+      </c>
+      <c r="E89" s="74" t="s">
+        <v>113</v>
+      </c>
+      <c r="F89" s="74" t="s">
+        <v>114</v>
+      </c>
+      <c r="G89" s="74" t="s">
+        <v>115</v>
+      </c>
+      <c r="H89" s="74" t="s">
+        <v>116</v>
+      </c>
+      <c r="I89" s="74" t="s">
+        <v>82</v>
+      </c>
+      <c r="J89" s="74" t="s">
+        <v>109</v>
+      </c>
+      <c r="K89" s="9"/>
+      <c r="L89" s="9"/>
+      <c r="M89" s="9"/>
+      <c r="N89" s="9"/>
+      <c r="O89" s="58"/>
+    </row>
+    <row r="90" spans="1:15">
+      <c r="A90" s="75">
+        <v>10</v>
+      </c>
+      <c r="B90" s="75" t="s">
+        <v>223</v>
+      </c>
+      <c r="C90" s="75" t="s">
+        <v>224</v>
+      </c>
+      <c r="D90" s="107">
         <v>0.04</v>
       </c>
-      <c r="K87" s="36"/>
-      <c r="L87" s="36"/>
-      <c r="M87" s="36"/>
-      <c r="N87" s="36"/>
-      <c r="O87" s="64"/>
-    </row>
-    <row r="88" s="4" customFormat="1" spans="1:15">
-      <c r="A88" s="75">
-        <v>120</v>
-      </c>
-      <c r="B88" s="75" t="s">
-        <v>204</v>
-      </c>
-      <c r="C88" s="81" t="s">
-        <v>182</v>
-      </c>
-      <c r="D88" s="108">
-        <v>0.01</v>
-      </c>
-      <c r="E88" s="75">
-        <v>5</v>
-      </c>
-      <c r="F88" s="113" t="s">
-        <v>202</v>
-      </c>
-      <c r="G88" s="75"/>
-      <c r="H88" s="75"/>
-      <c r="I88" s="59">
-        <v>2</v>
-      </c>
-      <c r="J88" s="57">
-        <f>I88*D88</f>
-        <v>0.02</v>
-      </c>
-      <c r="K88" s="36"/>
-      <c r="L88" s="36"/>
-      <c r="M88" s="36"/>
-      <c r="N88" s="36"/>
-      <c r="O88" s="64"/>
-    </row>
-    <row r="89" s="4" customFormat="1" spans="1:15">
-      <c r="A89" s="75">
-        <v>130</v>
-      </c>
-      <c r="B89" s="75" t="s">
-        <v>200</v>
-      </c>
-      <c r="C89" s="81" t="s">
-        <v>206</v>
-      </c>
-      <c r="D89" s="108">
-        <v>0.04</v>
-      </c>
-      <c r="E89" s="75">
+      <c r="E90" s="112">
         <v>3</v>
       </c>
-      <c r="F89" s="113" t="s">
-        <v>202</v>
-      </c>
-      <c r="G89" s="75">
+      <c r="F90" s="112" t="s">
+        <v>225</v>
+      </c>
+      <c r="G90" s="112">
         <v>15</v>
       </c>
-      <c r="H89" s="75" t="s">
-        <v>202</v>
-      </c>
-      <c r="I89" s="59">
-        <v>3</v>
-      </c>
-      <c r="J89" s="57">
-        <f>I89*D89</f>
-        <v>0.12</v>
-      </c>
-      <c r="K89" s="36"/>
-      <c r="L89" s="36"/>
-      <c r="M89" s="36"/>
-      <c r="N89" s="36"/>
-      <c r="O89" s="64"/>
-    </row>
-    <row r="90" s="4" customFormat="1" spans="1:15">
-      <c r="A90" s="75">
-        <v>140</v>
-      </c>
-      <c r="B90" s="75" t="s">
-        <v>203</v>
-      </c>
-      <c r="C90" s="81" t="s">
-        <v>206</v>
-      </c>
-      <c r="D90" s="108">
-        <v>0.02</v>
-      </c>
-      <c r="E90" s="75">
-        <v>3</v>
-      </c>
-      <c r="F90" s="113" t="s">
-        <v>202</v>
-      </c>
-      <c r="G90" s="75"/>
-      <c r="H90" s="75"/>
+      <c r="H90" s="112" t="s">
+        <v>225</v>
+      </c>
       <c r="I90" s="59">
         <v>3</v>
       </c>
       <c r="J90" s="57">
-        <f>I90*D90</f>
-        <v>0.06</v>
-      </c>
-      <c r="K90" s="36"/>
-      <c r="L90" s="36"/>
-      <c r="M90" s="36"/>
-      <c r="N90" s="36"/>
-      <c r="O90" s="64"/>
-    </row>
-    <row r="91" s="4" customFormat="1" spans="1:15">
+        <f t="shared" ref="J90:J110" si="5">I90*D90</f>
+        <v>0.12</v>
+      </c>
+      <c r="K90" s="9"/>
+      <c r="L90" s="9"/>
+      <c r="M90" s="9"/>
+      <c r="N90" s="9"/>
+      <c r="O90" s="58"/>
+    </row>
+    <row r="91" spans="1:15">
       <c r="A91" s="75">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="B91" s="75" t="s">
-        <v>204</v>
-      </c>
-      <c r="C91" s="81" t="s">
-        <v>206</v>
-      </c>
-      <c r="D91" s="108">
+        <v>226</v>
+      </c>
+      <c r="C91" s="75" t="s">
+        <v>224</v>
+      </c>
+      <c r="D91" s="107">
         <v>0.01</v>
       </c>
       <c r="E91" s="75">
         <v>3</v>
       </c>
       <c r="F91" s="113" t="s">
-        <v>202</v>
+        <v>225</v>
       </c>
       <c r="G91" s="75"/>
       <c r="H91" s="75"/>
@@ -12414,142 +12419,148 @@
         <v>3</v>
       </c>
       <c r="J91" s="57">
-        <f>I91*D91</f>
+        <f t="shared" si="5"/>
         <v>0.03</v>
       </c>
-      <c r="K91" s="36"/>
-      <c r="L91" s="36"/>
-      <c r="M91" s="36"/>
-      <c r="N91" s="36"/>
-      <c r="O91" s="64"/>
-    </row>
-    <row r="92" s="4" customFormat="1" spans="1:15">
+      <c r="K91" s="9"/>
+      <c r="L91" s="9"/>
+      <c r="M91" s="9"/>
+      <c r="N91" s="9"/>
+      <c r="O91" s="58"/>
+    </row>
+    <row r="92" spans="1:15">
       <c r="A92" s="75">
-        <v>160</v>
+        <v>30</v>
       </c>
       <c r="B92" s="75" t="s">
-        <v>200</v>
-      </c>
-      <c r="C92" s="81" t="s">
-        <v>137</v>
-      </c>
-      <c r="D92" s="108">
-        <v>0.04</v>
+        <v>227</v>
+      </c>
+      <c r="C92" s="75" t="s">
+        <v>224</v>
+      </c>
+      <c r="D92" s="107">
+        <v>0.01</v>
       </c>
       <c r="E92" s="75">
         <v>3</v>
       </c>
       <c r="F92" s="113" t="s">
-        <v>202</v>
-      </c>
-      <c r="G92" s="75">
+        <v>225</v>
+      </c>
+      <c r="G92" s="75"/>
+      <c r="H92" s="75"/>
+      <c r="I92" s="59">
+        <v>3</v>
+      </c>
+      <c r="J92" s="57">
+        <f t="shared" si="5"/>
+        <v>0.03</v>
+      </c>
+      <c r="K92" s="9"/>
+      <c r="L92" s="9"/>
+      <c r="M92" s="9"/>
+      <c r="N92" s="9"/>
+      <c r="O92" s="58"/>
+    </row>
+    <row r="93" spans="1:15">
+      <c r="A93" s="75">
+        <v>40</v>
+      </c>
+      <c r="B93" s="75" t="s">
+        <v>223</v>
+      </c>
+      <c r="C93" s="81" t="s">
+        <v>171</v>
+      </c>
+      <c r="D93" s="108">
+        <v>0.04</v>
+      </c>
+      <c r="E93" s="81">
+        <v>5</v>
+      </c>
+      <c r="F93" s="114" t="s">
+        <v>225</v>
+      </c>
+      <c r="G93" s="81">
         <v>15</v>
       </c>
-      <c r="H92" s="75" t="s">
-        <v>202</v>
-      </c>
-      <c r="I92" s="59">
+      <c r="H93" s="81" t="s">
+        <v>225</v>
+      </c>
+      <c r="I93" s="116">
         <v>2</v>
       </c>
-      <c r="J92" s="57">
-        <f>I92*D92</f>
+      <c r="J93" s="57">
+        <f t="shared" si="5"/>
         <v>0.08</v>
       </c>
-      <c r="K92" s="36"/>
-      <c r="L92" s="36"/>
-      <c r="M92" s="36"/>
-      <c r="N92" s="36"/>
-      <c r="O92" s="64"/>
-    </row>
-    <row r="93" s="4" customFormat="1" spans="1:15">
-      <c r="A93" s="75">
-        <v>170</v>
-      </c>
-      <c r="B93" s="75" t="s">
-        <v>203</v>
-      </c>
-      <c r="C93" s="81" t="s">
-        <v>137</v>
-      </c>
-      <c r="D93" s="108">
+      <c r="K93" s="52"/>
+      <c r="L93" s="52"/>
+      <c r="M93" s="52"/>
+      <c r="N93" s="52"/>
+      <c r="O93" s="58"/>
+    </row>
+    <row r="94" spans="1:15">
+      <c r="A94" s="75">
+        <v>50</v>
+      </c>
+      <c r="B94" s="75" t="s">
+        <v>226</v>
+      </c>
+      <c r="C94" s="81" t="s">
+        <v>171</v>
+      </c>
+      <c r="D94" s="108">
         <v>0.02</v>
       </c>
-      <c r="E93" s="75">
-        <v>3</v>
-      </c>
-      <c r="F93" s="113" t="s">
-        <v>202</v>
-      </c>
-      <c r="G93" s="75"/>
-      <c r="H93" s="75"/>
-      <c r="I93" s="59">
+      <c r="E94" s="81">
+        <v>5</v>
+      </c>
+      <c r="F94" s="114" t="s">
+        <v>225</v>
+      </c>
+      <c r="G94" s="81"/>
+      <c r="H94" s="81"/>
+      <c r="I94" s="116">
         <v>2</v>
       </c>
-      <c r="J93" s="57">
-        <f>I93*D93</f>
+      <c r="J94" s="57">
+        <f t="shared" si="5"/>
         <v>0.04</v>
       </c>
-      <c r="K93" s="36"/>
-      <c r="L93" s="36"/>
-      <c r="M93" s="36"/>
-      <c r="N93" s="36"/>
-      <c r="O93" s="64"/>
-    </row>
-    <row r="94" s="4" customFormat="1" spans="1:15">
-      <c r="A94" s="75">
-        <v>180</v>
-      </c>
-      <c r="B94" s="75" t="s">
-        <v>204</v>
-      </c>
-      <c r="C94" s="81" t="s">
-        <v>137</v>
-      </c>
-      <c r="D94" s="108">
-        <v>0.01</v>
-      </c>
-      <c r="E94" s="75">
-        <v>3</v>
-      </c>
-      <c r="F94" s="113" t="s">
-        <v>202</v>
-      </c>
-      <c r="G94" s="75"/>
-      <c r="H94" s="75"/>
-      <c r="I94" s="59">
-        <v>2</v>
-      </c>
-      <c r="J94" s="57">
-        <f>I94*D94</f>
-        <v>0.02</v>
-      </c>
-      <c r="K94" s="36"/>
-      <c r="L94" s="36"/>
-      <c r="M94" s="36"/>
-      <c r="N94" s="36"/>
-      <c r="O94" s="64"/>
+      <c r="K94" s="52"/>
+      <c r="L94" s="52"/>
+      <c r="M94" s="52"/>
+      <c r="N94" s="52"/>
+      <c r="O94" s="58"/>
     </row>
     <row r="95" s="4" customFormat="1" spans="1:15">
       <c r="A95" s="75">
-        <v>190</v>
+        <v>60</v>
       </c>
       <c r="B95" s="75" t="s">
-        <v>207</v>
-      </c>
-      <c r="C95" s="81"/>
-      <c r="D95" s="108">
-        <v>0.003</v>
-      </c>
-      <c r="E95" s="75"/>
+        <v>227</v>
+      </c>
+      <c r="C95" s="81" t="s">
+        <v>171</v>
+      </c>
+      <c r="D95" s="107">
+        <v>0.01</v>
+      </c>
+      <c r="E95" s="75">
+        <v>5</v>
+      </c>
       <c r="F95" s="113" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="G95" s="75"/>
       <c r="H95" s="75"/>
-      <c r="I95" s="117"/>
+      <c r="I95" s="59">
+        <v>2</v>
+      </c>
       <c r="J95" s="57">
-        <f>I95*D95</f>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>0.02</v>
       </c>
       <c r="K95" s="36"/>
       <c r="L95" s="36"/>
@@ -12559,25 +12570,35 @@
     </row>
     <row r="96" s="4" customFormat="1" spans="1:15">
       <c r="A96" s="75">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="B96" s="75" t="s">
-        <v>209</v>
-      </c>
-      <c r="C96" s="81"/>
-      <c r="D96" s="108">
-        <v>0.002</v>
-      </c>
-      <c r="E96" s="75"/>
+        <v>223</v>
+      </c>
+      <c r="C96" s="81" t="s">
+        <v>228</v>
+      </c>
+      <c r="D96" s="107">
+        <v>0.04</v>
+      </c>
+      <c r="E96" s="75">
+        <v>5</v>
+      </c>
       <c r="F96" s="113" t="s">
-        <v>208</v>
-      </c>
-      <c r="G96" s="75"/>
-      <c r="H96" s="75"/>
-      <c r="I96" s="117"/>
+        <v>225</v>
+      </c>
+      <c r="G96" s="75">
+        <v>15</v>
+      </c>
+      <c r="H96" s="75" t="s">
+        <v>225</v>
+      </c>
+      <c r="I96" s="59">
+        <v>2</v>
+      </c>
       <c r="J96" s="57">
-        <f>I96*D96</f>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>0.08</v>
       </c>
       <c r="K96" s="36"/>
       <c r="L96" s="36"/>
@@ -12587,27 +12608,31 @@
     </row>
     <row r="97" s="4" customFormat="1" spans="1:15">
       <c r="A97" s="75">
-        <v>210</v>
+        <v>80</v>
       </c>
       <c r="B97" s="75" t="s">
-        <v>210</v>
-      </c>
-      <c r="C97" s="81"/>
-      <c r="D97" s="108">
-        <v>0.04</v>
-      </c>
-      <c r="E97" s="75"/>
+        <v>226</v>
+      </c>
+      <c r="C97" s="81" t="s">
+        <v>228</v>
+      </c>
+      <c r="D97" s="107">
+        <v>0.02</v>
+      </c>
+      <c r="E97" s="75">
+        <v>5</v>
+      </c>
       <c r="F97" s="113" t="s">
-        <v>123</v>
+        <v>225</v>
       </c>
       <c r="G97" s="75"/>
       <c r="H97" s="75"/>
-      <c r="I97" s="117">
-        <v>10</v>
+      <c r="I97" s="59">
+        <v>2</v>
       </c>
       <c r="J97" s="57">
-        <f>I97*D97</f>
-        <v>0.4</v>
+        <f t="shared" si="5"/>
+        <v>0.04</v>
       </c>
       <c r="K97" s="36"/>
       <c r="L97" s="36"/>
@@ -12616,16 +12641,33 @@
       <c r="O97" s="64"/>
     </row>
     <row r="98" s="4" customFormat="1" spans="1:15">
-      <c r="A98" s="75"/>
-      <c r="B98" s="75"/>
-      <c r="C98" s="81"/>
-      <c r="D98" s="108"/>
-      <c r="E98" s="75"/>
-      <c r="F98" s="113"/>
+      <c r="A98" s="75">
+        <v>90</v>
+      </c>
+      <c r="B98" s="75" t="s">
+        <v>227</v>
+      </c>
+      <c r="C98" s="81" t="s">
+        <v>228</v>
+      </c>
+      <c r="D98" s="107">
+        <v>0.01</v>
+      </c>
+      <c r="E98" s="75">
+        <v>5</v>
+      </c>
+      <c r="F98" s="113" t="s">
+        <v>225</v>
+      </c>
       <c r="G98" s="75"/>
       <c r="H98" s="75"/>
-      <c r="I98" s="59"/>
-      <c r="J98" s="57"/>
+      <c r="I98" s="59">
+        <v>2</v>
+      </c>
+      <c r="J98" s="57">
+        <f t="shared" si="5"/>
+        <v>0.02</v>
+      </c>
       <c r="K98" s="36"/>
       <c r="L98" s="36"/>
       <c r="M98" s="36"/>
@@ -12633,16 +12675,37 @@
       <c r="O98" s="64"/>
     </row>
     <row r="99" s="4" customFormat="1" spans="1:15">
-      <c r="A99" s="75"/>
-      <c r="B99" s="75"/>
-      <c r="C99" s="81"/>
-      <c r="D99" s="108"/>
-      <c r="E99" s="75"/>
-      <c r="F99" s="113"/>
-      <c r="G99" s="75"/>
-      <c r="H99" s="75"/>
-      <c r="I99" s="59"/>
-      <c r="J99" s="57"/>
+      <c r="A99" s="75">
+        <v>100</v>
+      </c>
+      <c r="B99" s="75" t="s">
+        <v>223</v>
+      </c>
+      <c r="C99" s="81" t="s">
+        <v>184</v>
+      </c>
+      <c r="D99" s="107">
+        <v>0.04</v>
+      </c>
+      <c r="E99" s="75">
+        <v>5</v>
+      </c>
+      <c r="F99" s="113" t="s">
+        <v>225</v>
+      </c>
+      <c r="G99" s="75">
+        <v>15</v>
+      </c>
+      <c r="H99" s="75" t="s">
+        <v>225</v>
+      </c>
+      <c r="I99" s="59">
+        <v>2</v>
+      </c>
+      <c r="J99" s="57">
+        <f t="shared" si="5"/>
+        <v>0.08</v>
+      </c>
       <c r="K99" s="36"/>
       <c r="L99" s="36"/>
       <c r="M99" s="36"/>
@@ -12650,222 +12713,622 @@
       <c r="O99" s="64"/>
     </row>
     <row r="100" s="4" customFormat="1" spans="1:15">
-      <c r="A100" s="75"/>
-      <c r="B100" s="75"/>
-      <c r="C100" s="81"/>
-      <c r="D100" s="108"/>
-      <c r="E100" s="75"/>
-      <c r="F100" s="113"/>
+      <c r="A100" s="75">
+        <v>110</v>
+      </c>
+      <c r="B100" s="75" t="s">
+        <v>226</v>
+      </c>
+      <c r="C100" s="81" t="s">
+        <v>184</v>
+      </c>
+      <c r="D100" s="107">
+        <v>0.02</v>
+      </c>
+      <c r="E100" s="75">
+        <v>5</v>
+      </c>
+      <c r="F100" s="113" t="s">
+        <v>225</v>
+      </c>
       <c r="G100" s="75"/>
       <c r="H100" s="75"/>
-      <c r="I100" s="59"/>
-      <c r="J100" s="57"/>
+      <c r="I100" s="59">
+        <v>2</v>
+      </c>
+      <c r="J100" s="57">
+        <f t="shared" si="5"/>
+        <v>0.04</v>
+      </c>
       <c r="K100" s="36"/>
       <c r="L100" s="36"/>
       <c r="M100" s="36"/>
       <c r="N100" s="36"/>
       <c r="O100" s="64"/>
     </row>
-    <row r="101" spans="1:15">
-      <c r="A101" s="75"/>
-      <c r="B101" s="110"/>
-      <c r="C101" s="107" t="s">
-        <v>198</v>
-      </c>
-      <c r="D101" s="109"/>
-      <c r="E101" s="81"/>
-      <c r="F101" s="114"/>
-      <c r="G101" s="81"/>
-      <c r="H101" s="81"/>
-      <c r="I101" s="116"/>
-      <c r="J101" s="57"/>
-      <c r="K101" s="52"/>
-      <c r="L101" s="52"/>
-      <c r="M101" s="52"/>
-      <c r="N101" s="52"/>
-      <c r="O101" s="58"/>
-    </row>
-    <row r="102" spans="1:15">
-      <c r="A102" s="21"/>
-      <c r="B102" s="22"/>
-      <c r="C102" s="22"/>
-      <c r="D102" s="22"/>
-      <c r="E102" s="22"/>
-      <c r="F102" s="22"/>
-      <c r="G102" s="22"/>
-      <c r="H102" s="22"/>
-      <c r="I102" s="80" t="s">
+    <row r="101" s="4" customFormat="1" spans="1:15">
+      <c r="A101" s="75">
+        <v>120</v>
+      </c>
+      <c r="B101" s="75" t="s">
+        <v>227</v>
+      </c>
+      <c r="C101" s="81" t="s">
+        <v>184</v>
+      </c>
+      <c r="D101" s="107">
+        <v>0.01</v>
+      </c>
+      <c r="E101" s="75">
+        <v>5</v>
+      </c>
+      <c r="F101" s="113" t="s">
+        <v>225</v>
+      </c>
+      <c r="G101" s="75"/>
+      <c r="H101" s="75"/>
+      <c r="I101" s="59">
+        <v>2</v>
+      </c>
+      <c r="J101" s="57">
+        <f t="shared" si="5"/>
+        <v>0.02</v>
+      </c>
+      <c r="K101" s="36"/>
+      <c r="L101" s="36"/>
+      <c r="M101" s="36"/>
+      <c r="N101" s="36"/>
+      <c r="O101" s="64"/>
+    </row>
+    <row r="102" s="4" customFormat="1" spans="1:15">
+      <c r="A102" s="75">
+        <v>130</v>
+      </c>
+      <c r="B102" s="75" t="s">
+        <v>223</v>
+      </c>
+      <c r="C102" s="81" t="s">
+        <v>229</v>
+      </c>
+      <c r="D102" s="107">
+        <v>0.04</v>
+      </c>
+      <c r="E102" s="75">
+        <v>3</v>
+      </c>
+      <c r="F102" s="113" t="s">
+        <v>225</v>
+      </c>
+      <c r="G102" s="75">
+        <v>15</v>
+      </c>
+      <c r="H102" s="75" t="s">
+        <v>225</v>
+      </c>
+      <c r="I102" s="59">
+        <v>3</v>
+      </c>
+      <c r="J102" s="57">
+        <f t="shared" si="5"/>
+        <v>0.12</v>
+      </c>
+      <c r="K102" s="36"/>
+      <c r="L102" s="36"/>
+      <c r="M102" s="36"/>
+      <c r="N102" s="36"/>
+      <c r="O102" s="64"/>
+    </row>
+    <row r="103" s="4" customFormat="1" spans="1:15">
+      <c r="A103" s="75">
+        <v>140</v>
+      </c>
+      <c r="B103" s="75" t="s">
+        <v>226</v>
+      </c>
+      <c r="C103" s="81" t="s">
+        <v>229</v>
+      </c>
+      <c r="D103" s="107">
+        <v>0.02</v>
+      </c>
+      <c r="E103" s="75">
+        <v>3</v>
+      </c>
+      <c r="F103" s="113" t="s">
+        <v>225</v>
+      </c>
+      <c r="G103" s="75"/>
+      <c r="H103" s="75"/>
+      <c r="I103" s="59">
+        <v>3</v>
+      </c>
+      <c r="J103" s="57">
+        <f t="shared" si="5"/>
+        <v>0.06</v>
+      </c>
+      <c r="K103" s="36"/>
+      <c r="L103" s="36"/>
+      <c r="M103" s="36"/>
+      <c r="N103" s="36"/>
+      <c r="O103" s="64"/>
+    </row>
+    <row r="104" s="4" customFormat="1" spans="1:15">
+      <c r="A104" s="75">
+        <v>150</v>
+      </c>
+      <c r="B104" s="75" t="s">
+        <v>227</v>
+      </c>
+      <c r="C104" s="81" t="s">
+        <v>229</v>
+      </c>
+      <c r="D104" s="107">
+        <v>0.01</v>
+      </c>
+      <c r="E104" s="75">
+        <v>3</v>
+      </c>
+      <c r="F104" s="113" t="s">
+        <v>225</v>
+      </c>
+      <c r="G104" s="75"/>
+      <c r="H104" s="75"/>
+      <c r="I104" s="59">
+        <v>3</v>
+      </c>
+      <c r="J104" s="57">
+        <f t="shared" si="5"/>
+        <v>0.03</v>
+      </c>
+      <c r="K104" s="36"/>
+      <c r="L104" s="36"/>
+      <c r="M104" s="36"/>
+      <c r="N104" s="36"/>
+      <c r="O104" s="64"/>
+    </row>
+    <row r="105" s="4" customFormat="1" spans="1:15">
+      <c r="A105" s="75">
+        <v>160</v>
+      </c>
+      <c r="B105" s="75" t="s">
+        <v>223</v>
+      </c>
+      <c r="C105" s="81" t="s">
+        <v>137</v>
+      </c>
+      <c r="D105" s="107">
+        <v>0.04</v>
+      </c>
+      <c r="E105" s="75">
+        <v>3</v>
+      </c>
+      <c r="F105" s="113" t="s">
+        <v>225</v>
+      </c>
+      <c r="G105" s="75">
+        <v>15</v>
+      </c>
+      <c r="H105" s="75" t="s">
+        <v>225</v>
+      </c>
+      <c r="I105" s="59">
+        <v>2</v>
+      </c>
+      <c r="J105" s="57">
+        <f t="shared" si="5"/>
+        <v>0.08</v>
+      </c>
+      <c r="K105" s="36"/>
+      <c r="L105" s="36"/>
+      <c r="M105" s="36"/>
+      <c r="N105" s="36"/>
+      <c r="O105" s="64"/>
+    </row>
+    <row r="106" s="4" customFormat="1" spans="1:15">
+      <c r="A106" s="75">
+        <v>170</v>
+      </c>
+      <c r="B106" s="75" t="s">
+        <v>226</v>
+      </c>
+      <c r="C106" s="81" t="s">
+        <v>137</v>
+      </c>
+      <c r="D106" s="107">
+        <v>0.02</v>
+      </c>
+      <c r="E106" s="75">
+        <v>3</v>
+      </c>
+      <c r="F106" s="113" t="s">
+        <v>225</v>
+      </c>
+      <c r="G106" s="75"/>
+      <c r="H106" s="75"/>
+      <c r="I106" s="59">
+        <v>2</v>
+      </c>
+      <c r="J106" s="57">
+        <f t="shared" si="5"/>
+        <v>0.04</v>
+      </c>
+      <c r="K106" s="36"/>
+      <c r="L106" s="36"/>
+      <c r="M106" s="36"/>
+      <c r="N106" s="36"/>
+      <c r="O106" s="64"/>
+    </row>
+    <row r="107" s="4" customFormat="1" spans="1:15">
+      <c r="A107" s="75">
+        <v>180</v>
+      </c>
+      <c r="B107" s="75" t="s">
+        <v>227</v>
+      </c>
+      <c r="C107" s="81" t="s">
+        <v>137</v>
+      </c>
+      <c r="D107" s="107">
+        <v>0.01</v>
+      </c>
+      <c r="E107" s="75">
+        <v>3</v>
+      </c>
+      <c r="F107" s="113" t="s">
+        <v>225</v>
+      </c>
+      <c r="G107" s="75"/>
+      <c r="H107" s="75"/>
+      <c r="I107" s="59">
+        <v>2</v>
+      </c>
+      <c r="J107" s="57">
+        <f t="shared" si="5"/>
+        <v>0.02</v>
+      </c>
+      <c r="K107" s="36"/>
+      <c r="L107" s="36"/>
+      <c r="M107" s="36"/>
+      <c r="N107" s="36"/>
+      <c r="O107" s="64"/>
+    </row>
+    <row r="108" s="4" customFormat="1" spans="1:15">
+      <c r="A108" s="75">
+        <v>190</v>
+      </c>
+      <c r="B108" s="75" t="s">
+        <v>230</v>
+      </c>
+      <c r="C108" s="81"/>
+      <c r="D108" s="107">
+        <v>0.003</v>
+      </c>
+      <c r="E108" s="75"/>
+      <c r="F108" s="113" t="s">
+        <v>231</v>
+      </c>
+      <c r="G108" s="75"/>
+      <c r="H108" s="75"/>
+      <c r="I108" s="117"/>
+      <c r="J108" s="57">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K108" s="36"/>
+      <c r="L108" s="36"/>
+      <c r="M108" s="36"/>
+      <c r="N108" s="36"/>
+      <c r="O108" s="64"/>
+    </row>
+    <row r="109" s="4" customFormat="1" spans="1:15">
+      <c r="A109" s="75">
+        <v>200</v>
+      </c>
+      <c r="B109" s="75" t="s">
+        <v>232</v>
+      </c>
+      <c r="C109" s="81"/>
+      <c r="D109" s="107">
+        <v>0.002</v>
+      </c>
+      <c r="E109" s="75"/>
+      <c r="F109" s="113" t="s">
+        <v>231</v>
+      </c>
+      <c r="G109" s="75"/>
+      <c r="H109" s="75"/>
+      <c r="I109" s="117"/>
+      <c r="J109" s="57">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K109" s="36"/>
+      <c r="L109" s="36"/>
+      <c r="M109" s="36"/>
+      <c r="N109" s="36"/>
+      <c r="O109" s="64"/>
+    </row>
+    <row r="110" s="4" customFormat="1" spans="1:15">
+      <c r="A110" s="75">
+        <v>210</v>
+      </c>
+      <c r="B110" s="75" t="s">
+        <v>233</v>
+      </c>
+      <c r="C110" s="81"/>
+      <c r="D110" s="107">
+        <v>0.04</v>
+      </c>
+      <c r="E110" s="75"/>
+      <c r="F110" s="113" t="s">
+        <v>123</v>
+      </c>
+      <c r="G110" s="75"/>
+      <c r="H110" s="75"/>
+      <c r="I110" s="117">
+        <v>10</v>
+      </c>
+      <c r="J110" s="57">
+        <f t="shared" si="5"/>
+        <v>0.4</v>
+      </c>
+      <c r="K110" s="36"/>
+      <c r="L110" s="36"/>
+      <c r="M110" s="36"/>
+      <c r="N110" s="36"/>
+      <c r="O110" s="64"/>
+    </row>
+    <row r="111" s="4" customFormat="1" spans="1:15">
+      <c r="A111" s="75"/>
+      <c r="B111" s="75"/>
+      <c r="C111" s="81"/>
+      <c r="D111" s="107"/>
+      <c r="E111" s="75"/>
+      <c r="F111" s="113"/>
+      <c r="G111" s="75"/>
+      <c r="H111" s="75"/>
+      <c r="I111" s="59"/>
+      <c r="J111" s="57"/>
+      <c r="K111" s="36"/>
+      <c r="L111" s="36"/>
+      <c r="M111" s="36"/>
+      <c r="N111" s="36"/>
+      <c r="O111" s="64"/>
+    </row>
+    <row r="112" s="4" customFormat="1" spans="1:15">
+      <c r="A112" s="75"/>
+      <c r="B112" s="75"/>
+      <c r="C112" s="81"/>
+      <c r="D112" s="107"/>
+      <c r="E112" s="75"/>
+      <c r="F112" s="113"/>
+      <c r="G112" s="75"/>
+      <c r="H112" s="75"/>
+      <c r="I112" s="59"/>
+      <c r="J112" s="57"/>
+      <c r="K112" s="36"/>
+      <c r="L112" s="36"/>
+      <c r="M112" s="36"/>
+      <c r="N112" s="36"/>
+      <c r="O112" s="64"/>
+    </row>
+    <row r="113" s="4" customFormat="1" spans="1:15">
+      <c r="A113" s="75"/>
+      <c r="B113" s="75"/>
+      <c r="C113" s="81"/>
+      <c r="D113" s="107"/>
+      <c r="E113" s="75"/>
+      <c r="F113" s="113"/>
+      <c r="G113" s="75"/>
+      <c r="H113" s="75"/>
+      <c r="I113" s="59"/>
+      <c r="J113" s="57"/>
+      <c r="K113" s="36"/>
+      <c r="L113" s="36"/>
+      <c r="M113" s="36"/>
+      <c r="N113" s="36"/>
+      <c r="O113" s="64"/>
+    </row>
+    <row r="114" spans="1:15">
+      <c r="A114" s="75"/>
+      <c r="B114" s="109"/>
+      <c r="C114" s="106" t="s">
+        <v>221</v>
+      </c>
+      <c r="D114" s="108"/>
+      <c r="E114" s="81"/>
+      <c r="F114" s="114"/>
+      <c r="G114" s="81"/>
+      <c r="H114" s="81"/>
+      <c r="I114" s="116"/>
+      <c r="J114" s="57"/>
+      <c r="K114" s="52"/>
+      <c r="L114" s="52"/>
+      <c r="M114" s="52"/>
+      <c r="N114" s="52"/>
+      <c r="O114" s="58"/>
+    </row>
+    <row r="115" spans="1:15">
+      <c r="A115" s="21"/>
+      <c r="B115" s="22"/>
+      <c r="C115" s="22"/>
+      <c r="D115" s="22"/>
+      <c r="E115" s="22"/>
+      <c r="F115" s="22"/>
+      <c r="G115" s="22"/>
+      <c r="H115" s="22"/>
+      <c r="I115" s="80" t="s">
         <v>109</v>
       </c>
-      <c r="J102" s="88">
-        <f>SUM(J77:J81)</f>
+      <c r="J115" s="85">
+        <f>SUM(J90:J94)</f>
         <v>0.3</v>
       </c>
-      <c r="K102" s="9"/>
-      <c r="L102" s="9"/>
-      <c r="M102" s="9"/>
-      <c r="N102" s="9"/>
-      <c r="O102" s="58"/>
-    </row>
-    <row r="103" spans="1:15">
-      <c r="A103" s="23"/>
-      <c r="B103" s="9"/>
-      <c r="C103" s="9"/>
-      <c r="D103" s="9"/>
-      <c r="E103" s="9"/>
-      <c r="F103" s="9"/>
-      <c r="G103" s="9"/>
-      <c r="H103" s="9"/>
-      <c r="I103" s="9"/>
-      <c r="J103" s="9"/>
-      <c r="K103" s="9"/>
-      <c r="L103" s="9"/>
-      <c r="M103" s="9"/>
-      <c r="N103" s="9"/>
-      <c r="O103" s="58"/>
-    </row>
-    <row r="104" spans="1:15">
-      <c r="A104" s="74" t="s">
+      <c r="K115" s="9"/>
+      <c r="L115" s="9"/>
+      <c r="M115" s="9"/>
+      <c r="N115" s="9"/>
+      <c r="O115" s="58"/>
+    </row>
+    <row r="116" spans="1:15">
+      <c r="A116" s="23"/>
+      <c r="B116" s="9"/>
+      <c r="C116" s="9"/>
+      <c r="D116" s="9"/>
+      <c r="E116" s="9"/>
+      <c r="F116" s="9"/>
+      <c r="G116" s="9"/>
+      <c r="H116" s="9"/>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c r="L116" s="9"/>
+      <c r="M116" s="9"/>
+      <c r="N116" s="9"/>
+      <c r="O116" s="58"/>
+    </row>
+    <row r="117" spans="1:15">
+      <c r="A117" s="74" t="s">
         <v>106</v>
       </c>
-      <c r="B104" s="74" t="s">
-        <v>211</v>
-      </c>
-      <c r="C104" s="74" t="s">
+      <c r="B117" s="74" t="s">
+        <v>234</v>
+      </c>
+      <c r="C117" s="74" t="s">
         <v>111</v>
       </c>
-      <c r="D104" s="74" t="s">
+      <c r="D117" s="74" t="s">
         <v>112</v>
       </c>
-      <c r="E104" s="74" t="s">
-        <v>187</v>
-      </c>
-      <c r="F104" s="74" t="s">
+      <c r="E117" s="74" t="s">
+        <v>189</v>
+      </c>
+      <c r="F117" s="74" t="s">
         <v>82</v>
       </c>
-      <c r="G104" s="74" t="s">
-        <v>212</v>
-      </c>
-      <c r="H104" s="74" t="s">
-        <v>213</v>
-      </c>
-      <c r="I104" s="74" t="s">
+      <c r="G117" s="74" t="s">
+        <v>235</v>
+      </c>
+      <c r="H117" s="74" t="s">
+        <v>236</v>
+      </c>
+      <c r="I117" s="74" t="s">
         <v>109</v>
       </c>
-      <c r="J104" s="22"/>
-      <c r="K104" s="9"/>
-      <c r="L104" s="9"/>
-      <c r="M104" s="9"/>
-      <c r="N104" s="9"/>
-      <c r="O104" s="58"/>
-    </row>
-    <row r="105" spans="1:15">
-      <c r="A105" s="75">
+      <c r="J117" s="22"/>
+      <c r="K117" s="9"/>
+      <c r="L117" s="9"/>
+      <c r="M117" s="9"/>
+      <c r="N117" s="9"/>
+      <c r="O117" s="58"/>
+    </row>
+    <row r="118" spans="1:15">
+      <c r="A118" s="75">
         <v>10</v>
       </c>
-      <c r="B105" s="75" t="s">
-        <v>214</v>
-      </c>
-      <c r="C105" s="75" t="s">
-        <v>215</v>
-      </c>
-      <c r="D105" s="57">
+      <c r="B118" s="75" t="s">
+        <v>237</v>
+      </c>
+      <c r="C118" s="75" t="s">
+        <v>238</v>
+      </c>
+      <c r="D118" s="57">
         <v>500</v>
       </c>
-      <c r="E105" s="75" t="s">
-        <v>216</v>
-      </c>
-      <c r="F105" s="75">
-        <v>11</v>
-      </c>
-      <c r="G105" s="75">
+      <c r="E118" s="75" t="s">
+        <v>239</v>
+      </c>
+      <c r="F118" s="75">
+        <v>12</v>
+      </c>
+      <c r="G118" s="75">
         <v>3000</v>
       </c>
-      <c r="H105" s="75">
+      <c r="H118" s="75">
         <v>1</v>
       </c>
-      <c r="I105" s="57">
-        <f>D105*F105/G105*H105</f>
-        <v>1.83333333333333</v>
-      </c>
-      <c r="J105" s="22"/>
-      <c r="K105" s="9"/>
-      <c r="L105" s="9"/>
-      <c r="M105" s="9"/>
-      <c r="N105" s="9"/>
-      <c r="O105" s="58"/>
-    </row>
-    <row r="106" spans="1:15">
-      <c r="A106" s="111"/>
-      <c r="B106" s="111"/>
-      <c r="C106" s="111"/>
-      <c r="D106" s="111"/>
-      <c r="E106" s="111"/>
-      <c r="F106" s="111"/>
-      <c r="G106" s="111"/>
-      <c r="H106" s="111"/>
-      <c r="I106" s="111"/>
-      <c r="J106" s="36"/>
-      <c r="K106" s="9"/>
-      <c r="L106" s="9"/>
-      <c r="M106" s="9"/>
-      <c r="N106" s="9"/>
-      <c r="O106" s="58"/>
-    </row>
-    <row r="107" spans="1:15">
-      <c r="A107" s="21"/>
-      <c r="B107" s="22"/>
-      <c r="C107" s="22"/>
-      <c r="D107" s="22"/>
-      <c r="E107" s="22"/>
-      <c r="F107" s="22"/>
-      <c r="G107" s="22"/>
-      <c r="H107" s="115" t="s">
+      <c r="I118" s="57">
+        <f>D118*F118/G118*H118</f>
+        <v>2</v>
+      </c>
+      <c r="J118" s="22"/>
+      <c r="K118" s="9"/>
+      <c r="L118" s="9"/>
+      <c r="M118" s="9"/>
+      <c r="N118" s="9"/>
+      <c r="O118" s="58"/>
+    </row>
+    <row r="119" spans="1:15">
+      <c r="A119" s="110"/>
+      <c r="B119" s="110"/>
+      <c r="C119" s="110"/>
+      <c r="D119" s="110"/>
+      <c r="E119" s="110"/>
+      <c r="F119" s="110"/>
+      <c r="G119" s="110"/>
+      <c r="H119" s="110"/>
+      <c r="I119" s="110"/>
+      <c r="J119" s="36"/>
+      <c r="K119" s="9"/>
+      <c r="L119" s="9"/>
+      <c r="M119" s="9"/>
+      <c r="N119" s="9"/>
+      <c r="O119" s="58"/>
+    </row>
+    <row r="120" spans="1:15">
+      <c r="A120" s="21"/>
+      <c r="B120" s="22"/>
+      <c r="C120" s="22"/>
+      <c r="D120" s="22"/>
+      <c r="E120" s="22"/>
+      <c r="F120" s="22"/>
+      <c r="G120" s="22"/>
+      <c r="H120" s="115" t="s">
         <v>109</v>
       </c>
-      <c r="I107" s="118">
-        <f>SUM(I105:I106)</f>
-        <v>1.83333333333333</v>
-      </c>
-      <c r="J107" s="22"/>
-      <c r="K107" s="9"/>
-      <c r="L107" s="9"/>
-      <c r="M107" s="9"/>
-      <c r="N107" s="9"/>
-      <c r="O107" s="58"/>
-    </row>
-    <row r="108" ht="13.5" spans="1:15">
-      <c r="A108" s="37"/>
-      <c r="B108" s="38"/>
-      <c r="C108" s="38"/>
-      <c r="D108" s="38"/>
-      <c r="E108" s="38"/>
-      <c r="F108" s="38"/>
-      <c r="G108" s="38"/>
-      <c r="H108" s="38"/>
-      <c r="I108" s="38"/>
-      <c r="J108" s="38"/>
-      <c r="K108" s="38"/>
-      <c r="L108" s="38"/>
-      <c r="M108" s="38"/>
-      <c r="N108" s="38"/>
-      <c r="O108" s="65"/>
-    </row>
-    <row r="109" spans="1:14">
-      <c r="A109" s="9"/>
-      <c r="B109" s="9"/>
-      <c r="C109" s="9"/>
-      <c r="D109" s="9"/>
-      <c r="E109" s="9"/>
-      <c r="F109" s="9"/>
-      <c r="G109" s="9"/>
-      <c r="H109" s="9"/>
-      <c r="I109" s="9"/>
-      <c r="J109" s="9"/>
-      <c r="K109" s="9"/>
-      <c r="L109" s="9"/>
-      <c r="M109" s="9"/>
-      <c r="N109" s="9"/>
+      <c r="I120" s="118">
+        <f>SUM(I118:I119)</f>
+        <v>2</v>
+      </c>
+      <c r="J120" s="22"/>
+      <c r="K120" s="9"/>
+      <c r="L120" s="9"/>
+      <c r="M120" s="9"/>
+      <c r="N120" s="9"/>
+      <c r="O120" s="58"/>
+    </row>
+    <row r="121" ht="13.5" spans="1:15">
+      <c r="A121" s="37"/>
+      <c r="B121" s="38"/>
+      <c r="C121" s="38"/>
+      <c r="D121" s="38"/>
+      <c r="E121" s="38"/>
+      <c r="F121" s="38"/>
+      <c r="G121" s="38"/>
+      <c r="H121" s="38"/>
+      <c r="I121" s="38"/>
+      <c r="J121" s="38"/>
+      <c r="K121" s="38"/>
+      <c r="L121" s="38"/>
+      <c r="M121" s="38"/>
+      <c r="N121" s="38"/>
+      <c r="O121" s="65"/>
+    </row>
+    <row r="122" spans="1:14">
+      <c r="A122" s="9"/>
+      <c r="B122" s="9"/>
+      <c r="C122" s="9"/>
+      <c r="D122" s="9"/>
+      <c r="E122" s="9"/>
+      <c r="F122" s="9"/>
+      <c r="G122" s="9"/>
+      <c r="H122" s="9"/>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+      <c r="L122" s="9"/>
+      <c r="M122" s="9"/>
+      <c r="N122" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -12882,7 +13345,7 @@
     <oddFooter>&amp;C&amp;P</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="108" max="16383" man="1"/>
+    <brk id="121" max="16383" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
@@ -12975,7 +13438,7 @@
         <v>98</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>217</v>
+        <v>240</v>
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
@@ -13023,7 +13486,7 @@
         <v>107</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>218</v>
+        <v>241</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="7" t="s">
@@ -13053,7 +13516,7 @@
         <v>99</v>
       </c>
       <c r="B6" s="67" t="s">
-        <v>219</v>
+        <v>242</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -13097,7 +13560,7 @@
         <v>105</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -13180,10 +13643,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>222</v>
+        <v>245</v>
       </c>
       <c r="D11" s="20">
         <v>2.25</v>
@@ -13192,16 +13655,16 @@
         <v>20</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>202</v>
+        <v>225</v>
       </c>
       <c r="G11" s="19">
         <v>18</v>
       </c>
       <c r="H11" s="39" t="s">
-        <v>202</v>
+        <v>225</v>
       </c>
       <c r="I11" s="47" t="s">
-        <v>223</v>
+        <v>246</v>
       </c>
       <c r="J11" s="48">
         <f>(E11*10^-3)*(G11*10^-3)</f>
@@ -13266,7 +13729,7 @@
         <v>106</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C14" s="25" t="s">
         <v>111</v>
@@ -13275,16 +13738,16 @@
         <v>112</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F14" s="25" t="s">
         <v>82</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I14" s="25" t="s">
         <v>109</v>
@@ -13301,10 +13764,10 @@
         <v>10</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>224</v>
+        <v>247</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>225</v>
+        <v>248</v>
       </c>
       <c r="D15" s="29">
         <v>1.3</v>
@@ -13316,7 +13779,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="71" t="s">
-        <v>226</v>
+        <v>249</v>
       </c>
       <c r="H15" s="71">
         <v>0.5</v>
@@ -13337,22 +13800,22 @@
         <v>20</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>227</v>
+        <v>250</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>228</v>
+        <v>251</v>
       </c>
       <c r="D16" s="20">
         <v>0.01</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F16" s="72">
         <v>7.23</v>
       </c>
       <c r="G16" s="27" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="H16" s="33">
         <v>2.5</v>
@@ -13463,7 +13926,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="66" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="B1" s="66" t="str">
         <f>EL_01001</f>
@@ -13572,7 +14035,7 @@
         <v>98</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>217</v>
+        <v>240</v>
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
@@ -13620,7 +14083,7 @@
         <v>107</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="7" t="s">
@@ -13650,7 +14113,7 @@
         <v>99</v>
       </c>
       <c r="B6" s="67" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -13694,7 +14157,7 @@
         <v>105</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -13777,10 +14240,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>222</v>
+        <v>245</v>
       </c>
       <c r="D11" s="20">
         <v>2.25</v>
@@ -13789,16 +14252,16 @@
         <v>13</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>202</v>
+        <v>225</v>
       </c>
       <c r="G11" s="19">
         <v>15</v>
       </c>
       <c r="H11" s="39" t="s">
-        <v>202</v>
+        <v>225</v>
       </c>
       <c r="I11" s="47" t="s">
-        <v>223</v>
+        <v>246</v>
       </c>
       <c r="J11" s="48">
         <f>(E11*10^-3)*(G11*10^-3)</f>
@@ -13863,7 +14326,7 @@
         <v>106</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C14" s="25" t="s">
         <v>111</v>
@@ -13872,16 +14335,16 @@
         <v>112</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F14" s="25" t="s">
         <v>82</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I14" s="25" t="s">
         <v>109</v>
@@ -13898,10 +14361,10 @@
         <v>10</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>224</v>
+        <v>247</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>225</v>
+        <v>248</v>
       </c>
       <c r="D15" s="29">
         <v>1.3</v>
@@ -13913,7 +14376,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="71" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="H15" s="71">
         <f>1/3</f>
@@ -13935,20 +14398,20 @@
         <v>20</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>227</v>
+        <v>250</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>228</v>
+        <v>251</v>
       </c>
       <c r="D16" s="20">
         <v>0.01</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F16" s="70"/>
       <c r="G16" s="27" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="H16" s="33">
         <v>2.5</v>
@@ -14058,7 +14521,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="66" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="B1" s="66" t="str">
         <f>EL_01002</f>
@@ -14166,7 +14629,7 @@
         <v>98</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>217</v>
+        <v>240</v>
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
@@ -14214,7 +14677,7 @@
         <v>107</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="7" t="s">
@@ -14244,7 +14707,7 @@
         <v>99</v>
       </c>
       <c r="B6" s="67" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -14288,7 +14751,7 @@
         <v>105</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -14371,10 +14834,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>222</v>
+        <v>245</v>
       </c>
       <c r="D11" s="20">
         <v>2.25</v>
@@ -14383,16 +14846,16 @@
         <v>10</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>202</v>
+        <v>225</v>
       </c>
       <c r="G11" s="19">
         <v>20</v>
       </c>
       <c r="H11" s="39" t="s">
-        <v>202</v>
+        <v>225</v>
       </c>
       <c r="I11" s="47" t="s">
-        <v>223</v>
+        <v>246</v>
       </c>
       <c r="J11" s="48">
         <f>(E11*10^-3)*(G11*10^-3)</f>
@@ -14457,7 +14920,7 @@
         <v>106</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C14" s="25" t="s">
         <v>111</v>
@@ -14466,16 +14929,16 @@
         <v>112</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F14" s="25" t="s">
         <v>82</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I14" s="25" t="s">
         <v>109</v>
@@ -14492,10 +14955,10 @@
         <v>10</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>224</v>
+        <v>247</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>225</v>
+        <v>248</v>
       </c>
       <c r="D15" s="29">
         <v>1.3</v>
@@ -14507,7 +14970,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="71" t="s">
-        <v>226</v>
+        <v>249</v>
       </c>
       <c r="H15" s="71">
         <v>0.5</v>
@@ -14528,22 +14991,22 @@
         <v>20</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>227</v>
+        <v>250</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>228</v>
+        <v>251</v>
       </c>
       <c r="D16" s="20">
         <v>0.01</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F16" s="72">
         <v>5.5</v>
       </c>
       <c r="G16" s="27" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="H16" s="33">
         <v>2.5</v>
@@ -14654,7 +15117,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="66" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="B1" s="66" t="str">
         <f>EL_01003</f>
